--- a/pAd/bin/Debug/Data/SPINRANGES.xlsx
+++ b/pAd/bin/Debug/Data/SPINRANGES.xlsx
@@ -2587,44 +2587,11 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2641,16 +2608,61 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,22 +2671,10 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3051,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BO83" sqref="BO83"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC62" sqref="AC62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3062,70 +3062,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="303"/>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="303"/>
-      <c r="S1" s="303"/>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="303"/>
-      <c r="AA1" s="303"/>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="303"/>
+      <c r="A1" s="298"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="298"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
     </row>
     <row r="17" spans="1:94" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="303" t="s">
+      <c r="A17" s="298" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="303"/>
-      <c r="C17" s="303"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
-      <c r="J17" s="303"/>
-      <c r="K17" s="303"/>
-      <c r="L17" s="303"/>
-      <c r="M17" s="303"/>
-      <c r="N17" s="303"/>
-      <c r="O17" s="303"/>
-      <c r="P17" s="303"/>
-      <c r="Q17" s="303"/>
-      <c r="R17" s="303"/>
-      <c r="S17" s="303"/>
-      <c r="T17" s="303"/>
-      <c r="U17" s="303"/>
-      <c r="V17" s="303"/>
-      <c r="W17" s="303"/>
-      <c r="X17" s="303"/>
-      <c r="Y17" s="303"/>
-      <c r="Z17" s="303"/>
-      <c r="AA17" s="303"/>
-      <c r="AB17" s="303"/>
-      <c r="AC17" s="303"/>
-      <c r="AD17" s="303"/>
+      <c r="B17" s="298"/>
+      <c r="C17" s="298"/>
+      <c r="D17" s="298"/>
+      <c r="E17" s="298"/>
+      <c r="F17" s="298"/>
+      <c r="G17" s="298"/>
+      <c r="H17" s="298"/>
+      <c r="I17" s="298"/>
+      <c r="J17" s="298"/>
+      <c r="K17" s="298"/>
+      <c r="L17" s="298"/>
+      <c r="M17" s="298"/>
+      <c r="N17" s="298"/>
+      <c r="O17" s="298"/>
+      <c r="P17" s="298"/>
+      <c r="Q17" s="298"/>
+      <c r="R17" s="298"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="298"/>
+      <c r="V17" s="298"/>
+      <c r="W17" s="298"/>
+      <c r="X17" s="298"/>
+      <c r="Y17" s="298"/>
+      <c r="Z17" s="298"/>
+      <c r="AA17" s="298"/>
+      <c r="AB17" s="298"/>
+      <c r="AC17" s="298"/>
+      <c r="AD17" s="298"/>
       <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
@@ -3192,70 +3192,70 @@
       <c r="CP17" s="66"/>
     </row>
     <row r="18" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="317" t="s">
+      <c r="A18" s="314" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="317"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="317"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="317"/>
-      <c r="H18" s="317"/>
-      <c r="I18" s="317"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="317"/>
-      <c r="L18" s="317"/>
-      <c r="M18" s="317"/>
-      <c r="N18" s="317"/>
-      <c r="P18" s="317" t="s">
+      <c r="B18" s="314"/>
+      <c r="C18" s="314"/>
+      <c r="D18" s="314"/>
+      <c r="E18" s="314"/>
+      <c r="F18" s="314"/>
+      <c r="G18" s="314"/>
+      <c r="H18" s="314"/>
+      <c r="I18" s="314"/>
+      <c r="J18" s="314"/>
+      <c r="K18" s="314"/>
+      <c r="L18" s="314"/>
+      <c r="M18" s="314"/>
+      <c r="N18" s="314"/>
+      <c r="P18" s="314" t="s">
         <v>246</v>
       </c>
-      <c r="Q18" s="317"/>
-      <c r="R18" s="317"/>
-      <c r="S18" s="317"/>
-      <c r="T18" s="317"/>
-      <c r="U18" s="317"/>
-      <c r="V18" s="317"/>
-      <c r="W18" s="317"/>
-      <c r="X18" s="317"/>
-      <c r="Y18" s="317"/>
-      <c r="Z18" s="317"/>
-      <c r="AA18" s="317"/>
-      <c r="AB18" s="317"/>
-      <c r="AC18" s="317"/>
-      <c r="AE18" s="319" t="s">
+      <c r="Q18" s="314"/>
+      <c r="R18" s="314"/>
+      <c r="S18" s="314"/>
+      <c r="T18" s="314"/>
+      <c r="U18" s="314"/>
+      <c r="V18" s="314"/>
+      <c r="W18" s="314"/>
+      <c r="X18" s="314"/>
+      <c r="Y18" s="314"/>
+      <c r="Z18" s="314"/>
+      <c r="AA18" s="314"/>
+      <c r="AB18" s="314"/>
+      <c r="AC18" s="314"/>
+      <c r="AE18" s="305" t="s">
         <v>247</v>
       </c>
-      <c r="AF18" s="319"/>
-      <c r="AG18" s="319"/>
-      <c r="AH18" s="319"/>
-      <c r="AI18" s="319"/>
-      <c r="AJ18" s="319"/>
-      <c r="AK18" s="319"/>
-      <c r="AL18" s="319"/>
-      <c r="AM18" s="319"/>
-      <c r="AN18" s="319"/>
-      <c r="AO18" s="319"/>
-      <c r="AP18" s="319"/>
-      <c r="AQ18" s="319"/>
-      <c r="AR18" s="319"/>
-      <c r="AT18" s="304" t="s">
+      <c r="AF18" s="305"/>
+      <c r="AG18" s="305"/>
+      <c r="AH18" s="305"/>
+      <c r="AI18" s="305"/>
+      <c r="AJ18" s="305"/>
+      <c r="AK18" s="305"/>
+      <c r="AL18" s="305"/>
+      <c r="AM18" s="305"/>
+      <c r="AN18" s="305"/>
+      <c r="AO18" s="305"/>
+      <c r="AP18" s="305"/>
+      <c r="AQ18" s="305"/>
+      <c r="AR18" s="305"/>
+      <c r="AT18" s="313" t="s">
         <v>248</v>
       </c>
-      <c r="AU18" s="304"/>
-      <c r="AV18" s="304"/>
-      <c r="AW18" s="304"/>
-      <c r="AX18" s="304"/>
-      <c r="AY18" s="304"/>
-      <c r="AZ18" s="304"/>
-      <c r="BA18" s="304"/>
-      <c r="BB18" s="304"/>
-      <c r="BC18" s="304"/>
-      <c r="BD18" s="304"/>
-      <c r="BE18" s="304"/>
-      <c r="BF18" s="304"/>
-      <c r="BG18" s="304"/>
+      <c r="AU18" s="313"/>
+      <c r="AV18" s="313"/>
+      <c r="AW18" s="313"/>
+      <c r="AX18" s="313"/>
+      <c r="AY18" s="313"/>
+      <c r="AZ18" s="313"/>
+      <c r="BA18" s="313"/>
+      <c r="BB18" s="313"/>
+      <c r="BC18" s="313"/>
+      <c r="BD18" s="313"/>
+      <c r="BE18" s="313"/>
+      <c r="BF18" s="313"/>
+      <c r="BG18" s="313"/>
     </row>
     <row r="19" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -5631,38 +5631,38 @@
     </row>
     <row r="33" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="317" t="s">
+      <c r="P34" s="314" t="s">
         <v>250</v>
       </c>
-      <c r="Q34" s="317"/>
-      <c r="R34" s="317"/>
-      <c r="S34" s="317"/>
-      <c r="T34" s="317"/>
-      <c r="U34" s="317"/>
-      <c r="V34" s="317"/>
-      <c r="W34" s="317"/>
-      <c r="X34" s="317"/>
-      <c r="Y34" s="317"/>
-      <c r="Z34" s="317"/>
-      <c r="AA34" s="317"/>
-      <c r="AB34" s="317"/>
-      <c r="AC34" s="317"/>
-      <c r="AE34" s="319" t="s">
+      <c r="Q34" s="314"/>
+      <c r="R34" s="314"/>
+      <c r="S34" s="314"/>
+      <c r="T34" s="314"/>
+      <c r="U34" s="314"/>
+      <c r="V34" s="314"/>
+      <c r="W34" s="314"/>
+      <c r="X34" s="314"/>
+      <c r="Y34" s="314"/>
+      <c r="Z34" s="314"/>
+      <c r="AA34" s="314"/>
+      <c r="AB34" s="314"/>
+      <c r="AC34" s="314"/>
+      <c r="AE34" s="305" t="s">
         <v>249</v>
       </c>
-      <c r="AF34" s="319"/>
-      <c r="AG34" s="319"/>
-      <c r="AH34" s="319"/>
-      <c r="AI34" s="319"/>
-      <c r="AJ34" s="319"/>
-      <c r="AK34" s="319"/>
-      <c r="AL34" s="319"/>
-      <c r="AM34" s="319"/>
-      <c r="AN34" s="319"/>
-      <c r="AO34" s="319"/>
-      <c r="AP34" s="319"/>
-      <c r="AQ34" s="319"/>
-      <c r="AR34" s="319"/>
+      <c r="AF34" s="305"/>
+      <c r="AG34" s="305"/>
+      <c r="AH34" s="305"/>
+      <c r="AI34" s="305"/>
+      <c r="AJ34" s="305"/>
+      <c r="AK34" s="305"/>
+      <c r="AL34" s="305"/>
+      <c r="AM34" s="305"/>
+      <c r="AN34" s="305"/>
+      <c r="AO34" s="305"/>
+      <c r="AP34" s="305"/>
+      <c r="AQ34" s="305"/>
+      <c r="AR34" s="305"/>
       <c r="AT34" s="318" t="s">
         <v>138</v>
       </c>
@@ -7545,111 +7545,111 @@
       <c r="BW50" s="66"/>
     </row>
     <row r="51" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P51" s="323" t="s">
+      <c r="P51" s="315" t="s">
         <v>283</v>
       </c>
-      <c r="Q51" s="323"/>
-      <c r="R51" s="323"/>
-      <c r="S51" s="323"/>
-      <c r="T51" s="323"/>
-      <c r="U51" s="323"/>
-      <c r="V51" s="323"/>
-      <c r="W51" s="323"/>
-      <c r="X51" s="323"/>
-      <c r="Y51" s="323"/>
-      <c r="Z51" s="323"/>
-      <c r="AA51" s="323"/>
-      <c r="AB51" s="323"/>
-      <c r="AC51" s="323"/>
-      <c r="AD51" s="323"/>
-      <c r="AE51" s="323"/>
-      <c r="AF51" s="323"/>
-      <c r="AG51" s="323"/>
-      <c r="AH51" s="323"/>
-      <c r="AI51" s="323"/>
-      <c r="AJ51" s="323"/>
-      <c r="AK51" s="323"/>
-      <c r="AL51" s="323"/>
-      <c r="AM51" s="323"/>
-      <c r="AN51" s="323"/>
-      <c r="AO51" s="323"/>
-      <c r="AP51" s="323"/>
-      <c r="AQ51" s="323"/>
-      <c r="AR51" s="323"/>
-      <c r="AS51" s="323"/>
-      <c r="AT51" s="323"/>
-      <c r="AU51" s="323"/>
-      <c r="AV51" s="323"/>
-      <c r="AW51" s="323"/>
-      <c r="AX51" s="323"/>
+      <c r="Q51" s="315"/>
+      <c r="R51" s="315"/>
+      <c r="S51" s="315"/>
+      <c r="T51" s="315"/>
+      <c r="U51" s="315"/>
+      <c r="V51" s="315"/>
+      <c r="W51" s="315"/>
+      <c r="X51" s="315"/>
+      <c r="Y51" s="315"/>
+      <c r="Z51" s="315"/>
+      <c r="AA51" s="315"/>
+      <c r="AB51" s="315"/>
+      <c r="AC51" s="315"/>
+      <c r="AD51" s="315"/>
+      <c r="AE51" s="315"/>
+      <c r="AF51" s="315"/>
+      <c r="AG51" s="315"/>
+      <c r="AH51" s="315"/>
+      <c r="AI51" s="315"/>
+      <c r="AJ51" s="315"/>
+      <c r="AK51" s="315"/>
+      <c r="AL51" s="315"/>
+      <c r="AM51" s="315"/>
+      <c r="AN51" s="315"/>
+      <c r="AO51" s="315"/>
+      <c r="AP51" s="315"/>
+      <c r="AQ51" s="315"/>
+      <c r="AR51" s="315"/>
+      <c r="AS51" s="315"/>
+      <c r="AT51" s="315"/>
+      <c r="AU51" s="315"/>
+      <c r="AV51" s="315"/>
+      <c r="AW51" s="315"/>
+      <c r="AX51" s="315"/>
     </row>
     <row r="52" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="316" t="s">
+      <c r="A52" s="306" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="316"/>
-      <c r="C52" s="316"/>
-      <c r="D52" s="316"/>
-      <c r="E52" s="316"/>
-      <c r="F52" s="316"/>
-      <c r="G52" s="316"/>
-      <c r="H52" s="316"/>
-      <c r="I52" s="316"/>
-      <c r="J52" s="316"/>
-      <c r="K52" s="316"/>
-      <c r="L52" s="316"/>
-      <c r="M52" s="316"/>
-      <c r="N52" s="316"/>
-      <c r="P52" s="327" t="s">
+      <c r="B52" s="306"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="306"/>
+      <c r="E52" s="306"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="306"/>
+      <c r="H52" s="306"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="306"/>
+      <c r="K52" s="306"/>
+      <c r="L52" s="306"/>
+      <c r="M52" s="306"/>
+      <c r="N52" s="306"/>
+      <c r="P52" s="309" t="s">
         <v>200</v>
       </c>
-      <c r="Q52" s="327"/>
-      <c r="R52" s="327"/>
-      <c r="S52" s="327"/>
-      <c r="T52" s="327"/>
-      <c r="U52" s="327"/>
-      <c r="V52" s="327"/>
-      <c r="W52" s="327"/>
-      <c r="X52" s="327"/>
-      <c r="Y52" s="327"/>
-      <c r="Z52" s="327"/>
-      <c r="AA52" s="327"/>
-      <c r="AB52" s="327"/>
-      <c r="AC52" s="327"/>
+      <c r="Q52" s="309"/>
+      <c r="R52" s="309"/>
+      <c r="S52" s="309"/>
+      <c r="T52" s="309"/>
+      <c r="U52" s="309"/>
+      <c r="V52" s="309"/>
+      <c r="W52" s="309"/>
+      <c r="X52" s="309"/>
+      <c r="Y52" s="309"/>
+      <c r="Z52" s="309"/>
+      <c r="AA52" s="309"/>
+      <c r="AB52" s="309"/>
+      <c r="AC52" s="309"/>
       <c r="AD52" s="107"/>
-      <c r="AE52" s="327" t="s">
+      <c r="AE52" s="309" t="s">
         <v>201</v>
       </c>
-      <c r="AF52" s="327"/>
-      <c r="AG52" s="327"/>
-      <c r="AH52" s="327"/>
-      <c r="AI52" s="327"/>
-      <c r="AJ52" s="327"/>
-      <c r="AK52" s="327"/>
-      <c r="AL52" s="327"/>
-      <c r="AM52" s="327"/>
-      <c r="AN52" s="327"/>
-      <c r="AO52" s="327"/>
-      <c r="AP52" s="327"/>
-      <c r="AQ52" s="327"/>
-      <c r="AR52" s="327"/>
+      <c r="AF52" s="309"/>
+      <c r="AG52" s="309"/>
+      <c r="AH52" s="309"/>
+      <c r="AI52" s="309"/>
+      <c r="AJ52" s="309"/>
+      <c r="AK52" s="309"/>
+      <c r="AL52" s="309"/>
+      <c r="AM52" s="309"/>
+      <c r="AN52" s="309"/>
+      <c r="AO52" s="309"/>
+      <c r="AP52" s="309"/>
+      <c r="AQ52" s="309"/>
+      <c r="AR52" s="309"/>
       <c r="AS52" s="108"/>
-      <c r="AT52" s="327" t="s">
+      <c r="AT52" s="309" t="s">
         <v>202</v>
       </c>
-      <c r="AU52" s="327"/>
-      <c r="AV52" s="327"/>
-      <c r="AW52" s="327"/>
-      <c r="AX52" s="327"/>
-      <c r="AY52" s="327"/>
-      <c r="AZ52" s="327"/>
-      <c r="BA52" s="327"/>
-      <c r="BB52" s="327"/>
-      <c r="BC52" s="327"/>
-      <c r="BD52" s="327"/>
-      <c r="BE52" s="327"/>
-      <c r="BF52" s="327"/>
-      <c r="BG52" s="327"/>
+      <c r="AU52" s="309"/>
+      <c r="AV52" s="309"/>
+      <c r="AW52" s="309"/>
+      <c r="AX52" s="309"/>
+      <c r="AY52" s="309"/>
+      <c r="AZ52" s="309"/>
+      <c r="BA52" s="309"/>
+      <c r="BB52" s="309"/>
+      <c r="BC52" s="309"/>
+      <c r="BD52" s="309"/>
+      <c r="BE52" s="309"/>
+      <c r="BF52" s="309"/>
+      <c r="BG52" s="309"/>
     </row>
     <row r="53" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
@@ -7814,22 +7814,22 @@
       <c r="BG53" s="4">
         <v>2</v>
       </c>
-      <c r="BI53" s="304" t="s">
+      <c r="BI53" s="313" t="s">
         <v>164</v>
       </c>
-      <c r="BJ53" s="304"/>
-      <c r="BK53" s="304"/>
-      <c r="BL53" s="304"/>
-      <c r="BM53" s="304"/>
-      <c r="BN53" s="304"/>
-      <c r="BO53" s="304"/>
-      <c r="BP53" s="304"/>
-      <c r="BQ53" s="304"/>
-      <c r="BR53" s="304"/>
-      <c r="BS53" s="304"/>
-      <c r="BT53" s="304"/>
-      <c r="BU53" s="304"/>
-      <c r="BV53" s="304"/>
+      <c r="BJ53" s="313"/>
+      <c r="BK53" s="313"/>
+      <c r="BL53" s="313"/>
+      <c r="BM53" s="313"/>
+      <c r="BN53" s="313"/>
+      <c r="BO53" s="313"/>
+      <c r="BP53" s="313"/>
+      <c r="BQ53" s="313"/>
+      <c r="BR53" s="313"/>
+      <c r="BS53" s="313"/>
+      <c r="BT53" s="313"/>
+      <c r="BU53" s="313"/>
+      <c r="BV53" s="313"/>
     </row>
     <row r="54" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
@@ -10607,31 +10607,31 @@
       </c>
     </row>
     <row r="67" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="311" t="s">
+      <c r="A67" s="300" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="311"/>
-      <c r="C67" s="311"/>
-      <c r="D67" s="312" t="s">
+      <c r="B67" s="300"/>
+      <c r="C67" s="300"/>
+      <c r="D67" s="301" t="s">
         <v>193</v>
       </c>
-      <c r="E67" s="312"/>
-      <c r="F67" s="312"/>
-      <c r="G67" s="313" t="s">
+      <c r="E67" s="301"/>
+      <c r="F67" s="301"/>
+      <c r="G67" s="302" t="s">
         <v>194</v>
       </c>
-      <c r="H67" s="313"/>
-      <c r="I67" s="313"/>
-      <c r="J67" s="314" t="s">
+      <c r="H67" s="302"/>
+      <c r="I67" s="302"/>
+      <c r="J67" s="303" t="s">
         <v>195</v>
       </c>
-      <c r="K67" s="314"/>
-      <c r="L67" s="314"/>
-      <c r="M67" s="315" t="s">
+      <c r="K67" s="303"/>
+      <c r="L67" s="303"/>
+      <c r="M67" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="N67" s="315"/>
-      <c r="O67" s="315"/>
+      <c r="N67" s="304"/>
+      <c r="O67" s="304"/>
       <c r="BI67" s="12" t="s">
         <v>92</v>
       </c>
@@ -10676,153 +10676,153 @@
       </c>
     </row>
     <row r="68" spans="1:89" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BI68" s="311"/>
-      <c r="BJ68" s="311"/>
-      <c r="BK68" s="311"/>
-      <c r="BL68" s="312"/>
-      <c r="BM68" s="312"/>
-      <c r="BN68" s="312"/>
-      <c r="BO68" s="313"/>
-      <c r="BP68" s="313"/>
-      <c r="BQ68" s="313"/>
-      <c r="BR68" s="314"/>
-      <c r="BS68" s="314"/>
-      <c r="BT68" s="314"/>
-      <c r="BU68" s="315"/>
-      <c r="BV68" s="315"/>
-      <c r="BW68" s="315"/>
+      <c r="BI68" s="300"/>
+      <c r="BJ68" s="300"/>
+      <c r="BK68" s="300"/>
+      <c r="BL68" s="301"/>
+      <c r="BM68" s="301"/>
+      <c r="BN68" s="301"/>
+      <c r="BO68" s="302"/>
+      <c r="BP68" s="302"/>
+      <c r="BQ68" s="302"/>
+      <c r="BR68" s="303"/>
+      <c r="BS68" s="303"/>
+      <c r="BT68" s="303"/>
+      <c r="BU68" s="304"/>
+      <c r="BV68" s="304"/>
+      <c r="BW68" s="304"/>
     </row>
     <row r="69" spans="1:89" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="303" t="s">
+      <c r="A69" s="298" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="303"/>
-      <c r="C69" s="303"/>
-      <c r="D69" s="303"/>
-      <c r="E69" s="303"/>
-      <c r="F69" s="303"/>
-      <c r="G69" s="303"/>
-      <c r="H69" s="303"/>
-      <c r="I69" s="303"/>
-      <c r="J69" s="303"/>
-      <c r="K69" s="303"/>
-      <c r="L69" s="303"/>
-      <c r="M69" s="303"/>
-      <c r="N69" s="303"/>
-      <c r="O69" s="303"/>
-      <c r="P69" s="303"/>
-      <c r="Q69" s="303"/>
-      <c r="R69" s="303"/>
-      <c r="S69" s="303"/>
-      <c r="T69" s="303"/>
-      <c r="U69" s="303"/>
-      <c r="V69" s="303"/>
-      <c r="W69" s="303"/>
-      <c r="X69" s="303"/>
-      <c r="Y69" s="303"/>
-      <c r="Z69" s="303"/>
-      <c r="AA69" s="303"/>
-      <c r="AB69" s="303"/>
-      <c r="AC69" s="303"/>
-      <c r="AD69" s="303"/>
+      <c r="B69" s="298"/>
+      <c r="C69" s="298"/>
+      <c r="D69" s="298"/>
+      <c r="E69" s="298"/>
+      <c r="F69" s="298"/>
+      <c r="G69" s="298"/>
+      <c r="H69" s="298"/>
+      <c r="I69" s="298"/>
+      <c r="J69" s="298"/>
+      <c r="K69" s="298"/>
+      <c r="L69" s="298"/>
+      <c r="M69" s="298"/>
+      <c r="N69" s="298"/>
+      <c r="O69" s="298"/>
+      <c r="P69" s="298"/>
+      <c r="Q69" s="298"/>
+      <c r="R69" s="298"/>
+      <c r="S69" s="298"/>
+      <c r="T69" s="298"/>
+      <c r="U69" s="298"/>
+      <c r="V69" s="298"/>
+      <c r="W69" s="298"/>
+      <c r="X69" s="298"/>
+      <c r="Y69" s="298"/>
+      <c r="Z69" s="298"/>
+      <c r="AA69" s="298"/>
+      <c r="AB69" s="298"/>
+      <c r="AC69" s="298"/>
+      <c r="AD69" s="298"/>
     </row>
     <row r="70" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="316" t="s">
+      <c r="A70" s="306" t="s">
         <v>257</v>
       </c>
-      <c r="B70" s="316"/>
-      <c r="C70" s="316"/>
-      <c r="D70" s="316"/>
-      <c r="E70" s="316"/>
-      <c r="F70" s="316"/>
-      <c r="G70" s="316"/>
-      <c r="H70" s="316"/>
-      <c r="I70" s="316"/>
-      <c r="J70" s="316"/>
-      <c r="K70" s="316"/>
-      <c r="L70" s="316"/>
-      <c r="M70" s="316"/>
-      <c r="N70" s="316"/>
-      <c r="P70" s="304" t="s">
+      <c r="B70" s="306"/>
+      <c r="C70" s="306"/>
+      <c r="D70" s="306"/>
+      <c r="E70" s="306"/>
+      <c r="F70" s="306"/>
+      <c r="G70" s="306"/>
+      <c r="H70" s="306"/>
+      <c r="I70" s="306"/>
+      <c r="J70" s="306"/>
+      <c r="K70" s="306"/>
+      <c r="L70" s="306"/>
+      <c r="M70" s="306"/>
+      <c r="N70" s="306"/>
+      <c r="P70" s="313" t="s">
         <v>258</v>
       </c>
-      <c r="Q70" s="304"/>
-      <c r="R70" s="304"/>
-      <c r="S70" s="304"/>
-      <c r="T70" s="304"/>
-      <c r="U70" s="304"/>
-      <c r="V70" s="304"/>
-      <c r="W70" s="304"/>
-      <c r="X70" s="304"/>
-      <c r="Y70" s="304"/>
-      <c r="Z70" s="304"/>
-      <c r="AA70" s="304"/>
-      <c r="AB70" s="304"/>
-      <c r="AC70" s="304"/>
-      <c r="AE70" s="316" t="s">
+      <c r="Q70" s="313"/>
+      <c r="R70" s="313"/>
+      <c r="S70" s="313"/>
+      <c r="T70" s="313"/>
+      <c r="U70" s="313"/>
+      <c r="V70" s="313"/>
+      <c r="W70" s="313"/>
+      <c r="X70" s="313"/>
+      <c r="Y70" s="313"/>
+      <c r="Z70" s="313"/>
+      <c r="AA70" s="313"/>
+      <c r="AB70" s="313"/>
+      <c r="AC70" s="313"/>
+      <c r="AE70" s="306" t="s">
         <v>259</v>
       </c>
-      <c r="AF70" s="316"/>
-      <c r="AG70" s="316"/>
-      <c r="AH70" s="316"/>
-      <c r="AI70" s="316"/>
-      <c r="AJ70" s="316"/>
-      <c r="AK70" s="316"/>
-      <c r="AL70" s="316"/>
-      <c r="AM70" s="316"/>
-      <c r="AN70" s="316"/>
-      <c r="AO70" s="316"/>
-      <c r="AP70" s="316"/>
-      <c r="AQ70" s="316"/>
-      <c r="AR70" s="316"/>
-      <c r="AT70" s="316" t="s">
+      <c r="AF70" s="306"/>
+      <c r="AG70" s="306"/>
+      <c r="AH70" s="306"/>
+      <c r="AI70" s="306"/>
+      <c r="AJ70" s="306"/>
+      <c r="AK70" s="306"/>
+      <c r="AL70" s="306"/>
+      <c r="AM70" s="306"/>
+      <c r="AN70" s="306"/>
+      <c r="AO70" s="306"/>
+      <c r="AP70" s="306"/>
+      <c r="AQ70" s="306"/>
+      <c r="AR70" s="306"/>
+      <c r="AT70" s="306" t="s">
         <v>260</v>
       </c>
-      <c r="AU70" s="316"/>
-      <c r="AV70" s="316"/>
-      <c r="AW70" s="316"/>
-      <c r="AX70" s="316"/>
-      <c r="AY70" s="316"/>
-      <c r="AZ70" s="316"/>
-      <c r="BA70" s="316"/>
-      <c r="BB70" s="316"/>
-      <c r="BC70" s="316"/>
-      <c r="BD70" s="316"/>
-      <c r="BE70" s="316"/>
-      <c r="BF70" s="316"/>
-      <c r="BG70" s="316"/>
-      <c r="BI70" s="316" t="s">
+      <c r="AU70" s="306"/>
+      <c r="AV70" s="306"/>
+      <c r="AW70" s="306"/>
+      <c r="AX70" s="306"/>
+      <c r="AY70" s="306"/>
+      <c r="AZ70" s="306"/>
+      <c r="BA70" s="306"/>
+      <c r="BB70" s="306"/>
+      <c r="BC70" s="306"/>
+      <c r="BD70" s="306"/>
+      <c r="BE70" s="306"/>
+      <c r="BF70" s="306"/>
+      <c r="BG70" s="306"/>
+      <c r="BI70" s="306" t="s">
         <v>261</v>
       </c>
-      <c r="BJ70" s="316"/>
-      <c r="BK70" s="316"/>
-      <c r="BL70" s="316"/>
-      <c r="BM70" s="316"/>
-      <c r="BN70" s="316"/>
-      <c r="BO70" s="316"/>
-      <c r="BP70" s="316"/>
-      <c r="BQ70" s="316"/>
-      <c r="BR70" s="316"/>
-      <c r="BS70" s="316"/>
-      <c r="BT70" s="316"/>
-      <c r="BU70" s="316"/>
-      <c r="BV70" s="316"/>
-      <c r="BX70" s="316" t="s">
+      <c r="BJ70" s="306"/>
+      <c r="BK70" s="306"/>
+      <c r="BL70" s="306"/>
+      <c r="BM70" s="306"/>
+      <c r="BN70" s="306"/>
+      <c r="BO70" s="306"/>
+      <c r="BP70" s="306"/>
+      <c r="BQ70" s="306"/>
+      <c r="BR70" s="306"/>
+      <c r="BS70" s="306"/>
+      <c r="BT70" s="306"/>
+      <c r="BU70" s="306"/>
+      <c r="BV70" s="306"/>
+      <c r="BX70" s="306" t="s">
         <v>262</v>
       </c>
-      <c r="BY70" s="316"/>
-      <c r="BZ70" s="316"/>
-      <c r="CA70" s="316"/>
-      <c r="CB70" s="316"/>
-      <c r="CC70" s="316"/>
-      <c r="CD70" s="316"/>
-      <c r="CE70" s="316"/>
-      <c r="CF70" s="316"/>
-      <c r="CG70" s="316"/>
-      <c r="CH70" s="316"/>
-      <c r="CI70" s="316"/>
-      <c r="CJ70" s="316"/>
-      <c r="CK70" s="316"/>
+      <c r="BY70" s="306"/>
+      <c r="BZ70" s="306"/>
+      <c r="CA70" s="306"/>
+      <c r="CB70" s="306"/>
+      <c r="CC70" s="306"/>
+      <c r="CD70" s="306"/>
+      <c r="CE70" s="306"/>
+      <c r="CF70" s="306"/>
+      <c r="CG70" s="306"/>
+      <c r="CH70" s="306"/>
+      <c r="CI70" s="306"/>
+      <c r="CJ70" s="306"/>
+      <c r="CK70" s="306"/>
     </row>
     <row r="71" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
@@ -14369,106 +14369,106 @@
       </c>
     </row>
     <row r="85" spans="1:108" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="322" t="s">
+      <c r="A85" s="307" t="s">
         <v>270</v>
       </c>
-      <c r="B85" s="322"/>
-      <c r="C85" s="322"/>
-      <c r="D85" s="322"/>
-      <c r="E85" s="322"/>
-      <c r="F85" s="322"/>
-      <c r="G85" s="322"/>
-      <c r="H85" s="322"/>
-      <c r="I85" s="322"/>
-      <c r="J85" s="322"/>
-      <c r="K85" s="322"/>
-      <c r="L85" s="322"/>
-      <c r="M85" s="322"/>
-      <c r="N85" s="322"/>
+      <c r="B85" s="307"/>
+      <c r="C85" s="307"/>
+      <c r="D85" s="307"/>
+      <c r="E85" s="307"/>
+      <c r="F85" s="307"/>
+      <c r="G85" s="307"/>
+      <c r="H85" s="307"/>
+      <c r="I85" s="307"/>
+      <c r="J85" s="307"/>
+      <c r="K85" s="307"/>
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="307"/>
       <c r="O85" s="208"/>
-      <c r="P85" s="322" t="s">
+      <c r="P85" s="307" t="s">
         <v>271</v>
       </c>
-      <c r="Q85" s="322"/>
-      <c r="R85" s="322"/>
-      <c r="S85" s="322"/>
-      <c r="T85" s="322"/>
-      <c r="U85" s="322"/>
-      <c r="V85" s="322"/>
-      <c r="W85" s="322"/>
-      <c r="X85" s="322"/>
-      <c r="Y85" s="322"/>
-      <c r="Z85" s="322"/>
-      <c r="AA85" s="322"/>
-      <c r="AB85" s="322"/>
-      <c r="AC85" s="322"/>
+      <c r="Q85" s="307"/>
+      <c r="R85" s="307"/>
+      <c r="S85" s="307"/>
+      <c r="T85" s="307"/>
+      <c r="U85" s="307"/>
+      <c r="V85" s="307"/>
+      <c r="W85" s="307"/>
+      <c r="X85" s="307"/>
+      <c r="Y85" s="307"/>
+      <c r="Z85" s="307"/>
+      <c r="AA85" s="307"/>
+      <c r="AB85" s="307"/>
+      <c r="AC85" s="307"/>
       <c r="AD85" s="208"/>
-      <c r="AE85" s="322" t="s">
+      <c r="AE85" s="307" t="s">
         <v>272</v>
       </c>
-      <c r="AF85" s="322"/>
-      <c r="AG85" s="322"/>
-      <c r="AH85" s="322"/>
-      <c r="AI85" s="322"/>
-      <c r="AJ85" s="322"/>
-      <c r="AK85" s="322"/>
-      <c r="AL85" s="322"/>
-      <c r="AM85" s="322"/>
-      <c r="AN85" s="322"/>
-      <c r="AO85" s="322"/>
-      <c r="AP85" s="322"/>
-      <c r="AQ85" s="322"/>
-      <c r="AR85" s="322"/>
-      <c r="AT85" s="322" t="s">
+      <c r="AF85" s="307"/>
+      <c r="AG85" s="307"/>
+      <c r="AH85" s="307"/>
+      <c r="AI85" s="307"/>
+      <c r="AJ85" s="307"/>
+      <c r="AK85" s="307"/>
+      <c r="AL85" s="307"/>
+      <c r="AM85" s="307"/>
+      <c r="AN85" s="307"/>
+      <c r="AO85" s="307"/>
+      <c r="AP85" s="307"/>
+      <c r="AQ85" s="307"/>
+      <c r="AR85" s="307"/>
+      <c r="AT85" s="307" t="s">
         <v>273</v>
       </c>
-      <c r="AU85" s="322"/>
-      <c r="AV85" s="322"/>
-      <c r="AW85" s="322"/>
-      <c r="AX85" s="322"/>
-      <c r="AY85" s="322"/>
-      <c r="AZ85" s="322"/>
-      <c r="BA85" s="322"/>
-      <c r="BB85" s="322"/>
-      <c r="BC85" s="322"/>
-      <c r="BD85" s="322"/>
-      <c r="BE85" s="322"/>
-      <c r="BF85" s="322"/>
-      <c r="BG85" s="322"/>
+      <c r="AU85" s="307"/>
+      <c r="AV85" s="307"/>
+      <c r="AW85" s="307"/>
+      <c r="AX85" s="307"/>
+      <c r="AY85" s="307"/>
+      <c r="AZ85" s="307"/>
+      <c r="BA85" s="307"/>
+      <c r="BB85" s="307"/>
+      <c r="BC85" s="307"/>
+      <c r="BD85" s="307"/>
+      <c r="BE85" s="307"/>
+      <c r="BF85" s="307"/>
+      <c r="BG85" s="307"/>
       <c r="BH85" s="208"/>
-      <c r="BI85" s="322" t="s">
+      <c r="BI85" s="307" t="s">
         <v>274</v>
       </c>
-      <c r="BJ85" s="322"/>
-      <c r="BK85" s="322"/>
-      <c r="BL85" s="322"/>
-      <c r="BM85" s="322"/>
-      <c r="BN85" s="322"/>
-      <c r="BO85" s="322"/>
-      <c r="BP85" s="322"/>
-      <c r="BQ85" s="322"/>
-      <c r="BR85" s="322"/>
-      <c r="BS85" s="322"/>
-      <c r="BT85" s="322"/>
-      <c r="BU85" s="322"/>
-      <c r="BV85" s="322"/>
+      <c r="BJ85" s="307"/>
+      <c r="BK85" s="307"/>
+      <c r="BL85" s="307"/>
+      <c r="BM85" s="307"/>
+      <c r="BN85" s="307"/>
+      <c r="BO85" s="307"/>
+      <c r="BP85" s="307"/>
+      <c r="BQ85" s="307"/>
+      <c r="BR85" s="307"/>
+      <c r="BS85" s="307"/>
+      <c r="BT85" s="307"/>
+      <c r="BU85" s="307"/>
+      <c r="BV85" s="307"/>
       <c r="BW85" s="208"/>
-      <c r="BX85" s="322" t="s">
+      <c r="BX85" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="BY85" s="322"/>
-      <c r="BZ85" s="322"/>
-      <c r="CA85" s="322"/>
-      <c r="CB85" s="322"/>
-      <c r="CC85" s="322"/>
-      <c r="CD85" s="322"/>
-      <c r="CE85" s="322"/>
-      <c r="CF85" s="322"/>
-      <c r="CG85" s="322"/>
-      <c r="CH85" s="322"/>
-      <c r="CI85" s="322"/>
-      <c r="CJ85" s="322"/>
-      <c r="CK85" s="322"/>
+      <c r="BY85" s="307"/>
+      <c r="BZ85" s="307"/>
+      <c r="CA85" s="307"/>
+      <c r="CB85" s="307"/>
+      <c r="CC85" s="307"/>
+      <c r="CD85" s="307"/>
+      <c r="CE85" s="307"/>
+      <c r="CF85" s="307"/>
+      <c r="CG85" s="307"/>
+      <c r="CH85" s="307"/>
+      <c r="CI85" s="307"/>
+      <c r="CJ85" s="307"/>
+      <c r="CK85" s="307"/>
       <c r="CL85" s="211"/>
       <c r="CM85" s="76"/>
       <c r="CN85" s="76"/>
@@ -18370,107 +18370,107 @@
       <c r="DD99" s="76"/>
     </row>
     <row r="100" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="319" t="s">
+      <c r="A100" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="B100" s="319"/>
-      <c r="C100" s="319"/>
-      <c r="D100" s="319"/>
-      <c r="E100" s="319"/>
-      <c r="F100" s="319"/>
-      <c r="G100" s="319"/>
-      <c r="H100" s="319"/>
-      <c r="I100" s="319"/>
-      <c r="J100" s="319"/>
-      <c r="K100" s="319"/>
-      <c r="L100" s="319"/>
-      <c r="M100" s="319"/>
-      <c r="N100" s="319"/>
+      <c r="B100" s="305"/>
+      <c r="C100" s="305"/>
+      <c r="D100" s="305"/>
+      <c r="E100" s="305"/>
+      <c r="F100" s="305"/>
+      <c r="G100" s="305"/>
+      <c r="H100" s="305"/>
+      <c r="I100" s="305"/>
+      <c r="J100" s="305"/>
+      <c r="K100" s="305"/>
+      <c r="L100" s="305"/>
+      <c r="M100" s="305"/>
+      <c r="N100" s="305"/>
       <c r="O100" s="206"/>
-      <c r="P100" s="319" t="s">
+      <c r="P100" s="305" t="s">
         <v>252</v>
       </c>
-      <c r="Q100" s="319"/>
-      <c r="R100" s="319"/>
-      <c r="S100" s="319"/>
-      <c r="T100" s="319"/>
-      <c r="U100" s="319"/>
-      <c r="V100" s="319"/>
-      <c r="W100" s="319"/>
-      <c r="X100" s="319"/>
-      <c r="Y100" s="319"/>
-      <c r="Z100" s="319"/>
-      <c r="AA100" s="319"/>
-      <c r="AB100" s="319"/>
-      <c r="AC100" s="319"/>
+      <c r="Q100" s="305"/>
+      <c r="R100" s="305"/>
+      <c r="S100" s="305"/>
+      <c r="T100" s="305"/>
+      <c r="U100" s="305"/>
+      <c r="V100" s="305"/>
+      <c r="W100" s="305"/>
+      <c r="X100" s="305"/>
+      <c r="Y100" s="305"/>
+      <c r="Z100" s="305"/>
+      <c r="AA100" s="305"/>
+      <c r="AB100" s="305"/>
+      <c r="AC100" s="305"/>
       <c r="AD100" s="206"/>
-      <c r="AE100" s="319" t="s">
+      <c r="AE100" s="305" t="s">
         <v>253</v>
       </c>
-      <c r="AF100" s="319"/>
-      <c r="AG100" s="319"/>
-      <c r="AH100" s="319"/>
-      <c r="AI100" s="319"/>
-      <c r="AJ100" s="319"/>
-      <c r="AK100" s="319"/>
-      <c r="AL100" s="319"/>
-      <c r="AM100" s="319"/>
-      <c r="AN100" s="319"/>
-      <c r="AO100" s="319"/>
-      <c r="AP100" s="319"/>
-      <c r="AQ100" s="319"/>
-      <c r="AR100" s="319"/>
+      <c r="AF100" s="305"/>
+      <c r="AG100" s="305"/>
+      <c r="AH100" s="305"/>
+      <c r="AI100" s="305"/>
+      <c r="AJ100" s="305"/>
+      <c r="AK100" s="305"/>
+      <c r="AL100" s="305"/>
+      <c r="AM100" s="305"/>
+      <c r="AN100" s="305"/>
+      <c r="AO100" s="305"/>
+      <c r="AP100" s="305"/>
+      <c r="AQ100" s="305"/>
+      <c r="AR100" s="305"/>
       <c r="AS100" s="206"/>
-      <c r="AT100" s="319" t="s">
+      <c r="AT100" s="305" t="s">
         <v>254</v>
       </c>
-      <c r="AU100" s="319"/>
-      <c r="AV100" s="319"/>
-      <c r="AW100" s="319"/>
-      <c r="AX100" s="319"/>
-      <c r="AY100" s="319"/>
-      <c r="AZ100" s="319"/>
-      <c r="BA100" s="319"/>
-      <c r="BB100" s="319"/>
-      <c r="BC100" s="319"/>
-      <c r="BD100" s="319"/>
-      <c r="BE100" s="319"/>
-      <c r="BF100" s="319"/>
-      <c r="BG100" s="319"/>
+      <c r="AU100" s="305"/>
+      <c r="AV100" s="305"/>
+      <c r="AW100" s="305"/>
+      <c r="AX100" s="305"/>
+      <c r="AY100" s="305"/>
+      <c r="AZ100" s="305"/>
+      <c r="BA100" s="305"/>
+      <c r="BB100" s="305"/>
+      <c r="BC100" s="305"/>
+      <c r="BD100" s="305"/>
+      <c r="BE100" s="305"/>
+      <c r="BF100" s="305"/>
+      <c r="BG100" s="305"/>
       <c r="BH100" s="206"/>
-      <c r="BI100" s="319" t="s">
+      <c r="BI100" s="305" t="s">
         <v>255</v>
       </c>
-      <c r="BJ100" s="319"/>
-      <c r="BK100" s="319"/>
-      <c r="BL100" s="319"/>
-      <c r="BM100" s="319"/>
-      <c r="BN100" s="319"/>
-      <c r="BO100" s="319"/>
-      <c r="BP100" s="319"/>
-      <c r="BQ100" s="319"/>
-      <c r="BR100" s="319"/>
-      <c r="BS100" s="319"/>
-      <c r="BT100" s="319"/>
-      <c r="BU100" s="319"/>
-      <c r="BV100" s="319"/>
+      <c r="BJ100" s="305"/>
+      <c r="BK100" s="305"/>
+      <c r="BL100" s="305"/>
+      <c r="BM100" s="305"/>
+      <c r="BN100" s="305"/>
+      <c r="BO100" s="305"/>
+      <c r="BP100" s="305"/>
+      <c r="BQ100" s="305"/>
+      <c r="BR100" s="305"/>
+      <c r="BS100" s="305"/>
+      <c r="BT100" s="305"/>
+      <c r="BU100" s="305"/>
+      <c r="BV100" s="305"/>
       <c r="BW100" s="206"/>
-      <c r="BX100" s="319" t="s">
+      <c r="BX100" s="305" t="s">
         <v>256</v>
       </c>
-      <c r="BY100" s="319"/>
-      <c r="BZ100" s="319"/>
-      <c r="CA100" s="319"/>
-      <c r="CB100" s="319"/>
-      <c r="CC100" s="319"/>
-      <c r="CD100" s="319"/>
-      <c r="CE100" s="319"/>
-      <c r="CF100" s="319"/>
-      <c r="CG100" s="319"/>
-      <c r="CH100" s="319"/>
-      <c r="CI100" s="319"/>
-      <c r="CJ100" s="319"/>
-      <c r="CK100" s="319"/>
+      <c r="BY100" s="305"/>
+      <c r="BZ100" s="305"/>
+      <c r="CA100" s="305"/>
+      <c r="CB100" s="305"/>
+      <c r="CC100" s="305"/>
+      <c r="CD100" s="305"/>
+      <c r="CE100" s="305"/>
+      <c r="CF100" s="305"/>
+      <c r="CG100" s="305"/>
+      <c r="CH100" s="305"/>
+      <c r="CI100" s="305"/>
+      <c r="CJ100" s="305"/>
+      <c r="CK100" s="305"/>
       <c r="CL100" s="211"/>
       <c r="CM100" s="76"/>
       <c r="CN100" s="76"/>
@@ -22597,107 +22597,107 @@
       <c r="DS114" s="206"/>
     </row>
     <row r="115" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="319" t="s">
+      <c r="A115" s="305" t="s">
         <v>265</v>
       </c>
-      <c r="B115" s="319"/>
-      <c r="C115" s="319"/>
-      <c r="D115" s="319"/>
-      <c r="E115" s="319"/>
-      <c r="F115" s="319"/>
-      <c r="G115" s="319"/>
-      <c r="H115" s="319"/>
-      <c r="I115" s="319"/>
-      <c r="J115" s="319"/>
-      <c r="K115" s="319"/>
-      <c r="L115" s="319"/>
-      <c r="M115" s="319"/>
-      <c r="N115" s="319"/>
+      <c r="B115" s="305"/>
+      <c r="C115" s="305"/>
+      <c r="D115" s="305"/>
+      <c r="E115" s="305"/>
+      <c r="F115" s="305"/>
+      <c r="G115" s="305"/>
+      <c r="H115" s="305"/>
+      <c r="I115" s="305"/>
+      <c r="J115" s="305"/>
+      <c r="K115" s="305"/>
+      <c r="L115" s="305"/>
+      <c r="M115" s="305"/>
+      <c r="N115" s="305"/>
       <c r="O115" s="206"/>
-      <c r="P115" s="319" t="s">
+      <c r="P115" s="305" t="s">
         <v>266</v>
       </c>
-      <c r="Q115" s="319"/>
-      <c r="R115" s="319"/>
-      <c r="S115" s="319"/>
-      <c r="T115" s="319"/>
-      <c r="U115" s="319"/>
-      <c r="V115" s="319"/>
-      <c r="W115" s="319"/>
-      <c r="X115" s="319"/>
-      <c r="Y115" s="319"/>
-      <c r="Z115" s="319"/>
-      <c r="AA115" s="319"/>
-      <c r="AB115" s="319"/>
-      <c r="AC115" s="319"/>
+      <c r="Q115" s="305"/>
+      <c r="R115" s="305"/>
+      <c r="S115" s="305"/>
+      <c r="T115" s="305"/>
+      <c r="U115" s="305"/>
+      <c r="V115" s="305"/>
+      <c r="W115" s="305"/>
+      <c r="X115" s="305"/>
+      <c r="Y115" s="305"/>
+      <c r="Z115" s="305"/>
+      <c r="AA115" s="305"/>
+      <c r="AB115" s="305"/>
+      <c r="AC115" s="305"/>
       <c r="AD115" s="206"/>
-      <c r="AE115" s="319" t="s">
+      <c r="AE115" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="AF115" s="319"/>
-      <c r="AG115" s="319"/>
-      <c r="AH115" s="319"/>
-      <c r="AI115" s="319"/>
-      <c r="AJ115" s="319"/>
-      <c r="AK115" s="319"/>
-      <c r="AL115" s="319"/>
-      <c r="AM115" s="319"/>
-      <c r="AN115" s="319"/>
-      <c r="AO115" s="319"/>
-      <c r="AP115" s="319"/>
-      <c r="AQ115" s="319"/>
-      <c r="AR115" s="319"/>
+      <c r="AF115" s="305"/>
+      <c r="AG115" s="305"/>
+      <c r="AH115" s="305"/>
+      <c r="AI115" s="305"/>
+      <c r="AJ115" s="305"/>
+      <c r="AK115" s="305"/>
+      <c r="AL115" s="305"/>
+      <c r="AM115" s="305"/>
+      <c r="AN115" s="305"/>
+      <c r="AO115" s="305"/>
+      <c r="AP115" s="305"/>
+      <c r="AQ115" s="305"/>
+      <c r="AR115" s="305"/>
       <c r="AS115" s="206"/>
-      <c r="AT115" s="319" t="s">
+      <c r="AT115" s="305" t="s">
         <v>268</v>
       </c>
-      <c r="AU115" s="319"/>
-      <c r="AV115" s="319"/>
-      <c r="AW115" s="319"/>
-      <c r="AX115" s="319"/>
-      <c r="AY115" s="319"/>
-      <c r="AZ115" s="319"/>
-      <c r="BA115" s="319"/>
-      <c r="BB115" s="319"/>
-      <c r="BC115" s="319"/>
-      <c r="BD115" s="319"/>
-      <c r="BE115" s="319"/>
-      <c r="BF115" s="319"/>
-      <c r="BG115" s="319"/>
+      <c r="AU115" s="305"/>
+      <c r="AV115" s="305"/>
+      <c r="AW115" s="305"/>
+      <c r="AX115" s="305"/>
+      <c r="AY115" s="305"/>
+      <c r="AZ115" s="305"/>
+      <c r="BA115" s="305"/>
+      <c r="BB115" s="305"/>
+      <c r="BC115" s="305"/>
+      <c r="BD115" s="305"/>
+      <c r="BE115" s="305"/>
+      <c r="BF115" s="305"/>
+      <c r="BG115" s="305"/>
       <c r="BH115" s="206"/>
-      <c r="BI115" s="319" t="s">
+      <c r="BI115" s="305" t="s">
         <v>269</v>
       </c>
-      <c r="BJ115" s="319"/>
-      <c r="BK115" s="319"/>
-      <c r="BL115" s="319"/>
-      <c r="BM115" s="319"/>
-      <c r="BN115" s="319"/>
-      <c r="BO115" s="319"/>
-      <c r="BP115" s="319"/>
-      <c r="BQ115" s="319"/>
-      <c r="BR115" s="319"/>
-      <c r="BS115" s="319"/>
-      <c r="BT115" s="319"/>
-      <c r="BU115" s="319"/>
-      <c r="BV115" s="319"/>
+      <c r="BJ115" s="305"/>
+      <c r="BK115" s="305"/>
+      <c r="BL115" s="305"/>
+      <c r="BM115" s="305"/>
+      <c r="BN115" s="305"/>
+      <c r="BO115" s="305"/>
+      <c r="BP115" s="305"/>
+      <c r="BQ115" s="305"/>
+      <c r="BR115" s="305"/>
+      <c r="BS115" s="305"/>
+      <c r="BT115" s="305"/>
+      <c r="BU115" s="305"/>
+      <c r="BV115" s="305"/>
       <c r="BW115" s="206"/>
-      <c r="BX115" s="319" t="s">
+      <c r="BX115" s="305" t="s">
         <v>264</v>
       </c>
-      <c r="BY115" s="319"/>
-      <c r="BZ115" s="319"/>
-      <c r="CA115" s="319"/>
-      <c r="CB115" s="319"/>
-      <c r="CC115" s="319"/>
-      <c r="CD115" s="319"/>
-      <c r="CE115" s="319"/>
-      <c r="CF115" s="319"/>
-      <c r="CG115" s="319"/>
-      <c r="CH115" s="319"/>
-      <c r="CI115" s="319"/>
-      <c r="CJ115" s="319"/>
-      <c r="CK115" s="319"/>
+      <c r="BY115" s="305"/>
+      <c r="BZ115" s="305"/>
+      <c r="CA115" s="305"/>
+      <c r="CB115" s="305"/>
+      <c r="CC115" s="305"/>
+      <c r="CD115" s="305"/>
+      <c r="CE115" s="305"/>
+      <c r="CF115" s="305"/>
+      <c r="CG115" s="305"/>
+      <c r="CH115" s="305"/>
+      <c r="CI115" s="305"/>
+      <c r="CJ115" s="305"/>
+      <c r="CK115" s="305"/>
       <c r="CL115" s="206"/>
       <c r="CM115" s="206"/>
       <c r="CN115" s="206"/>
@@ -26824,102 +26824,102 @@
       <c r="DS129" s="206"/>
     </row>
     <row r="130" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="316" t="s">
+      <c r="A130" s="306" t="s">
         <v>276</v>
       </c>
-      <c r="B130" s="316"/>
-      <c r="C130" s="316"/>
-      <c r="D130" s="316"/>
-      <c r="E130" s="316"/>
-      <c r="F130" s="316"/>
-      <c r="G130" s="316"/>
-      <c r="H130" s="316"/>
-      <c r="I130" s="316"/>
-      <c r="J130" s="316"/>
-      <c r="K130" s="316"/>
-      <c r="L130" s="316"/>
-      <c r="M130" s="316"/>
-      <c r="N130" s="316"/>
-      <c r="P130" s="304" t="s">
+      <c r="B130" s="306"/>
+      <c r="C130" s="306"/>
+      <c r="D130" s="306"/>
+      <c r="E130" s="306"/>
+      <c r="F130" s="306"/>
+      <c r="G130" s="306"/>
+      <c r="H130" s="306"/>
+      <c r="I130" s="306"/>
+      <c r="J130" s="306"/>
+      <c r="K130" s="306"/>
+      <c r="L130" s="306"/>
+      <c r="M130" s="306"/>
+      <c r="N130" s="306"/>
+      <c r="P130" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="Q130" s="304"/>
-      <c r="R130" s="304"/>
-      <c r="S130" s="304"/>
-      <c r="T130" s="304"/>
-      <c r="U130" s="304"/>
-      <c r="V130" s="304"/>
-      <c r="W130" s="304"/>
-      <c r="X130" s="304"/>
-      <c r="Y130" s="304"/>
-      <c r="Z130" s="304"/>
-      <c r="AA130" s="304"/>
-      <c r="AB130" s="304"/>
-      <c r="AC130" s="304"/>
-      <c r="AE130" s="316" t="s">
+      <c r="Q130" s="313"/>
+      <c r="R130" s="313"/>
+      <c r="S130" s="313"/>
+      <c r="T130" s="313"/>
+      <c r="U130" s="313"/>
+      <c r="V130" s="313"/>
+      <c r="W130" s="313"/>
+      <c r="X130" s="313"/>
+      <c r="Y130" s="313"/>
+      <c r="Z130" s="313"/>
+      <c r="AA130" s="313"/>
+      <c r="AB130" s="313"/>
+      <c r="AC130" s="313"/>
+      <c r="AE130" s="306" t="s">
         <v>278</v>
       </c>
-      <c r="AF130" s="316"/>
-      <c r="AG130" s="316"/>
-      <c r="AH130" s="316"/>
-      <c r="AI130" s="316"/>
-      <c r="AJ130" s="316"/>
-      <c r="AK130" s="316"/>
-      <c r="AL130" s="316"/>
-      <c r="AM130" s="316"/>
-      <c r="AN130" s="316"/>
-      <c r="AO130" s="316"/>
-      <c r="AP130" s="316"/>
-      <c r="AQ130" s="316"/>
-      <c r="AR130" s="316"/>
-      <c r="AT130" s="316" t="s">
+      <c r="AF130" s="306"/>
+      <c r="AG130" s="306"/>
+      <c r="AH130" s="306"/>
+      <c r="AI130" s="306"/>
+      <c r="AJ130" s="306"/>
+      <c r="AK130" s="306"/>
+      <c r="AL130" s="306"/>
+      <c r="AM130" s="306"/>
+      <c r="AN130" s="306"/>
+      <c r="AO130" s="306"/>
+      <c r="AP130" s="306"/>
+      <c r="AQ130" s="306"/>
+      <c r="AR130" s="306"/>
+      <c r="AT130" s="306" t="s">
         <v>279</v>
       </c>
-      <c r="AU130" s="316"/>
-      <c r="AV130" s="316"/>
-      <c r="AW130" s="316"/>
-      <c r="AX130" s="316"/>
-      <c r="AY130" s="316"/>
-      <c r="AZ130" s="316"/>
-      <c r="BA130" s="316"/>
-      <c r="BB130" s="316"/>
-      <c r="BC130" s="316"/>
-      <c r="BD130" s="316"/>
-      <c r="BE130" s="316"/>
-      <c r="BF130" s="316"/>
-      <c r="BG130" s="316"/>
-      <c r="BI130" s="316" t="s">
+      <c r="AU130" s="306"/>
+      <c r="AV130" s="306"/>
+      <c r="AW130" s="306"/>
+      <c r="AX130" s="306"/>
+      <c r="AY130" s="306"/>
+      <c r="AZ130" s="306"/>
+      <c r="BA130" s="306"/>
+      <c r="BB130" s="306"/>
+      <c r="BC130" s="306"/>
+      <c r="BD130" s="306"/>
+      <c r="BE130" s="306"/>
+      <c r="BF130" s="306"/>
+      <c r="BG130" s="306"/>
+      <c r="BI130" s="306" t="s">
         <v>280</v>
       </c>
-      <c r="BJ130" s="316"/>
-      <c r="BK130" s="316"/>
-      <c r="BL130" s="316"/>
-      <c r="BM130" s="316"/>
-      <c r="BN130" s="316"/>
-      <c r="BO130" s="316"/>
-      <c r="BP130" s="316"/>
-      <c r="BQ130" s="316"/>
-      <c r="BR130" s="316"/>
-      <c r="BS130" s="316"/>
-      <c r="BT130" s="316"/>
-      <c r="BU130" s="316"/>
-      <c r="BV130" s="316"/>
-      <c r="BX130" s="316" t="s">
+      <c r="BJ130" s="306"/>
+      <c r="BK130" s="306"/>
+      <c r="BL130" s="306"/>
+      <c r="BM130" s="306"/>
+      <c r="BN130" s="306"/>
+      <c r="BO130" s="306"/>
+      <c r="BP130" s="306"/>
+      <c r="BQ130" s="306"/>
+      <c r="BR130" s="306"/>
+      <c r="BS130" s="306"/>
+      <c r="BT130" s="306"/>
+      <c r="BU130" s="306"/>
+      <c r="BV130" s="306"/>
+      <c r="BX130" s="306" t="s">
         <v>281</v>
       </c>
-      <c r="BY130" s="316"/>
-      <c r="BZ130" s="316"/>
-      <c r="CA130" s="316"/>
-      <c r="CB130" s="316"/>
-      <c r="CC130" s="316"/>
-      <c r="CD130" s="316"/>
-      <c r="CE130" s="316"/>
-      <c r="CF130" s="316"/>
-      <c r="CG130" s="316"/>
-      <c r="CH130" s="316"/>
-      <c r="CI130" s="316"/>
-      <c r="CJ130" s="316"/>
-      <c r="CK130" s="316"/>
+      <c r="BY130" s="306"/>
+      <c r="BZ130" s="306"/>
+      <c r="CA130" s="306"/>
+      <c r="CB130" s="306"/>
+      <c r="CC130" s="306"/>
+      <c r="CD130" s="306"/>
+      <c r="CE130" s="306"/>
+      <c r="CF130" s="306"/>
+      <c r="CG130" s="306"/>
+      <c r="CH130" s="306"/>
+      <c r="CI130" s="306"/>
+      <c r="CJ130" s="306"/>
+      <c r="CK130" s="306"/>
       <c r="CL130" s="206"/>
       <c r="CM130" s="206"/>
       <c r="CN130" s="206"/>
@@ -30976,71 +30976,71 @@
       <c r="DS144" s="206"/>
     </row>
     <row r="145" spans="1:60" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="304" t="s">
+      <c r="A145" s="313" t="s">
         <v>198</v>
       </c>
-      <c r="B145" s="304"/>
-      <c r="C145" s="304"/>
-      <c r="D145" s="304"/>
-      <c r="E145" s="304"/>
-      <c r="F145" s="304"/>
-      <c r="G145" s="304"/>
-      <c r="H145" s="304"/>
-      <c r="I145" s="304"/>
-      <c r="J145" s="304"/>
-      <c r="K145" s="304"/>
-      <c r="L145" s="304"/>
-      <c r="M145" s="304"/>
-      <c r="N145" s="304"/>
-      <c r="P145" s="325" t="s">
+      <c r="B145" s="313"/>
+      <c r="C145" s="313"/>
+      <c r="D145" s="313"/>
+      <c r="E145" s="313"/>
+      <c r="F145" s="313"/>
+      <c r="G145" s="313"/>
+      <c r="H145" s="313"/>
+      <c r="I145" s="313"/>
+      <c r="J145" s="313"/>
+      <c r="K145" s="313"/>
+      <c r="L145" s="313"/>
+      <c r="M145" s="313"/>
+      <c r="N145" s="313"/>
+      <c r="P145" s="308" t="s">
         <v>236</v>
       </c>
-      <c r="Q145" s="325"/>
-      <c r="R145" s="325"/>
-      <c r="S145" s="325"/>
-      <c r="T145" s="325"/>
-      <c r="U145" s="325"/>
-      <c r="V145" s="325"/>
-      <c r="W145" s="325"/>
-      <c r="X145" s="325"/>
-      <c r="Y145" s="325"/>
-      <c r="Z145" s="325"/>
-      <c r="AA145" s="325"/>
-      <c r="AB145" s="325"/>
-      <c r="AC145" s="325"/>
+      <c r="Q145" s="308"/>
+      <c r="R145" s="308"/>
+      <c r="S145" s="308"/>
+      <c r="T145" s="308"/>
+      <c r="U145" s="308"/>
+      <c r="V145" s="308"/>
+      <c r="W145" s="308"/>
+      <c r="X145" s="308"/>
+      <c r="Y145" s="308"/>
+      <c r="Z145" s="308"/>
+      <c r="AA145" s="308"/>
+      <c r="AB145" s="308"/>
+      <c r="AC145" s="308"/>
       <c r="AD145"/>
-      <c r="AE145" s="325" t="s">
+      <c r="AE145" s="308" t="s">
         <v>237</v>
       </c>
-      <c r="AF145" s="325"/>
-      <c r="AG145" s="325"/>
-      <c r="AH145" s="325"/>
-      <c r="AI145" s="325"/>
-      <c r="AJ145" s="325"/>
-      <c r="AK145" s="325"/>
-      <c r="AL145" s="325"/>
-      <c r="AM145" s="325"/>
-      <c r="AN145" s="325"/>
-      <c r="AO145" s="325"/>
-      <c r="AP145" s="325"/>
-      <c r="AQ145" s="325"/>
-      <c r="AR145" s="325"/>
-      <c r="AT145" s="325" t="s">
+      <c r="AF145" s="308"/>
+      <c r="AG145" s="308"/>
+      <c r="AH145" s="308"/>
+      <c r="AI145" s="308"/>
+      <c r="AJ145" s="308"/>
+      <c r="AK145" s="308"/>
+      <c r="AL145" s="308"/>
+      <c r="AM145" s="308"/>
+      <c r="AN145" s="308"/>
+      <c r="AO145" s="308"/>
+      <c r="AP145" s="308"/>
+      <c r="AQ145" s="308"/>
+      <c r="AR145" s="308"/>
+      <c r="AT145" s="308" t="s">
         <v>238</v>
       </c>
-      <c r="AU145" s="325"/>
-      <c r="AV145" s="325"/>
-      <c r="AW145" s="325"/>
-      <c r="AX145" s="325"/>
-      <c r="AY145" s="325"/>
-      <c r="AZ145" s="325"/>
-      <c r="BA145" s="325"/>
-      <c r="BB145" s="325"/>
-      <c r="BC145" s="325"/>
-      <c r="BD145" s="325"/>
-      <c r="BE145" s="325"/>
-      <c r="BF145" s="325"/>
-      <c r="BG145" s="325"/>
+      <c r="AU145" s="308"/>
+      <c r="AV145" s="308"/>
+      <c r="AW145" s="308"/>
+      <c r="AX145" s="308"/>
+      <c r="AY145" s="308"/>
+      <c r="AZ145" s="308"/>
+      <c r="BA145" s="308"/>
+      <c r="BB145" s="308"/>
+      <c r="BC145" s="308"/>
+      <c r="BD145" s="308"/>
+      <c r="BE145" s="308"/>
+      <c r="BF145" s="308"/>
+      <c r="BG145" s="308"/>
     </row>
     <row r="146" spans="1:60" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
@@ -33434,191 +33434,191 @@
       </c>
     </row>
     <row r="160" spans="1:60" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="311" t="s">
+      <c r="A160" s="300" t="s">
         <v>199</v>
       </c>
-      <c r="B160" s="311"/>
-      <c r="C160" s="311"/>
-      <c r="D160" s="312" t="s">
+      <c r="B160" s="300"/>
+      <c r="C160" s="300"/>
+      <c r="D160" s="301" t="s">
         <v>193</v>
       </c>
-      <c r="E160" s="312"/>
-      <c r="F160" s="312"/>
-      <c r="G160" s="313" t="s">
+      <c r="E160" s="301"/>
+      <c r="F160" s="301"/>
+      <c r="G160" s="302" t="s">
         <v>194</v>
       </c>
-      <c r="H160" s="313"/>
-      <c r="I160" s="313"/>
-      <c r="J160" s="314" t="s">
+      <c r="H160" s="302"/>
+      <c r="I160" s="302"/>
+      <c r="J160" s="303" t="s">
         <v>195</v>
       </c>
-      <c r="K160" s="314"/>
-      <c r="L160" s="314"/>
-      <c r="M160" s="315" t="s">
+      <c r="K160" s="303"/>
+      <c r="L160" s="303"/>
+      <c r="M160" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="N160" s="315"/>
-      <c r="O160" s="315"/>
-      <c r="P160" s="309" t="s">
+      <c r="N160" s="304"/>
+      <c r="O160" s="304"/>
+      <c r="P160" s="321" t="s">
         <v>187</v>
       </c>
-      <c r="Q160" s="309"/>
-      <c r="R160" s="309"/>
-      <c r="S160" s="310" t="s">
+      <c r="Q160" s="321"/>
+      <c r="R160" s="321"/>
+      <c r="S160" s="311" t="s">
         <v>188</v>
       </c>
-      <c r="T160" s="310"/>
-      <c r="U160" s="310"/>
-      <c r="V160" s="308" t="s">
+      <c r="T160" s="311"/>
+      <c r="U160" s="311"/>
+      <c r="V160" s="312" t="s">
         <v>189</v>
       </c>
-      <c r="W160" s="308"/>
-      <c r="X160" s="308"/>
-      <c r="Y160" s="306" t="s">
+      <c r="W160" s="312"/>
+      <c r="X160" s="312"/>
+      <c r="Y160" s="319" t="s">
         <v>190</v>
       </c>
-      <c r="Z160" s="306"/>
-      <c r="AA160" s="306"/>
-      <c r="AB160" s="307" t="s">
+      <c r="Z160" s="319"/>
+      <c r="AA160" s="319"/>
+      <c r="AB160" s="320" t="s">
         <v>191</v>
       </c>
-      <c r="AC160" s="307"/>
-      <c r="AD160" s="307"/>
-      <c r="AE160" s="309" t="s">
+      <c r="AC160" s="320"/>
+      <c r="AD160" s="320"/>
+      <c r="AE160" s="321" t="s">
         <v>187</v>
       </c>
-      <c r="AF160" s="309"/>
-      <c r="AG160" s="309"/>
-      <c r="AH160" s="310" t="s">
+      <c r="AF160" s="321"/>
+      <c r="AG160" s="321"/>
+      <c r="AH160" s="311" t="s">
         <v>188</v>
       </c>
-      <c r="AI160" s="310"/>
-      <c r="AJ160" s="310"/>
-      <c r="AK160" s="308" t="s">
+      <c r="AI160" s="311"/>
+      <c r="AJ160" s="311"/>
+      <c r="AK160" s="312" t="s">
         <v>189</v>
       </c>
-      <c r="AL160" s="308"/>
-      <c r="AM160" s="308"/>
-      <c r="AN160" s="306" t="s">
+      <c r="AL160" s="312"/>
+      <c r="AM160" s="312"/>
+      <c r="AN160" s="319" t="s">
         <v>190</v>
       </c>
-      <c r="AO160" s="306"/>
-      <c r="AP160" s="306"/>
-      <c r="AQ160" s="307" t="s">
+      <c r="AO160" s="319"/>
+      <c r="AP160" s="319"/>
+      <c r="AQ160" s="320" t="s">
         <v>191</v>
       </c>
-      <c r="AR160" s="307"/>
-      <c r="AS160" s="307"/>
-      <c r="AT160" s="309" t="s">
+      <c r="AR160" s="320"/>
+      <c r="AS160" s="320"/>
+      <c r="AT160" s="321" t="s">
         <v>187</v>
       </c>
-      <c r="AU160" s="309"/>
-      <c r="AV160" s="309"/>
-      <c r="AW160" s="310" t="s">
+      <c r="AU160" s="321"/>
+      <c r="AV160" s="321"/>
+      <c r="AW160" s="311" t="s">
         <v>188</v>
       </c>
-      <c r="AX160" s="310"/>
-      <c r="AY160" s="310"/>
-      <c r="AZ160" s="308" t="s">
+      <c r="AX160" s="311"/>
+      <c r="AY160" s="311"/>
+      <c r="AZ160" s="312" t="s">
         <v>189</v>
       </c>
-      <c r="BA160" s="308"/>
-      <c r="BB160" s="308"/>
-      <c r="BC160" s="306" t="s">
+      <c r="BA160" s="312"/>
+      <c r="BB160" s="312"/>
+      <c r="BC160" s="319" t="s">
         <v>190</v>
       </c>
-      <c r="BD160" s="306"/>
-      <c r="BE160" s="306"/>
-      <c r="BF160" s="307" t="s">
+      <c r="BD160" s="319"/>
+      <c r="BE160" s="319"/>
+      <c r="BF160" s="320" t="s">
         <v>191</v>
       </c>
-      <c r="BG160" s="307"/>
-      <c r="BH160" s="307"/>
+      <c r="BG160" s="320"/>
+      <c r="BH160" s="320"/>
     </row>
     <row r="161" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="324" t="s">
+      <c r="A161" s="310" t="s">
         <v>285</v>
       </c>
-      <c r="B161" s="324"/>
-      <c r="C161" s="324"/>
-      <c r="D161" s="324"/>
-      <c r="E161" s="324"/>
-      <c r="F161" s="324"/>
-      <c r="G161" s="324"/>
-      <c r="H161" s="324"/>
-      <c r="I161" s="324"/>
-      <c r="J161" s="324"/>
-      <c r="K161" s="324"/>
-      <c r="L161" s="324"/>
-      <c r="M161" s="324"/>
-      <c r="N161" s="324"/>
+      <c r="B161" s="310"/>
+      <c r="C161" s="310"/>
+      <c r="D161" s="310"/>
+      <c r="E161" s="310"/>
+      <c r="F161" s="310"/>
+      <c r="G161" s="310"/>
+      <c r="H161" s="310"/>
+      <c r="I161" s="310"/>
+      <c r="J161" s="310"/>
+      <c r="K161" s="310"/>
+      <c r="L161" s="310"/>
+      <c r="M161" s="310"/>
+      <c r="N161" s="310"/>
       <c r="O161"/>
-      <c r="P161" s="300" t="s">
+      <c r="P161" s="322" t="s">
         <v>284</v>
       </c>
-      <c r="Q161" s="300"/>
-      <c r="R161" s="300"/>
-      <c r="S161" s="300"/>
-      <c r="T161" s="300"/>
-      <c r="U161" s="300"/>
-      <c r="V161" s="300"/>
-      <c r="W161" s="300"/>
-      <c r="X161" s="300"/>
-      <c r="Y161" s="300"/>
-      <c r="Z161" s="300"/>
-      <c r="AA161" s="300"/>
-      <c r="AB161" s="300"/>
-      <c r="AC161" s="300"/>
-      <c r="AE161" s="300" t="s">
+      <c r="Q161" s="322"/>
+      <c r="R161" s="322"/>
+      <c r="S161" s="322"/>
+      <c r="T161" s="322"/>
+      <c r="U161" s="322"/>
+      <c r="V161" s="322"/>
+      <c r="W161" s="322"/>
+      <c r="X161" s="322"/>
+      <c r="Y161" s="322"/>
+      <c r="Z161" s="322"/>
+      <c r="AA161" s="322"/>
+      <c r="AB161" s="322"/>
+      <c r="AC161" s="322"/>
+      <c r="AE161" s="322" t="s">
         <v>286</v>
       </c>
-      <c r="AF161" s="300"/>
-      <c r="AG161" s="300"/>
-      <c r="AH161" s="300"/>
-      <c r="AI161" s="300"/>
-      <c r="AJ161" s="300"/>
-      <c r="AK161" s="300"/>
-      <c r="AL161" s="300"/>
-      <c r="AM161" s="300"/>
-      <c r="AN161" s="300"/>
-      <c r="AO161" s="300"/>
-      <c r="AP161" s="300"/>
-      <c r="AQ161" s="300"/>
-      <c r="AR161" s="300"/>
+      <c r="AF161" s="322"/>
+      <c r="AG161" s="322"/>
+      <c r="AH161" s="322"/>
+      <c r="AI161" s="322"/>
+      <c r="AJ161" s="322"/>
+      <c r="AK161" s="322"/>
+      <c r="AL161" s="322"/>
+      <c r="AM161" s="322"/>
+      <c r="AN161" s="322"/>
+      <c r="AO161" s="322"/>
+      <c r="AP161" s="322"/>
+      <c r="AQ161" s="322"/>
+      <c r="AR161" s="322"/>
       <c r="AS161"/>
-      <c r="AT161" s="300" t="s">
+      <c r="AT161" s="322" t="s">
         <v>263</v>
       </c>
-      <c r="AU161" s="300"/>
-      <c r="AV161" s="300"/>
-      <c r="AW161" s="300"/>
-      <c r="AX161" s="300"/>
-      <c r="AY161" s="300"/>
-      <c r="AZ161" s="300"/>
-      <c r="BA161" s="300"/>
-      <c r="BB161" s="300"/>
-      <c r="BC161" s="300"/>
-      <c r="BD161" s="300"/>
-      <c r="BE161" s="300"/>
-      <c r="BF161" s="300"/>
-      <c r="BG161" s="300"/>
+      <c r="AU161" s="322"/>
+      <c r="AV161" s="322"/>
+      <c r="AW161" s="322"/>
+      <c r="AX161" s="322"/>
+      <c r="AY161" s="322"/>
+      <c r="AZ161" s="322"/>
+      <c r="BA161" s="322"/>
+      <c r="BB161" s="322"/>
+      <c r="BC161" s="322"/>
+      <c r="BD161" s="322"/>
+      <c r="BE161" s="322"/>
+      <c r="BF161" s="322"/>
+      <c r="BG161" s="322"/>
       <c r="BH161"/>
-      <c r="BI161" s="300" t="s">
+      <c r="BI161" s="322" t="s">
         <v>287</v>
       </c>
-      <c r="BJ161" s="300"/>
-      <c r="BK161" s="300"/>
-      <c r="BL161" s="300"/>
-      <c r="BM161" s="300"/>
-      <c r="BN161" s="300"/>
-      <c r="BO161" s="300"/>
-      <c r="BP161" s="300"/>
-      <c r="BQ161" s="300"/>
-      <c r="BR161" s="300"/>
-      <c r="BS161" s="300"/>
-      <c r="BT161" s="300"/>
-      <c r="BU161" s="300"/>
-      <c r="BV161" s="300"/>
+      <c r="BJ161" s="322"/>
+      <c r="BK161" s="322"/>
+      <c r="BL161" s="322"/>
+      <c r="BM161" s="322"/>
+      <c r="BN161" s="322"/>
+      <c r="BO161" s="322"/>
+      <c r="BP161" s="322"/>
+      <c r="BQ161" s="322"/>
+      <c r="BR161" s="322"/>
+      <c r="BS161" s="322"/>
+      <c r="BT161" s="322"/>
+      <c r="BU161" s="322"/>
+      <c r="BV161" s="322"/>
     </row>
     <row r="162" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
@@ -36696,22 +36696,22 @@
       <c r="BV176" s="219"/>
     </row>
     <row r="177" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="326" t="s">
+      <c r="A177" s="299" t="s">
         <v>282</v>
       </c>
-      <c r="B177" s="326"/>
-      <c r="C177" s="326"/>
-      <c r="D177" s="326"/>
-      <c r="E177" s="326"/>
-      <c r="F177" s="326"/>
-      <c r="G177" s="326"/>
-      <c r="H177" s="326"/>
-      <c r="I177" s="326"/>
-      <c r="J177" s="326"/>
-      <c r="K177" s="326"/>
-      <c r="L177" s="326"/>
-      <c r="M177" s="326"/>
-      <c r="N177" s="326"/>
+      <c r="B177" s="299"/>
+      <c r="C177" s="299"/>
+      <c r="D177" s="299"/>
+      <c r="E177" s="299"/>
+      <c r="F177" s="299"/>
+      <c r="G177" s="299"/>
+      <c r="H177" s="299"/>
+      <c r="I177" s="299"/>
+      <c r="J177" s="299"/>
+      <c r="K177" s="299"/>
+      <c r="L177" s="299"/>
+      <c r="M177" s="299"/>
+      <c r="N177" s="299"/>
       <c r="O177" s="206"/>
       <c r="P177" s="206"/>
       <c r="Q177" s="206"/>
@@ -38229,31 +38229,31 @@
       <c r="BW191" s="206"/>
     </row>
     <row r="192" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="311" t="s">
+      <c r="A192" s="300" t="s">
         <v>199</v>
       </c>
-      <c r="B192" s="311"/>
-      <c r="C192" s="311"/>
-      <c r="D192" s="312" t="s">
+      <c r="B192" s="300"/>
+      <c r="C192" s="300"/>
+      <c r="D192" s="301" t="s">
         <v>193</v>
       </c>
-      <c r="E192" s="312"/>
-      <c r="F192" s="312"/>
-      <c r="G192" s="313" t="s">
+      <c r="E192" s="301"/>
+      <c r="F192" s="301"/>
+      <c r="G192" s="302" t="s">
         <v>194</v>
       </c>
-      <c r="H192" s="313"/>
-      <c r="I192" s="313"/>
-      <c r="J192" s="314" t="s">
+      <c r="H192" s="302"/>
+      <c r="I192" s="302"/>
+      <c r="J192" s="303" t="s">
         <v>195</v>
       </c>
-      <c r="K192" s="314"/>
-      <c r="L192" s="314"/>
-      <c r="M192" s="315" t="s">
+      <c r="K192" s="303"/>
+      <c r="L192" s="303"/>
+      <c r="M192" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="N192" s="315"/>
-      <c r="O192" s="315"/>
+      <c r="N192" s="304"/>
+      <c r="O192" s="304"/>
       <c r="P192" s="206"/>
       <c r="Q192" s="206"/>
       <c r="R192" s="206"/>
@@ -38316,38 +38316,38 @@
       <c r="BW192" s="206"/>
     </row>
     <row r="193" spans="1:44" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="316" t="s">
+      <c r="A193" s="306" t="s">
         <v>165</v>
       </c>
-      <c r="B193" s="316"/>
-      <c r="C193" s="316"/>
-      <c r="D193" s="316"/>
-      <c r="E193" s="316"/>
-      <c r="F193" s="316"/>
-      <c r="G193" s="316"/>
-      <c r="H193" s="316"/>
-      <c r="I193" s="316"/>
-      <c r="J193" s="316"/>
-      <c r="K193" s="316"/>
-      <c r="L193" s="316"/>
-      <c r="M193" s="316"/>
-      <c r="N193" s="316"/>
-      <c r="P193" s="316" t="s">
+      <c r="B193" s="306"/>
+      <c r="C193" s="306"/>
+      <c r="D193" s="306"/>
+      <c r="E193" s="306"/>
+      <c r="F193" s="306"/>
+      <c r="G193" s="306"/>
+      <c r="H193" s="306"/>
+      <c r="I193" s="306"/>
+      <c r="J193" s="306"/>
+      <c r="K193" s="306"/>
+      <c r="L193" s="306"/>
+      <c r="M193" s="306"/>
+      <c r="N193" s="306"/>
+      <c r="P193" s="306" t="s">
         <v>197</v>
       </c>
-      <c r="Q193" s="316"/>
-      <c r="R193" s="316"/>
-      <c r="S193" s="316"/>
-      <c r="T193" s="316"/>
-      <c r="U193" s="316"/>
-      <c r="V193" s="316"/>
-      <c r="W193" s="316"/>
-      <c r="X193" s="316"/>
-      <c r="Y193" s="316"/>
-      <c r="Z193" s="316"/>
-      <c r="AA193" s="316"/>
-      <c r="AB193" s="316"/>
-      <c r="AC193" s="316"/>
+      <c r="Q193" s="306"/>
+      <c r="R193" s="306"/>
+      <c r="S193" s="306"/>
+      <c r="T193" s="306"/>
+      <c r="U193" s="306"/>
+      <c r="V193" s="306"/>
+      <c r="W193" s="306"/>
+      <c r="X193" s="306"/>
+      <c r="Y193" s="306"/>
+      <c r="Z193" s="306"/>
+      <c r="AA193" s="306"/>
+      <c r="AB193" s="306"/>
+      <c r="AC193" s="306"/>
     </row>
     <row r="194" spans="1:44" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
@@ -39548,133 +39548,133 @@
       <c r="AC207" s="146">
         <v>22</v>
       </c>
-      <c r="AD207" s="311" t="s">
+      <c r="AD207" s="300" t="s">
         <v>192</v>
       </c>
-      <c r="AE207" s="311"/>
-      <c r="AF207" s="311"/>
-      <c r="AG207" s="312" t="s">
+      <c r="AE207" s="300"/>
+      <c r="AF207" s="300"/>
+      <c r="AG207" s="301" t="s">
         <v>193</v>
       </c>
-      <c r="AH207" s="312"/>
-      <c r="AI207" s="312"/>
-      <c r="AJ207" s="313" t="s">
+      <c r="AH207" s="301"/>
+      <c r="AI207" s="301"/>
+      <c r="AJ207" s="302" t="s">
         <v>194</v>
       </c>
-      <c r="AK207" s="313"/>
-      <c r="AL207" s="313"/>
-      <c r="AM207" s="314" t="s">
+      <c r="AK207" s="302"/>
+      <c r="AL207" s="302"/>
+      <c r="AM207" s="303" t="s">
         <v>195</v>
       </c>
-      <c r="AN207" s="314"/>
-      <c r="AO207" s="314"/>
-      <c r="AP207" s="315" t="s">
+      <c r="AN207" s="303"/>
+      <c r="AO207" s="303"/>
+      <c r="AP207" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="AQ207" s="315"/>
-      <c r="AR207" s="315"/>
+      <c r="AQ207" s="304"/>
+      <c r="AR207" s="304"/>
     </row>
     <row r="208" spans="1:44" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="303" t="s">
+      <c r="A208" s="298" t="s">
         <v>166</v>
       </c>
-      <c r="B208" s="303"/>
-      <c r="C208" s="303"/>
-      <c r="D208" s="303"/>
-      <c r="E208" s="303"/>
-      <c r="F208" s="303"/>
-      <c r="G208" s="303"/>
-      <c r="H208" s="303"/>
-      <c r="I208" s="303"/>
-      <c r="J208" s="303"/>
-      <c r="K208" s="303"/>
-      <c r="L208" s="303"/>
-      <c r="M208" s="303"/>
-      <c r="N208" s="303"/>
-      <c r="O208" s="303"/>
-      <c r="P208" s="303"/>
-      <c r="Q208" s="303"/>
-      <c r="R208" s="303"/>
-      <c r="S208" s="303"/>
-      <c r="T208" s="303"/>
-      <c r="U208" s="303"/>
-      <c r="V208" s="303"/>
-      <c r="W208" s="303"/>
-      <c r="X208" s="303"/>
-      <c r="Y208" s="303"/>
-      <c r="Z208" s="303"/>
-      <c r="AA208" s="303"/>
-      <c r="AB208" s="303"/>
-      <c r="AC208" s="303"/>
-      <c r="AD208" s="303"/>
+      <c r="B208" s="298"/>
+      <c r="C208" s="298"/>
+      <c r="D208" s="298"/>
+      <c r="E208" s="298"/>
+      <c r="F208" s="298"/>
+      <c r="G208" s="298"/>
+      <c r="H208" s="298"/>
+      <c r="I208" s="298"/>
+      <c r="J208" s="298"/>
+      <c r="K208" s="298"/>
+      <c r="L208" s="298"/>
+      <c r="M208" s="298"/>
+      <c r="N208" s="298"/>
+      <c r="O208" s="298"/>
+      <c r="P208" s="298"/>
+      <c r="Q208" s="298"/>
+      <c r="R208" s="298"/>
+      <c r="S208" s="298"/>
+      <c r="T208" s="298"/>
+      <c r="U208" s="298"/>
+      <c r="V208" s="298"/>
+      <c r="W208" s="298"/>
+      <c r="X208" s="298"/>
+      <c r="Y208" s="298"/>
+      <c r="Z208" s="298"/>
+      <c r="AA208" s="298"/>
+      <c r="AB208" s="298"/>
+      <c r="AC208" s="298"/>
+      <c r="AD208" s="298"/>
     </row>
     <row r="209" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="300" t="s">
+      <c r="A209" s="322" t="s">
         <v>167</v>
       </c>
-      <c r="B209" s="300"/>
-      <c r="C209" s="300"/>
-      <c r="D209" s="300"/>
-      <c r="E209" s="300"/>
-      <c r="F209" s="300"/>
-      <c r="G209" s="300"/>
-      <c r="H209" s="300"/>
-      <c r="I209" s="300"/>
-      <c r="J209" s="300"/>
-      <c r="K209" s="300"/>
-      <c r="L209" s="300"/>
-      <c r="M209" s="300"/>
-      <c r="N209" s="300"/>
+      <c r="B209" s="322"/>
+      <c r="C209" s="322"/>
+      <c r="D209" s="322"/>
+      <c r="E209" s="322"/>
+      <c r="F209" s="322"/>
+      <c r="G209" s="322"/>
+      <c r="H209" s="322"/>
+      <c r="I209" s="322"/>
+      <c r="J209" s="322"/>
+      <c r="K209" s="322"/>
+      <c r="L209" s="322"/>
+      <c r="M209" s="322"/>
+      <c r="N209" s="322"/>
       <c r="O209"/>
-      <c r="P209" s="300" t="s">
+      <c r="P209" s="322" t="s">
         <v>168</v>
       </c>
-      <c r="Q209" s="300"/>
-      <c r="R209" s="300"/>
-      <c r="S209" s="300"/>
-      <c r="T209" s="300"/>
-      <c r="U209" s="300"/>
-      <c r="V209" s="300"/>
-      <c r="W209" s="300"/>
-      <c r="X209" s="300"/>
-      <c r="Y209" s="300"/>
-      <c r="Z209" s="300"/>
-      <c r="AA209" s="300"/>
-      <c r="AB209" s="300"/>
-      <c r="AC209" s="300"/>
-      <c r="AE209" s="305" t="s">
+      <c r="Q209" s="322"/>
+      <c r="R209" s="322"/>
+      <c r="S209" s="322"/>
+      <c r="T209" s="322"/>
+      <c r="U209" s="322"/>
+      <c r="V209" s="322"/>
+      <c r="W209" s="322"/>
+      <c r="X209" s="322"/>
+      <c r="Y209" s="322"/>
+      <c r="Z209" s="322"/>
+      <c r="AA209" s="322"/>
+      <c r="AB209" s="322"/>
+      <c r="AC209" s="322"/>
+      <c r="AE209" s="317" t="s">
         <v>169</v>
       </c>
-      <c r="AF209" s="305"/>
-      <c r="AG209" s="305"/>
-      <c r="AH209" s="305"/>
-      <c r="AI209" s="305"/>
-      <c r="AJ209" s="305"/>
-      <c r="AK209" s="305"/>
-      <c r="AL209" s="305"/>
-      <c r="AM209" s="305"/>
-      <c r="AN209" s="305"/>
-      <c r="AO209" s="305"/>
-      <c r="AP209" s="305"/>
-      <c r="AQ209" s="305"/>
-      <c r="AR209" s="305"/>
+      <c r="AF209" s="317"/>
+      <c r="AG209" s="317"/>
+      <c r="AH209" s="317"/>
+      <c r="AI209" s="317"/>
+      <c r="AJ209" s="317"/>
+      <c r="AK209" s="317"/>
+      <c r="AL209" s="317"/>
+      <c r="AM209" s="317"/>
+      <c r="AN209" s="317"/>
+      <c r="AO209" s="317"/>
+      <c r="AP209" s="317"/>
+      <c r="AQ209" s="317"/>
+      <c r="AR209" s="317"/>
       <c r="AS209"/>
-      <c r="AT209" s="302" t="s">
+      <c r="AT209" s="323" t="s">
         <v>170</v>
       </c>
-      <c r="AU209" s="302"/>
-      <c r="AV209" s="302"/>
-      <c r="AW209" s="302"/>
-      <c r="AX209" s="302"/>
-      <c r="AY209" s="302"/>
-      <c r="AZ209" s="302"/>
-      <c r="BA209" s="302"/>
-      <c r="BB209" s="302"/>
-      <c r="BC209" s="302"/>
-      <c r="BD209" s="302"/>
-      <c r="BE209" s="302"/>
-      <c r="BF209" s="302"/>
-      <c r="BG209" s="302"/>
+      <c r="AU209" s="323"/>
+      <c r="AV209" s="323"/>
+      <c r="AW209" s="323"/>
+      <c r="AX209" s="323"/>
+      <c r="AY209" s="323"/>
+      <c r="AZ209" s="323"/>
+      <c r="BA209" s="323"/>
+      <c r="BB209" s="323"/>
+      <c r="BC209" s="323"/>
+      <c r="BD209" s="323"/>
+      <c r="BE209" s="323"/>
+      <c r="BF209" s="323"/>
+      <c r="BG209" s="323"/>
     </row>
     <row r="210" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
@@ -42081,90 +42081,90 @@
       </c>
     </row>
     <row r="224" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="298" t="s">
+      <c r="A224" s="316" t="s">
         <v>171</v>
       </c>
-      <c r="B224" s="298"/>
-      <c r="C224" s="298"/>
-      <c r="D224" s="298"/>
-      <c r="E224" s="298"/>
-      <c r="F224" s="298"/>
-      <c r="G224" s="298"/>
-      <c r="H224" s="298"/>
-      <c r="I224" s="298"/>
-      <c r="J224" s="298"/>
-      <c r="K224" s="298"/>
-      <c r="L224" s="298"/>
-      <c r="M224" s="298"/>
-      <c r="N224" s="298"/>
+      <c r="B224" s="316"/>
+      <c r="C224" s="316"/>
+      <c r="D224" s="316"/>
+      <c r="E224" s="316"/>
+      <c r="F224" s="316"/>
+      <c r="G224" s="316"/>
+      <c r="H224" s="316"/>
+      <c r="I224" s="316"/>
+      <c r="J224" s="316"/>
+      <c r="K224" s="316"/>
+      <c r="L224" s="316"/>
+      <c r="M224" s="316"/>
+      <c r="N224" s="316"/>
       <c r="O224" s="120"/>
-      <c r="P224" s="302" t="s">
+      <c r="P224" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="Q224" s="302"/>
-      <c r="R224" s="302"/>
-      <c r="S224" s="302"/>
-      <c r="T224" s="302"/>
-      <c r="U224" s="302"/>
-      <c r="V224" s="302"/>
-      <c r="W224" s="302"/>
-      <c r="X224" s="302"/>
-      <c r="Y224" s="302"/>
-      <c r="Z224" s="302"/>
-      <c r="AA224" s="302"/>
-      <c r="AB224" s="302"/>
-      <c r="AC224" s="302"/>
+      <c r="Q224" s="323"/>
+      <c r="R224" s="323"/>
+      <c r="S224" s="323"/>
+      <c r="T224" s="323"/>
+      <c r="U224" s="323"/>
+      <c r="V224" s="323"/>
+      <c r="W224" s="323"/>
+      <c r="X224" s="323"/>
+      <c r="Y224" s="323"/>
+      <c r="Z224" s="323"/>
+      <c r="AA224" s="323"/>
+      <c r="AB224" s="323"/>
+      <c r="AC224" s="323"/>
       <c r="AD224" s="121"/>
-      <c r="AE224" s="302" t="s">
+      <c r="AE224" s="323" t="s">
         <v>173</v>
       </c>
-      <c r="AF224" s="302"/>
-      <c r="AG224" s="302"/>
-      <c r="AH224" s="302"/>
-      <c r="AI224" s="302"/>
-      <c r="AJ224" s="302"/>
-      <c r="AK224" s="302"/>
-      <c r="AL224" s="302"/>
-      <c r="AM224" s="302"/>
-      <c r="AN224" s="302"/>
-      <c r="AO224" s="302"/>
-      <c r="AP224" s="302"/>
-      <c r="AQ224" s="302"/>
-      <c r="AR224" s="302"/>
+      <c r="AF224" s="323"/>
+      <c r="AG224" s="323"/>
+      <c r="AH224" s="323"/>
+      <c r="AI224" s="323"/>
+      <c r="AJ224" s="323"/>
+      <c r="AK224" s="323"/>
+      <c r="AL224" s="323"/>
+      <c r="AM224" s="323"/>
+      <c r="AN224" s="323"/>
+      <c r="AO224" s="323"/>
+      <c r="AP224" s="323"/>
+      <c r="AQ224" s="323"/>
+      <c r="AR224" s="323"/>
       <c r="AS224" s="120"/>
-      <c r="AT224" s="320" t="s">
+      <c r="AT224" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="AU224" s="320"/>
-      <c r="AV224" s="320"/>
-      <c r="AW224" s="320"/>
-      <c r="AX224" s="320"/>
-      <c r="AY224" s="320"/>
-      <c r="AZ224" s="320"/>
-      <c r="BA224" s="320"/>
-      <c r="BB224" s="320"/>
-      <c r="BC224" s="320"/>
-      <c r="BD224" s="320"/>
-      <c r="BE224" s="320"/>
-      <c r="BF224" s="320"/>
-      <c r="BG224" s="320"/>
+      <c r="AU224" s="324"/>
+      <c r="AV224" s="324"/>
+      <c r="AW224" s="324"/>
+      <c r="AX224" s="324"/>
+      <c r="AY224" s="324"/>
+      <c r="AZ224" s="324"/>
+      <c r="BA224" s="324"/>
+      <c r="BB224" s="324"/>
+      <c r="BC224" s="324"/>
+      <c r="BD224" s="324"/>
+      <c r="BE224" s="324"/>
+      <c r="BF224" s="324"/>
+      <c r="BG224" s="324"/>
       <c r="BH224" s="120"/>
-      <c r="BI224" s="321" t="s">
+      <c r="BI224" s="325" t="s">
         <v>175</v>
       </c>
-      <c r="BJ224" s="321"/>
-      <c r="BK224" s="321"/>
-      <c r="BL224" s="321"/>
-      <c r="BM224" s="321"/>
-      <c r="BN224" s="321"/>
-      <c r="BO224" s="321"/>
-      <c r="BP224" s="321"/>
-      <c r="BQ224" s="321"/>
-      <c r="BR224" s="321"/>
-      <c r="BS224" s="321"/>
-      <c r="BT224" s="321"/>
-      <c r="BU224" s="321"/>
-      <c r="BV224" s="321"/>
+      <c r="BJ224" s="325"/>
+      <c r="BK224" s="325"/>
+      <c r="BL224" s="325"/>
+      <c r="BM224" s="325"/>
+      <c r="BN224" s="325"/>
+      <c r="BO224" s="325"/>
+      <c r="BP224" s="325"/>
+      <c r="BQ224" s="325"/>
+      <c r="BR224" s="325"/>
+      <c r="BS224" s="325"/>
+      <c r="BT224" s="325"/>
+      <c r="BU224" s="325"/>
+      <c r="BV224" s="325"/>
     </row>
     <row r="225" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
@@ -45181,90 +45181,90 @@
       </c>
     </row>
     <row r="239" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="298" t="s">
+      <c r="A239" s="316" t="s">
         <v>176</v>
       </c>
-      <c r="B239" s="298"/>
-      <c r="C239" s="298"/>
-      <c r="D239" s="298"/>
-      <c r="E239" s="298"/>
-      <c r="F239" s="298"/>
-      <c r="G239" s="298"/>
-      <c r="H239" s="298"/>
-      <c r="I239" s="298"/>
-      <c r="J239" s="298"/>
-      <c r="K239" s="298"/>
-      <c r="L239" s="298"/>
-      <c r="M239" s="298"/>
-      <c r="N239" s="298"/>
+      <c r="B239" s="316"/>
+      <c r="C239" s="316"/>
+      <c r="D239" s="316"/>
+      <c r="E239" s="316"/>
+      <c r="F239" s="316"/>
+      <c r="G239" s="316"/>
+      <c r="H239" s="316"/>
+      <c r="I239" s="316"/>
+      <c r="J239" s="316"/>
+      <c r="K239" s="316"/>
+      <c r="L239" s="316"/>
+      <c r="M239" s="316"/>
+      <c r="N239" s="316"/>
       <c r="O239" s="120"/>
-      <c r="P239" s="298" t="s">
+      <c r="P239" s="316" t="s">
         <v>177</v>
       </c>
-      <c r="Q239" s="298"/>
-      <c r="R239" s="298"/>
-      <c r="S239" s="298"/>
-      <c r="T239" s="298"/>
-      <c r="U239" s="298"/>
-      <c r="V239" s="298"/>
-      <c r="W239" s="298"/>
-      <c r="X239" s="298"/>
-      <c r="Y239" s="298"/>
-      <c r="Z239" s="298"/>
-      <c r="AA239" s="298"/>
-      <c r="AB239" s="298"/>
-      <c r="AC239" s="298"/>
+      <c r="Q239" s="316"/>
+      <c r="R239" s="316"/>
+      <c r="S239" s="316"/>
+      <c r="T239" s="316"/>
+      <c r="U239" s="316"/>
+      <c r="V239" s="316"/>
+      <c r="W239" s="316"/>
+      <c r="X239" s="316"/>
+      <c r="Y239" s="316"/>
+      <c r="Z239" s="316"/>
+      <c r="AA239" s="316"/>
+      <c r="AB239" s="316"/>
+      <c r="AC239" s="316"/>
       <c r="AD239" s="121"/>
-      <c r="AE239" s="298" t="s">
+      <c r="AE239" s="316" t="s">
         <v>178</v>
       </c>
-      <c r="AF239" s="298"/>
-      <c r="AG239" s="298"/>
-      <c r="AH239" s="298"/>
-      <c r="AI239" s="298"/>
-      <c r="AJ239" s="298"/>
-      <c r="AK239" s="298"/>
-      <c r="AL239" s="298"/>
-      <c r="AM239" s="298"/>
-      <c r="AN239" s="298"/>
-      <c r="AO239" s="298"/>
-      <c r="AP239" s="298"/>
-      <c r="AQ239" s="298"/>
-      <c r="AR239" s="298"/>
+      <c r="AF239" s="316"/>
+      <c r="AG239" s="316"/>
+      <c r="AH239" s="316"/>
+      <c r="AI239" s="316"/>
+      <c r="AJ239" s="316"/>
+      <c r="AK239" s="316"/>
+      <c r="AL239" s="316"/>
+      <c r="AM239" s="316"/>
+      <c r="AN239" s="316"/>
+      <c r="AO239" s="316"/>
+      <c r="AP239" s="316"/>
+      <c r="AQ239" s="316"/>
+      <c r="AR239" s="316"/>
       <c r="AS239" s="120"/>
-      <c r="AT239" s="298" t="s">
+      <c r="AT239" s="316" t="s">
         <v>179</v>
       </c>
-      <c r="AU239" s="298"/>
-      <c r="AV239" s="298"/>
-      <c r="AW239" s="298"/>
-      <c r="AX239" s="298"/>
-      <c r="AY239" s="298"/>
-      <c r="AZ239" s="298"/>
-      <c r="BA239" s="298"/>
-      <c r="BB239" s="298"/>
-      <c r="BC239" s="298"/>
-      <c r="BD239" s="298"/>
-      <c r="BE239" s="298"/>
-      <c r="BF239" s="298"/>
-      <c r="BG239" s="298"/>
+      <c r="AU239" s="316"/>
+      <c r="AV239" s="316"/>
+      <c r="AW239" s="316"/>
+      <c r="AX239" s="316"/>
+      <c r="AY239" s="316"/>
+      <c r="AZ239" s="316"/>
+      <c r="BA239" s="316"/>
+      <c r="BB239" s="316"/>
+      <c r="BC239" s="316"/>
+      <c r="BD239" s="316"/>
+      <c r="BE239" s="316"/>
+      <c r="BF239" s="316"/>
+      <c r="BG239" s="316"/>
       <c r="BH239"/>
-      <c r="BI239" s="298" t="s">
+      <c r="BI239" s="316" t="s">
         <v>180</v>
       </c>
-      <c r="BJ239" s="298"/>
-      <c r="BK239" s="298"/>
-      <c r="BL239" s="298"/>
-      <c r="BM239" s="298"/>
-      <c r="BN239" s="298"/>
-      <c r="BO239" s="298"/>
-      <c r="BP239" s="298"/>
-      <c r="BQ239" s="298"/>
-      <c r="BR239" s="298"/>
-      <c r="BS239" s="298"/>
-      <c r="BT239" s="298"/>
-      <c r="BU239" s="298"/>
-      <c r="BV239" s="298"/>
+      <c r="BJ239" s="316"/>
+      <c r="BK239" s="316"/>
+      <c r="BL239" s="316"/>
+      <c r="BM239" s="316"/>
+      <c r="BN239" s="316"/>
+      <c r="BO239" s="316"/>
+      <c r="BP239" s="316"/>
+      <c r="BQ239" s="316"/>
+      <c r="BR239" s="316"/>
+      <c r="BS239" s="316"/>
+      <c r="BT239" s="316"/>
+      <c r="BU239" s="316"/>
+      <c r="BV239" s="316"/>
     </row>
     <row r="240" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
@@ -48310,124 +48310,124 @@
       <c r="CZ253" s="297"/>
     </row>
     <row r="254" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="298" t="s">
+      <c r="A254" s="316" t="s">
         <v>181</v>
       </c>
-      <c r="B254" s="298"/>
-      <c r="C254" s="298"/>
-      <c r="D254" s="298"/>
-      <c r="E254" s="298"/>
-      <c r="F254" s="298"/>
-      <c r="G254" s="298"/>
-      <c r="H254" s="298"/>
-      <c r="I254" s="298"/>
-      <c r="J254" s="298"/>
-      <c r="K254" s="298"/>
-      <c r="L254" s="298"/>
-      <c r="M254" s="298"/>
-      <c r="N254" s="298"/>
+      <c r="B254" s="316"/>
+      <c r="C254" s="316"/>
+      <c r="D254" s="316"/>
+      <c r="E254" s="316"/>
+      <c r="F254" s="316"/>
+      <c r="G254" s="316"/>
+      <c r="H254" s="316"/>
+      <c r="I254" s="316"/>
+      <c r="J254" s="316"/>
+      <c r="K254" s="316"/>
+      <c r="L254" s="316"/>
+      <c r="M254" s="316"/>
+      <c r="N254" s="316"/>
       <c r="O254" s="120"/>
-      <c r="P254" s="298" t="s">
+      <c r="P254" s="316" t="s">
         <v>182</v>
       </c>
-      <c r="Q254" s="298"/>
-      <c r="R254" s="298"/>
-      <c r="S254" s="298"/>
-      <c r="T254" s="298"/>
-      <c r="U254" s="298"/>
-      <c r="V254" s="298"/>
-      <c r="W254" s="298"/>
-      <c r="X254" s="298"/>
-      <c r="Y254" s="298"/>
-      <c r="Z254" s="298"/>
-      <c r="AA254" s="298"/>
-      <c r="AB254" s="298"/>
-      <c r="AC254" s="298"/>
+      <c r="Q254" s="316"/>
+      <c r="R254" s="316"/>
+      <c r="S254" s="316"/>
+      <c r="T254" s="316"/>
+      <c r="U254" s="316"/>
+      <c r="V254" s="316"/>
+      <c r="W254" s="316"/>
+      <c r="X254" s="316"/>
+      <c r="Y254" s="316"/>
+      <c r="Z254" s="316"/>
+      <c r="AA254" s="316"/>
+      <c r="AB254" s="316"/>
+      <c r="AC254" s="316"/>
       <c r="AD254" s="121"/>
-      <c r="AE254" s="298" t="s">
+      <c r="AE254" s="316" t="s">
         <v>183</v>
       </c>
-      <c r="AF254" s="298"/>
-      <c r="AG254" s="298"/>
-      <c r="AH254" s="298"/>
-      <c r="AI254" s="298"/>
-      <c r="AJ254" s="298"/>
-      <c r="AK254" s="298"/>
-      <c r="AL254" s="298"/>
-      <c r="AM254" s="298"/>
-      <c r="AN254" s="298"/>
-      <c r="AO254" s="298"/>
-      <c r="AP254" s="298"/>
-      <c r="AQ254" s="298"/>
-      <c r="AR254" s="298"/>
+      <c r="AF254" s="316"/>
+      <c r="AG254" s="316"/>
+      <c r="AH254" s="316"/>
+      <c r="AI254" s="316"/>
+      <c r="AJ254" s="316"/>
+      <c r="AK254" s="316"/>
+      <c r="AL254" s="316"/>
+      <c r="AM254" s="316"/>
+      <c r="AN254" s="316"/>
+      <c r="AO254" s="316"/>
+      <c r="AP254" s="316"/>
+      <c r="AQ254" s="316"/>
+      <c r="AR254" s="316"/>
       <c r="AS254"/>
-      <c r="AT254" s="301" t="s">
+      <c r="AT254" s="326" t="s">
         <v>184</v>
       </c>
-      <c r="AU254" s="301"/>
-      <c r="AV254" s="301"/>
-      <c r="AW254" s="301"/>
-      <c r="AX254" s="301"/>
-      <c r="AY254" s="301"/>
-      <c r="AZ254" s="301"/>
-      <c r="BA254" s="301"/>
-      <c r="BB254" s="301"/>
-      <c r="BC254" s="301"/>
-      <c r="BD254" s="301"/>
-      <c r="BE254" s="301"/>
-      <c r="BF254" s="301"/>
-      <c r="BG254" s="301"/>
+      <c r="AU254" s="326"/>
+      <c r="AV254" s="326"/>
+      <c r="AW254" s="326"/>
+      <c r="AX254" s="326"/>
+      <c r="AY254" s="326"/>
+      <c r="AZ254" s="326"/>
+      <c r="BA254" s="326"/>
+      <c r="BB254" s="326"/>
+      <c r="BC254" s="326"/>
+      <c r="BD254" s="326"/>
+      <c r="BE254" s="326"/>
+      <c r="BF254" s="326"/>
+      <c r="BG254" s="326"/>
       <c r="BH254" s="120"/>
-      <c r="BI254" s="298" t="s">
+      <c r="BI254" s="316" t="s">
         <v>185</v>
       </c>
-      <c r="BJ254" s="298"/>
-      <c r="BK254" s="298"/>
-      <c r="BL254" s="298"/>
-      <c r="BM254" s="298"/>
-      <c r="BN254" s="298"/>
-      <c r="BO254" s="298"/>
-      <c r="BP254" s="298"/>
-      <c r="BQ254" s="298"/>
-      <c r="BR254" s="298"/>
-      <c r="BS254" s="298"/>
-      <c r="BT254" s="298"/>
-      <c r="BU254" s="298"/>
-      <c r="BV254" s="298"/>
+      <c r="BJ254" s="316"/>
+      <c r="BK254" s="316"/>
+      <c r="BL254" s="316"/>
+      <c r="BM254" s="316"/>
+      <c r="BN254" s="316"/>
+      <c r="BO254" s="316"/>
+      <c r="BP254" s="316"/>
+      <c r="BQ254" s="316"/>
+      <c r="BR254" s="316"/>
+      <c r="BS254" s="316"/>
+      <c r="BT254" s="316"/>
+      <c r="BU254" s="316"/>
+      <c r="BV254" s="316"/>
       <c r="BW254"/>
-      <c r="BX254" s="298" t="s">
+      <c r="BX254" s="316" t="s">
         <v>359</v>
       </c>
-      <c r="BY254" s="298"/>
-      <c r="BZ254" s="298"/>
-      <c r="CA254" s="298"/>
-      <c r="CB254" s="298"/>
-      <c r="CC254" s="298"/>
-      <c r="CD254" s="298"/>
-      <c r="CE254" s="298"/>
-      <c r="CF254" s="298"/>
-      <c r="CG254" s="298"/>
-      <c r="CH254" s="298"/>
-      <c r="CI254" s="298"/>
-      <c r="CJ254" s="298"/>
-      <c r="CK254" s="298"/>
+      <c r="BY254" s="316"/>
+      <c r="BZ254" s="316"/>
+      <c r="CA254" s="316"/>
+      <c r="CB254" s="316"/>
+      <c r="CC254" s="316"/>
+      <c r="CD254" s="316"/>
+      <c r="CE254" s="316"/>
+      <c r="CF254" s="316"/>
+      <c r="CG254" s="316"/>
+      <c r="CH254" s="316"/>
+      <c r="CI254" s="316"/>
+      <c r="CJ254" s="316"/>
+      <c r="CK254" s="316"/>
       <c r="CL254"/>
-      <c r="CM254" s="305" t="s">
+      <c r="CM254" s="317" t="s">
         <v>186</v>
       </c>
-      <c r="CN254" s="305"/>
-      <c r="CO254" s="305"/>
-      <c r="CP254" s="305"/>
-      <c r="CQ254" s="305"/>
-      <c r="CR254" s="305"/>
-      <c r="CS254" s="305"/>
-      <c r="CT254" s="305"/>
-      <c r="CU254" s="305"/>
-      <c r="CV254" s="305"/>
-      <c r="CW254" s="305"/>
-      <c r="CX254" s="305"/>
-      <c r="CY254" s="305"/>
-      <c r="CZ254" s="305"/>
+      <c r="CN254" s="317"/>
+      <c r="CO254" s="317"/>
+      <c r="CP254" s="317"/>
+      <c r="CQ254" s="317"/>
+      <c r="CR254" s="317"/>
+      <c r="CS254" s="317"/>
+      <c r="CT254" s="317"/>
+      <c r="CU254" s="317"/>
+      <c r="CV254" s="317"/>
+      <c r="CW254" s="317"/>
+      <c r="CX254" s="317"/>
+      <c r="CY254" s="317"/>
+      <c r="CZ254" s="317"/>
     </row>
     <row r="255" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
@@ -52691,37 +52691,37 @@
       <c r="BF270" s="289"/>
       <c r="BG270" s="289"/>
       <c r="BH270" s="66"/>
-      <c r="BI270" s="299" t="s">
+      <c r="BI270" s="327" t="s">
         <v>361</v>
       </c>
-      <c r="BJ270" s="299"/>
-      <c r="BK270" s="299"/>
-      <c r="BL270" s="299"/>
-      <c r="BM270" s="299"/>
-      <c r="BN270" s="299"/>
-      <c r="BO270" s="299"/>
-      <c r="BP270" s="299"/>
-      <c r="BQ270" s="299"/>
-      <c r="BR270" s="299"/>
-      <c r="BS270" s="299"/>
-      <c r="BT270" s="299"/>
-      <c r="BU270" s="299"/>
-      <c r="BV270" s="299"/>
-      <c r="BW270" s="299"/>
-      <c r="BX270" s="299"/>
-      <c r="BY270" s="299"/>
-      <c r="BZ270" s="299"/>
-      <c r="CA270" s="299"/>
-      <c r="CB270" s="299"/>
-      <c r="CC270" s="299"/>
-      <c r="CD270" s="299"/>
-      <c r="CE270" s="299"/>
-      <c r="CF270" s="299"/>
-      <c r="CG270" s="299"/>
-      <c r="CH270" s="299"/>
-      <c r="CI270" s="299"/>
-      <c r="CJ270" s="299"/>
-      <c r="CK270" s="299"/>
+      <c r="BJ270" s="327"/>
+      <c r="BK270" s="327"/>
+      <c r="BL270" s="327"/>
+      <c r="BM270" s="327"/>
+      <c r="BN270" s="327"/>
+      <c r="BO270" s="327"/>
+      <c r="BP270" s="327"/>
+      <c r="BQ270" s="327"/>
+      <c r="BR270" s="327"/>
+      <c r="BS270" s="327"/>
+      <c r="BT270" s="327"/>
+      <c r="BU270" s="327"/>
+      <c r="BV270" s="327"/>
+      <c r="BW270" s="327"/>
+      <c r="BX270" s="327"/>
+      <c r="BY270" s="327"/>
+      <c r="BZ270" s="327"/>
+      <c r="CA270" s="327"/>
+      <c r="CB270" s="327"/>
+      <c r="CC270" s="327"/>
+      <c r="CD270" s="327"/>
+      <c r="CE270" s="327"/>
+      <c r="CF270" s="327"/>
+      <c r="CG270" s="327"/>
+      <c r="CH270" s="327"/>
+      <c r="CI270" s="327"/>
+      <c r="CJ270" s="327"/>
+      <c r="CK270" s="327"/>
       <c r="CL270" s="66"/>
     </row>
     <row r="271" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -52768,55 +52768,55 @@
       <c r="BF271" s="275"/>
       <c r="BG271" s="275"/>
       <c r="BH271" s="108"/>
-      <c r="BI271" s="298" t="s">
+      <c r="BI271" s="316" t="s">
         <v>360</v>
       </c>
-      <c r="BJ271" s="298"/>
-      <c r="BK271" s="298"/>
-      <c r="BL271" s="298"/>
-      <c r="BM271" s="298"/>
-      <c r="BN271" s="298"/>
-      <c r="BO271" s="298"/>
-      <c r="BP271" s="298"/>
-      <c r="BQ271" s="298"/>
-      <c r="BR271" s="298"/>
-      <c r="BS271" s="298"/>
-      <c r="BT271" s="298"/>
-      <c r="BU271" s="298"/>
-      <c r="BV271" s="298"/>
-      <c r="BX271" s="298" t="s">
+      <c r="BJ271" s="316"/>
+      <c r="BK271" s="316"/>
+      <c r="BL271" s="316"/>
+      <c r="BM271" s="316"/>
+      <c r="BN271" s="316"/>
+      <c r="BO271" s="316"/>
+      <c r="BP271" s="316"/>
+      <c r="BQ271" s="316"/>
+      <c r="BR271" s="316"/>
+      <c r="BS271" s="316"/>
+      <c r="BT271" s="316"/>
+      <c r="BU271" s="316"/>
+      <c r="BV271" s="316"/>
+      <c r="BX271" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="BY271" s="298"/>
-      <c r="BZ271" s="298"/>
-      <c r="CA271" s="298"/>
-      <c r="CB271" s="298"/>
-      <c r="CC271" s="298"/>
-      <c r="CD271" s="298"/>
-      <c r="CE271" s="298"/>
-      <c r="CF271" s="298"/>
-      <c r="CG271" s="298"/>
-      <c r="CH271" s="298"/>
-      <c r="CI271" s="298"/>
-      <c r="CJ271" s="298"/>
-      <c r="CK271" s="298"/>
+      <c r="BY271" s="316"/>
+      <c r="BZ271" s="316"/>
+      <c r="CA271" s="316"/>
+      <c r="CB271" s="316"/>
+      <c r="CC271" s="316"/>
+      <c r="CD271" s="316"/>
+      <c r="CE271" s="316"/>
+      <c r="CF271" s="316"/>
+      <c r="CG271" s="316"/>
+      <c r="CH271" s="316"/>
+      <c r="CI271" s="316"/>
+      <c r="CJ271" s="316"/>
+      <c r="CK271" s="316"/>
       <c r="CL271" s="295"/>
-      <c r="CM271" s="298" t="s">
+      <c r="CM271" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="CN271" s="298"/>
-      <c r="CO271" s="298"/>
-      <c r="CP271" s="298"/>
-      <c r="CQ271" s="298"/>
-      <c r="CR271" s="298"/>
-      <c r="CS271" s="298"/>
-      <c r="CT271" s="298"/>
-      <c r="CU271" s="298"/>
-      <c r="CV271" s="298"/>
-      <c r="CW271" s="298"/>
-      <c r="CX271" s="298"/>
-      <c r="CY271" s="298"/>
-      <c r="CZ271" s="298"/>
+      <c r="CN271" s="316"/>
+      <c r="CO271" s="316"/>
+      <c r="CP271" s="316"/>
+      <c r="CQ271" s="316"/>
+      <c r="CR271" s="316"/>
+      <c r="CS271" s="316"/>
+      <c r="CT271" s="316"/>
+      <c r="CU271" s="316"/>
+      <c r="CV271" s="316"/>
+      <c r="CW271" s="316"/>
+      <c r="CX271" s="316"/>
+      <c r="CY271" s="316"/>
+      <c r="CZ271" s="316"/>
     </row>
     <row r="272" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="77"/>
@@ -55120,37 +55120,37 @@
       <c r="BF286" s="289"/>
       <c r="BG286" s="289"/>
       <c r="BH286" s="66"/>
-      <c r="BI286" s="299" t="s">
+      <c r="BI286" s="327" t="s">
         <v>362</v>
       </c>
-      <c r="BJ286" s="299"/>
-      <c r="BK286" s="299"/>
-      <c r="BL286" s="299"/>
-      <c r="BM286" s="299"/>
-      <c r="BN286" s="299"/>
-      <c r="BO286" s="299"/>
-      <c r="BP286" s="299"/>
-      <c r="BQ286" s="299"/>
-      <c r="BR286" s="299"/>
-      <c r="BS286" s="299"/>
-      <c r="BT286" s="299"/>
-      <c r="BU286" s="299"/>
-      <c r="BV286" s="299"/>
-      <c r="BW286" s="299"/>
-      <c r="BX286" s="299"/>
-      <c r="BY286" s="299"/>
-      <c r="BZ286" s="299"/>
-      <c r="CA286" s="299"/>
-      <c r="CB286" s="299"/>
-      <c r="CC286" s="299"/>
-      <c r="CD286" s="299"/>
-      <c r="CE286" s="299"/>
-      <c r="CF286" s="299"/>
-      <c r="CG286" s="299"/>
-      <c r="CH286" s="299"/>
-      <c r="CI286" s="299"/>
-      <c r="CJ286" s="299"/>
-      <c r="CK286" s="299"/>
+      <c r="BJ286" s="327"/>
+      <c r="BK286" s="327"/>
+      <c r="BL286" s="327"/>
+      <c r="BM286" s="327"/>
+      <c r="BN286" s="327"/>
+      <c r="BO286" s="327"/>
+      <c r="BP286" s="327"/>
+      <c r="BQ286" s="327"/>
+      <c r="BR286" s="327"/>
+      <c r="BS286" s="327"/>
+      <c r="BT286" s="327"/>
+      <c r="BU286" s="327"/>
+      <c r="BV286" s="327"/>
+      <c r="BW286" s="327"/>
+      <c r="BX286" s="327"/>
+      <c r="BY286" s="327"/>
+      <c r="BZ286" s="327"/>
+      <c r="CA286" s="327"/>
+      <c r="CB286" s="327"/>
+      <c r="CC286" s="327"/>
+      <c r="CD286" s="327"/>
+      <c r="CE286" s="327"/>
+      <c r="CF286" s="327"/>
+      <c r="CG286" s="327"/>
+      <c r="CH286" s="327"/>
+      <c r="CI286" s="327"/>
+      <c r="CJ286" s="327"/>
+      <c r="CK286" s="327"/>
       <c r="CL286" s="296"/>
       <c r="CM286" s="294"/>
       <c r="CN286" s="294"/>
@@ -55196,55 +55196,55 @@
       <c r="BE287" s="275"/>
       <c r="BF287" s="275"/>
       <c r="BG287" s="275"/>
-      <c r="BI287" s="298" t="s">
+      <c r="BI287" s="316" t="s">
         <v>360</v>
       </c>
-      <c r="BJ287" s="298"/>
-      <c r="BK287" s="298"/>
-      <c r="BL287" s="298"/>
-      <c r="BM287" s="298"/>
-      <c r="BN287" s="298"/>
-      <c r="BO287" s="298"/>
-      <c r="BP287" s="298"/>
-      <c r="BQ287" s="298"/>
-      <c r="BR287" s="298"/>
-      <c r="BS287" s="298"/>
-      <c r="BT287" s="298"/>
-      <c r="BU287" s="298"/>
-      <c r="BV287" s="298"/>
-      <c r="BX287" s="298" t="s">
+      <c r="BJ287" s="316"/>
+      <c r="BK287" s="316"/>
+      <c r="BL287" s="316"/>
+      <c r="BM287" s="316"/>
+      <c r="BN287" s="316"/>
+      <c r="BO287" s="316"/>
+      <c r="BP287" s="316"/>
+      <c r="BQ287" s="316"/>
+      <c r="BR287" s="316"/>
+      <c r="BS287" s="316"/>
+      <c r="BT287" s="316"/>
+      <c r="BU287" s="316"/>
+      <c r="BV287" s="316"/>
+      <c r="BX287" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="BY287" s="298"/>
-      <c r="BZ287" s="298"/>
-      <c r="CA287" s="298"/>
-      <c r="CB287" s="298"/>
-      <c r="CC287" s="298"/>
-      <c r="CD287" s="298"/>
-      <c r="CE287" s="298"/>
-      <c r="CF287" s="298"/>
-      <c r="CG287" s="298"/>
-      <c r="CH287" s="298"/>
-      <c r="CI287" s="298"/>
-      <c r="CJ287" s="298"/>
-      <c r="CK287" s="298"/>
+      <c r="BY287" s="316"/>
+      <c r="BZ287" s="316"/>
+      <c r="CA287" s="316"/>
+      <c r="CB287" s="316"/>
+      <c r="CC287" s="316"/>
+      <c r="CD287" s="316"/>
+      <c r="CE287" s="316"/>
+      <c r="CF287" s="316"/>
+      <c r="CG287" s="316"/>
+      <c r="CH287" s="316"/>
+      <c r="CI287" s="316"/>
+      <c r="CJ287" s="316"/>
+      <c r="CK287" s="316"/>
       <c r="CL287" s="295"/>
-      <c r="CM287" s="300" t="s">
+      <c r="CM287" s="322" t="s">
         <v>292</v>
       </c>
-      <c r="CN287" s="300"/>
-      <c r="CO287" s="300"/>
-      <c r="CP287" s="300"/>
-      <c r="CQ287" s="300"/>
-      <c r="CR287" s="300"/>
-      <c r="CS287" s="300"/>
-      <c r="CT287" s="300"/>
-      <c r="CU287" s="300"/>
-      <c r="CV287" s="300"/>
-      <c r="CW287" s="300"/>
-      <c r="CX287" s="300"/>
-      <c r="CY287" s="300"/>
-      <c r="CZ287" s="300"/>
+      <c r="CN287" s="322"/>
+      <c r="CO287" s="322"/>
+      <c r="CP287" s="322"/>
+      <c r="CQ287" s="322"/>
+      <c r="CR287" s="322"/>
+      <c r="CS287" s="322"/>
+      <c r="CT287" s="322"/>
+      <c r="CU287" s="322"/>
+      <c r="CV287" s="322"/>
+      <c r="CW287" s="322"/>
+      <c r="CX287" s="322"/>
+      <c r="CY287" s="322"/>
+      <c r="CZ287" s="322"/>
     </row>
     <row r="288" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="77"/>
@@ -57427,37 +57427,37 @@
       <c r="BF302" s="66"/>
       <c r="BG302" s="66"/>
       <c r="BH302" s="66"/>
-      <c r="BI302" s="299" t="s">
+      <c r="BI302" s="327" t="s">
         <v>363</v>
       </c>
-      <c r="BJ302" s="299"/>
-      <c r="BK302" s="299"/>
-      <c r="BL302" s="299"/>
-      <c r="BM302" s="299"/>
-      <c r="BN302" s="299"/>
-      <c r="BO302" s="299"/>
-      <c r="BP302" s="299"/>
-      <c r="BQ302" s="299"/>
-      <c r="BR302" s="299"/>
-      <c r="BS302" s="299"/>
-      <c r="BT302" s="299"/>
-      <c r="BU302" s="299"/>
-      <c r="BV302" s="299"/>
-      <c r="BW302" s="299"/>
-      <c r="BX302" s="299"/>
-      <c r="BY302" s="299"/>
-      <c r="BZ302" s="299"/>
-      <c r="CA302" s="299"/>
-      <c r="CB302" s="299"/>
-      <c r="CC302" s="299"/>
-      <c r="CD302" s="299"/>
-      <c r="CE302" s="299"/>
-      <c r="CF302" s="299"/>
-      <c r="CG302" s="299"/>
-      <c r="CH302" s="299"/>
-      <c r="CI302" s="299"/>
-      <c r="CJ302" s="299"/>
-      <c r="CK302" s="299"/>
+      <c r="BJ302" s="327"/>
+      <c r="BK302" s="327"/>
+      <c r="BL302" s="327"/>
+      <c r="BM302" s="327"/>
+      <c r="BN302" s="327"/>
+      <c r="BO302" s="327"/>
+      <c r="BP302" s="327"/>
+      <c r="BQ302" s="327"/>
+      <c r="BR302" s="327"/>
+      <c r="BS302" s="327"/>
+      <c r="BT302" s="327"/>
+      <c r="BU302" s="327"/>
+      <c r="BV302" s="327"/>
+      <c r="BW302" s="327"/>
+      <c r="BX302" s="327"/>
+      <c r="BY302" s="327"/>
+      <c r="BZ302" s="327"/>
+      <c r="CA302" s="327"/>
+      <c r="CB302" s="327"/>
+      <c r="CC302" s="327"/>
+      <c r="CD302" s="327"/>
+      <c r="CE302" s="327"/>
+      <c r="CF302" s="327"/>
+      <c r="CG302" s="327"/>
+      <c r="CH302" s="327"/>
+      <c r="CI302" s="327"/>
+      <c r="CJ302" s="327"/>
+      <c r="CK302" s="327"/>
       <c r="CL302" s="295"/>
     </row>
     <row r="303" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57491,38 +57491,38 @@
       <c r="BF303" s="275"/>
       <c r="BG303" s="275"/>
       <c r="BH303" s="108"/>
-      <c r="BI303" s="300" t="s">
+      <c r="BI303" s="322" t="s">
         <v>360</v>
       </c>
-      <c r="BJ303" s="300"/>
-      <c r="BK303" s="300"/>
-      <c r="BL303" s="300"/>
-      <c r="BM303" s="300"/>
-      <c r="BN303" s="300"/>
-      <c r="BO303" s="300"/>
-      <c r="BP303" s="300"/>
-      <c r="BQ303" s="300"/>
-      <c r="BR303" s="300"/>
-      <c r="BS303" s="300"/>
-      <c r="BT303" s="300"/>
-      <c r="BU303" s="300"/>
-      <c r="BV303" s="300"/>
-      <c r="BX303" s="300" t="s">
+      <c r="BJ303" s="322"/>
+      <c r="BK303" s="322"/>
+      <c r="BL303" s="322"/>
+      <c r="BM303" s="322"/>
+      <c r="BN303" s="322"/>
+      <c r="BO303" s="322"/>
+      <c r="BP303" s="322"/>
+      <c r="BQ303" s="322"/>
+      <c r="BR303" s="322"/>
+      <c r="BS303" s="322"/>
+      <c r="BT303" s="322"/>
+      <c r="BU303" s="322"/>
+      <c r="BV303" s="322"/>
+      <c r="BX303" s="322" t="s">
         <v>288</v>
       </c>
-      <c r="BY303" s="300"/>
-      <c r="BZ303" s="300"/>
-      <c r="CA303" s="300"/>
-      <c r="CB303" s="300"/>
-      <c r="CC303" s="300"/>
-      <c r="CD303" s="300"/>
-      <c r="CE303" s="300"/>
-      <c r="CF303" s="300"/>
-      <c r="CG303" s="300"/>
-      <c r="CH303" s="300"/>
-      <c r="CI303" s="300"/>
-      <c r="CJ303" s="300"/>
-      <c r="CK303" s="300"/>
+      <c r="BY303" s="322"/>
+      <c r="BZ303" s="322"/>
+      <c r="CA303" s="322"/>
+      <c r="CB303" s="322"/>
+      <c r="CC303" s="322"/>
+      <c r="CD303" s="322"/>
+      <c r="CE303" s="322"/>
+      <c r="CF303" s="322"/>
+      <c r="CG303" s="322"/>
+      <c r="CH303" s="322"/>
+      <c r="CI303" s="322"/>
+      <c r="CJ303" s="322"/>
+      <c r="CK303" s="322"/>
     </row>
     <row r="304" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AE304" s="77"/>
@@ -60185,6 +60185,113 @@
     <row r="744" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="CM271:CZ271"/>
+    <mergeCell ref="BI270:CK270"/>
+    <mergeCell ref="BI302:CK302"/>
+    <mergeCell ref="BI271:BV271"/>
+    <mergeCell ref="BX271:CK271"/>
+    <mergeCell ref="BI286:CK286"/>
+    <mergeCell ref="CM287:CZ287"/>
+    <mergeCell ref="BX303:CK303"/>
+    <mergeCell ref="BI303:BV303"/>
+    <mergeCell ref="AT239:BG239"/>
+    <mergeCell ref="BI239:BV239"/>
+    <mergeCell ref="A254:N254"/>
+    <mergeCell ref="P254:AC254"/>
+    <mergeCell ref="AE254:AR254"/>
+    <mergeCell ref="AT254:BG254"/>
+    <mergeCell ref="P224:AC224"/>
+    <mergeCell ref="P239:AC239"/>
+    <mergeCell ref="A239:N239"/>
+    <mergeCell ref="BI254:BV254"/>
+    <mergeCell ref="BI287:BV287"/>
+    <mergeCell ref="BX287:CK287"/>
+    <mergeCell ref="A17:AD17"/>
+    <mergeCell ref="AT18:BG18"/>
+    <mergeCell ref="A208:AD208"/>
+    <mergeCell ref="A209:N209"/>
+    <mergeCell ref="P209:AC209"/>
+    <mergeCell ref="AE161:AR161"/>
+    <mergeCell ref="AT161:BG161"/>
+    <mergeCell ref="BI161:BV161"/>
+    <mergeCell ref="AE209:AR209"/>
+    <mergeCell ref="AT209:BG209"/>
+    <mergeCell ref="BC160:BE160"/>
+    <mergeCell ref="BF160:BH160"/>
+    <mergeCell ref="AZ160:BB160"/>
+    <mergeCell ref="Y160:AA160"/>
+    <mergeCell ref="AB160:AD160"/>
+    <mergeCell ref="AE160:AG160"/>
+    <mergeCell ref="P160:R160"/>
+    <mergeCell ref="S160:U160"/>
+    <mergeCell ref="V160:X160"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="J160:L160"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="BI70:BV70"/>
+    <mergeCell ref="BX254:CK254"/>
+    <mergeCell ref="CM254:CZ254"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="AT34:BG34"/>
+    <mergeCell ref="P18:AC18"/>
+    <mergeCell ref="AE18:AR18"/>
+    <mergeCell ref="A69:AD69"/>
+    <mergeCell ref="BI53:BV53"/>
+    <mergeCell ref="BI68:BK68"/>
+    <mergeCell ref="BL68:BN68"/>
+    <mergeCell ref="BO68:BQ68"/>
+    <mergeCell ref="BR68:BT68"/>
+    <mergeCell ref="BU68:BW68"/>
+    <mergeCell ref="AN160:AP160"/>
+    <mergeCell ref="AQ160:AS160"/>
+    <mergeCell ref="AT160:AV160"/>
+    <mergeCell ref="AW160:AY160"/>
+    <mergeCell ref="P161:AC161"/>
+    <mergeCell ref="A224:N224"/>
+    <mergeCell ref="AE224:AR224"/>
+    <mergeCell ref="AT224:BG224"/>
+    <mergeCell ref="BI224:BV224"/>
+    <mergeCell ref="AE239:AR239"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="P70:AC70"/>
+    <mergeCell ref="AE34:AR34"/>
+    <mergeCell ref="P34:AC34"/>
+    <mergeCell ref="AE85:AR85"/>
+    <mergeCell ref="A85:N85"/>
+    <mergeCell ref="P85:AC85"/>
+    <mergeCell ref="AT85:BG85"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="AE70:AR70"/>
+    <mergeCell ref="AT70:BG70"/>
+    <mergeCell ref="P51:AX51"/>
+    <mergeCell ref="AD207:AF207"/>
+    <mergeCell ref="AG207:AI207"/>
+    <mergeCell ref="AJ207:AL207"/>
+    <mergeCell ref="AM207:AO207"/>
+    <mergeCell ref="AP207:AR207"/>
+    <mergeCell ref="A161:N161"/>
+    <mergeCell ref="A193:N193"/>
+    <mergeCell ref="A100:N100"/>
+    <mergeCell ref="P100:AC100"/>
+    <mergeCell ref="AE100:AR100"/>
+    <mergeCell ref="AH160:AJ160"/>
+    <mergeCell ref="AK160:AM160"/>
+    <mergeCell ref="A145:N145"/>
+    <mergeCell ref="P145:AC145"/>
+    <mergeCell ref="AE145:AR145"/>
+    <mergeCell ref="A130:N130"/>
+    <mergeCell ref="P130:AC130"/>
+    <mergeCell ref="AE130:AR130"/>
+    <mergeCell ref="A115:N115"/>
+    <mergeCell ref="P115:AC115"/>
+    <mergeCell ref="AE115:AR115"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A177:N177"/>
     <mergeCell ref="A192:C192"/>
@@ -60209,113 +60316,6 @@
     <mergeCell ref="P52:AC52"/>
     <mergeCell ref="AE52:AR52"/>
     <mergeCell ref="AT52:BG52"/>
-    <mergeCell ref="AD207:AF207"/>
-    <mergeCell ref="AG207:AI207"/>
-    <mergeCell ref="AJ207:AL207"/>
-    <mergeCell ref="AM207:AO207"/>
-    <mergeCell ref="AP207:AR207"/>
-    <mergeCell ref="A161:N161"/>
-    <mergeCell ref="A193:N193"/>
-    <mergeCell ref="A100:N100"/>
-    <mergeCell ref="P100:AC100"/>
-    <mergeCell ref="AE100:AR100"/>
-    <mergeCell ref="AH160:AJ160"/>
-    <mergeCell ref="AK160:AM160"/>
-    <mergeCell ref="A145:N145"/>
-    <mergeCell ref="P145:AC145"/>
-    <mergeCell ref="AE145:AR145"/>
-    <mergeCell ref="A130:N130"/>
-    <mergeCell ref="P130:AC130"/>
-    <mergeCell ref="AE130:AR130"/>
-    <mergeCell ref="A115:N115"/>
-    <mergeCell ref="P115:AC115"/>
-    <mergeCell ref="AE115:AR115"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="P70:AC70"/>
-    <mergeCell ref="AE34:AR34"/>
-    <mergeCell ref="P34:AC34"/>
-    <mergeCell ref="AE85:AR85"/>
-    <mergeCell ref="A85:N85"/>
-    <mergeCell ref="P85:AC85"/>
-    <mergeCell ref="AT85:BG85"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="AE70:AR70"/>
-    <mergeCell ref="AT70:BG70"/>
-    <mergeCell ref="P51:AX51"/>
-    <mergeCell ref="BI70:BV70"/>
-    <mergeCell ref="BX254:CK254"/>
-    <mergeCell ref="CM254:CZ254"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="AT34:BG34"/>
-    <mergeCell ref="P18:AC18"/>
-    <mergeCell ref="AE18:AR18"/>
-    <mergeCell ref="A69:AD69"/>
-    <mergeCell ref="BI53:BV53"/>
-    <mergeCell ref="BI68:BK68"/>
-    <mergeCell ref="BL68:BN68"/>
-    <mergeCell ref="BO68:BQ68"/>
-    <mergeCell ref="BR68:BT68"/>
-    <mergeCell ref="BU68:BW68"/>
-    <mergeCell ref="AN160:AP160"/>
-    <mergeCell ref="AQ160:AS160"/>
-    <mergeCell ref="AT160:AV160"/>
-    <mergeCell ref="AW160:AY160"/>
-    <mergeCell ref="P161:AC161"/>
-    <mergeCell ref="A224:N224"/>
-    <mergeCell ref="AE224:AR224"/>
-    <mergeCell ref="AT224:BG224"/>
-    <mergeCell ref="BI224:BV224"/>
-    <mergeCell ref="AE239:AR239"/>
-    <mergeCell ref="A17:AD17"/>
-    <mergeCell ref="AT18:BG18"/>
-    <mergeCell ref="A208:AD208"/>
-    <mergeCell ref="A209:N209"/>
-    <mergeCell ref="P209:AC209"/>
-    <mergeCell ref="AE161:AR161"/>
-    <mergeCell ref="AT161:BG161"/>
-    <mergeCell ref="BI161:BV161"/>
-    <mergeCell ref="AE209:AR209"/>
-    <mergeCell ref="AT209:BG209"/>
-    <mergeCell ref="BC160:BE160"/>
-    <mergeCell ref="BF160:BH160"/>
-    <mergeCell ref="AZ160:BB160"/>
-    <mergeCell ref="Y160:AA160"/>
-    <mergeCell ref="AB160:AD160"/>
-    <mergeCell ref="AE160:AG160"/>
-    <mergeCell ref="P160:R160"/>
-    <mergeCell ref="S160:U160"/>
-    <mergeCell ref="V160:X160"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="J160:L160"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="BX303:CK303"/>
-    <mergeCell ref="BI303:BV303"/>
-    <mergeCell ref="AT239:BG239"/>
-    <mergeCell ref="BI239:BV239"/>
-    <mergeCell ref="A254:N254"/>
-    <mergeCell ref="P254:AC254"/>
-    <mergeCell ref="AE254:AR254"/>
-    <mergeCell ref="AT254:BG254"/>
-    <mergeCell ref="P224:AC224"/>
-    <mergeCell ref="P239:AC239"/>
-    <mergeCell ref="A239:N239"/>
-    <mergeCell ref="BI254:BV254"/>
-    <mergeCell ref="BI287:BV287"/>
-    <mergeCell ref="BX287:CK287"/>
-    <mergeCell ref="CM271:CZ271"/>
-    <mergeCell ref="BI270:CK270"/>
-    <mergeCell ref="BI302:CK302"/>
-    <mergeCell ref="BI271:BV271"/>
-    <mergeCell ref="BX271:CK271"/>
-    <mergeCell ref="BI286:CK286"/>
-    <mergeCell ref="CM287:CZ287"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pAd/bin/Debug/Data/SPINRANGES.xlsx
+++ b/pAd/bin/Debug/Data/SPINRANGES.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14652" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15497" uniqueCount="373">
   <si>
     <t>A</t>
   </si>
@@ -1210,6 +1210,21 @@
   <si>
     <t>BTN OpenShove (MP) 6-8bb  ef</t>
   </si>
+  <si>
+    <t>SB Open IP 10b unexpl</t>
+  </si>
+  <si>
+    <t>SB Open IP 7-8b unexpl</t>
+  </si>
+  <si>
+    <t>SB Open IP 8-9b unexpl</t>
+  </si>
+  <si>
+    <t>SB CALL Vspush after LIMP IP 7-9b unexpl</t>
+  </si>
+  <si>
+    <t>SB CALL Vspush after LIMP IP 9-12b unexpl</t>
+  </si>
 </sst>
 </file>
 
@@ -1746,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2607,6 +2622,30 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2661,9 +2700,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2697,7 +2733,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3072,83 +3114,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DS762"/>
+  <dimension ref="A1:EE762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50:AC50"/>
+    <sheetView tabSelected="1" topLeftCell="CH100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CV115" sqref="CV115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="125" width="3.625" style="17" customWidth="1"/>
-    <col min="126" max="16384" width="9" style="17"/>
+    <col min="1" max="177" width="3.625" style="17" customWidth="1"/>
+    <col min="178" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="303"/>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="303"/>
-      <c r="S1" s="303"/>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="303"/>
-      <c r="AA1" s="303"/>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="303"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="311"/>
+      <c r="T1" s="311"/>
+      <c r="U1" s="311"/>
+      <c r="V1" s="311"/>
+      <c r="W1" s="311"/>
+      <c r="X1" s="311"/>
+      <c r="Y1" s="311"/>
+      <c r="Z1" s="311"/>
+      <c r="AA1" s="311"/>
+      <c r="AB1" s="311"/>
+      <c r="AC1" s="311"/>
+      <c r="AD1" s="311"/>
     </row>
     <row r="17" spans="1:94" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="303" t="s">
+      <c r="A17" s="311" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="303"/>
-      <c r="C17" s="303"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
-      <c r="J17" s="303"/>
-      <c r="K17" s="303"/>
-      <c r="L17" s="303"/>
-      <c r="M17" s="303"/>
-      <c r="N17" s="303"/>
-      <c r="O17" s="303"/>
-      <c r="P17" s="303"/>
-      <c r="Q17" s="303"/>
-      <c r="R17" s="303"/>
-      <c r="S17" s="303"/>
-      <c r="T17" s="303"/>
-      <c r="U17" s="303"/>
-      <c r="V17" s="303"/>
-      <c r="W17" s="303"/>
-      <c r="X17" s="303"/>
-      <c r="Y17" s="303"/>
-      <c r="Z17" s="303"/>
-      <c r="AA17" s="303"/>
-      <c r="AB17" s="303"/>
-      <c r="AC17" s="303"/>
-      <c r="AD17" s="303"/>
+      <c r="B17" s="311"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="311"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="311"/>
+      <c r="K17" s="311"/>
+      <c r="L17" s="311"/>
+      <c r="M17" s="311"/>
+      <c r="N17" s="311"/>
+      <c r="O17" s="311"/>
+      <c r="P17" s="311"/>
+      <c r="Q17" s="311"/>
+      <c r="R17" s="311"/>
+      <c r="S17" s="311"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="311"/>
+      <c r="V17" s="311"/>
+      <c r="W17" s="311"/>
+      <c r="X17" s="311"/>
+      <c r="Y17" s="311"/>
+      <c r="Z17" s="311"/>
+      <c r="AA17" s="311"/>
+      <c r="AB17" s="311"/>
+      <c r="AC17" s="311"/>
+      <c r="AD17" s="311"/>
       <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
@@ -3215,70 +3257,70 @@
       <c r="CP17" s="66"/>
     </row>
     <row r="18" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="317" t="s">
+      <c r="A18" s="324" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="317"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="317"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="317"/>
-      <c r="H18" s="317"/>
-      <c r="I18" s="317"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="317"/>
-      <c r="L18" s="317"/>
-      <c r="M18" s="317"/>
-      <c r="N18" s="317"/>
-      <c r="P18" s="317" t="s">
+      <c r="B18" s="324"/>
+      <c r="C18" s="324"/>
+      <c r="D18" s="324"/>
+      <c r="E18" s="324"/>
+      <c r="F18" s="324"/>
+      <c r="G18" s="324"/>
+      <c r="H18" s="324"/>
+      <c r="I18" s="324"/>
+      <c r="J18" s="324"/>
+      <c r="K18" s="324"/>
+      <c r="L18" s="324"/>
+      <c r="M18" s="324"/>
+      <c r="N18" s="324"/>
+      <c r="P18" s="324" t="s">
         <v>246</v>
       </c>
-      <c r="Q18" s="317"/>
-      <c r="R18" s="317"/>
-      <c r="S18" s="317"/>
-      <c r="T18" s="317"/>
-      <c r="U18" s="317"/>
-      <c r="V18" s="317"/>
-      <c r="W18" s="317"/>
-      <c r="X18" s="317"/>
-      <c r="Y18" s="317"/>
-      <c r="Z18" s="317"/>
-      <c r="AA18" s="317"/>
-      <c r="AB18" s="317"/>
-      <c r="AC18" s="317"/>
-      <c r="AE18" s="319" t="s">
+      <c r="Q18" s="324"/>
+      <c r="R18" s="324"/>
+      <c r="S18" s="324"/>
+      <c r="T18" s="324"/>
+      <c r="U18" s="324"/>
+      <c r="V18" s="324"/>
+      <c r="W18" s="324"/>
+      <c r="X18" s="324"/>
+      <c r="Y18" s="324"/>
+      <c r="Z18" s="324"/>
+      <c r="AA18" s="324"/>
+      <c r="AB18" s="324"/>
+      <c r="AC18" s="324"/>
+      <c r="AE18" s="326" t="s">
         <v>247</v>
       </c>
-      <c r="AF18" s="319"/>
-      <c r="AG18" s="319"/>
-      <c r="AH18" s="319"/>
-      <c r="AI18" s="319"/>
-      <c r="AJ18" s="319"/>
-      <c r="AK18" s="319"/>
-      <c r="AL18" s="319"/>
-      <c r="AM18" s="319"/>
-      <c r="AN18" s="319"/>
-      <c r="AO18" s="319"/>
-      <c r="AP18" s="319"/>
-      <c r="AQ18" s="319"/>
-      <c r="AR18" s="319"/>
-      <c r="AT18" s="304" t="s">
+      <c r="AF18" s="326"/>
+      <c r="AG18" s="326"/>
+      <c r="AH18" s="326"/>
+      <c r="AI18" s="326"/>
+      <c r="AJ18" s="326"/>
+      <c r="AK18" s="326"/>
+      <c r="AL18" s="326"/>
+      <c r="AM18" s="326"/>
+      <c r="AN18" s="326"/>
+      <c r="AO18" s="326"/>
+      <c r="AP18" s="326"/>
+      <c r="AQ18" s="326"/>
+      <c r="AR18" s="326"/>
+      <c r="AT18" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="AU18" s="304"/>
-      <c r="AV18" s="304"/>
-      <c r="AW18" s="304"/>
-      <c r="AX18" s="304"/>
-      <c r="AY18" s="304"/>
-      <c r="AZ18" s="304"/>
-      <c r="BA18" s="304"/>
-      <c r="BB18" s="304"/>
-      <c r="BC18" s="304"/>
-      <c r="BD18" s="304"/>
-      <c r="BE18" s="304"/>
-      <c r="BF18" s="304"/>
-      <c r="BG18" s="304"/>
+      <c r="AU18" s="312"/>
+      <c r="AV18" s="312"/>
+      <c r="AW18" s="312"/>
+      <c r="AX18" s="312"/>
+      <c r="AY18" s="312"/>
+      <c r="AZ18" s="312"/>
+      <c r="BA18" s="312"/>
+      <c r="BB18" s="312"/>
+      <c r="BC18" s="312"/>
+      <c r="BD18" s="312"/>
+      <c r="BE18" s="312"/>
+      <c r="BF18" s="312"/>
+      <c r="BG18" s="312"/>
     </row>
     <row r="19" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -5654,54 +5696,54 @@
     </row>
     <row r="33" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="317" t="s">
+      <c r="P34" s="324" t="s">
         <v>250</v>
       </c>
-      <c r="Q34" s="317"/>
-      <c r="R34" s="317"/>
-      <c r="S34" s="317"/>
-      <c r="T34" s="317"/>
-      <c r="U34" s="317"/>
-      <c r="V34" s="317"/>
-      <c r="W34" s="317"/>
-      <c r="X34" s="317"/>
-      <c r="Y34" s="317"/>
-      <c r="Z34" s="317"/>
-      <c r="AA34" s="317"/>
-      <c r="AB34" s="317"/>
-      <c r="AC34" s="317"/>
-      <c r="AE34" s="319" t="s">
+      <c r="Q34" s="324"/>
+      <c r="R34" s="324"/>
+      <c r="S34" s="324"/>
+      <c r="T34" s="324"/>
+      <c r="U34" s="324"/>
+      <c r="V34" s="324"/>
+      <c r="W34" s="324"/>
+      <c r="X34" s="324"/>
+      <c r="Y34" s="324"/>
+      <c r="Z34" s="324"/>
+      <c r="AA34" s="324"/>
+      <c r="AB34" s="324"/>
+      <c r="AC34" s="324"/>
+      <c r="AE34" s="326" t="s">
         <v>249</v>
       </c>
-      <c r="AF34" s="319"/>
-      <c r="AG34" s="319"/>
-      <c r="AH34" s="319"/>
-      <c r="AI34" s="319"/>
-      <c r="AJ34" s="319"/>
-      <c r="AK34" s="319"/>
-      <c r="AL34" s="319"/>
-      <c r="AM34" s="319"/>
-      <c r="AN34" s="319"/>
-      <c r="AO34" s="319"/>
-      <c r="AP34" s="319"/>
-      <c r="AQ34" s="319"/>
-      <c r="AR34" s="319"/>
-      <c r="AT34" s="318" t="s">
+      <c r="AF34" s="326"/>
+      <c r="AG34" s="326"/>
+      <c r="AH34" s="326"/>
+      <c r="AI34" s="326"/>
+      <c r="AJ34" s="326"/>
+      <c r="AK34" s="326"/>
+      <c r="AL34" s="326"/>
+      <c r="AM34" s="326"/>
+      <c r="AN34" s="326"/>
+      <c r="AO34" s="326"/>
+      <c r="AP34" s="326"/>
+      <c r="AQ34" s="326"/>
+      <c r="AR34" s="326"/>
+      <c r="AT34" s="325" t="s">
         <v>138</v>
       </c>
-      <c r="AU34" s="318"/>
-      <c r="AV34" s="318"/>
-      <c r="AW34" s="318"/>
-      <c r="AX34" s="318"/>
-      <c r="AY34" s="318"/>
-      <c r="AZ34" s="318"/>
-      <c r="BA34" s="318"/>
-      <c r="BB34" s="318"/>
-      <c r="BC34" s="318"/>
-      <c r="BD34" s="318"/>
-      <c r="BE34" s="318"/>
-      <c r="BF34" s="318"/>
-      <c r="BG34" s="318"/>
+      <c r="AU34" s="325"/>
+      <c r="AV34" s="325"/>
+      <c r="AW34" s="325"/>
+      <c r="AX34" s="325"/>
+      <c r="AY34" s="325"/>
+      <c r="AZ34" s="325"/>
+      <c r="BA34" s="325"/>
+      <c r="BB34" s="325"/>
+      <c r="BC34" s="325"/>
+      <c r="BD34" s="325"/>
+      <c r="BE34" s="325"/>
+      <c r="BF34" s="325"/>
+      <c r="BG34" s="325"/>
     </row>
     <row r="35" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P35" s="1"/>
@@ -7490,102 +7532,102 @@
       </c>
     </row>
     <row r="49" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P49" s="299" t="s">
+      <c r="P49" s="307" t="s">
         <v>364</v>
       </c>
-      <c r="Q49" s="299"/>
-      <c r="R49" s="299"/>
-      <c r="S49" s="299"/>
-      <c r="T49" s="299"/>
-      <c r="U49" s="299"/>
-      <c r="V49" s="299"/>
-      <c r="W49" s="299"/>
-      <c r="X49" s="299"/>
-      <c r="Y49" s="299"/>
-      <c r="Z49" s="299"/>
-      <c r="AA49" s="299"/>
-      <c r="AB49" s="299"/>
-      <c r="AC49" s="299"/>
-      <c r="AD49" s="299"/>
-      <c r="AE49" s="299"/>
-      <c r="AF49" s="299"/>
-      <c r="AG49" s="299"/>
-      <c r="AH49" s="299"/>
-      <c r="AI49" s="299"/>
-      <c r="AJ49" s="299"/>
-      <c r="AK49" s="299"/>
-      <c r="AL49" s="299"/>
-      <c r="AM49" s="299"/>
-      <c r="AN49" s="299"/>
-      <c r="AO49" s="299"/>
-      <c r="AP49" s="299"/>
-      <c r="AQ49" s="299"/>
-      <c r="AR49" s="299"/>
-      <c r="AS49" s="299"/>
-      <c r="AT49" s="299"/>
-      <c r="AU49" s="299"/>
-      <c r="AV49" s="299"/>
-      <c r="AW49" s="299"/>
-      <c r="AX49" s="299"/>
-      <c r="AY49" s="299"/>
-      <c r="AZ49" s="299"/>
-      <c r="BA49" s="299"/>
-      <c r="BB49" s="299"/>
-      <c r="BC49" s="299"/>
-      <c r="BD49" s="299"/>
-      <c r="BE49" s="299"/>
-      <c r="BF49" s="299"/>
-      <c r="BG49" s="299"/>
+      <c r="Q49" s="307"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="307"/>
+      <c r="T49" s="307"/>
+      <c r="U49" s="307"/>
+      <c r="V49" s="307"/>
+      <c r="W49" s="307"/>
+      <c r="X49" s="307"/>
+      <c r="Y49" s="307"/>
+      <c r="Z49" s="307"/>
+      <c r="AA49" s="307"/>
+      <c r="AB49" s="307"/>
+      <c r="AC49" s="307"/>
+      <c r="AD49" s="307"/>
+      <c r="AE49" s="307"/>
+      <c r="AF49" s="307"/>
+      <c r="AG49" s="307"/>
+      <c r="AH49" s="307"/>
+      <c r="AI49" s="307"/>
+      <c r="AJ49" s="307"/>
+      <c r="AK49" s="307"/>
+      <c r="AL49" s="307"/>
+      <c r="AM49" s="307"/>
+      <c r="AN49" s="307"/>
+      <c r="AO49" s="307"/>
+      <c r="AP49" s="307"/>
+      <c r="AQ49" s="307"/>
+      <c r="AR49" s="307"/>
+      <c r="AS49" s="307"/>
+      <c r="AT49" s="307"/>
+      <c r="AU49" s="307"/>
+      <c r="AV49" s="307"/>
+      <c r="AW49" s="307"/>
+      <c r="AX49" s="307"/>
+      <c r="AY49" s="307"/>
+      <c r="AZ49" s="307"/>
+      <c r="BA49" s="307"/>
+      <c r="BB49" s="307"/>
+      <c r="BC49" s="307"/>
+      <c r="BD49" s="307"/>
+      <c r="BE49" s="307"/>
+      <c r="BF49" s="307"/>
+      <c r="BG49" s="307"/>
     </row>
     <row r="50" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P50" s="318" t="s">
+      <c r="P50" s="325" t="s">
         <v>367</v>
       </c>
-      <c r="Q50" s="318"/>
-      <c r="R50" s="318"/>
-      <c r="S50" s="318"/>
-      <c r="T50" s="318"/>
-      <c r="U50" s="318"/>
-      <c r="V50" s="318"/>
-      <c r="W50" s="318"/>
-      <c r="X50" s="318"/>
-      <c r="Y50" s="318"/>
-      <c r="Z50" s="318"/>
-      <c r="AA50" s="318"/>
-      <c r="AB50" s="318"/>
-      <c r="AC50" s="318"/>
-      <c r="AE50" s="318" t="s">
+      <c r="Q50" s="325"/>
+      <c r="R50" s="325"/>
+      <c r="S50" s="325"/>
+      <c r="T50" s="325"/>
+      <c r="U50" s="325"/>
+      <c r="V50" s="325"/>
+      <c r="W50" s="325"/>
+      <c r="X50" s="325"/>
+      <c r="Y50" s="325"/>
+      <c r="Z50" s="325"/>
+      <c r="AA50" s="325"/>
+      <c r="AB50" s="325"/>
+      <c r="AC50" s="325"/>
+      <c r="AE50" s="325" t="s">
         <v>366</v>
       </c>
-      <c r="AF50" s="318"/>
-      <c r="AG50" s="318"/>
-      <c r="AH50" s="318"/>
-      <c r="AI50" s="318"/>
-      <c r="AJ50" s="318"/>
-      <c r="AK50" s="318"/>
-      <c r="AL50" s="318"/>
-      <c r="AM50" s="318"/>
-      <c r="AN50" s="318"/>
-      <c r="AO50" s="318"/>
-      <c r="AP50" s="318"/>
-      <c r="AQ50" s="318"/>
-      <c r="AR50" s="318"/>
-      <c r="AT50" s="318" t="s">
+      <c r="AF50" s="325"/>
+      <c r="AG50" s="325"/>
+      <c r="AH50" s="325"/>
+      <c r="AI50" s="325"/>
+      <c r="AJ50" s="325"/>
+      <c r="AK50" s="325"/>
+      <c r="AL50" s="325"/>
+      <c r="AM50" s="325"/>
+      <c r="AN50" s="325"/>
+      <c r="AO50" s="325"/>
+      <c r="AP50" s="325"/>
+      <c r="AQ50" s="325"/>
+      <c r="AR50" s="325"/>
+      <c r="AT50" s="325" t="s">
         <v>365</v>
       </c>
-      <c r="AU50" s="318"/>
-      <c r="AV50" s="318"/>
-      <c r="AW50" s="318"/>
-      <c r="AX50" s="318"/>
-      <c r="AY50" s="318"/>
-      <c r="AZ50" s="318"/>
-      <c r="BA50" s="318"/>
-      <c r="BB50" s="318"/>
-      <c r="BC50" s="318"/>
-      <c r="BD50" s="318"/>
-      <c r="BE50" s="318"/>
-      <c r="BF50" s="318"/>
-      <c r="BG50" s="318"/>
+      <c r="AU50" s="325"/>
+      <c r="AV50" s="325"/>
+      <c r="AW50" s="325"/>
+      <c r="AX50" s="325"/>
+      <c r="AY50" s="325"/>
+      <c r="AZ50" s="325"/>
+      <c r="BA50" s="325"/>
+      <c r="BB50" s="325"/>
+      <c r="BC50" s="325"/>
+      <c r="BD50" s="325"/>
+      <c r="BE50" s="325"/>
+      <c r="BF50" s="325"/>
+      <c r="BG50" s="325"/>
     </row>
     <row r="51" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P51" s="1"/>
@@ -8532,7 +8574,7 @@
       <c r="AH58" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AI58" s="328" t="s">
+      <c r="AI58" s="298" t="s">
         <v>49</v>
       </c>
       <c r="AJ58" s="44" t="s">
@@ -9454,111 +9496,111 @@
       <c r="BW68" s="66"/>
     </row>
     <row r="69" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P69" s="323" t="s">
+      <c r="P69" s="330" t="s">
         <v>283</v>
       </c>
-      <c r="Q69" s="323"/>
-      <c r="R69" s="323"/>
-      <c r="S69" s="323"/>
-      <c r="T69" s="323"/>
-      <c r="U69" s="323"/>
-      <c r="V69" s="323"/>
-      <c r="W69" s="323"/>
-      <c r="X69" s="323"/>
-      <c r="Y69" s="323"/>
-      <c r="Z69" s="323"/>
-      <c r="AA69" s="323"/>
-      <c r="AB69" s="323"/>
-      <c r="AC69" s="323"/>
-      <c r="AD69" s="323"/>
-      <c r="AE69" s="323"/>
-      <c r="AF69" s="323"/>
-      <c r="AG69" s="323"/>
-      <c r="AH69" s="323"/>
-      <c r="AI69" s="323"/>
-      <c r="AJ69" s="323"/>
-      <c r="AK69" s="323"/>
-      <c r="AL69" s="323"/>
-      <c r="AM69" s="323"/>
-      <c r="AN69" s="323"/>
-      <c r="AO69" s="323"/>
-      <c r="AP69" s="323"/>
-      <c r="AQ69" s="323"/>
-      <c r="AR69" s="323"/>
-      <c r="AS69" s="323"/>
-      <c r="AT69" s="323"/>
-      <c r="AU69" s="323"/>
-      <c r="AV69" s="323"/>
-      <c r="AW69" s="323"/>
-      <c r="AX69" s="323"/>
+      <c r="Q69" s="330"/>
+      <c r="R69" s="330"/>
+      <c r="S69" s="330"/>
+      <c r="T69" s="330"/>
+      <c r="U69" s="330"/>
+      <c r="V69" s="330"/>
+      <c r="W69" s="330"/>
+      <c r="X69" s="330"/>
+      <c r="Y69" s="330"/>
+      <c r="Z69" s="330"/>
+      <c r="AA69" s="330"/>
+      <c r="AB69" s="330"/>
+      <c r="AC69" s="330"/>
+      <c r="AD69" s="330"/>
+      <c r="AE69" s="330"/>
+      <c r="AF69" s="330"/>
+      <c r="AG69" s="330"/>
+      <c r="AH69" s="330"/>
+      <c r="AI69" s="330"/>
+      <c r="AJ69" s="330"/>
+      <c r="AK69" s="330"/>
+      <c r="AL69" s="330"/>
+      <c r="AM69" s="330"/>
+      <c r="AN69" s="330"/>
+      <c r="AO69" s="330"/>
+      <c r="AP69" s="330"/>
+      <c r="AQ69" s="330"/>
+      <c r="AR69" s="330"/>
+      <c r="AS69" s="330"/>
+      <c r="AT69" s="330"/>
+      <c r="AU69" s="330"/>
+      <c r="AV69" s="330"/>
+      <c r="AW69" s="330"/>
+      <c r="AX69" s="330"/>
     </row>
     <row r="70" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="316" t="s">
+      <c r="A70" s="305" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="316"/>
-      <c r="C70" s="316"/>
-      <c r="D70" s="316"/>
-      <c r="E70" s="316"/>
-      <c r="F70" s="316"/>
-      <c r="G70" s="316"/>
-      <c r="H70" s="316"/>
-      <c r="I70" s="316"/>
-      <c r="J70" s="316"/>
-      <c r="K70" s="316"/>
-      <c r="L70" s="316"/>
-      <c r="M70" s="316"/>
-      <c r="N70" s="316"/>
-      <c r="P70" s="327" t="s">
+      <c r="B70" s="305"/>
+      <c r="C70" s="305"/>
+      <c r="D70" s="305"/>
+      <c r="E70" s="305"/>
+      <c r="F70" s="305"/>
+      <c r="G70" s="305"/>
+      <c r="H70" s="305"/>
+      <c r="I70" s="305"/>
+      <c r="J70" s="305"/>
+      <c r="K70" s="305"/>
+      <c r="L70" s="305"/>
+      <c r="M70" s="305"/>
+      <c r="N70" s="305"/>
+      <c r="P70" s="334" t="s">
         <v>200</v>
       </c>
-      <c r="Q70" s="327"/>
-      <c r="R70" s="327"/>
-      <c r="S70" s="327"/>
-      <c r="T70" s="327"/>
-      <c r="U70" s="327"/>
-      <c r="V70" s="327"/>
-      <c r="W70" s="327"/>
-      <c r="X70" s="327"/>
-      <c r="Y70" s="327"/>
-      <c r="Z70" s="327"/>
-      <c r="AA70" s="327"/>
-      <c r="AB70" s="327"/>
-      <c r="AC70" s="327"/>
+      <c r="Q70" s="334"/>
+      <c r="R70" s="334"/>
+      <c r="S70" s="334"/>
+      <c r="T70" s="334"/>
+      <c r="U70" s="334"/>
+      <c r="V70" s="334"/>
+      <c r="W70" s="334"/>
+      <c r="X70" s="334"/>
+      <c r="Y70" s="334"/>
+      <c r="Z70" s="334"/>
+      <c r="AA70" s="334"/>
+      <c r="AB70" s="334"/>
+      <c r="AC70" s="334"/>
       <c r="AD70" s="107"/>
-      <c r="AE70" s="327" t="s">
+      <c r="AE70" s="334" t="s">
         <v>201</v>
       </c>
-      <c r="AF70" s="327"/>
-      <c r="AG70" s="327"/>
-      <c r="AH70" s="327"/>
-      <c r="AI70" s="327"/>
-      <c r="AJ70" s="327"/>
-      <c r="AK70" s="327"/>
-      <c r="AL70" s="327"/>
-      <c r="AM70" s="327"/>
-      <c r="AN70" s="327"/>
-      <c r="AO70" s="327"/>
-      <c r="AP70" s="327"/>
-      <c r="AQ70" s="327"/>
-      <c r="AR70" s="327"/>
+      <c r="AF70" s="334"/>
+      <c r="AG70" s="334"/>
+      <c r="AH70" s="334"/>
+      <c r="AI70" s="334"/>
+      <c r="AJ70" s="334"/>
+      <c r="AK70" s="334"/>
+      <c r="AL70" s="334"/>
+      <c r="AM70" s="334"/>
+      <c r="AN70" s="334"/>
+      <c r="AO70" s="334"/>
+      <c r="AP70" s="334"/>
+      <c r="AQ70" s="334"/>
+      <c r="AR70" s="334"/>
       <c r="AS70" s="108"/>
-      <c r="AT70" s="327" t="s">
+      <c r="AT70" s="334" t="s">
         <v>202</v>
       </c>
-      <c r="AU70" s="327"/>
-      <c r="AV70" s="327"/>
-      <c r="AW70" s="327"/>
-      <c r="AX70" s="327"/>
-      <c r="AY70" s="327"/>
-      <c r="AZ70" s="327"/>
-      <c r="BA70" s="327"/>
-      <c r="BB70" s="327"/>
-      <c r="BC70" s="327"/>
-      <c r="BD70" s="327"/>
-      <c r="BE70" s="327"/>
-      <c r="BF70" s="327"/>
-      <c r="BG70" s="327"/>
+      <c r="AU70" s="334"/>
+      <c r="AV70" s="334"/>
+      <c r="AW70" s="334"/>
+      <c r="AX70" s="334"/>
+      <c r="AY70" s="334"/>
+      <c r="AZ70" s="334"/>
+      <c r="BA70" s="334"/>
+      <c r="BB70" s="334"/>
+      <c r="BC70" s="334"/>
+      <c r="BD70" s="334"/>
+      <c r="BE70" s="334"/>
+      <c r="BF70" s="334"/>
+      <c r="BG70" s="334"/>
     </row>
     <row r="71" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
@@ -9723,22 +9765,22 @@
       <c r="BG71" s="4">
         <v>2</v>
       </c>
-      <c r="BI71" s="304" t="s">
+      <c r="BI71" s="312" t="s">
         <v>164</v>
       </c>
-      <c r="BJ71" s="304"/>
-      <c r="BK71" s="304"/>
-      <c r="BL71" s="304"/>
-      <c r="BM71" s="304"/>
-      <c r="BN71" s="304"/>
-      <c r="BO71" s="304"/>
-      <c r="BP71" s="304"/>
-      <c r="BQ71" s="304"/>
-      <c r="BR71" s="304"/>
-      <c r="BS71" s="304"/>
-      <c r="BT71" s="304"/>
-      <c r="BU71" s="304"/>
-      <c r="BV71" s="304"/>
+      <c r="BJ71" s="312"/>
+      <c r="BK71" s="312"/>
+      <c r="BL71" s="312"/>
+      <c r="BM71" s="312"/>
+      <c r="BN71" s="312"/>
+      <c r="BO71" s="312"/>
+      <c r="BP71" s="312"/>
+      <c r="BQ71" s="312"/>
+      <c r="BR71" s="312"/>
+      <c r="BS71" s="312"/>
+      <c r="BT71" s="312"/>
+      <c r="BU71" s="312"/>
+      <c r="BV71" s="312"/>
     </row>
     <row r="72" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
@@ -12516,31 +12558,31 @@
       </c>
     </row>
     <row r="85" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="311" t="s">
+      <c r="A85" s="319" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="311"/>
-      <c r="C85" s="311"/>
-      <c r="D85" s="312" t="s">
+      <c r="B85" s="319"/>
+      <c r="C85" s="319"/>
+      <c r="D85" s="320" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="312"/>
-      <c r="F85" s="312"/>
-      <c r="G85" s="313" t="s">
+      <c r="E85" s="320"/>
+      <c r="F85" s="320"/>
+      <c r="G85" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="313"/>
-      <c r="I85" s="313"/>
-      <c r="J85" s="314" t="s">
+      <c r="H85" s="321"/>
+      <c r="I85" s="321"/>
+      <c r="J85" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="K85" s="314"/>
-      <c r="L85" s="314"/>
-      <c r="M85" s="315" t="s">
+      <c r="K85" s="322"/>
+      <c r="L85" s="322"/>
+      <c r="M85" s="323" t="s">
         <v>196</v>
       </c>
-      <c r="N85" s="315"/>
-      <c r="O85" s="315"/>
+      <c r="N85" s="323"/>
+      <c r="O85" s="323"/>
       <c r="BI85" s="12" t="s">
         <v>92</v>
       </c>
@@ -12585,153 +12627,153 @@
       </c>
     </row>
     <row r="86" spans="1:89" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BI86" s="311"/>
-      <c r="BJ86" s="311"/>
-      <c r="BK86" s="311"/>
-      <c r="BL86" s="312"/>
-      <c r="BM86" s="312"/>
-      <c r="BN86" s="312"/>
-      <c r="BO86" s="313"/>
-      <c r="BP86" s="313"/>
-      <c r="BQ86" s="313"/>
-      <c r="BR86" s="314"/>
-      <c r="BS86" s="314"/>
-      <c r="BT86" s="314"/>
-      <c r="BU86" s="315"/>
-      <c r="BV86" s="315"/>
-      <c r="BW86" s="315"/>
+      <c r="BI86" s="319"/>
+      <c r="BJ86" s="319"/>
+      <c r="BK86" s="319"/>
+      <c r="BL86" s="320"/>
+      <c r="BM86" s="320"/>
+      <c r="BN86" s="320"/>
+      <c r="BO86" s="321"/>
+      <c r="BP86" s="321"/>
+      <c r="BQ86" s="321"/>
+      <c r="BR86" s="322"/>
+      <c r="BS86" s="322"/>
+      <c r="BT86" s="322"/>
+      <c r="BU86" s="323"/>
+      <c r="BV86" s="323"/>
+      <c r="BW86" s="323"/>
     </row>
     <row r="87" spans="1:89" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="303" t="s">
+      <c r="A87" s="311" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="303"/>
-      <c r="C87" s="303"/>
-      <c r="D87" s="303"/>
-      <c r="E87" s="303"/>
-      <c r="F87" s="303"/>
-      <c r="G87" s="303"/>
-      <c r="H87" s="303"/>
-      <c r="I87" s="303"/>
-      <c r="J87" s="303"/>
-      <c r="K87" s="303"/>
-      <c r="L87" s="303"/>
-      <c r="M87" s="303"/>
-      <c r="N87" s="303"/>
-      <c r="O87" s="303"/>
-      <c r="P87" s="303"/>
-      <c r="Q87" s="303"/>
-      <c r="R87" s="303"/>
-      <c r="S87" s="303"/>
-      <c r="T87" s="303"/>
-      <c r="U87" s="303"/>
-      <c r="V87" s="303"/>
-      <c r="W87" s="303"/>
-      <c r="X87" s="303"/>
-      <c r="Y87" s="303"/>
-      <c r="Z87" s="303"/>
-      <c r="AA87" s="303"/>
-      <c r="AB87" s="303"/>
-      <c r="AC87" s="303"/>
-      <c r="AD87" s="303"/>
+      <c r="B87" s="311"/>
+      <c r="C87" s="311"/>
+      <c r="D87" s="311"/>
+      <c r="E87" s="311"/>
+      <c r="F87" s="311"/>
+      <c r="G87" s="311"/>
+      <c r="H87" s="311"/>
+      <c r="I87" s="311"/>
+      <c r="J87" s="311"/>
+      <c r="K87" s="311"/>
+      <c r="L87" s="311"/>
+      <c r="M87" s="311"/>
+      <c r="N87" s="311"/>
+      <c r="O87" s="311"/>
+      <c r="P87" s="311"/>
+      <c r="Q87" s="311"/>
+      <c r="R87" s="311"/>
+      <c r="S87" s="311"/>
+      <c r="T87" s="311"/>
+      <c r="U87" s="311"/>
+      <c r="V87" s="311"/>
+      <c r="W87" s="311"/>
+      <c r="X87" s="311"/>
+      <c r="Y87" s="311"/>
+      <c r="Z87" s="311"/>
+      <c r="AA87" s="311"/>
+      <c r="AB87" s="311"/>
+      <c r="AC87" s="311"/>
+      <c r="AD87" s="311"/>
     </row>
     <row r="88" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="316" t="s">
+      <c r="A88" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="316"/>
-      <c r="C88" s="316"/>
-      <c r="D88" s="316"/>
-      <c r="E88" s="316"/>
-      <c r="F88" s="316"/>
-      <c r="G88" s="316"/>
-      <c r="H88" s="316"/>
-      <c r="I88" s="316"/>
-      <c r="J88" s="316"/>
-      <c r="K88" s="316"/>
-      <c r="L88" s="316"/>
-      <c r="M88" s="316"/>
-      <c r="N88" s="316"/>
-      <c r="P88" s="304" t="s">
+      <c r="B88" s="305"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="305"/>
+      <c r="E88" s="305"/>
+      <c r="F88" s="305"/>
+      <c r="G88" s="305"/>
+      <c r="H88" s="305"/>
+      <c r="I88" s="305"/>
+      <c r="J88" s="305"/>
+      <c r="K88" s="305"/>
+      <c r="L88" s="305"/>
+      <c r="M88" s="305"/>
+      <c r="N88" s="305"/>
+      <c r="P88" s="312" t="s">
         <v>258</v>
       </c>
-      <c r="Q88" s="304"/>
-      <c r="R88" s="304"/>
-      <c r="S88" s="304"/>
-      <c r="T88" s="304"/>
-      <c r="U88" s="304"/>
-      <c r="V88" s="304"/>
-      <c r="W88" s="304"/>
-      <c r="X88" s="304"/>
-      <c r="Y88" s="304"/>
-      <c r="Z88" s="304"/>
-      <c r="AA88" s="304"/>
-      <c r="AB88" s="304"/>
-      <c r="AC88" s="304"/>
-      <c r="AE88" s="316" t="s">
+      <c r="Q88" s="312"/>
+      <c r="R88" s="312"/>
+      <c r="S88" s="312"/>
+      <c r="T88" s="312"/>
+      <c r="U88" s="312"/>
+      <c r="V88" s="312"/>
+      <c r="W88" s="312"/>
+      <c r="X88" s="312"/>
+      <c r="Y88" s="312"/>
+      <c r="Z88" s="312"/>
+      <c r="AA88" s="312"/>
+      <c r="AB88" s="312"/>
+      <c r="AC88" s="312"/>
+      <c r="AE88" s="305" t="s">
         <v>259</v>
       </c>
-      <c r="AF88" s="316"/>
-      <c r="AG88" s="316"/>
-      <c r="AH88" s="316"/>
-      <c r="AI88" s="316"/>
-      <c r="AJ88" s="316"/>
-      <c r="AK88" s="316"/>
-      <c r="AL88" s="316"/>
-      <c r="AM88" s="316"/>
-      <c r="AN88" s="316"/>
-      <c r="AO88" s="316"/>
-      <c r="AP88" s="316"/>
-      <c r="AQ88" s="316"/>
-      <c r="AR88" s="316"/>
-      <c r="AT88" s="316" t="s">
+      <c r="AF88" s="305"/>
+      <c r="AG88" s="305"/>
+      <c r="AH88" s="305"/>
+      <c r="AI88" s="305"/>
+      <c r="AJ88" s="305"/>
+      <c r="AK88" s="305"/>
+      <c r="AL88" s="305"/>
+      <c r="AM88" s="305"/>
+      <c r="AN88" s="305"/>
+      <c r="AO88" s="305"/>
+      <c r="AP88" s="305"/>
+      <c r="AQ88" s="305"/>
+      <c r="AR88" s="305"/>
+      <c r="AT88" s="305" t="s">
         <v>260</v>
       </c>
-      <c r="AU88" s="316"/>
-      <c r="AV88" s="316"/>
-      <c r="AW88" s="316"/>
-      <c r="AX88" s="316"/>
-      <c r="AY88" s="316"/>
-      <c r="AZ88" s="316"/>
-      <c r="BA88" s="316"/>
-      <c r="BB88" s="316"/>
-      <c r="BC88" s="316"/>
-      <c r="BD88" s="316"/>
-      <c r="BE88" s="316"/>
-      <c r="BF88" s="316"/>
-      <c r="BG88" s="316"/>
-      <c r="BI88" s="316" t="s">
+      <c r="AU88" s="305"/>
+      <c r="AV88" s="305"/>
+      <c r="AW88" s="305"/>
+      <c r="AX88" s="305"/>
+      <c r="AY88" s="305"/>
+      <c r="AZ88" s="305"/>
+      <c r="BA88" s="305"/>
+      <c r="BB88" s="305"/>
+      <c r="BC88" s="305"/>
+      <c r="BD88" s="305"/>
+      <c r="BE88" s="305"/>
+      <c r="BF88" s="305"/>
+      <c r="BG88" s="305"/>
+      <c r="BI88" s="305" t="s">
         <v>261</v>
       </c>
-      <c r="BJ88" s="316"/>
-      <c r="BK88" s="316"/>
-      <c r="BL88" s="316"/>
-      <c r="BM88" s="316"/>
-      <c r="BN88" s="316"/>
-      <c r="BO88" s="316"/>
-      <c r="BP88" s="316"/>
-      <c r="BQ88" s="316"/>
-      <c r="BR88" s="316"/>
-      <c r="BS88" s="316"/>
-      <c r="BT88" s="316"/>
-      <c r="BU88" s="316"/>
-      <c r="BV88" s="316"/>
-      <c r="BX88" s="316" t="s">
+      <c r="BJ88" s="305"/>
+      <c r="BK88" s="305"/>
+      <c r="BL88" s="305"/>
+      <c r="BM88" s="305"/>
+      <c r="BN88" s="305"/>
+      <c r="BO88" s="305"/>
+      <c r="BP88" s="305"/>
+      <c r="BQ88" s="305"/>
+      <c r="BR88" s="305"/>
+      <c r="BS88" s="305"/>
+      <c r="BT88" s="305"/>
+      <c r="BU88" s="305"/>
+      <c r="BV88" s="305"/>
+      <c r="BX88" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="BY88" s="316"/>
-      <c r="BZ88" s="316"/>
-      <c r="CA88" s="316"/>
-      <c r="CB88" s="316"/>
-      <c r="CC88" s="316"/>
-      <c r="CD88" s="316"/>
-      <c r="CE88" s="316"/>
-      <c r="CF88" s="316"/>
-      <c r="CG88" s="316"/>
-      <c r="CH88" s="316"/>
-      <c r="CI88" s="316"/>
-      <c r="CJ88" s="316"/>
-      <c r="CK88" s="316"/>
+      <c r="BY88" s="305"/>
+      <c r="BZ88" s="305"/>
+      <c r="CA88" s="305"/>
+      <c r="CB88" s="305"/>
+      <c r="CC88" s="305"/>
+      <c r="CD88" s="305"/>
+      <c r="CE88" s="305"/>
+      <c r="CF88" s="305"/>
+      <c r="CG88" s="305"/>
+      <c r="CH88" s="305"/>
+      <c r="CI88" s="305"/>
+      <c r="CJ88" s="305"/>
+      <c r="CK88" s="305"/>
     </row>
     <row r="89" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -14753,7 +14795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>7</v>
       </c>
@@ -15007,7 +15049,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
@@ -15261,7 +15303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -15515,7 +15557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>80</v>
       </c>
@@ -15769,7 +15811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -16023,7 +16065,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:108" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>92</v>
       </c>
@@ -16277,107 +16319,107 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:108" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="322" t="s">
+    <row r="103" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="329" t="s">
         <v>270</v>
       </c>
-      <c r="B103" s="322"/>
-      <c r="C103" s="322"/>
-      <c r="D103" s="322"/>
-      <c r="E103" s="322"/>
-      <c r="F103" s="322"/>
-      <c r="G103" s="322"/>
-      <c r="H103" s="322"/>
-      <c r="I103" s="322"/>
-      <c r="J103" s="322"/>
-      <c r="K103" s="322"/>
-      <c r="L103" s="322"/>
-      <c r="M103" s="322"/>
-      <c r="N103" s="322"/>
+      <c r="B103" s="329"/>
+      <c r="C103" s="329"/>
+      <c r="D103" s="329"/>
+      <c r="E103" s="329"/>
+      <c r="F103" s="329"/>
+      <c r="G103" s="329"/>
+      <c r="H103" s="329"/>
+      <c r="I103" s="329"/>
+      <c r="J103" s="329"/>
+      <c r="K103" s="329"/>
+      <c r="L103" s="329"/>
+      <c r="M103" s="329"/>
+      <c r="N103" s="329"/>
       <c r="O103" s="208"/>
-      <c r="P103" s="322" t="s">
+      <c r="P103" s="329" t="s">
         <v>271</v>
       </c>
-      <c r="Q103" s="322"/>
-      <c r="R103" s="322"/>
-      <c r="S103" s="322"/>
-      <c r="T103" s="322"/>
-      <c r="U103" s="322"/>
-      <c r="V103" s="322"/>
-      <c r="W103" s="322"/>
-      <c r="X103" s="322"/>
-      <c r="Y103" s="322"/>
-      <c r="Z103" s="322"/>
-      <c r="AA103" s="322"/>
-      <c r="AB103" s="322"/>
-      <c r="AC103" s="322"/>
+      <c r="Q103" s="329"/>
+      <c r="R103" s="329"/>
+      <c r="S103" s="329"/>
+      <c r="T103" s="329"/>
+      <c r="U103" s="329"/>
+      <c r="V103" s="329"/>
+      <c r="W103" s="329"/>
+      <c r="X103" s="329"/>
+      <c r="Y103" s="329"/>
+      <c r="Z103" s="329"/>
+      <c r="AA103" s="329"/>
+      <c r="AB103" s="329"/>
+      <c r="AC103" s="329"/>
       <c r="AD103" s="208"/>
-      <c r="AE103" s="322" t="s">
+      <c r="AE103" s="329" t="s">
         <v>272</v>
       </c>
-      <c r="AF103" s="322"/>
-      <c r="AG103" s="322"/>
-      <c r="AH103" s="322"/>
-      <c r="AI103" s="322"/>
-      <c r="AJ103" s="322"/>
-      <c r="AK103" s="322"/>
-      <c r="AL103" s="322"/>
-      <c r="AM103" s="322"/>
-      <c r="AN103" s="322"/>
-      <c r="AO103" s="322"/>
-      <c r="AP103" s="322"/>
-      <c r="AQ103" s="322"/>
-      <c r="AR103" s="322"/>
-      <c r="AT103" s="322" t="s">
+      <c r="AF103" s="329"/>
+      <c r="AG103" s="329"/>
+      <c r="AH103" s="329"/>
+      <c r="AI103" s="329"/>
+      <c r="AJ103" s="329"/>
+      <c r="AK103" s="329"/>
+      <c r="AL103" s="329"/>
+      <c r="AM103" s="329"/>
+      <c r="AN103" s="329"/>
+      <c r="AO103" s="329"/>
+      <c r="AP103" s="329"/>
+      <c r="AQ103" s="329"/>
+      <c r="AR103" s="329"/>
+      <c r="AT103" s="329" t="s">
         <v>273</v>
       </c>
-      <c r="AU103" s="322"/>
-      <c r="AV103" s="322"/>
-      <c r="AW103" s="322"/>
-      <c r="AX103" s="322"/>
-      <c r="AY103" s="322"/>
-      <c r="AZ103" s="322"/>
-      <c r="BA103" s="322"/>
-      <c r="BB103" s="322"/>
-      <c r="BC103" s="322"/>
-      <c r="BD103" s="322"/>
-      <c r="BE103" s="322"/>
-      <c r="BF103" s="322"/>
-      <c r="BG103" s="322"/>
+      <c r="AU103" s="329"/>
+      <c r="AV103" s="329"/>
+      <c r="AW103" s="329"/>
+      <c r="AX103" s="329"/>
+      <c r="AY103" s="329"/>
+      <c r="AZ103" s="329"/>
+      <c r="BA103" s="329"/>
+      <c r="BB103" s="329"/>
+      <c r="BC103" s="329"/>
+      <c r="BD103" s="329"/>
+      <c r="BE103" s="329"/>
+      <c r="BF103" s="329"/>
+      <c r="BG103" s="329"/>
       <c r="BH103" s="208"/>
-      <c r="BI103" s="322" t="s">
+      <c r="BI103" s="329" t="s">
         <v>274</v>
       </c>
-      <c r="BJ103" s="322"/>
-      <c r="BK103" s="322"/>
-      <c r="BL103" s="322"/>
-      <c r="BM103" s="322"/>
-      <c r="BN103" s="322"/>
-      <c r="BO103" s="322"/>
-      <c r="BP103" s="322"/>
-      <c r="BQ103" s="322"/>
-      <c r="BR103" s="322"/>
-      <c r="BS103" s="322"/>
-      <c r="BT103" s="322"/>
-      <c r="BU103" s="322"/>
-      <c r="BV103" s="322"/>
+      <c r="BJ103" s="329"/>
+      <c r="BK103" s="329"/>
+      <c r="BL103" s="329"/>
+      <c r="BM103" s="329"/>
+      <c r="BN103" s="329"/>
+      <c r="BO103" s="329"/>
+      <c r="BP103" s="329"/>
+      <c r="BQ103" s="329"/>
+      <c r="BR103" s="329"/>
+      <c r="BS103" s="329"/>
+      <c r="BT103" s="329"/>
+      <c r="BU103" s="329"/>
+      <c r="BV103" s="329"/>
       <c r="BW103" s="208"/>
-      <c r="BX103" s="322" t="s">
+      <c r="BX103" s="329" t="s">
         <v>275</v>
       </c>
-      <c r="BY103" s="322"/>
-      <c r="BZ103" s="322"/>
-      <c r="CA103" s="322"/>
-      <c r="CB103" s="322"/>
-      <c r="CC103" s="322"/>
-      <c r="CD103" s="322"/>
-      <c r="CE103" s="322"/>
-      <c r="CF103" s="322"/>
-      <c r="CG103" s="322"/>
-      <c r="CH103" s="322"/>
-      <c r="CI103" s="322"/>
-      <c r="CJ103" s="322"/>
-      <c r="CK103" s="322"/>
+      <c r="BY103" s="329"/>
+      <c r="BZ103" s="329"/>
+      <c r="CA103" s="329"/>
+      <c r="CB103" s="329"/>
+      <c r="CC103" s="329"/>
+      <c r="CD103" s="329"/>
+      <c r="CE103" s="329"/>
+      <c r="CF103" s="329"/>
+      <c r="CG103" s="329"/>
+      <c r="CH103" s="329"/>
+      <c r="CI103" s="329"/>
+      <c r="CJ103" s="329"/>
+      <c r="CK103" s="329"/>
       <c r="CL103" s="211"/>
       <c r="CM103" s="76"/>
       <c r="CN103" s="76"/>
@@ -16395,10 +16437,8 @@
       <c r="CZ103" s="76"/>
       <c r="DA103" s="76"/>
       <c r="DB103" s="76"/>
-      <c r="DC103" s="76"/>
-      <c r="DD103" s="76"/>
     </row>
-    <row r="104" spans="1:108" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="2" t="s">
         <v>0</v>
@@ -16661,10 +16701,8 @@
       <c r="CZ104" s="76"/>
       <c r="DA104" s="76"/>
       <c r="DB104" s="76"/>
-      <c r="DC104" s="76"/>
-      <c r="DD104" s="76"/>
     </row>
-    <row r="105" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>0</v>
       </c>
@@ -16924,25 +16962,57 @@
       </c>
       <c r="CL105" s="211"/>
       <c r="CM105" s="76"/>
-      <c r="CN105" s="76"/>
-      <c r="CO105" s="76"/>
-      <c r="CP105" s="76"/>
-      <c r="CQ105" s="76"/>
-      <c r="CR105" s="76"/>
-      <c r="CS105" s="76"/>
-      <c r="CT105" s="76"/>
-      <c r="CU105" s="76"/>
-      <c r="CV105" s="76"/>
-      <c r="CW105" s="76"/>
-      <c r="CX105" s="76"/>
-      <c r="CY105" s="76"/>
-      <c r="CZ105" s="76"/>
-      <c r="DA105" s="76"/>
+      <c r="CN105" s="305" t="s">
+        <v>369</v>
+      </c>
+      <c r="CO105" s="305"/>
+      <c r="CP105" s="305"/>
+      <c r="CQ105" s="305"/>
+      <c r="CR105" s="305"/>
+      <c r="CS105" s="305"/>
+      <c r="CT105" s="305"/>
+      <c r="CU105" s="305"/>
+      <c r="CV105" s="305"/>
+      <c r="CW105" s="305"/>
+      <c r="CX105" s="305"/>
+      <c r="CY105" s="305"/>
+      <c r="CZ105" s="305"/>
+      <c r="DA105" s="305"/>
       <c r="DB105" s="76"/>
-      <c r="DC105" s="76"/>
-      <c r="DD105" s="76"/>
+      <c r="DC105" s="305" t="s">
+        <v>370</v>
+      </c>
+      <c r="DD105" s="305"/>
+      <c r="DE105" s="305"/>
+      <c r="DF105" s="305"/>
+      <c r="DG105" s="305"/>
+      <c r="DH105" s="305"/>
+      <c r="DI105" s="305"/>
+      <c r="DJ105" s="305"/>
+      <c r="DK105" s="305"/>
+      <c r="DL105" s="305"/>
+      <c r="DM105" s="305"/>
+      <c r="DN105" s="305"/>
+      <c r="DO105" s="305"/>
+      <c r="DP105" s="305"/>
+      <c r="DR105" s="305" t="s">
+        <v>368</v>
+      </c>
+      <c r="DS105" s="305"/>
+      <c r="DT105" s="305"/>
+      <c r="DU105" s="305"/>
+      <c r="DV105" s="305"/>
+      <c r="DW105" s="305"/>
+      <c r="DX105" s="305"/>
+      <c r="DY105" s="305"/>
+      <c r="DZ105" s="305"/>
+      <c r="EA105" s="305"/>
+      <c r="EB105" s="305"/>
+      <c r="EC105" s="305"/>
+      <c r="ED105" s="305"/>
+      <c r="EE105" s="305"/>
     </row>
-    <row r="106" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>1</v>
       </c>
@@ -17202,25 +17272,129 @@
       </c>
       <c r="CL106" s="211"/>
       <c r="CM106" s="76"/>
-      <c r="CN106" s="76"/>
-      <c r="CO106" s="76"/>
-      <c r="CP106" s="76"/>
-      <c r="CQ106" s="76"/>
-      <c r="CR106" s="76"/>
-      <c r="CS106" s="76"/>
-      <c r="CT106" s="76"/>
-      <c r="CU106" s="76"/>
-      <c r="CV106" s="76"/>
-      <c r="CW106" s="76"/>
-      <c r="CX106" s="76"/>
-      <c r="CY106" s="76"/>
-      <c r="CZ106" s="76"/>
-      <c r="DA106" s="76"/>
+      <c r="CN106" s="1"/>
+      <c r="CO106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY106" s="2">
+        <v>4</v>
+      </c>
+      <c r="CZ106" s="2">
+        <v>3</v>
+      </c>
+      <c r="DA106" s="18">
+        <v>2</v>
+      </c>
       <c r="DB106" s="76"/>
-      <c r="DC106" s="76"/>
-      <c r="DD106" s="76"/>
+      <c r="DC106" s="1"/>
+      <c r="DD106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="DI106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="DK106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN106" s="2">
+        <v>4</v>
+      </c>
+      <c r="DO106" s="2">
+        <v>3</v>
+      </c>
+      <c r="DP106" s="18">
+        <v>2</v>
+      </c>
+      <c r="DR106" s="1"/>
+      <c r="DS106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DV106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DW106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="DX106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DY106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="DZ106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EA106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EC106" s="2">
+        <v>4</v>
+      </c>
+      <c r="ED106" s="2">
+        <v>3</v>
+      </c>
+      <c r="EE106" s="18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="107" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>2</v>
       </c>
@@ -17480,25 +17654,135 @@
       </c>
       <c r="CL107" s="211"/>
       <c r="CM107" s="76"/>
-      <c r="CN107" s="76"/>
-      <c r="CO107" s="76"/>
-      <c r="CP107" s="76"/>
-      <c r="CQ107" s="76"/>
-      <c r="CR107" s="76"/>
-      <c r="CS107" s="76"/>
-      <c r="CT107" s="76"/>
-      <c r="CU107" s="76"/>
-      <c r="CV107" s="76"/>
-      <c r="CW107" s="76"/>
-      <c r="CX107" s="76"/>
-      <c r="CY107" s="76"/>
-      <c r="CZ107" s="76"/>
-      <c r="DA107" s="76"/>
+      <c r="CN107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO107" s="300" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP107" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ107" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR107" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS107" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT107" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="CU107" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV107" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="CW107" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX107" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="CY107" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="CZ107" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA107" s="36" t="s">
+        <v>22</v>
+      </c>
       <c r="DB107" s="76"/>
-      <c r="DC107" s="76"/>
-      <c r="DD107" s="76"/>
+      <c r="DC107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD107" s="300" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE107" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="DF107" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="DG107" s="301" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH107" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="DI107" s="301" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ107" s="301" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK107" s="301" t="s">
+        <v>17</v>
+      </c>
+      <c r="DL107" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM107" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="DN107" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="DO107" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="DP107" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS107" s="300" t="s">
+        <v>10</v>
+      </c>
+      <c r="DT107" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="DU107" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="DV107" s="301" t="s">
+        <v>13</v>
+      </c>
+      <c r="DW107" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="DX107" s="301" t="s">
+        <v>15</v>
+      </c>
+      <c r="DY107" s="301" t="s">
+        <v>16</v>
+      </c>
+      <c r="DZ107" s="301" t="s">
+        <v>17</v>
+      </c>
+      <c r="EA107" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="EB107" s="301" t="s">
+        <v>19</v>
+      </c>
+      <c r="EC107" s="301" t="s">
+        <v>20</v>
+      </c>
+      <c r="ED107" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="EE107" s="36" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="108" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>3</v>
       </c>
@@ -17758,25 +18042,135 @@
       </c>
       <c r="CL108" s="211"/>
       <c r="CM108" s="76"/>
-      <c r="CN108" s="76"/>
-      <c r="CO108" s="76"/>
-      <c r="CP108" s="76"/>
-      <c r="CQ108" s="76"/>
-      <c r="CR108" s="76"/>
-      <c r="CS108" s="76"/>
-      <c r="CT108" s="76"/>
-      <c r="CU108" s="76"/>
-      <c r="CV108" s="76"/>
-      <c r="CW108" s="76"/>
-      <c r="CX108" s="76"/>
-      <c r="CY108" s="76"/>
-      <c r="CZ108" s="76"/>
-      <c r="DA108" s="76"/>
+      <c r="CN108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO108" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP108" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ108" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR108" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS108" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT108" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU108" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="CV108" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW108" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="CX108" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY108" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="CZ108" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="DA108" s="203" t="s">
+        <v>34</v>
+      </c>
       <c r="DB108" s="76"/>
-      <c r="DC108" s="76"/>
-      <c r="DD108" s="76"/>
+      <c r="DC108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD108" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE108" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF108" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG108" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="DH108" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI108" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="DJ108" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="DK108" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="DL108" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="DM108" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="DN108" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="DO108" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="DP108" s="203" t="s">
+        <v>34</v>
+      </c>
+      <c r="DR108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS108" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="DT108" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="DU108" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="DV108" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="DW108" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="DX108" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="DY108" s="299" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ108" s="299" t="s">
+        <v>29</v>
+      </c>
+      <c r="EA108" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="EB108" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="EC108" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="ED108" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="EE108" s="203" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="109" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>4</v>
       </c>
@@ -18036,25 +18430,135 @@
       </c>
       <c r="CL109" s="211"/>
       <c r="CM109" s="76"/>
-      <c r="CN109" s="76"/>
-      <c r="CO109" s="76"/>
-      <c r="CP109" s="76"/>
-      <c r="CQ109" s="76"/>
-      <c r="CR109" s="76"/>
-      <c r="CS109" s="76"/>
-      <c r="CT109" s="76"/>
-      <c r="CU109" s="76"/>
-      <c r="CV109" s="76"/>
-      <c r="CW109" s="76"/>
-      <c r="CX109" s="76"/>
-      <c r="CY109" s="76"/>
-      <c r="CZ109" s="76"/>
-      <c r="DA109" s="76"/>
+      <c r="CN109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO109" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP109" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ109" s="299" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR109" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS109" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT109" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="CU109" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CV109" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW109" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX109" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="CY109" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="CZ109" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="DA109" s="203" t="s">
+        <v>45</v>
+      </c>
       <c r="DB109" s="76"/>
-      <c r="DC109" s="76"/>
-      <c r="DD109" s="76"/>
+      <c r="DC109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD109" s="303" t="s">
+        <v>12</v>
+      </c>
+      <c r="DE109" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF109" s="299" t="s">
+        <v>35</v>
+      </c>
+      <c r="DG109" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH109" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="DI109" s="299" t="s">
+        <v>38</v>
+      </c>
+      <c r="DJ109" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK109" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL109" s="299" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM109" s="299" t="s">
+        <v>42</v>
+      </c>
+      <c r="DN109" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="DO109" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="DP109" s="203" t="s">
+        <v>45</v>
+      </c>
+      <c r="DR109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS109" s="303" t="s">
+        <v>12</v>
+      </c>
+      <c r="DT109" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU109" s="299" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV109" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW109" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="DX109" s="299" t="s">
+        <v>38</v>
+      </c>
+      <c r="DY109" s="299" t="s">
+        <v>39</v>
+      </c>
+      <c r="DZ109" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="EA109" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="EB109" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="EC109" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="ED109" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="EE109" s="302" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="110" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
@@ -18314,25 +18818,135 @@
       </c>
       <c r="CL110" s="211"/>
       <c r="CM110" s="76"/>
-      <c r="CN110" s="76"/>
-      <c r="CO110" s="76"/>
-      <c r="CP110" s="76"/>
-      <c r="CQ110" s="76"/>
-      <c r="CR110" s="76"/>
-      <c r="CS110" s="76"/>
-      <c r="CT110" s="76"/>
-      <c r="CU110" s="76"/>
-      <c r="CV110" s="76"/>
-      <c r="CW110" s="76"/>
-      <c r="CX110" s="76"/>
-      <c r="CY110" s="76"/>
-      <c r="CZ110" s="76"/>
-      <c r="DA110" s="76"/>
+      <c r="CN110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO110" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP110" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ110" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR110" s="299" t="s">
+        <v>46</v>
+      </c>
+      <c r="CS110" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT110" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="CU110" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV110" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW110" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="CX110" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="CY110" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ110" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="DA110" s="302" t="s">
+        <v>55</v>
+      </c>
       <c r="DB110" s="76"/>
-      <c r="DC110" s="76"/>
-      <c r="DD110" s="76"/>
+      <c r="DC110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD110" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE110" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="DF110" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG110" s="299" t="s">
+        <v>46</v>
+      </c>
+      <c r="DH110" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="DI110" s="299" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ110" s="299" t="s">
+        <v>49</v>
+      </c>
+      <c r="DK110" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="DL110" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="DM110" s="299" t="s">
+        <v>52</v>
+      </c>
+      <c r="DN110" s="299" t="s">
+        <v>53</v>
+      </c>
+      <c r="DO110" s="299" t="s">
+        <v>54</v>
+      </c>
+      <c r="DP110" s="302" t="s">
+        <v>55</v>
+      </c>
+      <c r="DR110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DS110" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="DT110" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="DU110" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV110" s="299" t="s">
+        <v>46</v>
+      </c>
+      <c r="DW110" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="DX110" s="299" t="s">
+        <v>48</v>
+      </c>
+      <c r="DY110" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="DZ110" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="EA110" s="299" t="s">
+        <v>51</v>
+      </c>
+      <c r="EB110" s="299" t="s">
+        <v>52</v>
+      </c>
+      <c r="EC110" s="299" t="s">
+        <v>53</v>
+      </c>
+      <c r="ED110" s="299" t="s">
+        <v>54</v>
+      </c>
+      <c r="EE110" s="302" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="111" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>6</v>
       </c>
@@ -18592,25 +19206,135 @@
       </c>
       <c r="CL111" s="211"/>
       <c r="CM111" s="76"/>
-      <c r="CN111" s="76"/>
-      <c r="CO111" s="76"/>
-      <c r="CP111" s="76"/>
-      <c r="CQ111" s="76"/>
-      <c r="CR111" s="76"/>
-      <c r="CS111" s="76"/>
-      <c r="CT111" s="76"/>
-      <c r="CU111" s="76"/>
-      <c r="CV111" s="76"/>
-      <c r="CW111" s="76"/>
-      <c r="CX111" s="76"/>
-      <c r="CY111" s="76"/>
-      <c r="CZ111" s="76"/>
-      <c r="DA111" s="76"/>
+      <c r="CN111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO111" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP111" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ111" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="CR111" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS111" s="299" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT111" s="299" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU111" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="CV111" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW111" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="CX111" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY111" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="CZ111" s="299" t="s">
+        <v>63</v>
+      </c>
+      <c r="DA111" s="302" t="s">
+        <v>64</v>
+      </c>
       <c r="DB111" s="76"/>
-      <c r="DC111" s="76"/>
-      <c r="DD111" s="76"/>
+      <c r="DC111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DD111" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="DE111" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF111" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="DG111" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH111" s="299" t="s">
+        <v>56</v>
+      </c>
+      <c r="DI111" s="299" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ111" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="DK111" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL111" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="DM111" s="299" t="s">
+        <v>61</v>
+      </c>
+      <c r="DN111" s="299" t="s">
+        <v>62</v>
+      </c>
+      <c r="DO111" s="299" t="s">
+        <v>63</v>
+      </c>
+      <c r="DP111" s="302" t="s">
+        <v>64</v>
+      </c>
+      <c r="DR111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DS111" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="DT111" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="DU111" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="DV111" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="DW111" s="299" t="s">
+        <v>56</v>
+      </c>
+      <c r="DX111" s="299" t="s">
+        <v>57</v>
+      </c>
+      <c r="DY111" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="DZ111" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="EA111" s="299" t="s">
+        <v>60</v>
+      </c>
+      <c r="EB111" s="299" t="s">
+        <v>61</v>
+      </c>
+      <c r="EC111" s="299" t="s">
+        <v>62</v>
+      </c>
+      <c r="ED111" s="299" t="s">
+        <v>63</v>
+      </c>
+      <c r="EE111" s="302" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="112" spans="1:108" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>7</v>
       </c>
@@ -18870,25 +19594,135 @@
       </c>
       <c r="CL112" s="211"/>
       <c r="CM112" s="76"/>
-      <c r="CN112" s="76"/>
-      <c r="CO112" s="76"/>
-      <c r="CP112" s="76"/>
-      <c r="CQ112" s="76"/>
-      <c r="CR112" s="76"/>
-      <c r="CS112" s="76"/>
-      <c r="CT112" s="76"/>
-      <c r="CU112" s="76"/>
-      <c r="CV112" s="76"/>
-      <c r="CW112" s="76"/>
-      <c r="CX112" s="76"/>
-      <c r="CY112" s="76"/>
-      <c r="CZ112" s="76"/>
-      <c r="DA112" s="76"/>
+      <c r="CN112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO112" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP112" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ112" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="CR112" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS112" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT112" s="299" t="s">
+        <v>65</v>
+      </c>
+      <c r="CU112" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="CV112" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="CW112" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="CX112" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY112" s="299">
+        <v>94</v>
+      </c>
+      <c r="CZ112" s="299">
+        <v>93</v>
+      </c>
+      <c r="DA112" s="302">
+        <v>92</v>
+      </c>
       <c r="DB112" s="76"/>
-      <c r="DC112" s="76"/>
-      <c r="DD112" s="76"/>
+      <c r="DC112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD112" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE112" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF112" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG112" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="DH112" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="DI112" s="299" t="s">
+        <v>65</v>
+      </c>
+      <c r="DJ112" s="299" t="s">
+        <v>66</v>
+      </c>
+      <c r="DK112" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="DL112" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="DM112" s="299" t="s">
+        <v>69</v>
+      </c>
+      <c r="DN112" s="299">
+        <v>94</v>
+      </c>
+      <c r="DO112" s="299">
+        <v>93</v>
+      </c>
+      <c r="DP112" s="302">
+        <v>92</v>
+      </c>
+      <c r="DR112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DS112" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="DT112" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DU112" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="DV112" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="DW112" s="299" t="s">
+        <v>57</v>
+      </c>
+      <c r="DX112" s="299" t="s">
+        <v>65</v>
+      </c>
+      <c r="DY112" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="DZ112" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="EA112" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="EB112" s="299" t="s">
+        <v>69</v>
+      </c>
+      <c r="EC112" s="299">
+        <v>94</v>
+      </c>
+      <c r="ED112" s="299">
+        <v>93</v>
+      </c>
+      <c r="EE112" s="302">
+        <v>92</v>
+      </c>
     </row>
-    <row r="113" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>8</v>
       </c>
@@ -19148,25 +19982,135 @@
       </c>
       <c r="CL113" s="211"/>
       <c r="CM113" s="76"/>
-      <c r="CN113" s="76"/>
-      <c r="CO113" s="76"/>
-      <c r="CP113" s="76"/>
-      <c r="CQ113" s="76"/>
-      <c r="CR113" s="76"/>
-      <c r="CS113" s="76"/>
-      <c r="CT113" s="76"/>
-      <c r="CU113" s="76"/>
-      <c r="CV113" s="76"/>
-      <c r="CW113" s="76"/>
-      <c r="CX113" s="76"/>
-      <c r="CY113" s="76"/>
-      <c r="CZ113" s="76"/>
-      <c r="DA113" s="76"/>
+      <c r="CN113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO113" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP113" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ113" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR113" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS113" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT113" s="299" t="s">
+        <v>66</v>
+      </c>
+      <c r="CU113" s="299" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV113" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="CW113" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="CX113" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="CY113" s="299">
+        <v>84</v>
+      </c>
+      <c r="CZ113" s="299">
+        <v>83</v>
+      </c>
+      <c r="DA113" s="50">
+        <v>82</v>
+      </c>
       <c r="DB113" s="76"/>
-      <c r="DC113" s="76"/>
-      <c r="DD113" s="76"/>
+      <c r="DC113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="DD113" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="DE113" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="DF113" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG113" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="DH113" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI113" s="299" t="s">
+        <v>66</v>
+      </c>
+      <c r="DJ113" s="299" t="s">
+        <v>70</v>
+      </c>
+      <c r="DK113" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="DL113" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM113" s="299" t="s">
+        <v>73</v>
+      </c>
+      <c r="DN113" s="299">
+        <v>84</v>
+      </c>
+      <c r="DO113" s="299">
+        <v>83</v>
+      </c>
+      <c r="DP113" s="50">
+        <v>82</v>
+      </c>
+      <c r="DR113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="DS113" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT113" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU113" s="299" t="s">
+        <v>39</v>
+      </c>
+      <c r="DV113" s="299" t="s">
+        <v>49</v>
+      </c>
+      <c r="DW113" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="DX113" s="299" t="s">
+        <v>66</v>
+      </c>
+      <c r="DY113" s="299" t="s">
+        <v>70</v>
+      </c>
+      <c r="DZ113" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="EA113" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="EB113" s="299" t="s">
+        <v>73</v>
+      </c>
+      <c r="EC113" s="299">
+        <v>84</v>
+      </c>
+      <c r="ED113" s="299">
+        <v>83</v>
+      </c>
+      <c r="EE113" s="302">
+        <v>82</v>
+      </c>
     </row>
-    <row r="114" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>9</v>
       </c>
@@ -19426,25 +20370,135 @@
       </c>
       <c r="CL114" s="211"/>
       <c r="CM114" s="76"/>
-      <c r="CN114" s="76"/>
-      <c r="CO114" s="76"/>
-      <c r="CP114" s="76"/>
-      <c r="CQ114" s="76"/>
-      <c r="CR114" s="76"/>
-      <c r="CS114" s="76"/>
-      <c r="CT114" s="76"/>
-      <c r="CU114" s="76"/>
-      <c r="CV114" s="76"/>
-      <c r="CW114" s="76"/>
-      <c r="CX114" s="76"/>
-      <c r="CY114" s="76"/>
-      <c r="CZ114" s="76"/>
-      <c r="DA114" s="76"/>
+      <c r="CN114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO114" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP114" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ114" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="CR114" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="CS114" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT114" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU114" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="CV114" s="299" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW114" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="CX114" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY114" s="38">
+        <v>74</v>
+      </c>
+      <c r="CZ114" s="44">
+        <v>73</v>
+      </c>
+      <c r="DA114" s="50">
+        <v>72</v>
+      </c>
       <c r="DB114" s="76"/>
-      <c r="DC114" s="76"/>
-      <c r="DD114" s="76"/>
+      <c r="DC114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD114" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE114" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="DF114" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG114" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="DH114" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="DI114" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="DJ114" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="DK114" s="299" t="s">
+        <v>74</v>
+      </c>
+      <c r="DL114" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="DM114" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="DN114" s="299">
+        <v>74</v>
+      </c>
+      <c r="DO114" s="299">
+        <v>73</v>
+      </c>
+      <c r="DP114" s="50">
+        <v>72</v>
+      </c>
+      <c r="DR114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS114" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="DT114" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="DU114" s="299" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV114" s="299" t="s">
+        <v>50</v>
+      </c>
+      <c r="DW114" s="299" t="s">
+        <v>59</v>
+      </c>
+      <c r="DX114" s="299" t="s">
+        <v>67</v>
+      </c>
+      <c r="DY114" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="DZ114" s="299" t="s">
+        <v>74</v>
+      </c>
+      <c r="EA114" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="EB114" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="EC114" s="38">
+        <v>74</v>
+      </c>
+      <c r="ED114" s="299">
+        <v>73</v>
+      </c>
+      <c r="EE114" s="302">
+        <v>72</v>
+      </c>
     </row>
-    <row r="115" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>80</v>
       </c>
@@ -19704,25 +20758,135 @@
       </c>
       <c r="CL115" s="211"/>
       <c r="CM115" s="76"/>
-      <c r="CN115" s="76"/>
-      <c r="CO115" s="76"/>
-      <c r="CP115" s="76"/>
-      <c r="CQ115" s="76"/>
-      <c r="CR115" s="76"/>
-      <c r="CS115" s="76"/>
-      <c r="CT115" s="76"/>
-      <c r="CU115" s="76"/>
-      <c r="CV115" s="76"/>
-      <c r="CW115" s="76"/>
-      <c r="CX115" s="76"/>
-      <c r="CY115" s="76"/>
-      <c r="CZ115" s="76"/>
-      <c r="DA115" s="76"/>
+      <c r="CN115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO115" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP115" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ115" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR115" s="299" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS115" s="299" t="s">
+        <v>60</v>
+      </c>
+      <c r="CT115" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU115" s="299" t="s">
+        <v>72</v>
+      </c>
+      <c r="CV115" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW115" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX115" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY115" s="38">
+        <v>64</v>
+      </c>
+      <c r="CZ115" s="299">
+        <v>63</v>
+      </c>
+      <c r="DA115" s="50">
+        <v>62</v>
+      </c>
       <c r="DB115" s="76"/>
-      <c r="DC115" s="76"/>
-      <c r="DD115" s="76"/>
+      <c r="DC115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DD115" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE115" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="DF115" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="DG115" s="299" t="s">
+        <v>51</v>
+      </c>
+      <c r="DH115" s="299" t="s">
+        <v>60</v>
+      </c>
+      <c r="DI115" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="DJ115" s="299" t="s">
+        <v>72</v>
+      </c>
+      <c r="DK115" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="DL115" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="DM115" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="DN115" s="299">
+        <v>64</v>
+      </c>
+      <c r="DO115" s="299">
+        <v>63</v>
+      </c>
+      <c r="DP115" s="50">
+        <v>62</v>
+      </c>
+      <c r="DR115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DS115" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="DT115" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="DU115" s="299" t="s">
+        <v>41</v>
+      </c>
+      <c r="DV115" s="299" t="s">
+        <v>51</v>
+      </c>
+      <c r="DW115" s="299" t="s">
+        <v>60</v>
+      </c>
+      <c r="DX115" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="DY115" s="299" t="s">
+        <v>72</v>
+      </c>
+      <c r="DZ115" s="299" t="s">
+        <v>75</v>
+      </c>
+      <c r="EA115" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="EB115" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="EC115" s="38">
+        <v>64</v>
+      </c>
+      <c r="ED115" s="299">
+        <v>63</v>
+      </c>
+      <c r="EE115" s="302">
+        <v>62</v>
+      </c>
     </row>
-    <row r="116" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>86</v>
       </c>
@@ -19982,25 +21146,135 @@
       </c>
       <c r="CL116" s="211"/>
       <c r="CM116" s="76"/>
-      <c r="CN116" s="76"/>
-      <c r="CO116" s="76"/>
-      <c r="CP116" s="76"/>
-      <c r="CQ116" s="76"/>
-      <c r="CR116" s="76"/>
-      <c r="CS116" s="76"/>
-      <c r="CT116" s="76"/>
-      <c r="CU116" s="76"/>
-      <c r="CV116" s="76"/>
-      <c r="CW116" s="76"/>
-      <c r="CX116" s="76"/>
-      <c r="CY116" s="76"/>
-      <c r="CZ116" s="76"/>
-      <c r="DA116" s="76"/>
+      <c r="CN116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO116" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP116" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ116" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="CR116" s="299" t="s">
+        <v>52</v>
+      </c>
+      <c r="CS116" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT116" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="CU116" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="CV116" s="299" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW116" s="299" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX116" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY116" s="38">
+        <v>54</v>
+      </c>
+      <c r="CZ116" s="38">
+        <v>53</v>
+      </c>
+      <c r="DA116" s="302">
+        <v>52</v>
+      </c>
       <c r="DB116" s="76"/>
-      <c r="DC116" s="76"/>
-      <c r="DD116" s="76"/>
+      <c r="DC116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD116" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE116" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="DF116" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="DG116" s="299" t="s">
+        <v>52</v>
+      </c>
+      <c r="DH116" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI116" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ116" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="DK116" s="299" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL116" s="299" t="s">
+        <v>78</v>
+      </c>
+      <c r="DM116" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="DN116" s="38">
+        <v>54</v>
+      </c>
+      <c r="DO116" s="299">
+        <v>53</v>
+      </c>
+      <c r="DP116" s="302">
+        <v>52</v>
+      </c>
+      <c r="DR116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS116" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="DT116" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="DU116" s="299" t="s">
+        <v>42</v>
+      </c>
+      <c r="DV116" s="299" t="s">
+        <v>52</v>
+      </c>
+      <c r="DW116" s="299" t="s">
+        <v>61</v>
+      </c>
+      <c r="DX116" s="299" t="s">
+        <v>69</v>
+      </c>
+      <c r="DY116" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="DZ116" s="299" t="s">
+        <v>76</v>
+      </c>
+      <c r="EA116" s="299" t="s">
+        <v>78</v>
+      </c>
+      <c r="EB116" s="299" t="s">
+        <v>79</v>
+      </c>
+      <c r="EC116" s="38">
+        <v>54</v>
+      </c>
+      <c r="ED116" s="299">
+        <v>53</v>
+      </c>
+      <c r="EE116" s="302">
+        <v>52</v>
+      </c>
     </row>
-    <row r="117" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>92</v>
       </c>
@@ -20260,162 +21534,368 @@
       </c>
       <c r="CL117" s="211"/>
       <c r="CM117" s="76"/>
-      <c r="CN117" s="76"/>
-      <c r="CO117" s="76"/>
-      <c r="CP117" s="76"/>
-      <c r="CQ117" s="76"/>
-      <c r="CR117" s="76"/>
-      <c r="CS117" s="76"/>
-      <c r="CT117" s="76"/>
-      <c r="CU117" s="76"/>
-      <c r="CV117" s="76"/>
-      <c r="CW117" s="76"/>
-      <c r="CX117" s="76"/>
-      <c r="CY117" s="76"/>
-      <c r="CZ117" s="76"/>
-      <c r="DA117" s="76"/>
+      <c r="CN117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO117" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP117" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ117" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CR117" s="299" t="s">
+        <v>53</v>
+      </c>
+      <c r="CS117" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT117" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU117" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV117" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW117" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="CX117" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="CY117" s="38">
+        <v>44</v>
+      </c>
+      <c r="CZ117" s="299">
+        <v>43</v>
+      </c>
+      <c r="DA117" s="50">
+        <v>42</v>
+      </c>
       <c r="DB117" s="76"/>
-      <c r="DC117" s="76"/>
-      <c r="DD117" s="76"/>
+      <c r="DC117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DD117" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="DE117" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF117" s="299" t="s">
+        <v>43</v>
+      </c>
+      <c r="DG117" s="299" t="s">
+        <v>53</v>
+      </c>
+      <c r="DH117" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="DI117" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ117" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="DK117" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="DL117" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="DM117" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="DN117" s="38">
+        <v>44</v>
+      </c>
+      <c r="DO117" s="299">
+        <v>43</v>
+      </c>
+      <c r="DP117" s="50">
+        <v>42</v>
+      </c>
+      <c r="DR117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DS117" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="DT117" s="299" t="s">
+        <v>32</v>
+      </c>
+      <c r="DU117" s="299" t="s">
+        <v>43</v>
+      </c>
+      <c r="DV117" s="299" t="s">
+        <v>53</v>
+      </c>
+      <c r="DW117" s="299" t="s">
+        <v>62</v>
+      </c>
+      <c r="DX117" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="DY117" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="DZ117" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="EA117" s="299" t="s">
+        <v>84</v>
+      </c>
+      <c r="EB117" s="299" t="s">
+        <v>85</v>
+      </c>
+      <c r="EC117" s="38">
+        <v>44</v>
+      </c>
+      <c r="ED117" s="299">
+        <v>43</v>
+      </c>
+      <c r="EE117" s="302">
+        <v>42</v>
+      </c>
     </row>
-    <row r="118" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="319" t="s">
+    <row r="118" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="326" t="s">
         <v>251</v>
       </c>
-      <c r="B118" s="319"/>
-      <c r="C118" s="319"/>
-      <c r="D118" s="319"/>
-      <c r="E118" s="319"/>
-      <c r="F118" s="319"/>
-      <c r="G118" s="319"/>
-      <c r="H118" s="319"/>
-      <c r="I118" s="319"/>
-      <c r="J118" s="319"/>
-      <c r="K118" s="319"/>
-      <c r="L118" s="319"/>
-      <c r="M118" s="319"/>
-      <c r="N118" s="319"/>
+      <c r="B118" s="326"/>
+      <c r="C118" s="326"/>
+      <c r="D118" s="326"/>
+      <c r="E118" s="326"/>
+      <c r="F118" s="326"/>
+      <c r="G118" s="326"/>
+      <c r="H118" s="326"/>
+      <c r="I118" s="326"/>
+      <c r="J118" s="326"/>
+      <c r="K118" s="326"/>
+      <c r="L118" s="326"/>
+      <c r="M118" s="326"/>
+      <c r="N118" s="326"/>
       <c r="O118" s="206"/>
-      <c r="P118" s="319" t="s">
+      <c r="P118" s="326" t="s">
         <v>252</v>
       </c>
-      <c r="Q118" s="319"/>
-      <c r="R118" s="319"/>
-      <c r="S118" s="319"/>
-      <c r="T118" s="319"/>
-      <c r="U118" s="319"/>
-      <c r="V118" s="319"/>
-      <c r="W118" s="319"/>
-      <c r="X118" s="319"/>
-      <c r="Y118" s="319"/>
-      <c r="Z118" s="319"/>
-      <c r="AA118" s="319"/>
-      <c r="AB118" s="319"/>
-      <c r="AC118" s="319"/>
+      <c r="Q118" s="326"/>
+      <c r="R118" s="326"/>
+      <c r="S118" s="326"/>
+      <c r="T118" s="326"/>
+      <c r="U118" s="326"/>
+      <c r="V118" s="326"/>
+      <c r="W118" s="326"/>
+      <c r="X118" s="326"/>
+      <c r="Y118" s="326"/>
+      <c r="Z118" s="326"/>
+      <c r="AA118" s="326"/>
+      <c r="AB118" s="326"/>
+      <c r="AC118" s="326"/>
       <c r="AD118" s="206"/>
-      <c r="AE118" s="319" t="s">
+      <c r="AE118" s="326" t="s">
         <v>253</v>
       </c>
-      <c r="AF118" s="319"/>
-      <c r="AG118" s="319"/>
-      <c r="AH118" s="319"/>
-      <c r="AI118" s="319"/>
-      <c r="AJ118" s="319"/>
-      <c r="AK118" s="319"/>
-      <c r="AL118" s="319"/>
-      <c r="AM118" s="319"/>
-      <c r="AN118" s="319"/>
-      <c r="AO118" s="319"/>
-      <c r="AP118" s="319"/>
-      <c r="AQ118" s="319"/>
-      <c r="AR118" s="319"/>
+      <c r="AF118" s="326"/>
+      <c r="AG118" s="326"/>
+      <c r="AH118" s="326"/>
+      <c r="AI118" s="326"/>
+      <c r="AJ118" s="326"/>
+      <c r="AK118" s="326"/>
+      <c r="AL118" s="326"/>
+      <c r="AM118" s="326"/>
+      <c r="AN118" s="326"/>
+      <c r="AO118" s="326"/>
+      <c r="AP118" s="326"/>
+      <c r="AQ118" s="326"/>
+      <c r="AR118" s="326"/>
       <c r="AS118" s="206"/>
-      <c r="AT118" s="319" t="s">
+      <c r="AT118" s="326" t="s">
         <v>254</v>
       </c>
-      <c r="AU118" s="319"/>
-      <c r="AV118" s="319"/>
-      <c r="AW118" s="319"/>
-      <c r="AX118" s="319"/>
-      <c r="AY118" s="319"/>
-      <c r="AZ118" s="319"/>
-      <c r="BA118" s="319"/>
-      <c r="BB118" s="319"/>
-      <c r="BC118" s="319"/>
-      <c r="BD118" s="319"/>
-      <c r="BE118" s="319"/>
-      <c r="BF118" s="319"/>
-      <c r="BG118" s="319"/>
+      <c r="AU118" s="326"/>
+      <c r="AV118" s="326"/>
+      <c r="AW118" s="326"/>
+      <c r="AX118" s="326"/>
+      <c r="AY118" s="326"/>
+      <c r="AZ118" s="326"/>
+      <c r="BA118" s="326"/>
+      <c r="BB118" s="326"/>
+      <c r="BC118" s="326"/>
+      <c r="BD118" s="326"/>
+      <c r="BE118" s="326"/>
+      <c r="BF118" s="326"/>
+      <c r="BG118" s="326"/>
       <c r="BH118" s="206"/>
-      <c r="BI118" s="319" t="s">
+      <c r="BI118" s="326" t="s">
         <v>255</v>
       </c>
-      <c r="BJ118" s="319"/>
-      <c r="BK118" s="319"/>
-      <c r="BL118" s="319"/>
-      <c r="BM118" s="319"/>
-      <c r="BN118" s="319"/>
-      <c r="BO118" s="319"/>
-      <c r="BP118" s="319"/>
-      <c r="BQ118" s="319"/>
-      <c r="BR118" s="319"/>
-      <c r="BS118" s="319"/>
-      <c r="BT118" s="319"/>
-      <c r="BU118" s="319"/>
-      <c r="BV118" s="319"/>
+      <c r="BJ118" s="326"/>
+      <c r="BK118" s="326"/>
+      <c r="BL118" s="326"/>
+      <c r="BM118" s="326"/>
+      <c r="BN118" s="326"/>
+      <c r="BO118" s="326"/>
+      <c r="BP118" s="326"/>
+      <c r="BQ118" s="326"/>
+      <c r="BR118" s="326"/>
+      <c r="BS118" s="326"/>
+      <c r="BT118" s="326"/>
+      <c r="BU118" s="326"/>
+      <c r="BV118" s="326"/>
       <c r="BW118" s="206"/>
-      <c r="BX118" s="319" t="s">
+      <c r="BX118" s="326" t="s">
         <v>256</v>
       </c>
-      <c r="BY118" s="319"/>
-      <c r="BZ118" s="319"/>
-      <c r="CA118" s="319"/>
-      <c r="CB118" s="319"/>
-      <c r="CC118" s="319"/>
-      <c r="CD118" s="319"/>
-      <c r="CE118" s="319"/>
-      <c r="CF118" s="319"/>
-      <c r="CG118" s="319"/>
-      <c r="CH118" s="319"/>
-      <c r="CI118" s="319"/>
-      <c r="CJ118" s="319"/>
-      <c r="CK118" s="319"/>
+      <c r="BY118" s="326"/>
+      <c r="BZ118" s="326"/>
+      <c r="CA118" s="326"/>
+      <c r="CB118" s="326"/>
+      <c r="CC118" s="326"/>
+      <c r="CD118" s="326"/>
+      <c r="CE118" s="326"/>
+      <c r="CF118" s="326"/>
+      <c r="CG118" s="326"/>
+      <c r="CH118" s="326"/>
+      <c r="CI118" s="326"/>
+      <c r="CJ118" s="326"/>
+      <c r="CK118" s="326"/>
       <c r="CL118" s="211"/>
       <c r="CM118" s="76"/>
-      <c r="CN118" s="76"/>
-      <c r="CO118" s="76"/>
-      <c r="CP118" s="76"/>
-      <c r="CQ118" s="76"/>
-      <c r="CR118" s="76"/>
-      <c r="CS118" s="76"/>
-      <c r="CT118" s="76"/>
-      <c r="CU118" s="76"/>
-      <c r="CV118" s="76"/>
-      <c r="CW118" s="76"/>
-      <c r="CX118" s="76"/>
-      <c r="CY118" s="76"/>
-      <c r="CZ118" s="76"/>
-      <c r="DA118" s="76"/>
+      <c r="CN118" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CO118" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP118" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ118" s="299" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR118" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS118" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="CT118" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="CU118" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="CV118" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW118" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="CX118" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="CY118" s="44">
+        <v>43</v>
+      </c>
+      <c r="CZ118" s="38">
+        <v>33</v>
+      </c>
+      <c r="DA118" s="302">
+        <v>32</v>
+      </c>
       <c r="DB118" s="76"/>
-      <c r="DC118" s="76"/>
-      <c r="DD118" s="76"/>
-      <c r="DE118" s="206"/>
-      <c r="DF118" s="206"/>
-      <c r="DG118" s="206"/>
-      <c r="DH118" s="206"/>
-      <c r="DI118" s="206"/>
-      <c r="DJ118" s="206"/>
-      <c r="DK118" s="206"/>
-      <c r="DL118" s="206"/>
-      <c r="DM118" s="206"/>
-      <c r="DN118" s="206"/>
-      <c r="DO118" s="206"/>
-      <c r="DP118" s="206"/>
+      <c r="DC118" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD118" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="DE118" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="DF118" s="299" t="s">
+        <v>44</v>
+      </c>
+      <c r="DG118" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="DH118" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="DI118" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="DJ118" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="DK118" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="DL118" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="DM118" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="DN118" s="44">
+        <v>43</v>
+      </c>
+      <c r="DO118" s="38">
+        <v>33</v>
+      </c>
+      <c r="DP118" s="302">
+        <v>32</v>
+      </c>
       <c r="DQ118" s="206"/>
-      <c r="DR118" s="206"/>
-      <c r="DS118" s="206"/>
+      <c r="DR118" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DS118" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="DT118" s="299" t="s">
+        <v>33</v>
+      </c>
+      <c r="DU118" s="299" t="s">
+        <v>44</v>
+      </c>
+      <c r="DV118" s="299" t="s">
+        <v>54</v>
+      </c>
+      <c r="DW118" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX118" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="DY118" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="DZ118" s="209" t="s">
+        <v>89</v>
+      </c>
+      <c r="EA118" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EB118" s="209" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC118" s="209">
+        <v>43</v>
+      </c>
+      <c r="ED118" s="38">
+        <v>33</v>
+      </c>
+      <c r="EE118" s="302">
+        <v>32</v>
+      </c>
     </row>
-    <row r="119" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>0</v>
@@ -20663,40 +22143,136 @@
       </c>
       <c r="CL119" s="206"/>
       <c r="CM119" s="206"/>
-      <c r="CN119" s="206"/>
-      <c r="CO119" s="206"/>
-      <c r="CP119" s="206"/>
-      <c r="CQ119" s="206"/>
-      <c r="CR119" s="206"/>
-      <c r="CS119" s="206"/>
-      <c r="CT119" s="206"/>
-      <c r="CU119" s="206"/>
-      <c r="CV119" s="206"/>
-      <c r="CW119" s="206"/>
-      <c r="CX119" s="206"/>
-      <c r="CY119" s="206"/>
-      <c r="CZ119" s="206"/>
-      <c r="DA119" s="206"/>
+      <c r="CN119" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO119" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP119" s="204" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ119" s="304" t="s">
+        <v>45</v>
+      </c>
+      <c r="CR119" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS119" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="CT119" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU119" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="CV119" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW119" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX119" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY119" s="45">
+        <v>42</v>
+      </c>
+      <c r="CZ119" s="45">
+        <v>32</v>
+      </c>
+      <c r="DA119" s="202">
+        <v>22</v>
+      </c>
       <c r="DB119" s="206"/>
-      <c r="DC119" s="206"/>
-      <c r="DD119" s="206"/>
-      <c r="DE119" s="206"/>
-      <c r="DF119" s="206"/>
-      <c r="DG119" s="206"/>
-      <c r="DH119" s="206"/>
-      <c r="DI119" s="206"/>
-      <c r="DJ119" s="206"/>
-      <c r="DK119" s="206"/>
-      <c r="DL119" s="206"/>
-      <c r="DM119" s="206"/>
-      <c r="DN119" s="206"/>
-      <c r="DO119" s="206"/>
-      <c r="DP119" s="206"/>
+      <c r="DC119" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="DD119" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="DE119" s="204" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF119" s="304" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG119" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="DH119" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="DI119" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="DJ119" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="DK119" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="DL119" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="DM119" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="DN119" s="45">
+        <v>42</v>
+      </c>
+      <c r="DO119" s="45">
+        <v>32</v>
+      </c>
+      <c r="DP119" s="202">
+        <v>22</v>
+      </c>
       <c r="DQ119" s="206"/>
-      <c r="DR119" s="206"/>
-      <c r="DS119" s="206"/>
+      <c r="DR119" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="DS119" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT119" s="304" t="s">
+        <v>34</v>
+      </c>
+      <c r="DU119" s="304" t="s">
+        <v>45</v>
+      </c>
+      <c r="DV119" s="304" t="s">
+        <v>55</v>
+      </c>
+      <c r="DW119" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="DX119" s="225" t="s">
+        <v>93</v>
+      </c>
+      <c r="DY119" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="DZ119" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="EA119" s="225" t="s">
+        <v>96</v>
+      </c>
+      <c r="EB119" s="225" t="s">
+        <v>97</v>
+      </c>
+      <c r="EC119" s="225">
+        <v>42</v>
+      </c>
+      <c r="ED119" s="225">
+        <v>32</v>
+      </c>
+      <c r="EE119" s="202">
+        <v>22</v>
+      </c>
     </row>
-    <row r="120" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>0</v>
       </c>
@@ -20989,7 +22565,7 @@
       <c r="DR120" s="206"/>
       <c r="DS120" s="206"/>
     </row>
-    <row r="121" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>1</v>
       </c>
@@ -21249,40 +22825,44 @@
       </c>
       <c r="CL121" s="206"/>
       <c r="CM121" s="206"/>
-      <c r="CN121" s="206"/>
-      <c r="CO121" s="206"/>
-      <c r="CP121" s="206"/>
-      <c r="CQ121" s="206"/>
-      <c r="CR121" s="206"/>
-      <c r="CS121" s="206"/>
-      <c r="CT121" s="206"/>
-      <c r="CU121" s="206"/>
-      <c r="CV121" s="206"/>
-      <c r="CW121" s="206"/>
-      <c r="CX121" s="206"/>
-      <c r="CY121" s="206"/>
-      <c r="CZ121" s="206"/>
-      <c r="DA121" s="206"/>
+      <c r="CN121" s="305" t="s">
+        <v>371</v>
+      </c>
+      <c r="CO121" s="305"/>
+      <c r="CP121" s="305"/>
+      <c r="CQ121" s="305"/>
+      <c r="CR121" s="305"/>
+      <c r="CS121" s="305"/>
+      <c r="CT121" s="305"/>
+      <c r="CU121" s="305"/>
+      <c r="CV121" s="305"/>
+      <c r="CW121" s="305"/>
+      <c r="CX121" s="305"/>
+      <c r="CY121" s="305"/>
+      <c r="CZ121" s="305"/>
+      <c r="DA121" s="305"/>
       <c r="DB121" s="206"/>
-      <c r="DC121" s="206"/>
-      <c r="DD121" s="206"/>
-      <c r="DE121" s="206"/>
-      <c r="DF121" s="206"/>
-      <c r="DG121" s="206"/>
-      <c r="DH121" s="206"/>
-      <c r="DI121" s="206"/>
-      <c r="DJ121" s="206"/>
-      <c r="DK121" s="206"/>
-      <c r="DL121" s="206"/>
-      <c r="DM121" s="206"/>
-      <c r="DN121" s="206"/>
-      <c r="DO121" s="206"/>
-      <c r="DP121" s="206"/>
+      <c r="DC121" s="305" t="s">
+        <v>372</v>
+      </c>
+      <c r="DD121" s="305"/>
+      <c r="DE121" s="305"/>
+      <c r="DF121" s="305"/>
+      <c r="DG121" s="305"/>
+      <c r="DH121" s="305"/>
+      <c r="DI121" s="305"/>
+      <c r="DJ121" s="305"/>
+      <c r="DK121" s="305"/>
+      <c r="DL121" s="305"/>
+      <c r="DM121" s="305"/>
+      <c r="DN121" s="305"/>
+      <c r="DO121" s="305"/>
+      <c r="DP121" s="305"/>
       <c r="DQ121" s="206"/>
       <c r="DR121" s="206"/>
       <c r="DS121" s="206"/>
     </row>
-    <row r="122" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>2</v>
       </c>
@@ -21542,40 +23122,92 @@
       </c>
       <c r="CL122" s="206"/>
       <c r="CM122" s="206"/>
-      <c r="CN122" s="206"/>
-      <c r="CO122" s="206"/>
-      <c r="CP122" s="206"/>
-      <c r="CQ122" s="206"/>
-      <c r="CR122" s="206"/>
-      <c r="CS122" s="206"/>
-      <c r="CT122" s="206"/>
-      <c r="CU122" s="206"/>
-      <c r="CV122" s="206"/>
-      <c r="CW122" s="206"/>
-      <c r="CX122" s="206"/>
-      <c r="CY122" s="206"/>
-      <c r="CZ122" s="206"/>
-      <c r="DA122" s="206"/>
+      <c r="CN122" s="1"/>
+      <c r="CO122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY122" s="2">
+        <v>4</v>
+      </c>
+      <c r="CZ122" s="2">
+        <v>3</v>
+      </c>
+      <c r="DA122" s="18">
+        <v>2</v>
+      </c>
       <c r="DB122" s="206"/>
-      <c r="DC122" s="206"/>
-      <c r="DD122" s="206"/>
-      <c r="DE122" s="206"/>
-      <c r="DF122" s="206"/>
-      <c r="DG122" s="206"/>
-      <c r="DH122" s="206"/>
-      <c r="DI122" s="206"/>
-      <c r="DJ122" s="206"/>
-      <c r="DK122" s="206"/>
-      <c r="DL122" s="206"/>
-      <c r="DM122" s="206"/>
-      <c r="DN122" s="206"/>
-      <c r="DO122" s="206"/>
-      <c r="DP122" s="206"/>
+      <c r="DC122" s="1"/>
+      <c r="DD122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="DI122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="DK122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN122" s="2">
+        <v>4</v>
+      </c>
+      <c r="DO122" s="2">
+        <v>3</v>
+      </c>
+      <c r="DP122" s="18">
+        <v>2</v>
+      </c>
       <c r="DQ122" s="206"/>
       <c r="DR122" s="206"/>
       <c r="DS122" s="206"/>
     </row>
-    <row r="123" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>3</v>
       </c>
@@ -21835,40 +23467,96 @@
       </c>
       <c r="CL123" s="206"/>
       <c r="CM123" s="206"/>
-      <c r="CN123" s="206"/>
-      <c r="CO123" s="206"/>
-      <c r="CP123" s="206"/>
-      <c r="CQ123" s="206"/>
-      <c r="CR123" s="206"/>
-      <c r="CS123" s="206"/>
-      <c r="CT123" s="206"/>
-      <c r="CU123" s="206"/>
-      <c r="CV123" s="206"/>
-      <c r="CW123" s="206"/>
-      <c r="CX123" s="206"/>
-      <c r="CY123" s="206"/>
-      <c r="CZ123" s="206"/>
-      <c r="DA123" s="206"/>
+      <c r="CN123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO123" s="300" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP123" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ123" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR123" s="301" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS123" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT123" s="301" t="s">
+        <v>15</v>
+      </c>
+      <c r="CU123" s="301" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV123" s="301" t="s">
+        <v>17</v>
+      </c>
+      <c r="CW123" s="301" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX123" s="301" t="s">
+        <v>19</v>
+      </c>
+      <c r="CY123" s="301" t="s">
+        <v>20</v>
+      </c>
+      <c r="CZ123" s="301" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA123" s="335" t="s">
+        <v>22</v>
+      </c>
       <c r="DB123" s="206"/>
-      <c r="DC123" s="206"/>
-      <c r="DD123" s="206"/>
-      <c r="DE123" s="206"/>
-      <c r="DF123" s="206"/>
-      <c r="DG123" s="206"/>
-      <c r="DH123" s="206"/>
-      <c r="DI123" s="206"/>
-      <c r="DJ123" s="206"/>
-      <c r="DK123" s="206"/>
-      <c r="DL123" s="206"/>
-      <c r="DM123" s="206"/>
-      <c r="DN123" s="206"/>
-      <c r="DO123" s="206"/>
-      <c r="DP123" s="206"/>
+      <c r="DC123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD123" s="300" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE123" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="DF123" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="DG123" s="301" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH123" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="DI123" s="301" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ123" s="301" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK123" s="301" t="s">
+        <v>17</v>
+      </c>
+      <c r="DL123" s="301" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM123" s="301" t="s">
+        <v>19</v>
+      </c>
+      <c r="DN123" s="301" t="s">
+        <v>20</v>
+      </c>
+      <c r="DO123" s="301" t="s">
+        <v>21</v>
+      </c>
+      <c r="DP123" s="335" t="s">
+        <v>22</v>
+      </c>
       <c r="DQ123" s="206"/>
       <c r="DR123" s="206"/>
       <c r="DS123" s="206"/>
     </row>
-    <row r="124" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>4</v>
       </c>
@@ -22128,40 +23816,96 @@
       </c>
       <c r="CL124" s="206"/>
       <c r="CM124" s="206"/>
-      <c r="CN124" s="206"/>
-      <c r="CO124" s="206"/>
-      <c r="CP124" s="206"/>
-      <c r="CQ124" s="206"/>
-      <c r="CR124" s="206"/>
-      <c r="CS124" s="206"/>
-      <c r="CT124" s="206"/>
-      <c r="CU124" s="206"/>
-      <c r="CV124" s="206"/>
-      <c r="CW124" s="206"/>
-      <c r="CX124" s="206"/>
-      <c r="CY124" s="206"/>
-      <c r="CZ124" s="206"/>
-      <c r="DA124" s="206"/>
+      <c r="CN124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO124" s="303" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP124" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ124" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR124" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS124" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT124" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU124" s="299" t="s">
+        <v>28</v>
+      </c>
+      <c r="CV124" s="299" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW124" s="299" t="s">
+        <v>30</v>
+      </c>
+      <c r="CX124" s="299" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY124" s="299" t="s">
+        <v>32</v>
+      </c>
+      <c r="CZ124" s="299" t="s">
+        <v>33</v>
+      </c>
+      <c r="DA124" s="302" t="s">
+        <v>34</v>
+      </c>
       <c r="DB124" s="206"/>
-      <c r="DC124" s="206"/>
-      <c r="DD124" s="206"/>
-      <c r="DE124" s="206"/>
-      <c r="DF124" s="206"/>
-      <c r="DG124" s="206"/>
-      <c r="DH124" s="206"/>
-      <c r="DI124" s="206"/>
-      <c r="DJ124" s="206"/>
-      <c r="DK124" s="206"/>
-      <c r="DL124" s="206"/>
-      <c r="DM124" s="206"/>
-      <c r="DN124" s="206"/>
-      <c r="DO124" s="206"/>
-      <c r="DP124" s="206"/>
+      <c r="DC124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD124" s="303" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE124" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF124" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG124" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="DH124" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI124" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="DJ124" s="299" t="s">
+        <v>28</v>
+      </c>
+      <c r="DK124" s="299" t="s">
+        <v>29</v>
+      </c>
+      <c r="DL124" s="299" t="s">
+        <v>30</v>
+      </c>
+      <c r="DM124" s="299" t="s">
+        <v>31</v>
+      </c>
+      <c r="DN124" s="209" t="s">
+        <v>32</v>
+      </c>
+      <c r="DO124" s="209" t="s">
+        <v>33</v>
+      </c>
+      <c r="DP124" s="210" t="s">
+        <v>34</v>
+      </c>
       <c r="DQ124" s="206"/>
       <c r="DR124" s="206"/>
       <c r="DS124" s="206"/>
     </row>
-    <row r="125" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>5</v>
       </c>
@@ -22421,40 +24165,96 @@
       </c>
       <c r="CL125" s="206"/>
       <c r="CM125" s="206"/>
-      <c r="CN125" s="206"/>
-      <c r="CO125" s="206"/>
-      <c r="CP125" s="206"/>
-      <c r="CQ125" s="206"/>
-      <c r="CR125" s="206"/>
-      <c r="CS125" s="206"/>
-      <c r="CT125" s="206"/>
-      <c r="CU125" s="206"/>
-      <c r="CV125" s="206"/>
-      <c r="CW125" s="206"/>
-      <c r="CX125" s="206"/>
-      <c r="CY125" s="206"/>
-      <c r="CZ125" s="206"/>
-      <c r="DA125" s="206"/>
+      <c r="CN125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO125" s="303" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP125" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ125" s="299" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR125" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS125" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT125" s="299" t="s">
+        <v>38</v>
+      </c>
+      <c r="CU125" s="299" t="s">
+        <v>39</v>
+      </c>
+      <c r="CV125" s="299" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW125" s="299" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX125" s="209" t="s">
+        <v>42</v>
+      </c>
+      <c r="CY125" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="CZ125" s="209" t="s">
+        <v>44</v>
+      </c>
+      <c r="DA125" s="210" t="s">
+        <v>45</v>
+      </c>
       <c r="DB125" s="206"/>
-      <c r="DC125" s="206"/>
-      <c r="DD125" s="206"/>
-      <c r="DE125" s="206"/>
-      <c r="DF125" s="206"/>
-      <c r="DG125" s="206"/>
-      <c r="DH125" s="206"/>
-      <c r="DI125" s="206"/>
-      <c r="DJ125" s="206"/>
-      <c r="DK125" s="206"/>
-      <c r="DL125" s="206"/>
-      <c r="DM125" s="206"/>
-      <c r="DN125" s="206"/>
-      <c r="DO125" s="206"/>
-      <c r="DP125" s="206"/>
+      <c r="DC125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD125" s="303" t="s">
+        <v>12</v>
+      </c>
+      <c r="DE125" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF125" s="299" t="s">
+        <v>35</v>
+      </c>
+      <c r="DG125" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH125" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="DI125" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="DJ125" s="209" t="s">
+        <v>39</v>
+      </c>
+      <c r="DK125" s="209" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL125" s="209" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM125" s="209" t="s">
+        <v>42</v>
+      </c>
+      <c r="DN125" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="DO125" s="209" t="s">
+        <v>44</v>
+      </c>
+      <c r="DP125" s="210" t="s">
+        <v>45</v>
+      </c>
       <c r="DQ125" s="206"/>
       <c r="DR125" s="206"/>
       <c r="DS125" s="206"/>
     </row>
-    <row r="126" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>6</v>
       </c>
@@ -22714,40 +24514,96 @@
       </c>
       <c r="CL126" s="206"/>
       <c r="CM126" s="206"/>
-      <c r="CN126" s="206"/>
-      <c r="CO126" s="206"/>
-      <c r="CP126" s="206"/>
-      <c r="CQ126" s="206"/>
-      <c r="CR126" s="206"/>
-      <c r="CS126" s="206"/>
-      <c r="CT126" s="206"/>
-      <c r="CU126" s="206"/>
-      <c r="CV126" s="206"/>
-      <c r="CW126" s="206"/>
-      <c r="CX126" s="206"/>
-      <c r="CY126" s="206"/>
-      <c r="CZ126" s="206"/>
-      <c r="DA126" s="206"/>
+      <c r="CN126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO126" s="303" t="s">
+        <v>13</v>
+      </c>
+      <c r="CP126" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ126" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR126" s="299" t="s">
+        <v>46</v>
+      </c>
+      <c r="CS126" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT126" s="299" t="s">
+        <v>48</v>
+      </c>
+      <c r="CU126" s="299" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV126" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW126" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="CX126" s="209" t="s">
+        <v>52</v>
+      </c>
+      <c r="CY126" s="209" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ126" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="DA126" s="210" t="s">
+        <v>55</v>
+      </c>
       <c r="DB126" s="206"/>
-      <c r="DC126" s="206"/>
-      <c r="DD126" s="206"/>
-      <c r="DE126" s="206"/>
-      <c r="DF126" s="206"/>
-      <c r="DG126" s="206"/>
-      <c r="DH126" s="206"/>
-      <c r="DI126" s="206"/>
-      <c r="DJ126" s="206"/>
-      <c r="DK126" s="206"/>
-      <c r="DL126" s="206"/>
-      <c r="DM126" s="206"/>
-      <c r="DN126" s="206"/>
-      <c r="DO126" s="206"/>
-      <c r="DP126" s="206"/>
+      <c r="DC126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD126" s="303" t="s">
+        <v>13</v>
+      </c>
+      <c r="DE126" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="DF126" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG126" s="299" t="s">
+        <v>46</v>
+      </c>
+      <c r="DH126" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="DI126" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ126" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="DK126" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="DL126" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="DM126" s="209" t="s">
+        <v>52</v>
+      </c>
+      <c r="DN126" s="209" t="s">
+        <v>53</v>
+      </c>
+      <c r="DO126" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="DP126" s="210" t="s">
+        <v>55</v>
+      </c>
       <c r="DQ126" s="206"/>
       <c r="DR126" s="206"/>
       <c r="DS126" s="206"/>
     </row>
-    <row r="127" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>7</v>
       </c>
@@ -23007,40 +24863,96 @@
       </c>
       <c r="CL127" s="206"/>
       <c r="CM127" s="206"/>
-      <c r="CN127" s="206"/>
-      <c r="CO127" s="206"/>
-      <c r="CP127" s="206"/>
-      <c r="CQ127" s="206"/>
-      <c r="CR127" s="206"/>
-      <c r="CS127" s="206"/>
-      <c r="CT127" s="206"/>
-      <c r="CU127" s="206"/>
-      <c r="CV127" s="206"/>
-      <c r="CW127" s="206"/>
-      <c r="CX127" s="206"/>
-      <c r="CY127" s="206"/>
-      <c r="CZ127" s="206"/>
-      <c r="DA127" s="206"/>
+      <c r="CN127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO127" s="303" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP127" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ127" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="CR127" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS127" s="299" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT127" s="209" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU127" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="CV127" s="209" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW127" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="CX127" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY127" s="209" t="s">
+        <v>62</v>
+      </c>
+      <c r="CZ127" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="DA127" s="210" t="s">
+        <v>64</v>
+      </c>
       <c r="DB127" s="206"/>
-      <c r="DC127" s="206"/>
-      <c r="DD127" s="206"/>
-      <c r="DE127" s="206"/>
-      <c r="DF127" s="206"/>
-      <c r="DG127" s="206"/>
-      <c r="DH127" s="206"/>
-      <c r="DI127" s="206"/>
-      <c r="DJ127" s="206"/>
-      <c r="DK127" s="206"/>
-      <c r="DL127" s="206"/>
-      <c r="DM127" s="206"/>
-      <c r="DN127" s="206"/>
-      <c r="DO127" s="206"/>
-      <c r="DP127" s="206"/>
+      <c r="DC127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="DD127" s="303" t="s">
+        <v>14</v>
+      </c>
+      <c r="DE127" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF127" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="DG127" s="209" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH127" s="299" t="s">
+        <v>56</v>
+      </c>
+      <c r="DI127" s="209" t="s">
+        <v>57</v>
+      </c>
+      <c r="DJ127" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="DK127" s="209" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL127" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="DM127" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="DN127" s="209" t="s">
+        <v>62</v>
+      </c>
+      <c r="DO127" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="DP127" s="210" t="s">
+        <v>64</v>
+      </c>
       <c r="DQ127" s="206"/>
       <c r="DR127" s="206"/>
       <c r="DS127" s="206"/>
     </row>
-    <row r="128" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:135" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>8</v>
       </c>
@@ -23300,35 +25212,91 @@
       </c>
       <c r="CL128" s="206"/>
       <c r="CM128" s="206"/>
-      <c r="CN128" s="206"/>
-      <c r="CO128" s="206"/>
-      <c r="CP128" s="206"/>
-      <c r="CQ128" s="206"/>
-      <c r="CR128" s="206"/>
-      <c r="CS128" s="206"/>
-      <c r="CT128" s="206"/>
-      <c r="CU128" s="206"/>
-      <c r="CV128" s="206"/>
-      <c r="CW128" s="206"/>
-      <c r="CX128" s="206"/>
-      <c r="CY128" s="206"/>
-      <c r="CZ128" s="206"/>
-      <c r="DA128" s="206"/>
+      <c r="CN128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO128" s="303" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP128" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ128" s="299" t="s">
+        <v>38</v>
+      </c>
+      <c r="CR128" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS128" s="209" t="s">
+        <v>57</v>
+      </c>
+      <c r="CT128" s="299" t="s">
+        <v>65</v>
+      </c>
+      <c r="CU128" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="CV128" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="CW128" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="CX128" s="209" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY128" s="209">
+        <v>94</v>
+      </c>
+      <c r="CZ128" s="209">
+        <v>93</v>
+      </c>
+      <c r="DA128" s="210">
+        <v>92</v>
+      </c>
       <c r="DB128" s="206"/>
-      <c r="DC128" s="206"/>
-      <c r="DD128" s="206"/>
-      <c r="DE128" s="206"/>
-      <c r="DF128" s="206"/>
-      <c r="DG128" s="206"/>
-      <c r="DH128" s="206"/>
-      <c r="DI128" s="206"/>
-      <c r="DJ128" s="206"/>
-      <c r="DK128" s="206"/>
-      <c r="DL128" s="206"/>
-      <c r="DM128" s="206"/>
-      <c r="DN128" s="206"/>
-      <c r="DO128" s="206"/>
-      <c r="DP128" s="206"/>
+      <c r="DC128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD128" s="303" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE128" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF128" s="209" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG128" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="DH128" s="209" t="s">
+        <v>57</v>
+      </c>
+      <c r="DI128" s="299" t="s">
+        <v>65</v>
+      </c>
+      <c r="DJ128" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="DK128" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="DL128" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="DM128" s="209" t="s">
+        <v>69</v>
+      </c>
+      <c r="DN128" s="209">
+        <v>94</v>
+      </c>
+      <c r="DO128" s="209">
+        <v>93</v>
+      </c>
+      <c r="DP128" s="210">
+        <v>92</v>
+      </c>
       <c r="DQ128" s="206"/>
       <c r="DR128" s="206"/>
       <c r="DS128" s="206"/>
@@ -23593,35 +25561,91 @@
       </c>
       <c r="CL129" s="206"/>
       <c r="CM129" s="206"/>
-      <c r="CN129" s="206"/>
-      <c r="CO129" s="206"/>
-      <c r="CP129" s="206"/>
-      <c r="CQ129" s="206"/>
-      <c r="CR129" s="206"/>
-      <c r="CS129" s="206"/>
-      <c r="CT129" s="206"/>
-      <c r="CU129" s="206"/>
-      <c r="CV129" s="206"/>
-      <c r="CW129" s="206"/>
-      <c r="CX129" s="206"/>
-      <c r="CY129" s="206"/>
-      <c r="CZ129" s="206"/>
-      <c r="DA129" s="206"/>
+      <c r="CN129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO129" s="303" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP129" s="299" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ129" s="299" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR129" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS129" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="CT129" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="CU129" s="299" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV129" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="CW129" s="209" t="s">
+        <v>72</v>
+      </c>
+      <c r="CX129" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="CY129" s="209">
+        <v>84</v>
+      </c>
+      <c r="CZ129" s="209">
+        <v>83</v>
+      </c>
+      <c r="DA129" s="210">
+        <v>82</v>
+      </c>
       <c r="DB129" s="206"/>
-      <c r="DC129" s="206"/>
-      <c r="DD129" s="206"/>
-      <c r="DE129" s="206"/>
-      <c r="DF129" s="206"/>
-      <c r="DG129" s="206"/>
-      <c r="DH129" s="206"/>
-      <c r="DI129" s="206"/>
-      <c r="DJ129" s="206"/>
-      <c r="DK129" s="206"/>
-      <c r="DL129" s="206"/>
-      <c r="DM129" s="206"/>
-      <c r="DN129" s="206"/>
-      <c r="DO129" s="206"/>
-      <c r="DP129" s="206"/>
+      <c r="DC129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="DD129" s="303" t="s">
+        <v>16</v>
+      </c>
+      <c r="DE129" s="209" t="s">
+        <v>28</v>
+      </c>
+      <c r="DF129" s="209" t="s">
+        <v>39</v>
+      </c>
+      <c r="DG129" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="DH129" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI129" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="DJ129" s="299" t="s">
+        <v>70</v>
+      </c>
+      <c r="DK129" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="DL129" s="209" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM129" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="DN129" s="209">
+        <v>84</v>
+      </c>
+      <c r="DO129" s="209">
+        <v>83</v>
+      </c>
+      <c r="DP129" s="210">
+        <v>82</v>
+      </c>
       <c r="DQ129" s="206"/>
       <c r="DR129" s="206"/>
       <c r="DS129" s="206"/>
@@ -23886,35 +25910,91 @@
       </c>
       <c r="CL130" s="206"/>
       <c r="CM130" s="206"/>
-      <c r="CN130" s="206"/>
-      <c r="CO130" s="206"/>
-      <c r="CP130" s="206"/>
-      <c r="CQ130" s="206"/>
-      <c r="CR130" s="206"/>
-      <c r="CS130" s="206"/>
-      <c r="CT130" s="206"/>
-      <c r="CU130" s="206"/>
-      <c r="CV130" s="206"/>
-      <c r="CW130" s="206"/>
-      <c r="CX130" s="206"/>
-      <c r="CY130" s="206"/>
-      <c r="CZ130" s="206"/>
-      <c r="DA130" s="206"/>
+      <c r="CN130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO130" s="303" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP130" s="299" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ130" s="209" t="s">
+        <v>40</v>
+      </c>
+      <c r="CR130" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="CS130" s="209" t="s">
+        <v>59</v>
+      </c>
+      <c r="CT130" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU130" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="CV130" s="299" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW130" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="CX130" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY130" s="209">
+        <v>74</v>
+      </c>
+      <c r="CZ130" s="209">
+        <v>73</v>
+      </c>
+      <c r="DA130" s="210">
+        <v>72</v>
+      </c>
       <c r="DB130" s="206"/>
-      <c r="DC130" s="206"/>
-      <c r="DD130" s="206"/>
-      <c r="DE130" s="206"/>
-      <c r="DF130" s="206"/>
-      <c r="DG130" s="206"/>
-      <c r="DH130" s="206"/>
-      <c r="DI130" s="206"/>
-      <c r="DJ130" s="206"/>
-      <c r="DK130" s="206"/>
-      <c r="DL130" s="206"/>
-      <c r="DM130" s="206"/>
-      <c r="DN130" s="206"/>
-      <c r="DO130" s="206"/>
-      <c r="DP130" s="206"/>
+      <c r="DC130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD130" s="303" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE130" s="209" t="s">
+        <v>29</v>
+      </c>
+      <c r="DF130" s="209" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG130" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="DH130" s="209" t="s">
+        <v>59</v>
+      </c>
+      <c r="DI130" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="DJ130" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="DK130" s="299" t="s">
+        <v>74</v>
+      </c>
+      <c r="DL130" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="DM130" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="DN130" s="209">
+        <v>74</v>
+      </c>
+      <c r="DO130" s="209">
+        <v>73</v>
+      </c>
+      <c r="DP130" s="210">
+        <v>72</v>
+      </c>
       <c r="DQ130" s="206"/>
       <c r="DR130" s="206"/>
       <c r="DS130" s="206"/>
@@ -24179,35 +26259,91 @@
       </c>
       <c r="CL131" s="206"/>
       <c r="CM131" s="206"/>
-      <c r="CN131" s="206"/>
-      <c r="CO131" s="206"/>
-      <c r="CP131" s="206"/>
-      <c r="CQ131" s="206"/>
-      <c r="CR131" s="206"/>
-      <c r="CS131" s="206"/>
-      <c r="CT131" s="206"/>
-      <c r="CU131" s="206"/>
-      <c r="CV131" s="206"/>
-      <c r="CW131" s="206"/>
-      <c r="CX131" s="206"/>
-      <c r="CY131" s="206"/>
-      <c r="CZ131" s="206"/>
-      <c r="DA131" s="206"/>
+      <c r="CN131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO131" s="303" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP131" s="299" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ131" s="209" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR131" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS131" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="CT131" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU131" s="209" t="s">
+        <v>72</v>
+      </c>
+      <c r="CV131" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW131" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX131" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY131" s="209">
+        <v>64</v>
+      </c>
+      <c r="CZ131" s="209">
+        <v>63</v>
+      </c>
+      <c r="DA131" s="210">
+        <v>62</v>
+      </c>
       <c r="DB131" s="206"/>
-      <c r="DC131" s="206"/>
-      <c r="DD131" s="206"/>
-      <c r="DE131" s="206"/>
-      <c r="DF131" s="206"/>
-      <c r="DG131" s="206"/>
-      <c r="DH131" s="206"/>
-      <c r="DI131" s="206"/>
-      <c r="DJ131" s="206"/>
-      <c r="DK131" s="206"/>
-      <c r="DL131" s="206"/>
-      <c r="DM131" s="206"/>
-      <c r="DN131" s="206"/>
-      <c r="DO131" s="206"/>
-      <c r="DP131" s="206"/>
+      <c r="DC131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DD131" s="303" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE131" s="209" t="s">
+        <v>30</v>
+      </c>
+      <c r="DF131" s="209" t="s">
+        <v>41</v>
+      </c>
+      <c r="DG131" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="DH131" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="DI131" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="DJ131" s="209" t="s">
+        <v>72</v>
+      </c>
+      <c r="DK131" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="DL131" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="DM131" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="DN131" s="209">
+        <v>64</v>
+      </c>
+      <c r="DO131" s="209">
+        <v>63</v>
+      </c>
+      <c r="DP131" s="210">
+        <v>62</v>
+      </c>
       <c r="DQ131" s="206"/>
       <c r="DR131" s="206"/>
       <c r="DS131" s="206"/>
@@ -24472,172 +26608,284 @@
       </c>
       <c r="CL132" s="206"/>
       <c r="CM132" s="206"/>
-      <c r="CN132" s="206"/>
-      <c r="CO132" s="206"/>
-      <c r="CP132" s="206"/>
-      <c r="CQ132" s="206"/>
-      <c r="CR132" s="206"/>
-      <c r="CS132" s="206"/>
-      <c r="CT132" s="206"/>
-      <c r="CU132" s="206"/>
-      <c r="CV132" s="206"/>
-      <c r="CW132" s="206"/>
-      <c r="CX132" s="206"/>
-      <c r="CY132" s="206"/>
-      <c r="CZ132" s="206"/>
-      <c r="DA132" s="206"/>
+      <c r="CN132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO132" s="303" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP132" s="299" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ132" s="209" t="s">
+        <v>42</v>
+      </c>
+      <c r="CR132" s="209" t="s">
+        <v>52</v>
+      </c>
+      <c r="CS132" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT132" s="209" t="s">
+        <v>69</v>
+      </c>
+      <c r="CU132" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="CV132" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="CW132" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX132" s="299" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY132" s="209">
+        <v>54</v>
+      </c>
+      <c r="CZ132" s="209">
+        <v>53</v>
+      </c>
+      <c r="DA132" s="210">
+        <v>52</v>
+      </c>
       <c r="DB132" s="206"/>
-      <c r="DC132" s="206"/>
-      <c r="DD132" s="206"/>
-      <c r="DE132" s="206"/>
-      <c r="DF132" s="206"/>
-      <c r="DG132" s="206"/>
-      <c r="DH132" s="206"/>
-      <c r="DI132" s="206"/>
-      <c r="DJ132" s="206"/>
-      <c r="DK132" s="206"/>
-      <c r="DL132" s="206"/>
-      <c r="DM132" s="206"/>
-      <c r="DN132" s="206"/>
-      <c r="DO132" s="206"/>
-      <c r="DP132" s="206"/>
+      <c r="DC132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD132" s="303" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE132" s="209" t="s">
+        <v>31</v>
+      </c>
+      <c r="DF132" s="209" t="s">
+        <v>42</v>
+      </c>
+      <c r="DG132" s="209" t="s">
+        <v>52</v>
+      </c>
+      <c r="DH132" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI132" s="209" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ132" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="DK132" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="DL132" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="DM132" s="299" t="s">
+        <v>79</v>
+      </c>
+      <c r="DN132" s="209">
+        <v>54</v>
+      </c>
+      <c r="DO132" s="209">
+        <v>53</v>
+      </c>
+      <c r="DP132" s="210">
+        <v>52</v>
+      </c>
       <c r="DQ132" s="206"/>
       <c r="DR132" s="206"/>
       <c r="DS132" s="206"/>
     </row>
     <row r="133" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="319" t="s">
+      <c r="A133" s="326" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="319"/>
-      <c r="C133" s="319"/>
-      <c r="D133" s="319"/>
-      <c r="E133" s="319"/>
-      <c r="F133" s="319"/>
-      <c r="G133" s="319"/>
-      <c r="H133" s="319"/>
-      <c r="I133" s="319"/>
-      <c r="J133" s="319"/>
-      <c r="K133" s="319"/>
-      <c r="L133" s="319"/>
-      <c r="M133" s="319"/>
-      <c r="N133" s="319"/>
+      <c r="B133" s="326"/>
+      <c r="C133" s="326"/>
+      <c r="D133" s="326"/>
+      <c r="E133" s="326"/>
+      <c r="F133" s="326"/>
+      <c r="G133" s="326"/>
+      <c r="H133" s="326"/>
+      <c r="I133" s="326"/>
+      <c r="J133" s="326"/>
+      <c r="K133" s="326"/>
+      <c r="L133" s="326"/>
+      <c r="M133" s="326"/>
+      <c r="N133" s="326"/>
       <c r="O133" s="206"/>
-      <c r="P133" s="319" t="s">
+      <c r="P133" s="326" t="s">
         <v>266</v>
       </c>
-      <c r="Q133" s="319"/>
-      <c r="R133" s="319"/>
-      <c r="S133" s="319"/>
-      <c r="T133" s="319"/>
-      <c r="U133" s="319"/>
-      <c r="V133" s="319"/>
-      <c r="W133" s="319"/>
-      <c r="X133" s="319"/>
-      <c r="Y133" s="319"/>
-      <c r="Z133" s="319"/>
-      <c r="AA133" s="319"/>
-      <c r="AB133" s="319"/>
-      <c r="AC133" s="319"/>
+      <c r="Q133" s="326"/>
+      <c r="R133" s="326"/>
+      <c r="S133" s="326"/>
+      <c r="T133" s="326"/>
+      <c r="U133" s="326"/>
+      <c r="V133" s="326"/>
+      <c r="W133" s="326"/>
+      <c r="X133" s="326"/>
+      <c r="Y133" s="326"/>
+      <c r="Z133" s="326"/>
+      <c r="AA133" s="326"/>
+      <c r="AB133" s="326"/>
+      <c r="AC133" s="326"/>
       <c r="AD133" s="206"/>
-      <c r="AE133" s="319" t="s">
+      <c r="AE133" s="326" t="s">
         <v>267</v>
       </c>
-      <c r="AF133" s="319"/>
-      <c r="AG133" s="319"/>
-      <c r="AH133" s="319"/>
-      <c r="AI133" s="319"/>
-      <c r="AJ133" s="319"/>
-      <c r="AK133" s="319"/>
-      <c r="AL133" s="319"/>
-      <c r="AM133" s="319"/>
-      <c r="AN133" s="319"/>
-      <c r="AO133" s="319"/>
-      <c r="AP133" s="319"/>
-      <c r="AQ133" s="319"/>
-      <c r="AR133" s="319"/>
+      <c r="AF133" s="326"/>
+      <c r="AG133" s="326"/>
+      <c r="AH133" s="326"/>
+      <c r="AI133" s="326"/>
+      <c r="AJ133" s="326"/>
+      <c r="AK133" s="326"/>
+      <c r="AL133" s="326"/>
+      <c r="AM133" s="326"/>
+      <c r="AN133" s="326"/>
+      <c r="AO133" s="326"/>
+      <c r="AP133" s="326"/>
+      <c r="AQ133" s="326"/>
+      <c r="AR133" s="326"/>
       <c r="AS133" s="206"/>
-      <c r="AT133" s="319" t="s">
+      <c r="AT133" s="326" t="s">
         <v>268</v>
       </c>
-      <c r="AU133" s="319"/>
-      <c r="AV133" s="319"/>
-      <c r="AW133" s="319"/>
-      <c r="AX133" s="319"/>
-      <c r="AY133" s="319"/>
-      <c r="AZ133" s="319"/>
-      <c r="BA133" s="319"/>
-      <c r="BB133" s="319"/>
-      <c r="BC133" s="319"/>
-      <c r="BD133" s="319"/>
-      <c r="BE133" s="319"/>
-      <c r="BF133" s="319"/>
-      <c r="BG133" s="319"/>
+      <c r="AU133" s="326"/>
+      <c r="AV133" s="326"/>
+      <c r="AW133" s="326"/>
+      <c r="AX133" s="326"/>
+      <c r="AY133" s="326"/>
+      <c r="AZ133" s="326"/>
+      <c r="BA133" s="326"/>
+      <c r="BB133" s="326"/>
+      <c r="BC133" s="326"/>
+      <c r="BD133" s="326"/>
+      <c r="BE133" s="326"/>
+      <c r="BF133" s="326"/>
+      <c r="BG133" s="326"/>
       <c r="BH133" s="206"/>
-      <c r="BI133" s="319" t="s">
+      <c r="BI133" s="326" t="s">
         <v>269</v>
       </c>
-      <c r="BJ133" s="319"/>
-      <c r="BK133" s="319"/>
-      <c r="BL133" s="319"/>
-      <c r="BM133" s="319"/>
-      <c r="BN133" s="319"/>
-      <c r="BO133" s="319"/>
-      <c r="BP133" s="319"/>
-      <c r="BQ133" s="319"/>
-      <c r="BR133" s="319"/>
-      <c r="BS133" s="319"/>
-      <c r="BT133" s="319"/>
-      <c r="BU133" s="319"/>
-      <c r="BV133" s="319"/>
+      <c r="BJ133" s="326"/>
+      <c r="BK133" s="326"/>
+      <c r="BL133" s="326"/>
+      <c r="BM133" s="326"/>
+      <c r="BN133" s="326"/>
+      <c r="BO133" s="326"/>
+      <c r="BP133" s="326"/>
+      <c r="BQ133" s="326"/>
+      <c r="BR133" s="326"/>
+      <c r="BS133" s="326"/>
+      <c r="BT133" s="326"/>
+      <c r="BU133" s="326"/>
+      <c r="BV133" s="326"/>
       <c r="BW133" s="206"/>
-      <c r="BX133" s="319" t="s">
+      <c r="BX133" s="326" t="s">
         <v>264</v>
       </c>
-      <c r="BY133" s="319"/>
-      <c r="BZ133" s="319"/>
-      <c r="CA133" s="319"/>
-      <c r="CB133" s="319"/>
-      <c r="CC133" s="319"/>
-      <c r="CD133" s="319"/>
-      <c r="CE133" s="319"/>
-      <c r="CF133" s="319"/>
-      <c r="CG133" s="319"/>
-      <c r="CH133" s="319"/>
-      <c r="CI133" s="319"/>
-      <c r="CJ133" s="319"/>
-      <c r="CK133" s="319"/>
+      <c r="BY133" s="326"/>
+      <c r="BZ133" s="326"/>
+      <c r="CA133" s="326"/>
+      <c r="CB133" s="326"/>
+      <c r="CC133" s="326"/>
+      <c r="CD133" s="326"/>
+      <c r="CE133" s="326"/>
+      <c r="CF133" s="326"/>
+      <c r="CG133" s="326"/>
+      <c r="CH133" s="326"/>
+      <c r="CI133" s="326"/>
+      <c r="CJ133" s="326"/>
+      <c r="CK133" s="326"/>
       <c r="CL133" s="206"/>
       <c r="CM133" s="206"/>
-      <c r="CN133" s="206"/>
-      <c r="CO133" s="206"/>
-      <c r="CP133" s="206"/>
-      <c r="CQ133" s="206"/>
-      <c r="CR133" s="206"/>
-      <c r="CS133" s="206"/>
-      <c r="CT133" s="206"/>
-      <c r="CU133" s="206"/>
-      <c r="CV133" s="206"/>
-      <c r="CW133" s="206"/>
-      <c r="CX133" s="206"/>
-      <c r="CY133" s="206"/>
-      <c r="CZ133" s="206"/>
-      <c r="DA133" s="206"/>
+      <c r="CN133" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO133" s="303" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP133" s="299" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ133" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="CR133" s="209" t="s">
+        <v>53</v>
+      </c>
+      <c r="CS133" s="209" t="s">
+        <v>62</v>
+      </c>
+      <c r="CT133" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU133" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV133" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW133" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="CX133" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="CY133" s="299">
+        <v>44</v>
+      </c>
+      <c r="CZ133" s="209">
+        <v>43</v>
+      </c>
+      <c r="DA133" s="210">
+        <v>42</v>
+      </c>
       <c r="DB133" s="206"/>
-      <c r="DC133" s="206"/>
-      <c r="DD133" s="206"/>
-      <c r="DE133" s="206"/>
-      <c r="DF133" s="206"/>
-      <c r="DG133" s="206"/>
-      <c r="DH133" s="206"/>
-      <c r="DI133" s="206"/>
-      <c r="DJ133" s="206"/>
-      <c r="DK133" s="206"/>
-      <c r="DL133" s="206"/>
-      <c r="DM133" s="206"/>
-      <c r="DN133" s="206"/>
-      <c r="DO133" s="206"/>
-      <c r="DP133" s="206"/>
+      <c r="DC133" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DD133" s="303" t="s">
+        <v>20</v>
+      </c>
+      <c r="DE133" s="209" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF133" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="DG133" s="209" t="s">
+        <v>53</v>
+      </c>
+      <c r="DH133" s="209" t="s">
+        <v>62</v>
+      </c>
+      <c r="DI133" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ133" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="DK133" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DL133" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="DM133" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="DN133" s="299">
+        <v>44</v>
+      </c>
+      <c r="DO133" s="209">
+        <v>43</v>
+      </c>
+      <c r="DP133" s="210">
+        <v>42</v>
+      </c>
       <c r="DQ133" s="206"/>
       <c r="DR133" s="206"/>
       <c r="DS133" s="206"/>
@@ -24890,40 +27138,96 @@
       </c>
       <c r="CL134" s="206"/>
       <c r="CM134" s="206"/>
-      <c r="CN134" s="206"/>
-      <c r="CO134" s="206"/>
-      <c r="CP134" s="206"/>
-      <c r="CQ134" s="206"/>
-      <c r="CR134" s="206"/>
-      <c r="CS134" s="206"/>
-      <c r="CT134" s="206"/>
-      <c r="CU134" s="206"/>
-      <c r="CV134" s="206"/>
-      <c r="CW134" s="206"/>
-      <c r="CX134" s="206"/>
-      <c r="CY134" s="206"/>
-      <c r="CZ134" s="206"/>
-      <c r="DA134" s="206"/>
+      <c r="CN134" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CO134" s="303" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP134" s="299" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ134" s="209" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR134" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS134" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="CT134" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="CU134" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="CV134" s="209" t="s">
+        <v>89</v>
+      </c>
+      <c r="CW134" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="CX134" s="209" t="s">
+        <v>91</v>
+      </c>
+      <c r="CY134" s="209">
+        <v>43</v>
+      </c>
+      <c r="CZ134" s="299">
+        <v>33</v>
+      </c>
+      <c r="DA134" s="210">
+        <v>32</v>
+      </c>
       <c r="DB134" s="206"/>
-      <c r="DC134" s="206"/>
-      <c r="DD134" s="206"/>
-      <c r="DE134" s="206"/>
-      <c r="DF134" s="206"/>
-      <c r="DG134" s="206"/>
-      <c r="DH134" s="206"/>
-      <c r="DI134" s="206"/>
-      <c r="DJ134" s="206"/>
-      <c r="DK134" s="206"/>
-      <c r="DL134" s="206"/>
-      <c r="DM134" s="206"/>
-      <c r="DN134" s="206"/>
-      <c r="DO134" s="206"/>
-      <c r="DP134" s="206"/>
+      <c r="DC134" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD134" s="303" t="s">
+        <v>21</v>
+      </c>
+      <c r="DE134" s="209" t="s">
+        <v>33</v>
+      </c>
+      <c r="DF134" s="209" t="s">
+        <v>44</v>
+      </c>
+      <c r="DG134" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="DH134" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="DI134" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="DJ134" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="DK134" s="209" t="s">
+        <v>89</v>
+      </c>
+      <c r="DL134" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="DM134" s="209" t="s">
+        <v>91</v>
+      </c>
+      <c r="DN134" s="209">
+        <v>43</v>
+      </c>
+      <c r="DO134" s="299">
+        <v>33</v>
+      </c>
+      <c r="DP134" s="210">
+        <v>32</v>
+      </c>
       <c r="DQ134" s="206"/>
       <c r="DR134" s="206"/>
       <c r="DS134" s="206"/>
     </row>
-    <row r="135" spans="1:123" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>0</v>
       </c>
@@ -25183,35 +27487,91 @@
       </c>
       <c r="CL135" s="206"/>
       <c r="CM135" s="206"/>
-      <c r="CN135" s="206"/>
-      <c r="CO135" s="206"/>
-      <c r="CP135" s="206"/>
-      <c r="CQ135" s="206"/>
-      <c r="CR135" s="206"/>
-      <c r="CS135" s="206"/>
-      <c r="CT135" s="206"/>
-      <c r="CU135" s="206"/>
-      <c r="CV135" s="206"/>
-      <c r="CW135" s="206"/>
-      <c r="CX135" s="206"/>
-      <c r="CY135" s="206"/>
-      <c r="CZ135" s="206"/>
-      <c r="DA135" s="206"/>
+      <c r="CN135" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO135" s="336" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP135" s="304" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ135" s="225" t="s">
+        <v>45</v>
+      </c>
+      <c r="CR135" s="225" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS135" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="CT135" s="225" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU135" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="CV135" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW135" s="225" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX135" s="225" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY135" s="225">
+        <v>42</v>
+      </c>
+      <c r="CZ135" s="225">
+        <v>32</v>
+      </c>
+      <c r="DA135" s="337">
+        <v>22</v>
+      </c>
       <c r="DB135" s="206"/>
-      <c r="DC135" s="206"/>
-      <c r="DD135" s="206"/>
-      <c r="DE135" s="206"/>
-      <c r="DF135" s="206"/>
-      <c r="DG135" s="206"/>
-      <c r="DH135" s="206"/>
-      <c r="DI135" s="206"/>
-      <c r="DJ135" s="206"/>
-      <c r="DK135" s="206"/>
-      <c r="DL135" s="206"/>
-      <c r="DM135" s="206"/>
-      <c r="DN135" s="206"/>
-      <c r="DO135" s="206"/>
-      <c r="DP135" s="206"/>
+      <c r="DC135" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="DD135" s="336" t="s">
+        <v>22</v>
+      </c>
+      <c r="DE135" s="225" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF135" s="225" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG135" s="225" t="s">
+        <v>55</v>
+      </c>
+      <c r="DH135" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="DI135" s="225" t="s">
+        <v>93</v>
+      </c>
+      <c r="DJ135" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="DK135" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="DL135" s="225" t="s">
+        <v>96</v>
+      </c>
+      <c r="DM135" s="225" t="s">
+        <v>97</v>
+      </c>
+      <c r="DN135" s="225">
+        <v>42</v>
+      </c>
+      <c r="DO135" s="225">
+        <v>32</v>
+      </c>
+      <c r="DP135" s="337">
+        <v>22</v>
+      </c>
       <c r="DQ135" s="206"/>
       <c r="DR135" s="206"/>
       <c r="DS135" s="206"/>
@@ -28733,102 +31093,102 @@
       <c r="DS147" s="206"/>
     </row>
     <row r="148" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="316" t="s">
+      <c r="A148" s="305" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="316"/>
-      <c r="C148" s="316"/>
-      <c r="D148" s="316"/>
-      <c r="E148" s="316"/>
-      <c r="F148" s="316"/>
-      <c r="G148" s="316"/>
-      <c r="H148" s="316"/>
-      <c r="I148" s="316"/>
-      <c r="J148" s="316"/>
-      <c r="K148" s="316"/>
-      <c r="L148" s="316"/>
-      <c r="M148" s="316"/>
-      <c r="N148" s="316"/>
-      <c r="P148" s="304" t="s">
+      <c r="B148" s="305"/>
+      <c r="C148" s="305"/>
+      <c r="D148" s="305"/>
+      <c r="E148" s="305"/>
+      <c r="F148" s="305"/>
+      <c r="G148" s="305"/>
+      <c r="H148" s="305"/>
+      <c r="I148" s="305"/>
+      <c r="J148" s="305"/>
+      <c r="K148" s="305"/>
+      <c r="L148" s="305"/>
+      <c r="M148" s="305"/>
+      <c r="N148" s="305"/>
+      <c r="P148" s="312" t="s">
         <v>277</v>
       </c>
-      <c r="Q148" s="304"/>
-      <c r="R148" s="304"/>
-      <c r="S148" s="304"/>
-      <c r="T148" s="304"/>
-      <c r="U148" s="304"/>
-      <c r="V148" s="304"/>
-      <c r="W148" s="304"/>
-      <c r="X148" s="304"/>
-      <c r="Y148" s="304"/>
-      <c r="Z148" s="304"/>
-      <c r="AA148" s="304"/>
-      <c r="AB148" s="304"/>
-      <c r="AC148" s="304"/>
-      <c r="AE148" s="316" t="s">
+      <c r="Q148" s="312"/>
+      <c r="R148" s="312"/>
+      <c r="S148" s="312"/>
+      <c r="T148" s="312"/>
+      <c r="U148" s="312"/>
+      <c r="V148" s="312"/>
+      <c r="W148" s="312"/>
+      <c r="X148" s="312"/>
+      <c r="Y148" s="312"/>
+      <c r="Z148" s="312"/>
+      <c r="AA148" s="312"/>
+      <c r="AB148" s="312"/>
+      <c r="AC148" s="312"/>
+      <c r="AE148" s="305" t="s">
         <v>278</v>
       </c>
-      <c r="AF148" s="316"/>
-      <c r="AG148" s="316"/>
-      <c r="AH148" s="316"/>
-      <c r="AI148" s="316"/>
-      <c r="AJ148" s="316"/>
-      <c r="AK148" s="316"/>
-      <c r="AL148" s="316"/>
-      <c r="AM148" s="316"/>
-      <c r="AN148" s="316"/>
-      <c r="AO148" s="316"/>
-      <c r="AP148" s="316"/>
-      <c r="AQ148" s="316"/>
-      <c r="AR148" s="316"/>
-      <c r="AT148" s="316" t="s">
+      <c r="AF148" s="305"/>
+      <c r="AG148" s="305"/>
+      <c r="AH148" s="305"/>
+      <c r="AI148" s="305"/>
+      <c r="AJ148" s="305"/>
+      <c r="AK148" s="305"/>
+      <c r="AL148" s="305"/>
+      <c r="AM148" s="305"/>
+      <c r="AN148" s="305"/>
+      <c r="AO148" s="305"/>
+      <c r="AP148" s="305"/>
+      <c r="AQ148" s="305"/>
+      <c r="AR148" s="305"/>
+      <c r="AT148" s="305" t="s">
         <v>279</v>
       </c>
-      <c r="AU148" s="316"/>
-      <c r="AV148" s="316"/>
-      <c r="AW148" s="316"/>
-      <c r="AX148" s="316"/>
-      <c r="AY148" s="316"/>
-      <c r="AZ148" s="316"/>
-      <c r="BA148" s="316"/>
-      <c r="BB148" s="316"/>
-      <c r="BC148" s="316"/>
-      <c r="BD148" s="316"/>
-      <c r="BE148" s="316"/>
-      <c r="BF148" s="316"/>
-      <c r="BG148" s="316"/>
-      <c r="BI148" s="316" t="s">
+      <c r="AU148" s="305"/>
+      <c r="AV148" s="305"/>
+      <c r="AW148" s="305"/>
+      <c r="AX148" s="305"/>
+      <c r="AY148" s="305"/>
+      <c r="AZ148" s="305"/>
+      <c r="BA148" s="305"/>
+      <c r="BB148" s="305"/>
+      <c r="BC148" s="305"/>
+      <c r="BD148" s="305"/>
+      <c r="BE148" s="305"/>
+      <c r="BF148" s="305"/>
+      <c r="BG148" s="305"/>
+      <c r="BI148" s="305" t="s">
         <v>280</v>
       </c>
-      <c r="BJ148" s="316"/>
-      <c r="BK148" s="316"/>
-      <c r="BL148" s="316"/>
-      <c r="BM148" s="316"/>
-      <c r="BN148" s="316"/>
-      <c r="BO148" s="316"/>
-      <c r="BP148" s="316"/>
-      <c r="BQ148" s="316"/>
-      <c r="BR148" s="316"/>
-      <c r="BS148" s="316"/>
-      <c r="BT148" s="316"/>
-      <c r="BU148" s="316"/>
-      <c r="BV148" s="316"/>
-      <c r="BX148" s="316" t="s">
+      <c r="BJ148" s="305"/>
+      <c r="BK148" s="305"/>
+      <c r="BL148" s="305"/>
+      <c r="BM148" s="305"/>
+      <c r="BN148" s="305"/>
+      <c r="BO148" s="305"/>
+      <c r="BP148" s="305"/>
+      <c r="BQ148" s="305"/>
+      <c r="BR148" s="305"/>
+      <c r="BS148" s="305"/>
+      <c r="BT148" s="305"/>
+      <c r="BU148" s="305"/>
+      <c r="BV148" s="305"/>
+      <c r="BX148" s="305" t="s">
         <v>281</v>
       </c>
-      <c r="BY148" s="316"/>
-      <c r="BZ148" s="316"/>
-      <c r="CA148" s="316"/>
-      <c r="CB148" s="316"/>
-      <c r="CC148" s="316"/>
-      <c r="CD148" s="316"/>
-      <c r="CE148" s="316"/>
-      <c r="CF148" s="316"/>
-      <c r="CG148" s="316"/>
-      <c r="CH148" s="316"/>
-      <c r="CI148" s="316"/>
-      <c r="CJ148" s="316"/>
-      <c r="CK148" s="316"/>
+      <c r="BY148" s="305"/>
+      <c r="BZ148" s="305"/>
+      <c r="CA148" s="305"/>
+      <c r="CB148" s="305"/>
+      <c r="CC148" s="305"/>
+      <c r="CD148" s="305"/>
+      <c r="CE148" s="305"/>
+      <c r="CF148" s="305"/>
+      <c r="CG148" s="305"/>
+      <c r="CH148" s="305"/>
+      <c r="CI148" s="305"/>
+      <c r="CJ148" s="305"/>
+      <c r="CK148" s="305"/>
       <c r="CL148" s="206"/>
       <c r="CM148" s="206"/>
       <c r="CN148" s="206"/>
@@ -32885,71 +35245,71 @@
       <c r="DS162" s="206"/>
     </row>
     <row r="163" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="304" t="s">
+      <c r="A163" s="312" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="304"/>
-      <c r="C163" s="304"/>
-      <c r="D163" s="304"/>
-      <c r="E163" s="304"/>
-      <c r="F163" s="304"/>
-      <c r="G163" s="304"/>
-      <c r="H163" s="304"/>
-      <c r="I163" s="304"/>
-      <c r="J163" s="304"/>
-      <c r="K163" s="304"/>
-      <c r="L163" s="304"/>
-      <c r="M163" s="304"/>
-      <c r="N163" s="304"/>
-      <c r="P163" s="325" t="s">
+      <c r="B163" s="312"/>
+      <c r="C163" s="312"/>
+      <c r="D163" s="312"/>
+      <c r="E163" s="312"/>
+      <c r="F163" s="312"/>
+      <c r="G163" s="312"/>
+      <c r="H163" s="312"/>
+      <c r="I163" s="312"/>
+      <c r="J163" s="312"/>
+      <c r="K163" s="312"/>
+      <c r="L163" s="312"/>
+      <c r="M163" s="312"/>
+      <c r="N163" s="312"/>
+      <c r="P163" s="332" t="s">
         <v>236</v>
       </c>
-      <c r="Q163" s="325"/>
-      <c r="R163" s="325"/>
-      <c r="S163" s="325"/>
-      <c r="T163" s="325"/>
-      <c r="U163" s="325"/>
-      <c r="V163" s="325"/>
-      <c r="W163" s="325"/>
-      <c r="X163" s="325"/>
-      <c r="Y163" s="325"/>
-      <c r="Z163" s="325"/>
-      <c r="AA163" s="325"/>
-      <c r="AB163" s="325"/>
-      <c r="AC163" s="325"/>
+      <c r="Q163" s="332"/>
+      <c r="R163" s="332"/>
+      <c r="S163" s="332"/>
+      <c r="T163" s="332"/>
+      <c r="U163" s="332"/>
+      <c r="V163" s="332"/>
+      <c r="W163" s="332"/>
+      <c r="X163" s="332"/>
+      <c r="Y163" s="332"/>
+      <c r="Z163" s="332"/>
+      <c r="AA163" s="332"/>
+      <c r="AB163" s="332"/>
+      <c r="AC163" s="332"/>
       <c r="AD163"/>
-      <c r="AE163" s="325" t="s">
+      <c r="AE163" s="332" t="s">
         <v>237</v>
       </c>
-      <c r="AF163" s="325"/>
-      <c r="AG163" s="325"/>
-      <c r="AH163" s="325"/>
-      <c r="AI163" s="325"/>
-      <c r="AJ163" s="325"/>
-      <c r="AK163" s="325"/>
-      <c r="AL163" s="325"/>
-      <c r="AM163" s="325"/>
-      <c r="AN163" s="325"/>
-      <c r="AO163" s="325"/>
-      <c r="AP163" s="325"/>
-      <c r="AQ163" s="325"/>
-      <c r="AR163" s="325"/>
-      <c r="AT163" s="325" t="s">
+      <c r="AF163" s="332"/>
+      <c r="AG163" s="332"/>
+      <c r="AH163" s="332"/>
+      <c r="AI163" s="332"/>
+      <c r="AJ163" s="332"/>
+      <c r="AK163" s="332"/>
+      <c r="AL163" s="332"/>
+      <c r="AM163" s="332"/>
+      <c r="AN163" s="332"/>
+      <c r="AO163" s="332"/>
+      <c r="AP163" s="332"/>
+      <c r="AQ163" s="332"/>
+      <c r="AR163" s="332"/>
+      <c r="AT163" s="332" t="s">
         <v>238</v>
       </c>
-      <c r="AU163" s="325"/>
-      <c r="AV163" s="325"/>
-      <c r="AW163" s="325"/>
-      <c r="AX163" s="325"/>
-      <c r="AY163" s="325"/>
-      <c r="AZ163" s="325"/>
-      <c r="BA163" s="325"/>
-      <c r="BB163" s="325"/>
-      <c r="BC163" s="325"/>
-      <c r="BD163" s="325"/>
-      <c r="BE163" s="325"/>
-      <c r="BF163" s="325"/>
-      <c r="BG163" s="325"/>
+      <c r="AU163" s="332"/>
+      <c r="AV163" s="332"/>
+      <c r="AW163" s="332"/>
+      <c r="AX163" s="332"/>
+      <c r="AY163" s="332"/>
+      <c r="AZ163" s="332"/>
+      <c r="BA163" s="332"/>
+      <c r="BB163" s="332"/>
+      <c r="BC163" s="332"/>
+      <c r="BD163" s="332"/>
+      <c r="BE163" s="332"/>
+      <c r="BF163" s="332"/>
+      <c r="BG163" s="332"/>
     </row>
     <row r="164" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
@@ -35343,191 +37703,191 @@
       </c>
     </row>
     <row r="178" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="311" t="s">
+      <c r="A178" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="B178" s="311"/>
-      <c r="C178" s="311"/>
-      <c r="D178" s="312" t="s">
+      <c r="B178" s="319"/>
+      <c r="C178" s="319"/>
+      <c r="D178" s="320" t="s">
         <v>193</v>
       </c>
-      <c r="E178" s="312"/>
-      <c r="F178" s="312"/>
-      <c r="G178" s="313" t="s">
+      <c r="E178" s="320"/>
+      <c r="F178" s="320"/>
+      <c r="G178" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="H178" s="313"/>
-      <c r="I178" s="313"/>
-      <c r="J178" s="314" t="s">
+      <c r="H178" s="321"/>
+      <c r="I178" s="321"/>
+      <c r="J178" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="K178" s="314"/>
-      <c r="L178" s="314"/>
-      <c r="M178" s="315" t="s">
+      <c r="K178" s="322"/>
+      <c r="L178" s="322"/>
+      <c r="M178" s="323" t="s">
         <v>196</v>
       </c>
-      <c r="N178" s="315"/>
-      <c r="O178" s="315"/>
-      <c r="P178" s="309" t="s">
+      <c r="N178" s="323"/>
+      <c r="O178" s="323"/>
+      <c r="P178" s="317" t="s">
         <v>187</v>
       </c>
-      <c r="Q178" s="309"/>
-      <c r="R178" s="309"/>
-      <c r="S178" s="310" t="s">
+      <c r="Q178" s="317"/>
+      <c r="R178" s="317"/>
+      <c r="S178" s="318" t="s">
         <v>188</v>
       </c>
-      <c r="T178" s="310"/>
-      <c r="U178" s="310"/>
-      <c r="V178" s="308" t="s">
+      <c r="T178" s="318"/>
+      <c r="U178" s="318"/>
+      <c r="V178" s="316" t="s">
         <v>189</v>
       </c>
-      <c r="W178" s="308"/>
-      <c r="X178" s="308"/>
-      <c r="Y178" s="306" t="s">
+      <c r="W178" s="316"/>
+      <c r="X178" s="316"/>
+      <c r="Y178" s="314" t="s">
         <v>190</v>
       </c>
-      <c r="Z178" s="306"/>
-      <c r="AA178" s="306"/>
-      <c r="AB178" s="307" t="s">
+      <c r="Z178" s="314"/>
+      <c r="AA178" s="314"/>
+      <c r="AB178" s="315" t="s">
         <v>191</v>
       </c>
-      <c r="AC178" s="307"/>
-      <c r="AD178" s="307"/>
-      <c r="AE178" s="309" t="s">
+      <c r="AC178" s="315"/>
+      <c r="AD178" s="315"/>
+      <c r="AE178" s="317" t="s">
         <v>187</v>
       </c>
-      <c r="AF178" s="309"/>
-      <c r="AG178" s="309"/>
-      <c r="AH178" s="310" t="s">
+      <c r="AF178" s="317"/>
+      <c r="AG178" s="317"/>
+      <c r="AH178" s="318" t="s">
         <v>188</v>
       </c>
-      <c r="AI178" s="310"/>
-      <c r="AJ178" s="310"/>
-      <c r="AK178" s="308" t="s">
+      <c r="AI178" s="318"/>
+      <c r="AJ178" s="318"/>
+      <c r="AK178" s="316" t="s">
         <v>189</v>
       </c>
-      <c r="AL178" s="308"/>
-      <c r="AM178" s="308"/>
-      <c r="AN178" s="306" t="s">
+      <c r="AL178" s="316"/>
+      <c r="AM178" s="316"/>
+      <c r="AN178" s="314" t="s">
         <v>190</v>
       </c>
-      <c r="AO178" s="306"/>
-      <c r="AP178" s="306"/>
-      <c r="AQ178" s="307" t="s">
+      <c r="AO178" s="314"/>
+      <c r="AP178" s="314"/>
+      <c r="AQ178" s="315" t="s">
         <v>191</v>
       </c>
-      <c r="AR178" s="307"/>
-      <c r="AS178" s="307"/>
-      <c r="AT178" s="309" t="s">
+      <c r="AR178" s="315"/>
+      <c r="AS178" s="315"/>
+      <c r="AT178" s="317" t="s">
         <v>187</v>
       </c>
-      <c r="AU178" s="309"/>
-      <c r="AV178" s="309"/>
-      <c r="AW178" s="310" t="s">
+      <c r="AU178" s="317"/>
+      <c r="AV178" s="317"/>
+      <c r="AW178" s="318" t="s">
         <v>188</v>
       </c>
-      <c r="AX178" s="310"/>
-      <c r="AY178" s="310"/>
-      <c r="AZ178" s="308" t="s">
+      <c r="AX178" s="318"/>
+      <c r="AY178" s="318"/>
+      <c r="AZ178" s="316" t="s">
         <v>189</v>
       </c>
-      <c r="BA178" s="308"/>
-      <c r="BB178" s="308"/>
-      <c r="BC178" s="306" t="s">
+      <c r="BA178" s="316"/>
+      <c r="BB178" s="316"/>
+      <c r="BC178" s="314" t="s">
         <v>190</v>
       </c>
-      <c r="BD178" s="306"/>
-      <c r="BE178" s="306"/>
-      <c r="BF178" s="307" t="s">
+      <c r="BD178" s="314"/>
+      <c r="BE178" s="314"/>
+      <c r="BF178" s="315" t="s">
         <v>191</v>
       </c>
-      <c r="BG178" s="307"/>
-      <c r="BH178" s="307"/>
+      <c r="BG178" s="315"/>
+      <c r="BH178" s="315"/>
     </row>
     <row r="179" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="324" t="s">
+      <c r="A179" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="B179" s="324"/>
-      <c r="C179" s="324"/>
-      <c r="D179" s="324"/>
-      <c r="E179" s="324"/>
-      <c r="F179" s="324"/>
-      <c r="G179" s="324"/>
-      <c r="H179" s="324"/>
-      <c r="I179" s="324"/>
-      <c r="J179" s="324"/>
-      <c r="K179" s="324"/>
-      <c r="L179" s="324"/>
-      <c r="M179" s="324"/>
-      <c r="N179" s="324"/>
+      <c r="B179" s="331"/>
+      <c r="C179" s="331"/>
+      <c r="D179" s="331"/>
+      <c r="E179" s="331"/>
+      <c r="F179" s="331"/>
+      <c r="G179" s="331"/>
+      <c r="H179" s="331"/>
+      <c r="I179" s="331"/>
+      <c r="J179" s="331"/>
+      <c r="K179" s="331"/>
+      <c r="L179" s="331"/>
+      <c r="M179" s="331"/>
+      <c r="N179" s="331"/>
       <c r="O179"/>
-      <c r="P179" s="300" t="s">
+      <c r="P179" s="308" t="s">
         <v>284</v>
       </c>
-      <c r="Q179" s="300"/>
-      <c r="R179" s="300"/>
-      <c r="S179" s="300"/>
-      <c r="T179" s="300"/>
-      <c r="U179" s="300"/>
-      <c r="V179" s="300"/>
-      <c r="W179" s="300"/>
-      <c r="X179" s="300"/>
-      <c r="Y179" s="300"/>
-      <c r="Z179" s="300"/>
-      <c r="AA179" s="300"/>
-      <c r="AB179" s="300"/>
-      <c r="AC179" s="300"/>
-      <c r="AE179" s="300" t="s">
+      <c r="Q179" s="308"/>
+      <c r="R179" s="308"/>
+      <c r="S179" s="308"/>
+      <c r="T179" s="308"/>
+      <c r="U179" s="308"/>
+      <c r="V179" s="308"/>
+      <c r="W179" s="308"/>
+      <c r="X179" s="308"/>
+      <c r="Y179" s="308"/>
+      <c r="Z179" s="308"/>
+      <c r="AA179" s="308"/>
+      <c r="AB179" s="308"/>
+      <c r="AC179" s="308"/>
+      <c r="AE179" s="308" t="s">
         <v>286</v>
       </c>
-      <c r="AF179" s="300"/>
-      <c r="AG179" s="300"/>
-      <c r="AH179" s="300"/>
-      <c r="AI179" s="300"/>
-      <c r="AJ179" s="300"/>
-      <c r="AK179" s="300"/>
-      <c r="AL179" s="300"/>
-      <c r="AM179" s="300"/>
-      <c r="AN179" s="300"/>
-      <c r="AO179" s="300"/>
-      <c r="AP179" s="300"/>
-      <c r="AQ179" s="300"/>
-      <c r="AR179" s="300"/>
+      <c r="AF179" s="308"/>
+      <c r="AG179" s="308"/>
+      <c r="AH179" s="308"/>
+      <c r="AI179" s="308"/>
+      <c r="AJ179" s="308"/>
+      <c r="AK179" s="308"/>
+      <c r="AL179" s="308"/>
+      <c r="AM179" s="308"/>
+      <c r="AN179" s="308"/>
+      <c r="AO179" s="308"/>
+      <c r="AP179" s="308"/>
+      <c r="AQ179" s="308"/>
+      <c r="AR179" s="308"/>
       <c r="AS179"/>
-      <c r="AT179" s="300" t="s">
+      <c r="AT179" s="308" t="s">
         <v>263</v>
       </c>
-      <c r="AU179" s="300"/>
-      <c r="AV179" s="300"/>
-      <c r="AW179" s="300"/>
-      <c r="AX179" s="300"/>
-      <c r="AY179" s="300"/>
-      <c r="AZ179" s="300"/>
-      <c r="BA179" s="300"/>
-      <c r="BB179" s="300"/>
-      <c r="BC179" s="300"/>
-      <c r="BD179" s="300"/>
-      <c r="BE179" s="300"/>
-      <c r="BF179" s="300"/>
-      <c r="BG179" s="300"/>
+      <c r="AU179" s="308"/>
+      <c r="AV179" s="308"/>
+      <c r="AW179" s="308"/>
+      <c r="AX179" s="308"/>
+      <c r="AY179" s="308"/>
+      <c r="AZ179" s="308"/>
+      <c r="BA179" s="308"/>
+      <c r="BB179" s="308"/>
+      <c r="BC179" s="308"/>
+      <c r="BD179" s="308"/>
+      <c r="BE179" s="308"/>
+      <c r="BF179" s="308"/>
+      <c r="BG179" s="308"/>
       <c r="BH179"/>
-      <c r="BI179" s="300" t="s">
+      <c r="BI179" s="308" t="s">
         <v>287</v>
       </c>
-      <c r="BJ179" s="300"/>
-      <c r="BK179" s="300"/>
-      <c r="BL179" s="300"/>
-      <c r="BM179" s="300"/>
-      <c r="BN179" s="300"/>
-      <c r="BO179" s="300"/>
-      <c r="BP179" s="300"/>
-      <c r="BQ179" s="300"/>
-      <c r="BR179" s="300"/>
-      <c r="BS179" s="300"/>
-      <c r="BT179" s="300"/>
-      <c r="BU179" s="300"/>
-      <c r="BV179" s="300"/>
+      <c r="BJ179" s="308"/>
+      <c r="BK179" s="308"/>
+      <c r="BL179" s="308"/>
+      <c r="BM179" s="308"/>
+      <c r="BN179" s="308"/>
+      <c r="BO179" s="308"/>
+      <c r="BP179" s="308"/>
+      <c r="BQ179" s="308"/>
+      <c r="BR179" s="308"/>
+      <c r="BS179" s="308"/>
+      <c r="BT179" s="308"/>
+      <c r="BU179" s="308"/>
+      <c r="BV179" s="308"/>
     </row>
     <row r="180" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
@@ -38605,22 +40965,22 @@
       <c r="BV194" s="219"/>
     </row>
     <row r="195" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="326" t="s">
+      <c r="A195" s="333" t="s">
         <v>282</v>
       </c>
-      <c r="B195" s="326"/>
-      <c r="C195" s="326"/>
-      <c r="D195" s="326"/>
-      <c r="E195" s="326"/>
-      <c r="F195" s="326"/>
-      <c r="G195" s="326"/>
-      <c r="H195" s="326"/>
-      <c r="I195" s="326"/>
-      <c r="J195" s="326"/>
-      <c r="K195" s="326"/>
-      <c r="L195" s="326"/>
-      <c r="M195" s="326"/>
-      <c r="N195" s="326"/>
+      <c r="B195" s="333"/>
+      <c r="C195" s="333"/>
+      <c r="D195" s="333"/>
+      <c r="E195" s="333"/>
+      <c r="F195" s="333"/>
+      <c r="G195" s="333"/>
+      <c r="H195" s="333"/>
+      <c r="I195" s="333"/>
+      <c r="J195" s="333"/>
+      <c r="K195" s="333"/>
+      <c r="L195" s="333"/>
+      <c r="M195" s="333"/>
+      <c r="N195" s="333"/>
       <c r="O195" s="206"/>
       <c r="P195" s="206"/>
       <c r="Q195" s="206"/>
@@ -40138,31 +42498,31 @@
       <c r="BW209" s="206"/>
     </row>
     <row r="210" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="311" t="s">
+      <c r="A210" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="B210" s="311"/>
-      <c r="C210" s="311"/>
-      <c r="D210" s="312" t="s">
+      <c r="B210" s="319"/>
+      <c r="C210" s="319"/>
+      <c r="D210" s="320" t="s">
         <v>193</v>
       </c>
-      <c r="E210" s="312"/>
-      <c r="F210" s="312"/>
-      <c r="G210" s="313" t="s">
+      <c r="E210" s="320"/>
+      <c r="F210" s="320"/>
+      <c r="G210" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="H210" s="313"/>
-      <c r="I210" s="313"/>
-      <c r="J210" s="314" t="s">
+      <c r="H210" s="321"/>
+      <c r="I210" s="321"/>
+      <c r="J210" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="K210" s="314"/>
-      <c r="L210" s="314"/>
-      <c r="M210" s="315" t="s">
+      <c r="K210" s="322"/>
+      <c r="L210" s="322"/>
+      <c r="M210" s="323" t="s">
         <v>196</v>
       </c>
-      <c r="N210" s="315"/>
-      <c r="O210" s="315"/>
+      <c r="N210" s="323"/>
+      <c r="O210" s="323"/>
       <c r="P210" s="206"/>
       <c r="Q210" s="206"/>
       <c r="R210" s="206"/>
@@ -40225,38 +42585,38 @@
       <c r="BW210" s="206"/>
     </row>
     <row r="211" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="316" t="s">
+      <c r="A211" s="305" t="s">
         <v>165</v>
       </c>
-      <c r="B211" s="316"/>
-      <c r="C211" s="316"/>
-      <c r="D211" s="316"/>
-      <c r="E211" s="316"/>
-      <c r="F211" s="316"/>
-      <c r="G211" s="316"/>
-      <c r="H211" s="316"/>
-      <c r="I211" s="316"/>
-      <c r="J211" s="316"/>
-      <c r="K211" s="316"/>
-      <c r="L211" s="316"/>
-      <c r="M211" s="316"/>
-      <c r="N211" s="316"/>
-      <c r="P211" s="316" t="s">
+      <c r="B211" s="305"/>
+      <c r="C211" s="305"/>
+      <c r="D211" s="305"/>
+      <c r="E211" s="305"/>
+      <c r="F211" s="305"/>
+      <c r="G211" s="305"/>
+      <c r="H211" s="305"/>
+      <c r="I211" s="305"/>
+      <c r="J211" s="305"/>
+      <c r="K211" s="305"/>
+      <c r="L211" s="305"/>
+      <c r="M211" s="305"/>
+      <c r="N211" s="305"/>
+      <c r="P211" s="305" t="s">
         <v>197</v>
       </c>
-      <c r="Q211" s="316"/>
-      <c r="R211" s="316"/>
-      <c r="S211" s="316"/>
-      <c r="T211" s="316"/>
-      <c r="U211" s="316"/>
-      <c r="V211" s="316"/>
-      <c r="W211" s="316"/>
-      <c r="X211" s="316"/>
-      <c r="Y211" s="316"/>
-      <c r="Z211" s="316"/>
-      <c r="AA211" s="316"/>
-      <c r="AB211" s="316"/>
-      <c r="AC211" s="316"/>
+      <c r="Q211" s="305"/>
+      <c r="R211" s="305"/>
+      <c r="S211" s="305"/>
+      <c r="T211" s="305"/>
+      <c r="U211" s="305"/>
+      <c r="V211" s="305"/>
+      <c r="W211" s="305"/>
+      <c r="X211" s="305"/>
+      <c r="Y211" s="305"/>
+      <c r="Z211" s="305"/>
+      <c r="AA211" s="305"/>
+      <c r="AB211" s="305"/>
+      <c r="AC211" s="305"/>
     </row>
     <row r="212" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
@@ -41457,133 +43817,133 @@
       <c r="AC225" s="146">
         <v>22</v>
       </c>
-      <c r="AD225" s="311" t="s">
+      <c r="AD225" s="319" t="s">
         <v>192</v>
       </c>
-      <c r="AE225" s="311"/>
-      <c r="AF225" s="311"/>
-      <c r="AG225" s="312" t="s">
+      <c r="AE225" s="319"/>
+      <c r="AF225" s="319"/>
+      <c r="AG225" s="320" t="s">
         <v>193</v>
       </c>
-      <c r="AH225" s="312"/>
-      <c r="AI225" s="312"/>
-      <c r="AJ225" s="313" t="s">
+      <c r="AH225" s="320"/>
+      <c r="AI225" s="320"/>
+      <c r="AJ225" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="AK225" s="313"/>
-      <c r="AL225" s="313"/>
-      <c r="AM225" s="314" t="s">
+      <c r="AK225" s="321"/>
+      <c r="AL225" s="321"/>
+      <c r="AM225" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="AN225" s="314"/>
-      <c r="AO225" s="314"/>
-      <c r="AP225" s="315" t="s">
+      <c r="AN225" s="322"/>
+      <c r="AO225" s="322"/>
+      <c r="AP225" s="323" t="s">
         <v>196</v>
       </c>
-      <c r="AQ225" s="315"/>
-      <c r="AR225" s="315"/>
+      <c r="AQ225" s="323"/>
+      <c r="AR225" s="323"/>
     </row>
     <row r="226" spans="1:59" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="303" t="s">
+      <c r="A226" s="311" t="s">
         <v>166</v>
       </c>
-      <c r="B226" s="303"/>
-      <c r="C226" s="303"/>
-      <c r="D226" s="303"/>
-      <c r="E226" s="303"/>
-      <c r="F226" s="303"/>
-      <c r="G226" s="303"/>
-      <c r="H226" s="303"/>
-      <c r="I226" s="303"/>
-      <c r="J226" s="303"/>
-      <c r="K226" s="303"/>
-      <c r="L226" s="303"/>
-      <c r="M226" s="303"/>
-      <c r="N226" s="303"/>
-      <c r="O226" s="303"/>
-      <c r="P226" s="303"/>
-      <c r="Q226" s="303"/>
-      <c r="R226" s="303"/>
-      <c r="S226" s="303"/>
-      <c r="T226" s="303"/>
-      <c r="U226" s="303"/>
-      <c r="V226" s="303"/>
-      <c r="W226" s="303"/>
-      <c r="X226" s="303"/>
-      <c r="Y226" s="303"/>
-      <c r="Z226" s="303"/>
-      <c r="AA226" s="303"/>
-      <c r="AB226" s="303"/>
-      <c r="AC226" s="303"/>
-      <c r="AD226" s="303"/>
+      <c r="B226" s="311"/>
+      <c r="C226" s="311"/>
+      <c r="D226" s="311"/>
+      <c r="E226" s="311"/>
+      <c r="F226" s="311"/>
+      <c r="G226" s="311"/>
+      <c r="H226" s="311"/>
+      <c r="I226" s="311"/>
+      <c r="J226" s="311"/>
+      <c r="K226" s="311"/>
+      <c r="L226" s="311"/>
+      <c r="M226" s="311"/>
+      <c r="N226" s="311"/>
+      <c r="O226" s="311"/>
+      <c r="P226" s="311"/>
+      <c r="Q226" s="311"/>
+      <c r="R226" s="311"/>
+      <c r="S226" s="311"/>
+      <c r="T226" s="311"/>
+      <c r="U226" s="311"/>
+      <c r="V226" s="311"/>
+      <c r="W226" s="311"/>
+      <c r="X226" s="311"/>
+      <c r="Y226" s="311"/>
+      <c r="Z226" s="311"/>
+      <c r="AA226" s="311"/>
+      <c r="AB226" s="311"/>
+      <c r="AC226" s="311"/>
+      <c r="AD226" s="311"/>
     </row>
     <row r="227" spans="1:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="300" t="s">
+      <c r="A227" s="308" t="s">
         <v>167</v>
       </c>
-      <c r="B227" s="300"/>
-      <c r="C227" s="300"/>
-      <c r="D227" s="300"/>
-      <c r="E227" s="300"/>
-      <c r="F227" s="300"/>
-      <c r="G227" s="300"/>
-      <c r="H227" s="300"/>
-      <c r="I227" s="300"/>
-      <c r="J227" s="300"/>
-      <c r="K227" s="300"/>
-      <c r="L227" s="300"/>
-      <c r="M227" s="300"/>
-      <c r="N227" s="300"/>
+      <c r="B227" s="308"/>
+      <c r="C227" s="308"/>
+      <c r="D227" s="308"/>
+      <c r="E227" s="308"/>
+      <c r="F227" s="308"/>
+      <c r="G227" s="308"/>
+      <c r="H227" s="308"/>
+      <c r="I227" s="308"/>
+      <c r="J227" s="308"/>
+      <c r="K227" s="308"/>
+      <c r="L227" s="308"/>
+      <c r="M227" s="308"/>
+      <c r="N227" s="308"/>
       <c r="O227"/>
-      <c r="P227" s="300" t="s">
+      <c r="P227" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="Q227" s="300"/>
-      <c r="R227" s="300"/>
-      <c r="S227" s="300"/>
-      <c r="T227" s="300"/>
-      <c r="U227" s="300"/>
-      <c r="V227" s="300"/>
-      <c r="W227" s="300"/>
-      <c r="X227" s="300"/>
-      <c r="Y227" s="300"/>
-      <c r="Z227" s="300"/>
-      <c r="AA227" s="300"/>
-      <c r="AB227" s="300"/>
-      <c r="AC227" s="300"/>
-      <c r="AE227" s="305" t="s">
+      <c r="Q227" s="308"/>
+      <c r="R227" s="308"/>
+      <c r="S227" s="308"/>
+      <c r="T227" s="308"/>
+      <c r="U227" s="308"/>
+      <c r="V227" s="308"/>
+      <c r="W227" s="308"/>
+      <c r="X227" s="308"/>
+      <c r="Y227" s="308"/>
+      <c r="Z227" s="308"/>
+      <c r="AA227" s="308"/>
+      <c r="AB227" s="308"/>
+      <c r="AC227" s="308"/>
+      <c r="AE227" s="313" t="s">
         <v>169</v>
       </c>
-      <c r="AF227" s="305"/>
-      <c r="AG227" s="305"/>
-      <c r="AH227" s="305"/>
-      <c r="AI227" s="305"/>
-      <c r="AJ227" s="305"/>
-      <c r="AK227" s="305"/>
-      <c r="AL227" s="305"/>
-      <c r="AM227" s="305"/>
-      <c r="AN227" s="305"/>
-      <c r="AO227" s="305"/>
-      <c r="AP227" s="305"/>
-      <c r="AQ227" s="305"/>
-      <c r="AR227" s="305"/>
+      <c r="AF227" s="313"/>
+      <c r="AG227" s="313"/>
+      <c r="AH227" s="313"/>
+      <c r="AI227" s="313"/>
+      <c r="AJ227" s="313"/>
+      <c r="AK227" s="313"/>
+      <c r="AL227" s="313"/>
+      <c r="AM227" s="313"/>
+      <c r="AN227" s="313"/>
+      <c r="AO227" s="313"/>
+      <c r="AP227" s="313"/>
+      <c r="AQ227" s="313"/>
+      <c r="AR227" s="313"/>
       <c r="AS227"/>
-      <c r="AT227" s="302" t="s">
+      <c r="AT227" s="310" t="s">
         <v>170</v>
       </c>
-      <c r="AU227" s="302"/>
-      <c r="AV227" s="302"/>
-      <c r="AW227" s="302"/>
-      <c r="AX227" s="302"/>
-      <c r="AY227" s="302"/>
-      <c r="AZ227" s="302"/>
-      <c r="BA227" s="302"/>
-      <c r="BB227" s="302"/>
-      <c r="BC227" s="302"/>
-      <c r="BD227" s="302"/>
-      <c r="BE227" s="302"/>
-      <c r="BF227" s="302"/>
-      <c r="BG227" s="302"/>
+      <c r="AU227" s="310"/>
+      <c r="AV227" s="310"/>
+      <c r="AW227" s="310"/>
+      <c r="AX227" s="310"/>
+      <c r="AY227" s="310"/>
+      <c r="AZ227" s="310"/>
+      <c r="BA227" s="310"/>
+      <c r="BB227" s="310"/>
+      <c r="BC227" s="310"/>
+      <c r="BD227" s="310"/>
+      <c r="BE227" s="310"/>
+      <c r="BF227" s="310"/>
+      <c r="BG227" s="310"/>
     </row>
     <row r="228" spans="1:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
@@ -43990,90 +46350,90 @@
       </c>
     </row>
     <row r="242" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="298" t="s">
+      <c r="A242" s="306" t="s">
         <v>171</v>
       </c>
-      <c r="B242" s="298"/>
-      <c r="C242" s="298"/>
-      <c r="D242" s="298"/>
-      <c r="E242" s="298"/>
-      <c r="F242" s="298"/>
-      <c r="G242" s="298"/>
-      <c r="H242" s="298"/>
-      <c r="I242" s="298"/>
-      <c r="J242" s="298"/>
-      <c r="K242" s="298"/>
-      <c r="L242" s="298"/>
-      <c r="M242" s="298"/>
-      <c r="N242" s="298"/>
+      <c r="B242" s="306"/>
+      <c r="C242" s="306"/>
+      <c r="D242" s="306"/>
+      <c r="E242" s="306"/>
+      <c r="F242" s="306"/>
+      <c r="G242" s="306"/>
+      <c r="H242" s="306"/>
+      <c r="I242" s="306"/>
+      <c r="J242" s="306"/>
+      <c r="K242" s="306"/>
+      <c r="L242" s="306"/>
+      <c r="M242" s="306"/>
+      <c r="N242" s="306"/>
       <c r="O242" s="120"/>
-      <c r="P242" s="302" t="s">
+      <c r="P242" s="310" t="s">
         <v>172</v>
       </c>
-      <c r="Q242" s="302"/>
-      <c r="R242" s="302"/>
-      <c r="S242" s="302"/>
-      <c r="T242" s="302"/>
-      <c r="U242" s="302"/>
-      <c r="V242" s="302"/>
-      <c r="W242" s="302"/>
-      <c r="X242" s="302"/>
-      <c r="Y242" s="302"/>
-      <c r="Z242" s="302"/>
-      <c r="AA242" s="302"/>
-      <c r="AB242" s="302"/>
-      <c r="AC242" s="302"/>
+      <c r="Q242" s="310"/>
+      <c r="R242" s="310"/>
+      <c r="S242" s="310"/>
+      <c r="T242" s="310"/>
+      <c r="U242" s="310"/>
+      <c r="V242" s="310"/>
+      <c r="W242" s="310"/>
+      <c r="X242" s="310"/>
+      <c r="Y242" s="310"/>
+      <c r="Z242" s="310"/>
+      <c r="AA242" s="310"/>
+      <c r="AB242" s="310"/>
+      <c r="AC242" s="310"/>
       <c r="AD242" s="121"/>
-      <c r="AE242" s="302" t="s">
+      <c r="AE242" s="310" t="s">
         <v>173</v>
       </c>
-      <c r="AF242" s="302"/>
-      <c r="AG242" s="302"/>
-      <c r="AH242" s="302"/>
-      <c r="AI242" s="302"/>
-      <c r="AJ242" s="302"/>
-      <c r="AK242" s="302"/>
-      <c r="AL242" s="302"/>
-      <c r="AM242" s="302"/>
-      <c r="AN242" s="302"/>
-      <c r="AO242" s="302"/>
-      <c r="AP242" s="302"/>
-      <c r="AQ242" s="302"/>
-      <c r="AR242" s="302"/>
+      <c r="AF242" s="310"/>
+      <c r="AG242" s="310"/>
+      <c r="AH242" s="310"/>
+      <c r="AI242" s="310"/>
+      <c r="AJ242" s="310"/>
+      <c r="AK242" s="310"/>
+      <c r="AL242" s="310"/>
+      <c r="AM242" s="310"/>
+      <c r="AN242" s="310"/>
+      <c r="AO242" s="310"/>
+      <c r="AP242" s="310"/>
+      <c r="AQ242" s="310"/>
+      <c r="AR242" s="310"/>
       <c r="AS242" s="120"/>
-      <c r="AT242" s="320" t="s">
+      <c r="AT242" s="327" t="s">
         <v>174</v>
       </c>
-      <c r="AU242" s="320"/>
-      <c r="AV242" s="320"/>
-      <c r="AW242" s="320"/>
-      <c r="AX242" s="320"/>
-      <c r="AY242" s="320"/>
-      <c r="AZ242" s="320"/>
-      <c r="BA242" s="320"/>
-      <c r="BB242" s="320"/>
-      <c r="BC242" s="320"/>
-      <c r="BD242" s="320"/>
-      <c r="BE242" s="320"/>
-      <c r="BF242" s="320"/>
-      <c r="BG242" s="320"/>
+      <c r="AU242" s="327"/>
+      <c r="AV242" s="327"/>
+      <c r="AW242" s="327"/>
+      <c r="AX242" s="327"/>
+      <c r="AY242" s="327"/>
+      <c r="AZ242" s="327"/>
+      <c r="BA242" s="327"/>
+      <c r="BB242" s="327"/>
+      <c r="BC242" s="327"/>
+      <c r="BD242" s="327"/>
+      <c r="BE242" s="327"/>
+      <c r="BF242" s="327"/>
+      <c r="BG242" s="327"/>
       <c r="BH242" s="120"/>
-      <c r="BI242" s="321" t="s">
+      <c r="BI242" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="BJ242" s="321"/>
-      <c r="BK242" s="321"/>
-      <c r="BL242" s="321"/>
-      <c r="BM242" s="321"/>
-      <c r="BN242" s="321"/>
-      <c r="BO242" s="321"/>
-      <c r="BP242" s="321"/>
-      <c r="BQ242" s="321"/>
-      <c r="BR242" s="321"/>
-      <c r="BS242" s="321"/>
-      <c r="BT242" s="321"/>
-      <c r="BU242" s="321"/>
-      <c r="BV242" s="321"/>
+      <c r="BJ242" s="328"/>
+      <c r="BK242" s="328"/>
+      <c r="BL242" s="328"/>
+      <c r="BM242" s="328"/>
+      <c r="BN242" s="328"/>
+      <c r="BO242" s="328"/>
+      <c r="BP242" s="328"/>
+      <c r="BQ242" s="328"/>
+      <c r="BR242" s="328"/>
+      <c r="BS242" s="328"/>
+      <c r="BT242" s="328"/>
+      <c r="BU242" s="328"/>
+      <c r="BV242" s="328"/>
     </row>
     <row r="243" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
@@ -47090,90 +49450,90 @@
       </c>
     </row>
     <row r="257" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="298" t="s">
+      <c r="A257" s="306" t="s">
         <v>176</v>
       </c>
-      <c r="B257" s="298"/>
-      <c r="C257" s="298"/>
-      <c r="D257" s="298"/>
-      <c r="E257" s="298"/>
-      <c r="F257" s="298"/>
-      <c r="G257" s="298"/>
-      <c r="H257" s="298"/>
-      <c r="I257" s="298"/>
-      <c r="J257" s="298"/>
-      <c r="K257" s="298"/>
-      <c r="L257" s="298"/>
-      <c r="M257" s="298"/>
-      <c r="N257" s="298"/>
+      <c r="B257" s="306"/>
+      <c r="C257" s="306"/>
+      <c r="D257" s="306"/>
+      <c r="E257" s="306"/>
+      <c r="F257" s="306"/>
+      <c r="G257" s="306"/>
+      <c r="H257" s="306"/>
+      <c r="I257" s="306"/>
+      <c r="J257" s="306"/>
+      <c r="K257" s="306"/>
+      <c r="L257" s="306"/>
+      <c r="M257" s="306"/>
+      <c r="N257" s="306"/>
       <c r="O257" s="120"/>
-      <c r="P257" s="298" t="s">
+      <c r="P257" s="306" t="s">
         <v>177</v>
       </c>
-      <c r="Q257" s="298"/>
-      <c r="R257" s="298"/>
-      <c r="S257" s="298"/>
-      <c r="T257" s="298"/>
-      <c r="U257" s="298"/>
-      <c r="V257" s="298"/>
-      <c r="W257" s="298"/>
-      <c r="X257" s="298"/>
-      <c r="Y257" s="298"/>
-      <c r="Z257" s="298"/>
-      <c r="AA257" s="298"/>
-      <c r="AB257" s="298"/>
-      <c r="AC257" s="298"/>
+      <c r="Q257" s="306"/>
+      <c r="R257" s="306"/>
+      <c r="S257" s="306"/>
+      <c r="T257" s="306"/>
+      <c r="U257" s="306"/>
+      <c r="V257" s="306"/>
+      <c r="W257" s="306"/>
+      <c r="X257" s="306"/>
+      <c r="Y257" s="306"/>
+      <c r="Z257" s="306"/>
+      <c r="AA257" s="306"/>
+      <c r="AB257" s="306"/>
+      <c r="AC257" s="306"/>
       <c r="AD257" s="121"/>
-      <c r="AE257" s="298" t="s">
+      <c r="AE257" s="306" t="s">
         <v>178</v>
       </c>
-      <c r="AF257" s="298"/>
-      <c r="AG257" s="298"/>
-      <c r="AH257" s="298"/>
-      <c r="AI257" s="298"/>
-      <c r="AJ257" s="298"/>
-      <c r="AK257" s="298"/>
-      <c r="AL257" s="298"/>
-      <c r="AM257" s="298"/>
-      <c r="AN257" s="298"/>
-      <c r="AO257" s="298"/>
-      <c r="AP257" s="298"/>
-      <c r="AQ257" s="298"/>
-      <c r="AR257" s="298"/>
+      <c r="AF257" s="306"/>
+      <c r="AG257" s="306"/>
+      <c r="AH257" s="306"/>
+      <c r="AI257" s="306"/>
+      <c r="AJ257" s="306"/>
+      <c r="AK257" s="306"/>
+      <c r="AL257" s="306"/>
+      <c r="AM257" s="306"/>
+      <c r="AN257" s="306"/>
+      <c r="AO257" s="306"/>
+      <c r="AP257" s="306"/>
+      <c r="AQ257" s="306"/>
+      <c r="AR257" s="306"/>
       <c r="AS257" s="120"/>
-      <c r="AT257" s="298" t="s">
+      <c r="AT257" s="306" t="s">
         <v>179</v>
       </c>
-      <c r="AU257" s="298"/>
-      <c r="AV257" s="298"/>
-      <c r="AW257" s="298"/>
-      <c r="AX257" s="298"/>
-      <c r="AY257" s="298"/>
-      <c r="AZ257" s="298"/>
-      <c r="BA257" s="298"/>
-      <c r="BB257" s="298"/>
-      <c r="BC257" s="298"/>
-      <c r="BD257" s="298"/>
-      <c r="BE257" s="298"/>
-      <c r="BF257" s="298"/>
-      <c r="BG257" s="298"/>
+      <c r="AU257" s="306"/>
+      <c r="AV257" s="306"/>
+      <c r="AW257" s="306"/>
+      <c r="AX257" s="306"/>
+      <c r="AY257" s="306"/>
+      <c r="AZ257" s="306"/>
+      <c r="BA257" s="306"/>
+      <c r="BB257" s="306"/>
+      <c r="BC257" s="306"/>
+      <c r="BD257" s="306"/>
+      <c r="BE257" s="306"/>
+      <c r="BF257" s="306"/>
+      <c r="BG257" s="306"/>
       <c r="BH257"/>
-      <c r="BI257" s="298" t="s">
+      <c r="BI257" s="306" t="s">
         <v>180</v>
       </c>
-      <c r="BJ257" s="298"/>
-      <c r="BK257" s="298"/>
-      <c r="BL257" s="298"/>
-      <c r="BM257" s="298"/>
-      <c r="BN257" s="298"/>
-      <c r="BO257" s="298"/>
-      <c r="BP257" s="298"/>
-      <c r="BQ257" s="298"/>
-      <c r="BR257" s="298"/>
-      <c r="BS257" s="298"/>
-      <c r="BT257" s="298"/>
-      <c r="BU257" s="298"/>
-      <c r="BV257" s="298"/>
+      <c r="BJ257" s="306"/>
+      <c r="BK257" s="306"/>
+      <c r="BL257" s="306"/>
+      <c r="BM257" s="306"/>
+      <c r="BN257" s="306"/>
+      <c r="BO257" s="306"/>
+      <c r="BP257" s="306"/>
+      <c r="BQ257" s="306"/>
+      <c r="BR257" s="306"/>
+      <c r="BS257" s="306"/>
+      <c r="BT257" s="306"/>
+      <c r="BU257" s="306"/>
+      <c r="BV257" s="306"/>
     </row>
     <row r="258" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
@@ -50219,124 +52579,124 @@
       <c r="CZ271" s="297"/>
     </row>
     <row r="272" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="298" t="s">
+      <c r="A272" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="B272" s="298"/>
-      <c r="C272" s="298"/>
-      <c r="D272" s="298"/>
-      <c r="E272" s="298"/>
-      <c r="F272" s="298"/>
-      <c r="G272" s="298"/>
-      <c r="H272" s="298"/>
-      <c r="I272" s="298"/>
-      <c r="J272" s="298"/>
-      <c r="K272" s="298"/>
-      <c r="L272" s="298"/>
-      <c r="M272" s="298"/>
-      <c r="N272" s="298"/>
+      <c r="B272" s="306"/>
+      <c r="C272" s="306"/>
+      <c r="D272" s="306"/>
+      <c r="E272" s="306"/>
+      <c r="F272" s="306"/>
+      <c r="G272" s="306"/>
+      <c r="H272" s="306"/>
+      <c r="I272" s="306"/>
+      <c r="J272" s="306"/>
+      <c r="K272" s="306"/>
+      <c r="L272" s="306"/>
+      <c r="M272" s="306"/>
+      <c r="N272" s="306"/>
       <c r="O272" s="120"/>
-      <c r="P272" s="298" t="s">
+      <c r="P272" s="306" t="s">
         <v>182</v>
       </c>
-      <c r="Q272" s="298"/>
-      <c r="R272" s="298"/>
-      <c r="S272" s="298"/>
-      <c r="T272" s="298"/>
-      <c r="U272" s="298"/>
-      <c r="V272" s="298"/>
-      <c r="W272" s="298"/>
-      <c r="X272" s="298"/>
-      <c r="Y272" s="298"/>
-      <c r="Z272" s="298"/>
-      <c r="AA272" s="298"/>
-      <c r="AB272" s="298"/>
-      <c r="AC272" s="298"/>
+      <c r="Q272" s="306"/>
+      <c r="R272" s="306"/>
+      <c r="S272" s="306"/>
+      <c r="T272" s="306"/>
+      <c r="U272" s="306"/>
+      <c r="V272" s="306"/>
+      <c r="W272" s="306"/>
+      <c r="X272" s="306"/>
+      <c r="Y272" s="306"/>
+      <c r="Z272" s="306"/>
+      <c r="AA272" s="306"/>
+      <c r="AB272" s="306"/>
+      <c r="AC272" s="306"/>
       <c r="AD272" s="121"/>
-      <c r="AE272" s="298" t="s">
+      <c r="AE272" s="306" t="s">
         <v>183</v>
       </c>
-      <c r="AF272" s="298"/>
-      <c r="AG272" s="298"/>
-      <c r="AH272" s="298"/>
-      <c r="AI272" s="298"/>
-      <c r="AJ272" s="298"/>
-      <c r="AK272" s="298"/>
-      <c r="AL272" s="298"/>
-      <c r="AM272" s="298"/>
-      <c r="AN272" s="298"/>
-      <c r="AO272" s="298"/>
-      <c r="AP272" s="298"/>
-      <c r="AQ272" s="298"/>
-      <c r="AR272" s="298"/>
+      <c r="AF272" s="306"/>
+      <c r="AG272" s="306"/>
+      <c r="AH272" s="306"/>
+      <c r="AI272" s="306"/>
+      <c r="AJ272" s="306"/>
+      <c r="AK272" s="306"/>
+      <c r="AL272" s="306"/>
+      <c r="AM272" s="306"/>
+      <c r="AN272" s="306"/>
+      <c r="AO272" s="306"/>
+      <c r="AP272" s="306"/>
+      <c r="AQ272" s="306"/>
+      <c r="AR272" s="306"/>
       <c r="AS272"/>
-      <c r="AT272" s="301" t="s">
+      <c r="AT272" s="309" t="s">
         <v>184</v>
       </c>
-      <c r="AU272" s="301"/>
-      <c r="AV272" s="301"/>
-      <c r="AW272" s="301"/>
-      <c r="AX272" s="301"/>
-      <c r="AY272" s="301"/>
-      <c r="AZ272" s="301"/>
-      <c r="BA272" s="301"/>
-      <c r="BB272" s="301"/>
-      <c r="BC272" s="301"/>
-      <c r="BD272" s="301"/>
-      <c r="BE272" s="301"/>
-      <c r="BF272" s="301"/>
-      <c r="BG272" s="301"/>
+      <c r="AU272" s="309"/>
+      <c r="AV272" s="309"/>
+      <c r="AW272" s="309"/>
+      <c r="AX272" s="309"/>
+      <c r="AY272" s="309"/>
+      <c r="AZ272" s="309"/>
+      <c r="BA272" s="309"/>
+      <c r="BB272" s="309"/>
+      <c r="BC272" s="309"/>
+      <c r="BD272" s="309"/>
+      <c r="BE272" s="309"/>
+      <c r="BF272" s="309"/>
+      <c r="BG272" s="309"/>
       <c r="BH272" s="120"/>
-      <c r="BI272" s="298" t="s">
+      <c r="BI272" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="BJ272" s="298"/>
-      <c r="BK272" s="298"/>
-      <c r="BL272" s="298"/>
-      <c r="BM272" s="298"/>
-      <c r="BN272" s="298"/>
-      <c r="BO272" s="298"/>
-      <c r="BP272" s="298"/>
-      <c r="BQ272" s="298"/>
-      <c r="BR272" s="298"/>
-      <c r="BS272" s="298"/>
-      <c r="BT272" s="298"/>
-      <c r="BU272" s="298"/>
-      <c r="BV272" s="298"/>
+      <c r="BJ272" s="306"/>
+      <c r="BK272" s="306"/>
+      <c r="BL272" s="306"/>
+      <c r="BM272" s="306"/>
+      <c r="BN272" s="306"/>
+      <c r="BO272" s="306"/>
+      <c r="BP272" s="306"/>
+      <c r="BQ272" s="306"/>
+      <c r="BR272" s="306"/>
+      <c r="BS272" s="306"/>
+      <c r="BT272" s="306"/>
+      <c r="BU272" s="306"/>
+      <c r="BV272" s="306"/>
       <c r="BW272"/>
-      <c r="BX272" s="298" t="s">
+      <c r="BX272" s="306" t="s">
         <v>359</v>
       </c>
-      <c r="BY272" s="298"/>
-      <c r="BZ272" s="298"/>
-      <c r="CA272" s="298"/>
-      <c r="CB272" s="298"/>
-      <c r="CC272" s="298"/>
-      <c r="CD272" s="298"/>
-      <c r="CE272" s="298"/>
-      <c r="CF272" s="298"/>
-      <c r="CG272" s="298"/>
-      <c r="CH272" s="298"/>
-      <c r="CI272" s="298"/>
-      <c r="CJ272" s="298"/>
-      <c r="CK272" s="298"/>
+      <c r="BY272" s="306"/>
+      <c r="BZ272" s="306"/>
+      <c r="CA272" s="306"/>
+      <c r="CB272" s="306"/>
+      <c r="CC272" s="306"/>
+      <c r="CD272" s="306"/>
+      <c r="CE272" s="306"/>
+      <c r="CF272" s="306"/>
+      <c r="CG272" s="306"/>
+      <c r="CH272" s="306"/>
+      <c r="CI272" s="306"/>
+      <c r="CJ272" s="306"/>
+      <c r="CK272" s="306"/>
       <c r="CL272"/>
-      <c r="CM272" s="305" t="s">
+      <c r="CM272" s="313" t="s">
         <v>186</v>
       </c>
-      <c r="CN272" s="305"/>
-      <c r="CO272" s="305"/>
-      <c r="CP272" s="305"/>
-      <c r="CQ272" s="305"/>
-      <c r="CR272" s="305"/>
-      <c r="CS272" s="305"/>
-      <c r="CT272" s="305"/>
-      <c r="CU272" s="305"/>
-      <c r="CV272" s="305"/>
-      <c r="CW272" s="305"/>
-      <c r="CX272" s="305"/>
-      <c r="CY272" s="305"/>
-      <c r="CZ272" s="305"/>
+      <c r="CN272" s="313"/>
+      <c r="CO272" s="313"/>
+      <c r="CP272" s="313"/>
+      <c r="CQ272" s="313"/>
+      <c r="CR272" s="313"/>
+      <c r="CS272" s="313"/>
+      <c r="CT272" s="313"/>
+      <c r="CU272" s="313"/>
+      <c r="CV272" s="313"/>
+      <c r="CW272" s="313"/>
+      <c r="CX272" s="313"/>
+      <c r="CY272" s="313"/>
+      <c r="CZ272" s="313"/>
     </row>
     <row r="273" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
@@ -54600,37 +56960,37 @@
       <c r="BF288" s="289"/>
       <c r="BG288" s="289"/>
       <c r="BH288" s="66"/>
-      <c r="BI288" s="299" t="s">
+      <c r="BI288" s="307" t="s">
         <v>361</v>
       </c>
-      <c r="BJ288" s="299"/>
-      <c r="BK288" s="299"/>
-      <c r="BL288" s="299"/>
-      <c r="BM288" s="299"/>
-      <c r="BN288" s="299"/>
-      <c r="BO288" s="299"/>
-      <c r="BP288" s="299"/>
-      <c r="BQ288" s="299"/>
-      <c r="BR288" s="299"/>
-      <c r="BS288" s="299"/>
-      <c r="BT288" s="299"/>
-      <c r="BU288" s="299"/>
-      <c r="BV288" s="299"/>
-      <c r="BW288" s="299"/>
-      <c r="BX288" s="299"/>
-      <c r="BY288" s="299"/>
-      <c r="BZ288" s="299"/>
-      <c r="CA288" s="299"/>
-      <c r="CB288" s="299"/>
-      <c r="CC288" s="299"/>
-      <c r="CD288" s="299"/>
-      <c r="CE288" s="299"/>
-      <c r="CF288" s="299"/>
-      <c r="CG288" s="299"/>
-      <c r="CH288" s="299"/>
-      <c r="CI288" s="299"/>
-      <c r="CJ288" s="299"/>
-      <c r="CK288" s="299"/>
+      <c r="BJ288" s="307"/>
+      <c r="BK288" s="307"/>
+      <c r="BL288" s="307"/>
+      <c r="BM288" s="307"/>
+      <c r="BN288" s="307"/>
+      <c r="BO288" s="307"/>
+      <c r="BP288" s="307"/>
+      <c r="BQ288" s="307"/>
+      <c r="BR288" s="307"/>
+      <c r="BS288" s="307"/>
+      <c r="BT288" s="307"/>
+      <c r="BU288" s="307"/>
+      <c r="BV288" s="307"/>
+      <c r="BW288" s="307"/>
+      <c r="BX288" s="307"/>
+      <c r="BY288" s="307"/>
+      <c r="BZ288" s="307"/>
+      <c r="CA288" s="307"/>
+      <c r="CB288" s="307"/>
+      <c r="CC288" s="307"/>
+      <c r="CD288" s="307"/>
+      <c r="CE288" s="307"/>
+      <c r="CF288" s="307"/>
+      <c r="CG288" s="307"/>
+      <c r="CH288" s="307"/>
+      <c r="CI288" s="307"/>
+      <c r="CJ288" s="307"/>
+      <c r="CK288" s="307"/>
       <c r="CL288" s="66"/>
     </row>
     <row r="289" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -54677,55 +57037,55 @@
       <c r="BF289" s="275"/>
       <c r="BG289" s="275"/>
       <c r="BH289" s="108"/>
-      <c r="BI289" s="298" t="s">
+      <c r="BI289" s="306" t="s">
         <v>360</v>
       </c>
-      <c r="BJ289" s="298"/>
-      <c r="BK289" s="298"/>
-      <c r="BL289" s="298"/>
-      <c r="BM289" s="298"/>
-      <c r="BN289" s="298"/>
-      <c r="BO289" s="298"/>
-      <c r="BP289" s="298"/>
-      <c r="BQ289" s="298"/>
-      <c r="BR289" s="298"/>
-      <c r="BS289" s="298"/>
-      <c r="BT289" s="298"/>
-      <c r="BU289" s="298"/>
-      <c r="BV289" s="298"/>
-      <c r="BX289" s="298" t="s">
+      <c r="BJ289" s="306"/>
+      <c r="BK289" s="306"/>
+      <c r="BL289" s="306"/>
+      <c r="BM289" s="306"/>
+      <c r="BN289" s="306"/>
+      <c r="BO289" s="306"/>
+      <c r="BP289" s="306"/>
+      <c r="BQ289" s="306"/>
+      <c r="BR289" s="306"/>
+      <c r="BS289" s="306"/>
+      <c r="BT289" s="306"/>
+      <c r="BU289" s="306"/>
+      <c r="BV289" s="306"/>
+      <c r="BX289" s="306" t="s">
         <v>288</v>
       </c>
-      <c r="BY289" s="298"/>
-      <c r="BZ289" s="298"/>
-      <c r="CA289" s="298"/>
-      <c r="CB289" s="298"/>
-      <c r="CC289" s="298"/>
-      <c r="CD289" s="298"/>
-      <c r="CE289" s="298"/>
-      <c r="CF289" s="298"/>
-      <c r="CG289" s="298"/>
-      <c r="CH289" s="298"/>
-      <c r="CI289" s="298"/>
-      <c r="CJ289" s="298"/>
-      <c r="CK289" s="298"/>
+      <c r="BY289" s="306"/>
+      <c r="BZ289" s="306"/>
+      <c r="CA289" s="306"/>
+      <c r="CB289" s="306"/>
+      <c r="CC289" s="306"/>
+      <c r="CD289" s="306"/>
+      <c r="CE289" s="306"/>
+      <c r="CF289" s="306"/>
+      <c r="CG289" s="306"/>
+      <c r="CH289" s="306"/>
+      <c r="CI289" s="306"/>
+      <c r="CJ289" s="306"/>
+      <c r="CK289" s="306"/>
       <c r="CL289" s="295"/>
-      <c r="CM289" s="298" t="s">
+      <c r="CM289" s="306" t="s">
         <v>294</v>
       </c>
-      <c r="CN289" s="298"/>
-      <c r="CO289" s="298"/>
-      <c r="CP289" s="298"/>
-      <c r="CQ289" s="298"/>
-      <c r="CR289" s="298"/>
-      <c r="CS289" s="298"/>
-      <c r="CT289" s="298"/>
-      <c r="CU289" s="298"/>
-      <c r="CV289" s="298"/>
-      <c r="CW289" s="298"/>
-      <c r="CX289" s="298"/>
-      <c r="CY289" s="298"/>
-      <c r="CZ289" s="298"/>
+      <c r="CN289" s="306"/>
+      <c r="CO289" s="306"/>
+      <c r="CP289" s="306"/>
+      <c r="CQ289" s="306"/>
+      <c r="CR289" s="306"/>
+      <c r="CS289" s="306"/>
+      <c r="CT289" s="306"/>
+      <c r="CU289" s="306"/>
+      <c r="CV289" s="306"/>
+      <c r="CW289" s="306"/>
+      <c r="CX289" s="306"/>
+      <c r="CY289" s="306"/>
+      <c r="CZ289" s="306"/>
     </row>
     <row r="290" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="77"/>
@@ -57029,37 +59389,37 @@
       <c r="BF304" s="289"/>
       <c r="BG304" s="289"/>
       <c r="BH304" s="66"/>
-      <c r="BI304" s="299" t="s">
+      <c r="BI304" s="307" t="s">
         <v>362</v>
       </c>
-      <c r="BJ304" s="299"/>
-      <c r="BK304" s="299"/>
-      <c r="BL304" s="299"/>
-      <c r="BM304" s="299"/>
-      <c r="BN304" s="299"/>
-      <c r="BO304" s="299"/>
-      <c r="BP304" s="299"/>
-      <c r="BQ304" s="299"/>
-      <c r="BR304" s="299"/>
-      <c r="BS304" s="299"/>
-      <c r="BT304" s="299"/>
-      <c r="BU304" s="299"/>
-      <c r="BV304" s="299"/>
-      <c r="BW304" s="299"/>
-      <c r="BX304" s="299"/>
-      <c r="BY304" s="299"/>
-      <c r="BZ304" s="299"/>
-      <c r="CA304" s="299"/>
-      <c r="CB304" s="299"/>
-      <c r="CC304" s="299"/>
-      <c r="CD304" s="299"/>
-      <c r="CE304" s="299"/>
-      <c r="CF304" s="299"/>
-      <c r="CG304" s="299"/>
-      <c r="CH304" s="299"/>
-      <c r="CI304" s="299"/>
-      <c r="CJ304" s="299"/>
-      <c r="CK304" s="299"/>
+      <c r="BJ304" s="307"/>
+      <c r="BK304" s="307"/>
+      <c r="BL304" s="307"/>
+      <c r="BM304" s="307"/>
+      <c r="BN304" s="307"/>
+      <c r="BO304" s="307"/>
+      <c r="BP304" s="307"/>
+      <c r="BQ304" s="307"/>
+      <c r="BR304" s="307"/>
+      <c r="BS304" s="307"/>
+      <c r="BT304" s="307"/>
+      <c r="BU304" s="307"/>
+      <c r="BV304" s="307"/>
+      <c r="BW304" s="307"/>
+      <c r="BX304" s="307"/>
+      <c r="BY304" s="307"/>
+      <c r="BZ304" s="307"/>
+      <c r="CA304" s="307"/>
+      <c r="CB304" s="307"/>
+      <c r="CC304" s="307"/>
+      <c r="CD304" s="307"/>
+      <c r="CE304" s="307"/>
+      <c r="CF304" s="307"/>
+      <c r="CG304" s="307"/>
+      <c r="CH304" s="307"/>
+      <c r="CI304" s="307"/>
+      <c r="CJ304" s="307"/>
+      <c r="CK304" s="307"/>
       <c r="CL304" s="296"/>
       <c r="CM304" s="294"/>
       <c r="CN304" s="294"/>
@@ -57105,55 +59465,55 @@
       <c r="BE305" s="275"/>
       <c r="BF305" s="275"/>
       <c r="BG305" s="275"/>
-      <c r="BI305" s="298" t="s">
+      <c r="BI305" s="306" t="s">
         <v>360</v>
       </c>
-      <c r="BJ305" s="298"/>
-      <c r="BK305" s="298"/>
-      <c r="BL305" s="298"/>
-      <c r="BM305" s="298"/>
-      <c r="BN305" s="298"/>
-      <c r="BO305" s="298"/>
-      <c r="BP305" s="298"/>
-      <c r="BQ305" s="298"/>
-      <c r="BR305" s="298"/>
-      <c r="BS305" s="298"/>
-      <c r="BT305" s="298"/>
-      <c r="BU305" s="298"/>
-      <c r="BV305" s="298"/>
-      <c r="BX305" s="298" t="s">
+      <c r="BJ305" s="306"/>
+      <c r="BK305" s="306"/>
+      <c r="BL305" s="306"/>
+      <c r="BM305" s="306"/>
+      <c r="BN305" s="306"/>
+      <c r="BO305" s="306"/>
+      <c r="BP305" s="306"/>
+      <c r="BQ305" s="306"/>
+      <c r="BR305" s="306"/>
+      <c r="BS305" s="306"/>
+      <c r="BT305" s="306"/>
+      <c r="BU305" s="306"/>
+      <c r="BV305" s="306"/>
+      <c r="BX305" s="306" t="s">
         <v>288</v>
       </c>
-      <c r="BY305" s="298"/>
-      <c r="BZ305" s="298"/>
-      <c r="CA305" s="298"/>
-      <c r="CB305" s="298"/>
-      <c r="CC305" s="298"/>
-      <c r="CD305" s="298"/>
-      <c r="CE305" s="298"/>
-      <c r="CF305" s="298"/>
-      <c r="CG305" s="298"/>
-      <c r="CH305" s="298"/>
-      <c r="CI305" s="298"/>
-      <c r="CJ305" s="298"/>
-      <c r="CK305" s="298"/>
+      <c r="BY305" s="306"/>
+      <c r="BZ305" s="306"/>
+      <c r="CA305" s="306"/>
+      <c r="CB305" s="306"/>
+      <c r="CC305" s="306"/>
+      <c r="CD305" s="306"/>
+      <c r="CE305" s="306"/>
+      <c r="CF305" s="306"/>
+      <c r="CG305" s="306"/>
+      <c r="CH305" s="306"/>
+      <c r="CI305" s="306"/>
+      <c r="CJ305" s="306"/>
+      <c r="CK305" s="306"/>
       <c r="CL305" s="295"/>
-      <c r="CM305" s="300" t="s">
+      <c r="CM305" s="308" t="s">
         <v>292</v>
       </c>
-      <c r="CN305" s="300"/>
-      <c r="CO305" s="300"/>
-      <c r="CP305" s="300"/>
-      <c r="CQ305" s="300"/>
-      <c r="CR305" s="300"/>
-      <c r="CS305" s="300"/>
-      <c r="CT305" s="300"/>
-      <c r="CU305" s="300"/>
-      <c r="CV305" s="300"/>
-      <c r="CW305" s="300"/>
-      <c r="CX305" s="300"/>
-      <c r="CY305" s="300"/>
-      <c r="CZ305" s="300"/>
+      <c r="CN305" s="308"/>
+      <c r="CO305" s="308"/>
+      <c r="CP305" s="308"/>
+      <c r="CQ305" s="308"/>
+      <c r="CR305" s="308"/>
+      <c r="CS305" s="308"/>
+      <c r="CT305" s="308"/>
+      <c r="CU305" s="308"/>
+      <c r="CV305" s="308"/>
+      <c r="CW305" s="308"/>
+      <c r="CX305" s="308"/>
+      <c r="CY305" s="308"/>
+      <c r="CZ305" s="308"/>
     </row>
     <row r="306" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="77"/>
@@ -59336,37 +61696,37 @@
       <c r="BF320" s="66"/>
       <c r="BG320" s="66"/>
       <c r="BH320" s="66"/>
-      <c r="BI320" s="299" t="s">
+      <c r="BI320" s="307" t="s">
         <v>363</v>
       </c>
-      <c r="BJ320" s="299"/>
-      <c r="BK320" s="299"/>
-      <c r="BL320" s="299"/>
-      <c r="BM320" s="299"/>
-      <c r="BN320" s="299"/>
-      <c r="BO320" s="299"/>
-      <c r="BP320" s="299"/>
-      <c r="BQ320" s="299"/>
-      <c r="BR320" s="299"/>
-      <c r="BS320" s="299"/>
-      <c r="BT320" s="299"/>
-      <c r="BU320" s="299"/>
-      <c r="BV320" s="299"/>
-      <c r="BW320" s="299"/>
-      <c r="BX320" s="299"/>
-      <c r="BY320" s="299"/>
-      <c r="BZ320" s="299"/>
-      <c r="CA320" s="299"/>
-      <c r="CB320" s="299"/>
-      <c r="CC320" s="299"/>
-      <c r="CD320" s="299"/>
-      <c r="CE320" s="299"/>
-      <c r="CF320" s="299"/>
-      <c r="CG320" s="299"/>
-      <c r="CH320" s="299"/>
-      <c r="CI320" s="299"/>
-      <c r="CJ320" s="299"/>
-      <c r="CK320" s="299"/>
+      <c r="BJ320" s="307"/>
+      <c r="BK320" s="307"/>
+      <c r="BL320" s="307"/>
+      <c r="BM320" s="307"/>
+      <c r="BN320" s="307"/>
+      <c r="BO320" s="307"/>
+      <c r="BP320" s="307"/>
+      <c r="BQ320" s="307"/>
+      <c r="BR320" s="307"/>
+      <c r="BS320" s="307"/>
+      <c r="BT320" s="307"/>
+      <c r="BU320" s="307"/>
+      <c r="BV320" s="307"/>
+      <c r="BW320" s="307"/>
+      <c r="BX320" s="307"/>
+      <c r="BY320" s="307"/>
+      <c r="BZ320" s="307"/>
+      <c r="CA320" s="307"/>
+      <c r="CB320" s="307"/>
+      <c r="CC320" s="307"/>
+      <c r="CD320" s="307"/>
+      <c r="CE320" s="307"/>
+      <c r="CF320" s="307"/>
+      <c r="CG320" s="307"/>
+      <c r="CH320" s="307"/>
+      <c r="CI320" s="307"/>
+      <c r="CJ320" s="307"/>
+      <c r="CK320" s="307"/>
       <c r="CL320" s="295"/>
     </row>
     <row r="321" spans="31:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -59400,38 +61760,38 @@
       <c r="BF321" s="275"/>
       <c r="BG321" s="275"/>
       <c r="BH321" s="108"/>
-      <c r="BI321" s="300" t="s">
+      <c r="BI321" s="308" t="s">
         <v>360</v>
       </c>
-      <c r="BJ321" s="300"/>
-      <c r="BK321" s="300"/>
-      <c r="BL321" s="300"/>
-      <c r="BM321" s="300"/>
-      <c r="BN321" s="300"/>
-      <c r="BO321" s="300"/>
-      <c r="BP321" s="300"/>
-      <c r="BQ321" s="300"/>
-      <c r="BR321" s="300"/>
-      <c r="BS321" s="300"/>
-      <c r="BT321" s="300"/>
-      <c r="BU321" s="300"/>
-      <c r="BV321" s="300"/>
-      <c r="BX321" s="300" t="s">
+      <c r="BJ321" s="308"/>
+      <c r="BK321" s="308"/>
+      <c r="BL321" s="308"/>
+      <c r="BM321" s="308"/>
+      <c r="BN321" s="308"/>
+      <c r="BO321" s="308"/>
+      <c r="BP321" s="308"/>
+      <c r="BQ321" s="308"/>
+      <c r="BR321" s="308"/>
+      <c r="BS321" s="308"/>
+      <c r="BT321" s="308"/>
+      <c r="BU321" s="308"/>
+      <c r="BV321" s="308"/>
+      <c r="BX321" s="308" t="s">
         <v>288</v>
       </c>
-      <c r="BY321" s="300"/>
-      <c r="BZ321" s="300"/>
-      <c r="CA321" s="300"/>
-      <c r="CB321" s="300"/>
-      <c r="CC321" s="300"/>
-      <c r="CD321" s="300"/>
-      <c r="CE321" s="300"/>
-      <c r="CF321" s="300"/>
-      <c r="CG321" s="300"/>
-      <c r="CH321" s="300"/>
-      <c r="CI321" s="300"/>
-      <c r="CJ321" s="300"/>
-      <c r="CK321" s="300"/>
+      <c r="BY321" s="308"/>
+      <c r="BZ321" s="308"/>
+      <c r="CA321" s="308"/>
+      <c r="CB321" s="308"/>
+      <c r="CC321" s="308"/>
+      <c r="CD321" s="308"/>
+      <c r="CE321" s="308"/>
+      <c r="CF321" s="308"/>
+      <c r="CG321" s="308"/>
+      <c r="CH321" s="308"/>
+      <c r="CI321" s="308"/>
+      <c r="CJ321" s="308"/>
+      <c r="CK321" s="308"/>
     </row>
     <row r="322" spans="31:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AE322" s="77"/>
@@ -62093,7 +64453,7 @@
     <row r="761" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="762" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="140">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A195:N195"/>
     <mergeCell ref="A210:C210"/>
@@ -62118,6 +64478,7 @@
     <mergeCell ref="P70:AC70"/>
     <mergeCell ref="AE70:AR70"/>
     <mergeCell ref="AT70:BG70"/>
+    <mergeCell ref="P50:AC50"/>
     <mergeCell ref="AD225:AF225"/>
     <mergeCell ref="AG225:AI225"/>
     <mergeCell ref="AJ225:AL225"/>
@@ -62139,6 +64500,10 @@
     <mergeCell ref="A133:N133"/>
     <mergeCell ref="P133:AC133"/>
     <mergeCell ref="AE133:AR133"/>
+    <mergeCell ref="AE242:AR242"/>
+    <mergeCell ref="AT242:BG242"/>
+    <mergeCell ref="BI242:BV242"/>
+    <mergeCell ref="AE257:AR257"/>
     <mergeCell ref="A88:N88"/>
     <mergeCell ref="P88:AC88"/>
     <mergeCell ref="AE34:AR34"/>
@@ -62159,7 +64524,10 @@
     <mergeCell ref="P49:BG49"/>
     <mergeCell ref="AT50:BG50"/>
     <mergeCell ref="AE50:AR50"/>
-    <mergeCell ref="P50:AC50"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:L178"/>
+    <mergeCell ref="M178:O178"/>
     <mergeCell ref="BI88:BV88"/>
     <mergeCell ref="BX272:CK272"/>
     <mergeCell ref="CM272:CZ272"/>
@@ -62180,10 +64548,10 @@
     <mergeCell ref="AW178:AY178"/>
     <mergeCell ref="P179:AC179"/>
     <mergeCell ref="A242:N242"/>
-    <mergeCell ref="AE242:AR242"/>
-    <mergeCell ref="AT242:BG242"/>
-    <mergeCell ref="BI242:BV242"/>
-    <mergeCell ref="AE257:AR257"/>
+    <mergeCell ref="P242:AC242"/>
+    <mergeCell ref="P257:AC257"/>
+    <mergeCell ref="A257:N257"/>
+    <mergeCell ref="BI272:BV272"/>
     <mergeCell ref="A17:AD17"/>
     <mergeCell ref="AT18:BG18"/>
     <mergeCell ref="A226:AD226"/>
@@ -62204,20 +64572,18 @@
     <mergeCell ref="S178:U178"/>
     <mergeCell ref="V178:X178"/>
     <mergeCell ref="A178:C178"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:L178"/>
-    <mergeCell ref="M178:O178"/>
+    <mergeCell ref="BX321:CK321"/>
+    <mergeCell ref="BI321:BV321"/>
+    <mergeCell ref="BI305:BV305"/>
+    <mergeCell ref="BX305:CK305"/>
     <mergeCell ref="AT257:BG257"/>
     <mergeCell ref="BI257:BV257"/>
     <mergeCell ref="A272:N272"/>
     <mergeCell ref="P272:AC272"/>
     <mergeCell ref="AE272:AR272"/>
     <mergeCell ref="AT272:BG272"/>
-    <mergeCell ref="P242:AC242"/>
-    <mergeCell ref="P257:AC257"/>
-    <mergeCell ref="A257:N257"/>
-    <mergeCell ref="BI272:BV272"/>
+    <mergeCell ref="DR105:EE105"/>
+    <mergeCell ref="CN105:DA105"/>
     <mergeCell ref="CM289:CZ289"/>
     <mergeCell ref="BI288:CK288"/>
     <mergeCell ref="BI320:CK320"/>
@@ -62225,10 +64591,9 @@
     <mergeCell ref="BX289:CK289"/>
     <mergeCell ref="BI304:CK304"/>
     <mergeCell ref="CM305:CZ305"/>
-    <mergeCell ref="BX321:CK321"/>
-    <mergeCell ref="BI321:BV321"/>
-    <mergeCell ref="BI305:BV305"/>
-    <mergeCell ref="BX305:CK305"/>
+    <mergeCell ref="DC105:DP105"/>
+    <mergeCell ref="CN121:DA121"/>
+    <mergeCell ref="DC121:DP121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pAd/bin/Debug/Data/SPINRANGES.xlsx
+++ b/pAd/bin/Debug/Data/SPINRANGES.xlsx
@@ -2726,6 +2726,15 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,15 +2821,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="R77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK93" sqref="AK93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3207,70 +3207,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="327"/>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
-      <c r="R1" s="327"/>
-      <c r="S1" s="327"/>
-      <c r="T1" s="327"/>
-      <c r="U1" s="327"/>
-      <c r="V1" s="327"/>
-      <c r="W1" s="327"/>
-      <c r="X1" s="327"/>
-      <c r="Y1" s="327"/>
-      <c r="Z1" s="327"/>
-      <c r="AA1" s="327"/>
-      <c r="AB1" s="327"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
+      <c r="A1" s="330"/>
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330"/>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
+      <c r="T1" s="330"/>
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="330"/>
+      <c r="AB1" s="330"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
     </row>
     <row r="17" spans="1:94" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="327" t="s">
+      <c r="A17" s="330" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="327"/>
-      <c r="C17" s="327"/>
-      <c r="D17" s="327"/>
-      <c r="E17" s="327"/>
-      <c r="F17" s="327"/>
-      <c r="G17" s="327"/>
-      <c r="H17" s="327"/>
-      <c r="I17" s="327"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="327"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="327"/>
-      <c r="O17" s="327"/>
-      <c r="P17" s="327"/>
-      <c r="Q17" s="327"/>
-      <c r="R17" s="327"/>
-      <c r="S17" s="327"/>
-      <c r="T17" s="327"/>
-      <c r="U17" s="327"/>
-      <c r="V17" s="327"/>
-      <c r="W17" s="327"/>
-      <c r="X17" s="327"/>
-      <c r="Y17" s="327"/>
-      <c r="Z17" s="327"/>
-      <c r="AA17" s="327"/>
-      <c r="AB17" s="327"/>
-      <c r="AC17" s="327"/>
-      <c r="AD17" s="327"/>
+      <c r="B17" s="330"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
+      <c r="K17" s="330"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="330"/>
+      <c r="S17" s="330"/>
+      <c r="T17" s="330"/>
+      <c r="U17" s="330"/>
+      <c r="V17" s="330"/>
+      <c r="W17" s="330"/>
+      <c r="X17" s="330"/>
+      <c r="Y17" s="330"/>
+      <c r="Z17" s="330"/>
+      <c r="AA17" s="330"/>
+      <c r="AB17" s="330"/>
+      <c r="AC17" s="330"/>
+      <c r="AD17" s="330"/>
       <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
@@ -3337,70 +3337,70 @@
       <c r="CP17" s="66"/>
     </row>
     <row r="18" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="338" t="s">
+      <c r="A18" s="341" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="338"/>
-      <c r="D18" s="338"/>
-      <c r="E18" s="338"/>
-      <c r="F18" s="338"/>
-      <c r="G18" s="338"/>
-      <c r="H18" s="338"/>
-      <c r="I18" s="338"/>
-      <c r="J18" s="338"/>
-      <c r="K18" s="338"/>
-      <c r="L18" s="338"/>
-      <c r="M18" s="338"/>
-      <c r="N18" s="338"/>
-      <c r="P18" s="338" t="s">
+      <c r="B18" s="341"/>
+      <c r="C18" s="341"/>
+      <c r="D18" s="341"/>
+      <c r="E18" s="341"/>
+      <c r="F18" s="341"/>
+      <c r="G18" s="341"/>
+      <c r="H18" s="341"/>
+      <c r="I18" s="341"/>
+      <c r="J18" s="341"/>
+      <c r="K18" s="341"/>
+      <c r="L18" s="341"/>
+      <c r="M18" s="341"/>
+      <c r="N18" s="341"/>
+      <c r="P18" s="341" t="s">
         <v>246</v>
       </c>
-      <c r="Q18" s="338"/>
-      <c r="R18" s="338"/>
-      <c r="S18" s="338"/>
-      <c r="T18" s="338"/>
-      <c r="U18" s="338"/>
-      <c r="V18" s="338"/>
-      <c r="W18" s="338"/>
-      <c r="X18" s="338"/>
-      <c r="Y18" s="338"/>
-      <c r="Z18" s="338"/>
-      <c r="AA18" s="338"/>
-      <c r="AB18" s="338"/>
-      <c r="AC18" s="338"/>
-      <c r="AE18" s="339" t="s">
+      <c r="Q18" s="341"/>
+      <c r="R18" s="341"/>
+      <c r="S18" s="341"/>
+      <c r="T18" s="341"/>
+      <c r="U18" s="341"/>
+      <c r="V18" s="341"/>
+      <c r="W18" s="341"/>
+      <c r="X18" s="341"/>
+      <c r="Y18" s="341"/>
+      <c r="Z18" s="341"/>
+      <c r="AA18" s="341"/>
+      <c r="AB18" s="341"/>
+      <c r="AC18" s="341"/>
+      <c r="AE18" s="342" t="s">
         <v>247</v>
       </c>
-      <c r="AF18" s="339"/>
-      <c r="AG18" s="339"/>
-      <c r="AH18" s="339"/>
-      <c r="AI18" s="339"/>
-      <c r="AJ18" s="339"/>
-      <c r="AK18" s="339"/>
-      <c r="AL18" s="339"/>
-      <c r="AM18" s="339"/>
-      <c r="AN18" s="339"/>
-      <c r="AO18" s="339"/>
-      <c r="AP18" s="339"/>
-      <c r="AQ18" s="339"/>
-      <c r="AR18" s="339"/>
-      <c r="AT18" s="328" t="s">
+      <c r="AF18" s="342"/>
+      <c r="AG18" s="342"/>
+      <c r="AH18" s="342"/>
+      <c r="AI18" s="342"/>
+      <c r="AJ18" s="342"/>
+      <c r="AK18" s="342"/>
+      <c r="AL18" s="342"/>
+      <c r="AM18" s="342"/>
+      <c r="AN18" s="342"/>
+      <c r="AO18" s="342"/>
+      <c r="AP18" s="342"/>
+      <c r="AQ18" s="342"/>
+      <c r="AR18" s="342"/>
+      <c r="AT18" s="331" t="s">
         <v>248</v>
       </c>
-      <c r="AU18" s="328"/>
-      <c r="AV18" s="328"/>
-      <c r="AW18" s="328"/>
-      <c r="AX18" s="328"/>
-      <c r="AY18" s="328"/>
-      <c r="AZ18" s="328"/>
-      <c r="BA18" s="328"/>
-      <c r="BB18" s="328"/>
-      <c r="BC18" s="328"/>
-      <c r="BD18" s="328"/>
-      <c r="BE18" s="328"/>
-      <c r="BF18" s="328"/>
-      <c r="BG18" s="328"/>
+      <c r="AU18" s="331"/>
+      <c r="AV18" s="331"/>
+      <c r="AW18" s="331"/>
+      <c r="AX18" s="331"/>
+      <c r="AY18" s="331"/>
+      <c r="AZ18" s="331"/>
+      <c r="BA18" s="331"/>
+      <c r="BB18" s="331"/>
+      <c r="BC18" s="331"/>
+      <c r="BD18" s="331"/>
+      <c r="BE18" s="331"/>
+      <c r="BF18" s="331"/>
+      <c r="BG18" s="331"/>
     </row>
     <row r="19" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -5776,54 +5776,54 @@
     </row>
     <row r="33" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="338" t="s">
+      <c r="P34" s="341" t="s">
         <v>250</v>
       </c>
-      <c r="Q34" s="338"/>
-      <c r="R34" s="338"/>
-      <c r="S34" s="338"/>
-      <c r="T34" s="338"/>
-      <c r="U34" s="338"/>
-      <c r="V34" s="338"/>
-      <c r="W34" s="338"/>
-      <c r="X34" s="338"/>
-      <c r="Y34" s="338"/>
-      <c r="Z34" s="338"/>
-      <c r="AA34" s="338"/>
-      <c r="AB34" s="338"/>
-      <c r="AC34" s="338"/>
-      <c r="AE34" s="339" t="s">
+      <c r="Q34" s="341"/>
+      <c r="R34" s="341"/>
+      <c r="S34" s="341"/>
+      <c r="T34" s="341"/>
+      <c r="U34" s="341"/>
+      <c r="V34" s="341"/>
+      <c r="W34" s="341"/>
+      <c r="X34" s="341"/>
+      <c r="Y34" s="341"/>
+      <c r="Z34" s="341"/>
+      <c r="AA34" s="341"/>
+      <c r="AB34" s="341"/>
+      <c r="AC34" s="341"/>
+      <c r="AE34" s="342" t="s">
         <v>249</v>
       </c>
-      <c r="AF34" s="339"/>
-      <c r="AG34" s="339"/>
-      <c r="AH34" s="339"/>
-      <c r="AI34" s="339"/>
-      <c r="AJ34" s="339"/>
-      <c r="AK34" s="339"/>
-      <c r="AL34" s="339"/>
-      <c r="AM34" s="339"/>
-      <c r="AN34" s="339"/>
-      <c r="AO34" s="339"/>
-      <c r="AP34" s="339"/>
-      <c r="AQ34" s="339"/>
-      <c r="AR34" s="339"/>
-      <c r="AT34" s="346" t="s">
+      <c r="AF34" s="342"/>
+      <c r="AG34" s="342"/>
+      <c r="AH34" s="342"/>
+      <c r="AI34" s="342"/>
+      <c r="AJ34" s="342"/>
+      <c r="AK34" s="342"/>
+      <c r="AL34" s="342"/>
+      <c r="AM34" s="342"/>
+      <c r="AN34" s="342"/>
+      <c r="AO34" s="342"/>
+      <c r="AP34" s="342"/>
+      <c r="AQ34" s="342"/>
+      <c r="AR34" s="342"/>
+      <c r="AT34" s="349" t="s">
         <v>138</v>
       </c>
-      <c r="AU34" s="346"/>
-      <c r="AV34" s="346"/>
-      <c r="AW34" s="346"/>
-      <c r="AX34" s="346"/>
-      <c r="AY34" s="346"/>
-      <c r="AZ34" s="346"/>
-      <c r="BA34" s="346"/>
-      <c r="BB34" s="346"/>
-      <c r="BC34" s="346"/>
-      <c r="BD34" s="346"/>
-      <c r="BE34" s="346"/>
-      <c r="BF34" s="346"/>
-      <c r="BG34" s="346"/>
+      <c r="AU34" s="349"/>
+      <c r="AV34" s="349"/>
+      <c r="AW34" s="349"/>
+      <c r="AX34" s="349"/>
+      <c r="AY34" s="349"/>
+      <c r="AZ34" s="349"/>
+      <c r="BA34" s="349"/>
+      <c r="BB34" s="349"/>
+      <c r="BC34" s="349"/>
+      <c r="BD34" s="349"/>
+      <c r="BE34" s="349"/>
+      <c r="BF34" s="349"/>
+      <c r="BG34" s="349"/>
     </row>
     <row r="35" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P35" s="1"/>
@@ -7612,102 +7612,102 @@
       </c>
     </row>
     <row r="49" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P49" s="322" t="s">
+      <c r="P49" s="325" t="s">
         <v>363</v>
       </c>
-      <c r="Q49" s="322"/>
-      <c r="R49" s="322"/>
-      <c r="S49" s="322"/>
-      <c r="T49" s="322"/>
-      <c r="U49" s="322"/>
-      <c r="V49" s="322"/>
-      <c r="W49" s="322"/>
-      <c r="X49" s="322"/>
-      <c r="Y49" s="322"/>
-      <c r="Z49" s="322"/>
-      <c r="AA49" s="322"/>
-      <c r="AB49" s="322"/>
-      <c r="AC49" s="322"/>
-      <c r="AD49" s="322"/>
-      <c r="AE49" s="322"/>
-      <c r="AF49" s="322"/>
-      <c r="AG49" s="322"/>
-      <c r="AH49" s="322"/>
-      <c r="AI49" s="322"/>
-      <c r="AJ49" s="322"/>
-      <c r="AK49" s="322"/>
-      <c r="AL49" s="322"/>
-      <c r="AM49" s="322"/>
-      <c r="AN49" s="322"/>
-      <c r="AO49" s="322"/>
-      <c r="AP49" s="322"/>
-      <c r="AQ49" s="322"/>
-      <c r="AR49" s="322"/>
-      <c r="AS49" s="322"/>
-      <c r="AT49" s="322"/>
-      <c r="AU49" s="322"/>
-      <c r="AV49" s="322"/>
-      <c r="AW49" s="322"/>
-      <c r="AX49" s="322"/>
-      <c r="AY49" s="322"/>
-      <c r="AZ49" s="322"/>
-      <c r="BA49" s="322"/>
-      <c r="BB49" s="322"/>
-      <c r="BC49" s="322"/>
-      <c r="BD49" s="322"/>
-      <c r="BE49" s="322"/>
-      <c r="BF49" s="322"/>
-      <c r="BG49" s="322"/>
+      <c r="Q49" s="325"/>
+      <c r="R49" s="325"/>
+      <c r="S49" s="325"/>
+      <c r="T49" s="325"/>
+      <c r="U49" s="325"/>
+      <c r="V49" s="325"/>
+      <c r="W49" s="325"/>
+      <c r="X49" s="325"/>
+      <c r="Y49" s="325"/>
+      <c r="Z49" s="325"/>
+      <c r="AA49" s="325"/>
+      <c r="AB49" s="325"/>
+      <c r="AC49" s="325"/>
+      <c r="AD49" s="325"/>
+      <c r="AE49" s="325"/>
+      <c r="AF49" s="325"/>
+      <c r="AG49" s="325"/>
+      <c r="AH49" s="325"/>
+      <c r="AI49" s="325"/>
+      <c r="AJ49" s="325"/>
+      <c r="AK49" s="325"/>
+      <c r="AL49" s="325"/>
+      <c r="AM49" s="325"/>
+      <c r="AN49" s="325"/>
+      <c r="AO49" s="325"/>
+      <c r="AP49" s="325"/>
+      <c r="AQ49" s="325"/>
+      <c r="AR49" s="325"/>
+      <c r="AS49" s="325"/>
+      <c r="AT49" s="325"/>
+      <c r="AU49" s="325"/>
+      <c r="AV49" s="325"/>
+      <c r="AW49" s="325"/>
+      <c r="AX49" s="325"/>
+      <c r="AY49" s="325"/>
+      <c r="AZ49" s="325"/>
+      <c r="BA49" s="325"/>
+      <c r="BB49" s="325"/>
+      <c r="BC49" s="325"/>
+      <c r="BD49" s="325"/>
+      <c r="BE49" s="325"/>
+      <c r="BF49" s="325"/>
+      <c r="BG49" s="325"/>
     </row>
     <row r="50" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P50" s="346" t="s">
+      <c r="P50" s="349" t="s">
         <v>366</v>
       </c>
-      <c r="Q50" s="346"/>
-      <c r="R50" s="346"/>
-      <c r="S50" s="346"/>
-      <c r="T50" s="346"/>
-      <c r="U50" s="346"/>
-      <c r="V50" s="346"/>
-      <c r="W50" s="346"/>
-      <c r="X50" s="346"/>
-      <c r="Y50" s="346"/>
-      <c r="Z50" s="346"/>
-      <c r="AA50" s="346"/>
-      <c r="AB50" s="346"/>
-      <c r="AC50" s="346"/>
-      <c r="AE50" s="346" t="s">
+      <c r="Q50" s="349"/>
+      <c r="R50" s="349"/>
+      <c r="S50" s="349"/>
+      <c r="T50" s="349"/>
+      <c r="U50" s="349"/>
+      <c r="V50" s="349"/>
+      <c r="W50" s="349"/>
+      <c r="X50" s="349"/>
+      <c r="Y50" s="349"/>
+      <c r="Z50" s="349"/>
+      <c r="AA50" s="349"/>
+      <c r="AB50" s="349"/>
+      <c r="AC50" s="349"/>
+      <c r="AE50" s="349" t="s">
         <v>365</v>
       </c>
-      <c r="AF50" s="346"/>
-      <c r="AG50" s="346"/>
-      <c r="AH50" s="346"/>
-      <c r="AI50" s="346"/>
-      <c r="AJ50" s="346"/>
-      <c r="AK50" s="346"/>
-      <c r="AL50" s="346"/>
-      <c r="AM50" s="346"/>
-      <c r="AN50" s="346"/>
-      <c r="AO50" s="346"/>
-      <c r="AP50" s="346"/>
-      <c r="AQ50" s="346"/>
-      <c r="AR50" s="346"/>
-      <c r="AT50" s="346" t="s">
+      <c r="AF50" s="349"/>
+      <c r="AG50" s="349"/>
+      <c r="AH50" s="349"/>
+      <c r="AI50" s="349"/>
+      <c r="AJ50" s="349"/>
+      <c r="AK50" s="349"/>
+      <c r="AL50" s="349"/>
+      <c r="AM50" s="349"/>
+      <c r="AN50" s="349"/>
+      <c r="AO50" s="349"/>
+      <c r="AP50" s="349"/>
+      <c r="AQ50" s="349"/>
+      <c r="AR50" s="349"/>
+      <c r="AT50" s="349" t="s">
         <v>364</v>
       </c>
-      <c r="AU50" s="346"/>
-      <c r="AV50" s="346"/>
-      <c r="AW50" s="346"/>
-      <c r="AX50" s="346"/>
-      <c r="AY50" s="346"/>
-      <c r="AZ50" s="346"/>
-      <c r="BA50" s="346"/>
-      <c r="BB50" s="346"/>
-      <c r="BC50" s="346"/>
-      <c r="BD50" s="346"/>
-      <c r="BE50" s="346"/>
-      <c r="BF50" s="346"/>
-      <c r="BG50" s="346"/>
+      <c r="AU50" s="349"/>
+      <c r="AV50" s="349"/>
+      <c r="AW50" s="349"/>
+      <c r="AX50" s="349"/>
+      <c r="AY50" s="349"/>
+      <c r="AZ50" s="349"/>
+      <c r="BA50" s="349"/>
+      <c r="BB50" s="349"/>
+      <c r="BC50" s="349"/>
+      <c r="BD50" s="349"/>
+      <c r="BE50" s="349"/>
+      <c r="BF50" s="349"/>
+      <c r="BG50" s="349"/>
     </row>
     <row r="51" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P51" s="1"/>
@@ -9576,111 +9576,111 @@
       <c r="BW68" s="66"/>
     </row>
     <row r="69" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P69" s="345" t="s">
+      <c r="P69" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="Q69" s="345"/>
-      <c r="R69" s="345"/>
-      <c r="S69" s="345"/>
-      <c r="T69" s="345"/>
-      <c r="U69" s="345"/>
-      <c r="V69" s="345"/>
-      <c r="W69" s="345"/>
-      <c r="X69" s="345"/>
-      <c r="Y69" s="345"/>
-      <c r="Z69" s="345"/>
-      <c r="AA69" s="345"/>
-      <c r="AB69" s="345"/>
-      <c r="AC69" s="345"/>
-      <c r="AD69" s="345"/>
-      <c r="AE69" s="345"/>
-      <c r="AF69" s="345"/>
-      <c r="AG69" s="345"/>
-      <c r="AH69" s="345"/>
-      <c r="AI69" s="345"/>
-      <c r="AJ69" s="345"/>
-      <c r="AK69" s="345"/>
-      <c r="AL69" s="345"/>
-      <c r="AM69" s="345"/>
-      <c r="AN69" s="345"/>
-      <c r="AO69" s="345"/>
-      <c r="AP69" s="345"/>
-      <c r="AQ69" s="345"/>
-      <c r="AR69" s="345"/>
-      <c r="AS69" s="345"/>
-      <c r="AT69" s="345"/>
-      <c r="AU69" s="345"/>
-      <c r="AV69" s="345"/>
-      <c r="AW69" s="345"/>
-      <c r="AX69" s="345"/>
+      <c r="Q69" s="348"/>
+      <c r="R69" s="348"/>
+      <c r="S69" s="348"/>
+      <c r="T69" s="348"/>
+      <c r="U69" s="348"/>
+      <c r="V69" s="348"/>
+      <c r="W69" s="348"/>
+      <c r="X69" s="348"/>
+      <c r="Y69" s="348"/>
+      <c r="Z69" s="348"/>
+      <c r="AA69" s="348"/>
+      <c r="AB69" s="348"/>
+      <c r="AC69" s="348"/>
+      <c r="AD69" s="348"/>
+      <c r="AE69" s="348"/>
+      <c r="AF69" s="348"/>
+      <c r="AG69" s="348"/>
+      <c r="AH69" s="348"/>
+      <c r="AI69" s="348"/>
+      <c r="AJ69" s="348"/>
+      <c r="AK69" s="348"/>
+      <c r="AL69" s="348"/>
+      <c r="AM69" s="348"/>
+      <c r="AN69" s="348"/>
+      <c r="AO69" s="348"/>
+      <c r="AP69" s="348"/>
+      <c r="AQ69" s="348"/>
+      <c r="AR69" s="348"/>
+      <c r="AS69" s="348"/>
+      <c r="AT69" s="348"/>
+      <c r="AU69" s="348"/>
+      <c r="AV69" s="348"/>
+      <c r="AW69" s="348"/>
+      <c r="AX69" s="348"/>
     </row>
     <row r="70" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="320" t="s">
+      <c r="A70" s="323" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="320"/>
-      <c r="C70" s="320"/>
-      <c r="D70" s="320"/>
-      <c r="E70" s="320"/>
-      <c r="F70" s="320"/>
-      <c r="G70" s="320"/>
-      <c r="H70" s="320"/>
-      <c r="I70" s="320"/>
-      <c r="J70" s="320"/>
-      <c r="K70" s="320"/>
-      <c r="L70" s="320"/>
-      <c r="M70" s="320"/>
-      <c r="N70" s="320"/>
-      <c r="P70" s="348" t="s">
+      <c r="B70" s="323"/>
+      <c r="C70" s="323"/>
+      <c r="D70" s="323"/>
+      <c r="E70" s="323"/>
+      <c r="F70" s="323"/>
+      <c r="G70" s="323"/>
+      <c r="H70" s="323"/>
+      <c r="I70" s="323"/>
+      <c r="J70" s="323"/>
+      <c r="K70" s="323"/>
+      <c r="L70" s="323"/>
+      <c r="M70" s="323"/>
+      <c r="N70" s="323"/>
+      <c r="P70" s="351" t="s">
         <v>200</v>
       </c>
-      <c r="Q70" s="348"/>
-      <c r="R70" s="348"/>
-      <c r="S70" s="348"/>
-      <c r="T70" s="348"/>
-      <c r="U70" s="348"/>
-      <c r="V70" s="348"/>
-      <c r="W70" s="348"/>
-      <c r="X70" s="348"/>
-      <c r="Y70" s="348"/>
-      <c r="Z70" s="348"/>
-      <c r="AA70" s="348"/>
-      <c r="AB70" s="348"/>
-      <c r="AC70" s="348"/>
+      <c r="Q70" s="351"/>
+      <c r="R70" s="351"/>
+      <c r="S70" s="351"/>
+      <c r="T70" s="351"/>
+      <c r="U70" s="351"/>
+      <c r="V70" s="351"/>
+      <c r="W70" s="351"/>
+      <c r="X70" s="351"/>
+      <c r="Y70" s="351"/>
+      <c r="Z70" s="351"/>
+      <c r="AA70" s="351"/>
+      <c r="AB70" s="351"/>
+      <c r="AC70" s="351"/>
       <c r="AD70" s="106"/>
-      <c r="AE70" s="348" t="s">
+      <c r="AE70" s="351" t="s">
         <v>201</v>
       </c>
-      <c r="AF70" s="348"/>
-      <c r="AG70" s="348"/>
-      <c r="AH70" s="348"/>
-      <c r="AI70" s="348"/>
-      <c r="AJ70" s="348"/>
-      <c r="AK70" s="348"/>
-      <c r="AL70" s="348"/>
-      <c r="AM70" s="348"/>
-      <c r="AN70" s="348"/>
-      <c r="AO70" s="348"/>
-      <c r="AP70" s="348"/>
-      <c r="AQ70" s="348"/>
-      <c r="AR70" s="348"/>
+      <c r="AF70" s="351"/>
+      <c r="AG70" s="351"/>
+      <c r="AH70" s="351"/>
+      <c r="AI70" s="351"/>
+      <c r="AJ70" s="351"/>
+      <c r="AK70" s="351"/>
+      <c r="AL70" s="351"/>
+      <c r="AM70" s="351"/>
+      <c r="AN70" s="351"/>
+      <c r="AO70" s="351"/>
+      <c r="AP70" s="351"/>
+      <c r="AQ70" s="351"/>
+      <c r="AR70" s="351"/>
       <c r="AS70" s="107"/>
-      <c r="AT70" s="348" t="s">
+      <c r="AT70" s="351" t="s">
         <v>202</v>
       </c>
-      <c r="AU70" s="348"/>
-      <c r="AV70" s="348"/>
-      <c r="AW70" s="348"/>
-      <c r="AX70" s="348"/>
-      <c r="AY70" s="348"/>
-      <c r="AZ70" s="348"/>
-      <c r="BA70" s="348"/>
-      <c r="BB70" s="348"/>
-      <c r="BC70" s="348"/>
-      <c r="BD70" s="348"/>
-      <c r="BE70" s="348"/>
-      <c r="BF70" s="348"/>
-      <c r="BG70" s="348"/>
+      <c r="AU70" s="351"/>
+      <c r="AV70" s="351"/>
+      <c r="AW70" s="351"/>
+      <c r="AX70" s="351"/>
+      <c r="AY70" s="351"/>
+      <c r="AZ70" s="351"/>
+      <c r="BA70" s="351"/>
+      <c r="BB70" s="351"/>
+      <c r="BC70" s="351"/>
+      <c r="BD70" s="351"/>
+      <c r="BE70" s="351"/>
+      <c r="BF70" s="351"/>
+      <c r="BG70" s="351"/>
     </row>
     <row r="71" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
@@ -9845,22 +9845,22 @@
       <c r="BG71" s="4">
         <v>2</v>
       </c>
-      <c r="BI71" s="328" t="s">
+      <c r="BI71" s="331" t="s">
         <v>164</v>
       </c>
-      <c r="BJ71" s="328"/>
-      <c r="BK71" s="328"/>
-      <c r="BL71" s="328"/>
-      <c r="BM71" s="328"/>
-      <c r="BN71" s="328"/>
-      <c r="BO71" s="328"/>
-      <c r="BP71" s="328"/>
-      <c r="BQ71" s="328"/>
-      <c r="BR71" s="328"/>
-      <c r="BS71" s="328"/>
-      <c r="BT71" s="328"/>
-      <c r="BU71" s="328"/>
-      <c r="BV71" s="328"/>
+      <c r="BJ71" s="331"/>
+      <c r="BK71" s="331"/>
+      <c r="BL71" s="331"/>
+      <c r="BM71" s="331"/>
+      <c r="BN71" s="331"/>
+      <c r="BO71" s="331"/>
+      <c r="BP71" s="331"/>
+      <c r="BQ71" s="331"/>
+      <c r="BR71" s="331"/>
+      <c r="BS71" s="331"/>
+      <c r="BT71" s="331"/>
+      <c r="BU71" s="331"/>
+      <c r="BV71" s="331"/>
     </row>
     <row r="72" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
@@ -12638,31 +12638,31 @@
       </c>
     </row>
     <row r="85" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="335" t="s">
+      <c r="A85" s="338" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="335"/>
-      <c r="C85" s="335"/>
-      <c r="D85" s="340" t="s">
+      <c r="B85" s="338"/>
+      <c r="C85" s="338"/>
+      <c r="D85" s="343" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="340"/>
-      <c r="F85" s="340"/>
-      <c r="G85" s="341" t="s">
+      <c r="E85" s="343"/>
+      <c r="F85" s="343"/>
+      <c r="G85" s="344" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="341"/>
-      <c r="I85" s="341"/>
-      <c r="J85" s="336" t="s">
+      <c r="H85" s="344"/>
+      <c r="I85" s="344"/>
+      <c r="J85" s="339" t="s">
         <v>195</v>
       </c>
-      <c r="K85" s="336"/>
-      <c r="L85" s="336"/>
-      <c r="M85" s="337" t="s">
+      <c r="K85" s="339"/>
+      <c r="L85" s="339"/>
+      <c r="M85" s="340" t="s">
         <v>196</v>
       </c>
-      <c r="N85" s="337"/>
-      <c r="O85" s="337"/>
+      <c r="N85" s="340"/>
+      <c r="O85" s="340"/>
       <c r="BI85" s="12" t="s">
         <v>92</v>
       </c>
@@ -12707,153 +12707,153 @@
       </c>
     </row>
     <row r="86" spans="1:89" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BI86" s="335"/>
-      <c r="BJ86" s="335"/>
-      <c r="BK86" s="335"/>
-      <c r="BL86" s="340"/>
-      <c r="BM86" s="340"/>
-      <c r="BN86" s="340"/>
-      <c r="BO86" s="341"/>
-      <c r="BP86" s="341"/>
-      <c r="BQ86" s="341"/>
-      <c r="BR86" s="336"/>
-      <c r="BS86" s="336"/>
-      <c r="BT86" s="336"/>
-      <c r="BU86" s="337"/>
-      <c r="BV86" s="337"/>
-      <c r="BW86" s="337"/>
+      <c r="BI86" s="338"/>
+      <c r="BJ86" s="338"/>
+      <c r="BK86" s="338"/>
+      <c r="BL86" s="343"/>
+      <c r="BM86" s="343"/>
+      <c r="BN86" s="343"/>
+      <c r="BO86" s="344"/>
+      <c r="BP86" s="344"/>
+      <c r="BQ86" s="344"/>
+      <c r="BR86" s="339"/>
+      <c r="BS86" s="339"/>
+      <c r="BT86" s="339"/>
+      <c r="BU86" s="340"/>
+      <c r="BV86" s="340"/>
+      <c r="BW86" s="340"/>
     </row>
     <row r="87" spans="1:89" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="327" t="s">
+      <c r="A87" s="330" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="327"/>
-      <c r="C87" s="327"/>
-      <c r="D87" s="327"/>
-      <c r="E87" s="327"/>
-      <c r="F87" s="327"/>
-      <c r="G87" s="327"/>
-      <c r="H87" s="327"/>
-      <c r="I87" s="327"/>
-      <c r="J87" s="327"/>
-      <c r="K87" s="327"/>
-      <c r="L87" s="327"/>
-      <c r="M87" s="327"/>
-      <c r="N87" s="327"/>
-      <c r="O87" s="327"/>
-      <c r="P87" s="327"/>
-      <c r="Q87" s="327"/>
-      <c r="R87" s="327"/>
-      <c r="S87" s="327"/>
-      <c r="T87" s="327"/>
-      <c r="U87" s="327"/>
-      <c r="V87" s="327"/>
-      <c r="W87" s="327"/>
-      <c r="X87" s="327"/>
-      <c r="Y87" s="327"/>
-      <c r="Z87" s="327"/>
-      <c r="AA87" s="327"/>
-      <c r="AB87" s="327"/>
-      <c r="AC87" s="327"/>
-      <c r="AD87" s="327"/>
+      <c r="B87" s="330"/>
+      <c r="C87" s="330"/>
+      <c r="D87" s="330"/>
+      <c r="E87" s="330"/>
+      <c r="F87" s="330"/>
+      <c r="G87" s="330"/>
+      <c r="H87" s="330"/>
+      <c r="I87" s="330"/>
+      <c r="J87" s="330"/>
+      <c r="K87" s="330"/>
+      <c r="L87" s="330"/>
+      <c r="M87" s="330"/>
+      <c r="N87" s="330"/>
+      <c r="O87" s="330"/>
+      <c r="P87" s="330"/>
+      <c r="Q87" s="330"/>
+      <c r="R87" s="330"/>
+      <c r="S87" s="330"/>
+      <c r="T87" s="330"/>
+      <c r="U87" s="330"/>
+      <c r="V87" s="330"/>
+      <c r="W87" s="330"/>
+      <c r="X87" s="330"/>
+      <c r="Y87" s="330"/>
+      <c r="Z87" s="330"/>
+      <c r="AA87" s="330"/>
+      <c r="AB87" s="330"/>
+      <c r="AC87" s="330"/>
+      <c r="AD87" s="330"/>
     </row>
     <row r="88" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="320" t="s">
+      <c r="A88" s="323" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="320"/>
-      <c r="C88" s="320"/>
-      <c r="D88" s="320"/>
-      <c r="E88" s="320"/>
-      <c r="F88" s="320"/>
-      <c r="G88" s="320"/>
-      <c r="H88" s="320"/>
-      <c r="I88" s="320"/>
-      <c r="J88" s="320"/>
-      <c r="K88" s="320"/>
-      <c r="L88" s="320"/>
-      <c r="M88" s="320"/>
-      <c r="N88" s="320"/>
-      <c r="P88" s="328" t="s">
+      <c r="B88" s="323"/>
+      <c r="C88" s="323"/>
+      <c r="D88" s="323"/>
+      <c r="E88" s="323"/>
+      <c r="F88" s="323"/>
+      <c r="G88" s="323"/>
+      <c r="H88" s="323"/>
+      <c r="I88" s="323"/>
+      <c r="J88" s="323"/>
+      <c r="K88" s="323"/>
+      <c r="L88" s="323"/>
+      <c r="M88" s="323"/>
+      <c r="N88" s="323"/>
+      <c r="P88" s="331" t="s">
         <v>258</v>
       </c>
-      <c r="Q88" s="328"/>
-      <c r="R88" s="328"/>
-      <c r="S88" s="328"/>
-      <c r="T88" s="328"/>
-      <c r="U88" s="328"/>
-      <c r="V88" s="328"/>
-      <c r="W88" s="328"/>
-      <c r="X88" s="328"/>
-      <c r="Y88" s="328"/>
-      <c r="Z88" s="328"/>
-      <c r="AA88" s="328"/>
-      <c r="AB88" s="328"/>
-      <c r="AC88" s="328"/>
-      <c r="AE88" s="320" t="s">
+      <c r="Q88" s="331"/>
+      <c r="R88" s="331"/>
+      <c r="S88" s="331"/>
+      <c r="T88" s="331"/>
+      <c r="U88" s="331"/>
+      <c r="V88" s="331"/>
+      <c r="W88" s="331"/>
+      <c r="X88" s="331"/>
+      <c r="Y88" s="331"/>
+      <c r="Z88" s="331"/>
+      <c r="AA88" s="331"/>
+      <c r="AB88" s="331"/>
+      <c r="AC88" s="331"/>
+      <c r="AE88" s="323" t="s">
         <v>259</v>
       </c>
-      <c r="AF88" s="320"/>
-      <c r="AG88" s="320"/>
-      <c r="AH88" s="320"/>
-      <c r="AI88" s="320"/>
-      <c r="AJ88" s="320"/>
-      <c r="AK88" s="320"/>
-      <c r="AL88" s="320"/>
-      <c r="AM88" s="320"/>
-      <c r="AN88" s="320"/>
-      <c r="AO88" s="320"/>
-      <c r="AP88" s="320"/>
-      <c r="AQ88" s="320"/>
-      <c r="AR88" s="320"/>
-      <c r="AT88" s="320" t="s">
+      <c r="AF88" s="323"/>
+      <c r="AG88" s="323"/>
+      <c r="AH88" s="323"/>
+      <c r="AI88" s="323"/>
+      <c r="AJ88" s="323"/>
+      <c r="AK88" s="323"/>
+      <c r="AL88" s="323"/>
+      <c r="AM88" s="323"/>
+      <c r="AN88" s="323"/>
+      <c r="AO88" s="323"/>
+      <c r="AP88" s="323"/>
+      <c r="AQ88" s="323"/>
+      <c r="AR88" s="323"/>
+      <c r="AT88" s="323" t="s">
         <v>260</v>
       </c>
-      <c r="AU88" s="320"/>
-      <c r="AV88" s="320"/>
-      <c r="AW88" s="320"/>
-      <c r="AX88" s="320"/>
-      <c r="AY88" s="320"/>
-      <c r="AZ88" s="320"/>
-      <c r="BA88" s="320"/>
-      <c r="BB88" s="320"/>
-      <c r="BC88" s="320"/>
-      <c r="BD88" s="320"/>
-      <c r="BE88" s="320"/>
-      <c r="BF88" s="320"/>
-      <c r="BG88" s="320"/>
-      <c r="BI88" s="320" t="s">
+      <c r="AU88" s="323"/>
+      <c r="AV88" s="323"/>
+      <c r="AW88" s="323"/>
+      <c r="AX88" s="323"/>
+      <c r="AY88" s="323"/>
+      <c r="AZ88" s="323"/>
+      <c r="BA88" s="323"/>
+      <c r="BB88" s="323"/>
+      <c r="BC88" s="323"/>
+      <c r="BD88" s="323"/>
+      <c r="BE88" s="323"/>
+      <c r="BF88" s="323"/>
+      <c r="BG88" s="323"/>
+      <c r="BI88" s="323" t="s">
         <v>261</v>
       </c>
-      <c r="BJ88" s="320"/>
-      <c r="BK88" s="320"/>
-      <c r="BL88" s="320"/>
-      <c r="BM88" s="320"/>
-      <c r="BN88" s="320"/>
-      <c r="BO88" s="320"/>
-      <c r="BP88" s="320"/>
-      <c r="BQ88" s="320"/>
-      <c r="BR88" s="320"/>
-      <c r="BS88" s="320"/>
-      <c r="BT88" s="320"/>
-      <c r="BU88" s="320"/>
-      <c r="BV88" s="320"/>
-      <c r="BX88" s="320" t="s">
+      <c r="BJ88" s="323"/>
+      <c r="BK88" s="323"/>
+      <c r="BL88" s="323"/>
+      <c r="BM88" s="323"/>
+      <c r="BN88" s="323"/>
+      <c r="BO88" s="323"/>
+      <c r="BP88" s="323"/>
+      <c r="BQ88" s="323"/>
+      <c r="BR88" s="323"/>
+      <c r="BS88" s="323"/>
+      <c r="BT88" s="323"/>
+      <c r="BU88" s="323"/>
+      <c r="BV88" s="323"/>
+      <c r="BX88" s="323" t="s">
         <v>262</v>
       </c>
-      <c r="BY88" s="320"/>
-      <c r="BZ88" s="320"/>
-      <c r="CA88" s="320"/>
-      <c r="CB88" s="320"/>
-      <c r="CC88" s="320"/>
-      <c r="CD88" s="320"/>
-      <c r="CE88" s="320"/>
-      <c r="CF88" s="320"/>
-      <c r="CG88" s="320"/>
-      <c r="CH88" s="320"/>
-      <c r="CI88" s="320"/>
-      <c r="CJ88" s="320"/>
-      <c r="CK88" s="320"/>
+      <c r="BY88" s="323"/>
+      <c r="BZ88" s="323"/>
+      <c r="CA88" s="323"/>
+      <c r="CB88" s="323"/>
+      <c r="CC88" s="323"/>
+      <c r="CD88" s="323"/>
+      <c r="CE88" s="323"/>
+      <c r="CF88" s="323"/>
+      <c r="CG88" s="323"/>
+      <c r="CH88" s="323"/>
+      <c r="CI88" s="323"/>
+      <c r="CJ88" s="323"/>
+      <c r="CK88" s="323"/>
     </row>
     <row r="89" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -13439,7 +13439,7 @@
       <c r="AE91" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF91" s="37" t="s">
+      <c r="AF91" s="8" t="s">
         <v>11</v>
       </c>
       <c r="AG91" s="9" t="s">
@@ -13481,7 +13481,7 @@
       <c r="AT91" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AU91" s="37" t="s">
+      <c r="AU91" s="8" t="s">
         <v>11</v>
       </c>
       <c r="AV91" s="9" t="s">
@@ -13693,10 +13693,10 @@
       <c r="AE92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF92" s="37" t="s">
+      <c r="AF92" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG92" s="38" t="s">
+      <c r="AG92" s="9" t="s">
         <v>24</v>
       </c>
       <c r="AH92" s="9" t="s">
@@ -13735,10 +13735,10 @@
       <c r="AT92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AU92" s="37" t="s">
+      <c r="AU92" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AV92" s="38" t="s">
+      <c r="AV92" s="9" t="s">
         <v>24</v>
       </c>
       <c r="AW92" s="9" t="s">
@@ -13947,13 +13947,13 @@
       <c r="AE93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AF93" s="37" t="s">
+      <c r="AF93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AG93" s="38" t="s">
+      <c r="AG93" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AH93" s="38" t="s">
+      <c r="AH93" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AI93" s="9" t="s">
@@ -13989,10 +13989,10 @@
       <c r="AT93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU93" s="37" t="s">
+      <c r="AU93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AV93" s="38" t="s">
+      <c r="AV93" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AW93" s="38" t="s">
@@ -14201,10 +14201,10 @@
       <c r="AE94" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AF94" s="37" t="s">
+      <c r="AF94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG94" s="38" t="s">
+      <c r="AG94" s="9" t="s">
         <v>26</v>
       </c>
       <c r="AH94" s="38" t="s">
@@ -14243,7 +14243,7 @@
       <c r="AT94" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AU94" s="37" t="s">
+      <c r="AU94" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AV94" s="38" t="s">
@@ -14455,10 +14455,10 @@
       <c r="AE95" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AF95" s="37" t="s">
+      <c r="AF95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AG95" s="38" t="s">
+      <c r="AG95" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AH95" s="9" t="s">
@@ -14497,7 +14497,7 @@
       <c r="AT95" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AU95" s="37" t="s">
+      <c r="AU95" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AV95" s="38" t="s">
@@ -14709,7 +14709,7 @@
       <c r="AE96" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AF96" s="37" t="s">
+      <c r="AF96" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AG96" s="38" t="s">
@@ -14727,7 +14727,7 @@
       <c r="AK96" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AL96" s="38" t="s">
+      <c r="AL96" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AM96" s="9" t="s">
@@ -14751,7 +14751,7 @@
       <c r="AT96" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AU96" s="37" t="s">
+      <c r="AU96" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AV96" s="38" t="s">
@@ -14769,7 +14769,7 @@
       <c r="AZ96" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BA96" s="38" t="s">
+      <c r="BA96" s="9" t="s">
         <v>70</v>
       </c>
       <c r="BB96" s="9" t="s">
@@ -14984,7 +14984,7 @@
       <c r="AL97" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AM97" s="38" t="s">
+      <c r="AM97" s="9" t="s">
         <v>74</v>
       </c>
       <c r="AN97" s="9" t="s">
@@ -15026,7 +15026,7 @@
       <c r="BA97" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BB97" s="38" t="s">
+      <c r="BB97" s="9" t="s">
         <v>74</v>
       </c>
       <c r="BC97" s="9" t="s">
@@ -16400,106 +16400,106 @@
       </c>
     </row>
     <row r="103" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="344" t="s">
+      <c r="A103" s="347" t="s">
         <v>270</v>
       </c>
-      <c r="B103" s="344"/>
-      <c r="C103" s="344"/>
-      <c r="D103" s="344"/>
-      <c r="E103" s="344"/>
-      <c r="F103" s="344"/>
-      <c r="G103" s="344"/>
-      <c r="H103" s="344"/>
-      <c r="I103" s="344"/>
-      <c r="J103" s="344"/>
-      <c r="K103" s="344"/>
-      <c r="L103" s="344"/>
-      <c r="M103" s="344"/>
-      <c r="N103" s="344"/>
+      <c r="B103" s="347"/>
+      <c r="C103" s="347"/>
+      <c r="D103" s="347"/>
+      <c r="E103" s="347"/>
+      <c r="F103" s="347"/>
+      <c r="G103" s="347"/>
+      <c r="H103" s="347"/>
+      <c r="I103" s="347"/>
+      <c r="J103" s="347"/>
+      <c r="K103" s="347"/>
+      <c r="L103" s="347"/>
+      <c r="M103" s="347"/>
+      <c r="N103" s="347"/>
       <c r="O103" s="207"/>
-      <c r="P103" s="344" t="s">
+      <c r="P103" s="347" t="s">
         <v>271</v>
       </c>
-      <c r="Q103" s="344"/>
-      <c r="R103" s="344"/>
-      <c r="S103" s="344"/>
-      <c r="T103" s="344"/>
-      <c r="U103" s="344"/>
-      <c r="V103" s="344"/>
-      <c r="W103" s="344"/>
-      <c r="X103" s="344"/>
-      <c r="Y103" s="344"/>
-      <c r="Z103" s="344"/>
-      <c r="AA103" s="344"/>
-      <c r="AB103" s="344"/>
-      <c r="AC103" s="344"/>
+      <c r="Q103" s="347"/>
+      <c r="R103" s="347"/>
+      <c r="S103" s="347"/>
+      <c r="T103" s="347"/>
+      <c r="U103" s="347"/>
+      <c r="V103" s="347"/>
+      <c r="W103" s="347"/>
+      <c r="X103" s="347"/>
+      <c r="Y103" s="347"/>
+      <c r="Z103" s="347"/>
+      <c r="AA103" s="347"/>
+      <c r="AB103" s="347"/>
+      <c r="AC103" s="347"/>
       <c r="AD103" s="207"/>
-      <c r="AE103" s="344" t="s">
+      <c r="AE103" s="347" t="s">
         <v>272</v>
       </c>
-      <c r="AF103" s="344"/>
-      <c r="AG103" s="344"/>
-      <c r="AH103" s="344"/>
-      <c r="AI103" s="344"/>
-      <c r="AJ103" s="344"/>
-      <c r="AK103" s="344"/>
-      <c r="AL103" s="344"/>
-      <c r="AM103" s="344"/>
-      <c r="AN103" s="344"/>
-      <c r="AO103" s="344"/>
-      <c r="AP103" s="344"/>
-      <c r="AQ103" s="344"/>
-      <c r="AR103" s="344"/>
-      <c r="AT103" s="344" t="s">
+      <c r="AF103" s="347"/>
+      <c r="AG103" s="347"/>
+      <c r="AH103" s="347"/>
+      <c r="AI103" s="347"/>
+      <c r="AJ103" s="347"/>
+      <c r="AK103" s="347"/>
+      <c r="AL103" s="347"/>
+      <c r="AM103" s="347"/>
+      <c r="AN103" s="347"/>
+      <c r="AO103" s="347"/>
+      <c r="AP103" s="347"/>
+      <c r="AQ103" s="347"/>
+      <c r="AR103" s="347"/>
+      <c r="AT103" s="347" t="s">
         <v>273</v>
       </c>
-      <c r="AU103" s="344"/>
-      <c r="AV103" s="344"/>
-      <c r="AW103" s="344"/>
-      <c r="AX103" s="344"/>
-      <c r="AY103" s="344"/>
-      <c r="AZ103" s="344"/>
-      <c r="BA103" s="344"/>
-      <c r="BB103" s="344"/>
-      <c r="BC103" s="344"/>
-      <c r="BD103" s="344"/>
-      <c r="BE103" s="344"/>
-      <c r="BF103" s="344"/>
-      <c r="BG103" s="344"/>
+      <c r="AU103" s="347"/>
+      <c r="AV103" s="347"/>
+      <c r="AW103" s="347"/>
+      <c r="AX103" s="347"/>
+      <c r="AY103" s="347"/>
+      <c r="AZ103" s="347"/>
+      <c r="BA103" s="347"/>
+      <c r="BB103" s="347"/>
+      <c r="BC103" s="347"/>
+      <c r="BD103" s="347"/>
+      <c r="BE103" s="347"/>
+      <c r="BF103" s="347"/>
+      <c r="BG103" s="347"/>
       <c r="BH103" s="207"/>
-      <c r="BI103" s="344" t="s">
+      <c r="BI103" s="347" t="s">
         <v>274</v>
       </c>
-      <c r="BJ103" s="344"/>
-      <c r="BK103" s="344"/>
-      <c r="BL103" s="344"/>
-      <c r="BM103" s="344"/>
-      <c r="BN103" s="344"/>
-      <c r="BO103" s="344"/>
-      <c r="BP103" s="344"/>
-      <c r="BQ103" s="344"/>
-      <c r="BR103" s="344"/>
-      <c r="BS103" s="344"/>
-      <c r="BT103" s="344"/>
-      <c r="BU103" s="344"/>
-      <c r="BV103" s="344"/>
+      <c r="BJ103" s="347"/>
+      <c r="BK103" s="347"/>
+      <c r="BL103" s="347"/>
+      <c r="BM103" s="347"/>
+      <c r="BN103" s="347"/>
+      <c r="BO103" s="347"/>
+      <c r="BP103" s="347"/>
+      <c r="BQ103" s="347"/>
+      <c r="BR103" s="347"/>
+      <c r="BS103" s="347"/>
+      <c r="BT103" s="347"/>
+      <c r="BU103" s="347"/>
+      <c r="BV103" s="347"/>
       <c r="BW103" s="207"/>
-      <c r="BX103" s="344" t="s">
+      <c r="BX103" s="347" t="s">
         <v>275</v>
       </c>
-      <c r="BY103" s="344"/>
-      <c r="BZ103" s="344"/>
-      <c r="CA103" s="344"/>
-      <c r="CB103" s="344"/>
-      <c r="CC103" s="344"/>
-      <c r="CD103" s="344"/>
-      <c r="CE103" s="344"/>
-      <c r="CF103" s="344"/>
-      <c r="CG103" s="344"/>
-      <c r="CH103" s="344"/>
-      <c r="CI103" s="344"/>
-      <c r="CJ103" s="344"/>
-      <c r="CK103" s="344"/>
+      <c r="BY103" s="347"/>
+      <c r="BZ103" s="347"/>
+      <c r="CA103" s="347"/>
+      <c r="CB103" s="347"/>
+      <c r="CC103" s="347"/>
+      <c r="CD103" s="347"/>
+      <c r="CE103" s="347"/>
+      <c r="CF103" s="347"/>
+      <c r="CG103" s="347"/>
+      <c r="CH103" s="347"/>
+      <c r="CI103" s="347"/>
+      <c r="CJ103" s="347"/>
+      <c r="CK103" s="347"/>
       <c r="CL103" s="210"/>
       <c r="CM103" s="76"/>
       <c r="CN103" s="76"/>
@@ -17042,55 +17042,55 @@
       </c>
       <c r="CL105" s="210"/>
       <c r="CM105" s="76"/>
-      <c r="CN105" s="320" t="s">
+      <c r="CN105" s="323" t="s">
         <v>367</v>
       </c>
-      <c r="CO105" s="320"/>
-      <c r="CP105" s="320"/>
-      <c r="CQ105" s="320"/>
-      <c r="CR105" s="320"/>
-      <c r="CS105" s="320"/>
-      <c r="CT105" s="320"/>
-      <c r="CU105" s="320"/>
-      <c r="CV105" s="320"/>
-      <c r="CW105" s="320"/>
-      <c r="CX105" s="320"/>
-      <c r="CY105" s="320"/>
-      <c r="CZ105" s="320"/>
-      <c r="DA105" s="320"/>
+      <c r="CO105" s="323"/>
+      <c r="CP105" s="323"/>
+      <c r="CQ105" s="323"/>
+      <c r="CR105" s="323"/>
+      <c r="CS105" s="323"/>
+      <c r="CT105" s="323"/>
+      <c r="CU105" s="323"/>
+      <c r="CV105" s="323"/>
+      <c r="CW105" s="323"/>
+      <c r="CX105" s="323"/>
+      <c r="CY105" s="323"/>
+      <c r="CZ105" s="323"/>
+      <c r="DA105" s="323"/>
       <c r="DB105" s="76"/>
-      <c r="DC105" s="320" t="s">
+      <c r="DC105" s="323" t="s">
         <v>368</v>
       </c>
-      <c r="DD105" s="320"/>
-      <c r="DE105" s="320"/>
-      <c r="DF105" s="320"/>
-      <c r="DG105" s="320"/>
-      <c r="DH105" s="320"/>
-      <c r="DI105" s="320"/>
-      <c r="DJ105" s="320"/>
-      <c r="DK105" s="320"/>
-      <c r="DL105" s="320"/>
-      <c r="DM105" s="320"/>
-      <c r="DN105" s="320"/>
-      <c r="DO105" s="320"/>
-      <c r="DP105" s="320"/>
-      <c r="DR105" s="320" t="s">
+      <c r="DD105" s="323"/>
+      <c r="DE105" s="323"/>
+      <c r="DF105" s="323"/>
+      <c r="DG105" s="323"/>
+      <c r="DH105" s="323"/>
+      <c r="DI105" s="323"/>
+      <c r="DJ105" s="323"/>
+      <c r="DK105" s="323"/>
+      <c r="DL105" s="323"/>
+      <c r="DM105" s="323"/>
+      <c r="DN105" s="323"/>
+      <c r="DO105" s="323"/>
+      <c r="DP105" s="323"/>
+      <c r="DR105" s="323" t="s">
         <v>371</v>
       </c>
-      <c r="DS105" s="320"/>
-      <c r="DT105" s="320"/>
-      <c r="DU105" s="320"/>
-      <c r="DV105" s="320"/>
-      <c r="DW105" s="320"/>
-      <c r="DX105" s="320"/>
-      <c r="DY105" s="320"/>
-      <c r="DZ105" s="320"/>
-      <c r="EA105" s="320"/>
-      <c r="EB105" s="320"/>
-      <c r="EC105" s="320"/>
-      <c r="ED105" s="320"/>
-      <c r="EE105" s="320"/>
+      <c r="DS105" s="323"/>
+      <c r="DT105" s="323"/>
+      <c r="DU105" s="323"/>
+      <c r="DV105" s="323"/>
+      <c r="DW105" s="323"/>
+      <c r="DX105" s="323"/>
+      <c r="DY105" s="323"/>
+      <c r="DZ105" s="323"/>
+      <c r="EA105" s="323"/>
+      <c r="EB105" s="323"/>
+      <c r="EC105" s="323"/>
+      <c r="ED105" s="323"/>
+      <c r="EE105" s="323"/>
     </row>
     <row r="106" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
@@ -21743,107 +21743,107 @@
       </c>
     </row>
     <row r="118" spans="1:135" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="339" t="s">
+      <c r="A118" s="342" t="s">
         <v>251</v>
       </c>
-      <c r="B118" s="339"/>
-      <c r="C118" s="339"/>
-      <c r="D118" s="339"/>
-      <c r="E118" s="339"/>
-      <c r="F118" s="339"/>
-      <c r="G118" s="339"/>
-      <c r="H118" s="339"/>
-      <c r="I118" s="339"/>
-      <c r="J118" s="339"/>
-      <c r="K118" s="339"/>
-      <c r="L118" s="339"/>
-      <c r="M118" s="339"/>
-      <c r="N118" s="339"/>
+      <c r="B118" s="342"/>
+      <c r="C118" s="342"/>
+      <c r="D118" s="342"/>
+      <c r="E118" s="342"/>
+      <c r="F118" s="342"/>
+      <c r="G118" s="342"/>
+      <c r="H118" s="342"/>
+      <c r="I118" s="342"/>
+      <c r="J118" s="342"/>
+      <c r="K118" s="342"/>
+      <c r="L118" s="342"/>
+      <c r="M118" s="342"/>
+      <c r="N118" s="342"/>
       <c r="O118" s="205"/>
-      <c r="P118" s="339" t="s">
+      <c r="P118" s="342" t="s">
         <v>252</v>
       </c>
-      <c r="Q118" s="339"/>
-      <c r="R118" s="339"/>
-      <c r="S118" s="339"/>
-      <c r="T118" s="339"/>
-      <c r="U118" s="339"/>
-      <c r="V118" s="339"/>
-      <c r="W118" s="339"/>
-      <c r="X118" s="339"/>
-      <c r="Y118" s="339"/>
-      <c r="Z118" s="339"/>
-      <c r="AA118" s="339"/>
-      <c r="AB118" s="339"/>
-      <c r="AC118" s="339"/>
+      <c r="Q118" s="342"/>
+      <c r="R118" s="342"/>
+      <c r="S118" s="342"/>
+      <c r="T118" s="342"/>
+      <c r="U118" s="342"/>
+      <c r="V118" s="342"/>
+      <c r="W118" s="342"/>
+      <c r="X118" s="342"/>
+      <c r="Y118" s="342"/>
+      <c r="Z118" s="342"/>
+      <c r="AA118" s="342"/>
+      <c r="AB118" s="342"/>
+      <c r="AC118" s="342"/>
       <c r="AD118" s="205"/>
-      <c r="AE118" s="339" t="s">
+      <c r="AE118" s="342" t="s">
         <v>253</v>
       </c>
-      <c r="AF118" s="339"/>
-      <c r="AG118" s="339"/>
-      <c r="AH118" s="339"/>
-      <c r="AI118" s="339"/>
-      <c r="AJ118" s="339"/>
-      <c r="AK118" s="339"/>
-      <c r="AL118" s="339"/>
-      <c r="AM118" s="339"/>
-      <c r="AN118" s="339"/>
-      <c r="AO118" s="339"/>
-      <c r="AP118" s="339"/>
-      <c r="AQ118" s="339"/>
-      <c r="AR118" s="339"/>
+      <c r="AF118" s="342"/>
+      <c r="AG118" s="342"/>
+      <c r="AH118" s="342"/>
+      <c r="AI118" s="342"/>
+      <c r="AJ118" s="342"/>
+      <c r="AK118" s="342"/>
+      <c r="AL118" s="342"/>
+      <c r="AM118" s="342"/>
+      <c r="AN118" s="342"/>
+      <c r="AO118" s="342"/>
+      <c r="AP118" s="342"/>
+      <c r="AQ118" s="342"/>
+      <c r="AR118" s="342"/>
       <c r="AS118" s="205"/>
-      <c r="AT118" s="339" t="s">
+      <c r="AT118" s="342" t="s">
         <v>254</v>
       </c>
-      <c r="AU118" s="339"/>
-      <c r="AV118" s="339"/>
-      <c r="AW118" s="339"/>
-      <c r="AX118" s="339"/>
-      <c r="AY118" s="339"/>
-      <c r="AZ118" s="339"/>
-      <c r="BA118" s="339"/>
-      <c r="BB118" s="339"/>
-      <c r="BC118" s="339"/>
-      <c r="BD118" s="339"/>
-      <c r="BE118" s="339"/>
-      <c r="BF118" s="339"/>
-      <c r="BG118" s="339"/>
+      <c r="AU118" s="342"/>
+      <c r="AV118" s="342"/>
+      <c r="AW118" s="342"/>
+      <c r="AX118" s="342"/>
+      <c r="AY118" s="342"/>
+      <c r="AZ118" s="342"/>
+      <c r="BA118" s="342"/>
+      <c r="BB118" s="342"/>
+      <c r="BC118" s="342"/>
+      <c r="BD118" s="342"/>
+      <c r="BE118" s="342"/>
+      <c r="BF118" s="342"/>
+      <c r="BG118" s="342"/>
       <c r="BH118" s="205"/>
-      <c r="BI118" s="339" t="s">
+      <c r="BI118" s="342" t="s">
         <v>255</v>
       </c>
-      <c r="BJ118" s="339"/>
-      <c r="BK118" s="339"/>
-      <c r="BL118" s="339"/>
-      <c r="BM118" s="339"/>
-      <c r="BN118" s="339"/>
-      <c r="BO118" s="339"/>
-      <c r="BP118" s="339"/>
-      <c r="BQ118" s="339"/>
-      <c r="BR118" s="339"/>
-      <c r="BS118" s="339"/>
-      <c r="BT118" s="339"/>
-      <c r="BU118" s="339"/>
-      <c r="BV118" s="339"/>
+      <c r="BJ118" s="342"/>
+      <c r="BK118" s="342"/>
+      <c r="BL118" s="342"/>
+      <c r="BM118" s="342"/>
+      <c r="BN118" s="342"/>
+      <c r="BO118" s="342"/>
+      <c r="BP118" s="342"/>
+      <c r="BQ118" s="342"/>
+      <c r="BR118" s="342"/>
+      <c r="BS118" s="342"/>
+      <c r="BT118" s="342"/>
+      <c r="BU118" s="342"/>
+      <c r="BV118" s="342"/>
       <c r="BW118" s="205"/>
-      <c r="BX118" s="339" t="s">
+      <c r="BX118" s="342" t="s">
         <v>256</v>
       </c>
-      <c r="BY118" s="339"/>
-      <c r="BZ118" s="339"/>
-      <c r="CA118" s="339"/>
-      <c r="CB118" s="339"/>
-      <c r="CC118" s="339"/>
-      <c r="CD118" s="339"/>
-      <c r="CE118" s="339"/>
-      <c r="CF118" s="339"/>
-      <c r="CG118" s="339"/>
-      <c r="CH118" s="339"/>
-      <c r="CI118" s="339"/>
-      <c r="CJ118" s="339"/>
-      <c r="CK118" s="339"/>
+      <c r="BY118" s="342"/>
+      <c r="BZ118" s="342"/>
+      <c r="CA118" s="342"/>
+      <c r="CB118" s="342"/>
+      <c r="CC118" s="342"/>
+      <c r="CD118" s="342"/>
+      <c r="CE118" s="342"/>
+      <c r="CF118" s="342"/>
+      <c r="CG118" s="342"/>
+      <c r="CH118" s="342"/>
+      <c r="CI118" s="342"/>
+      <c r="CJ118" s="342"/>
+      <c r="CK118" s="342"/>
       <c r="CL118" s="210"/>
       <c r="CM118" s="76"/>
       <c r="CN118" s="5" t="s">
@@ -22905,39 +22905,39 @@
       </c>
       <c r="CL121" s="205"/>
       <c r="CM121" s="205"/>
-      <c r="CN121" s="320" t="s">
+      <c r="CN121" s="323" t="s">
         <v>369</v>
       </c>
-      <c r="CO121" s="320"/>
-      <c r="CP121" s="320"/>
-      <c r="CQ121" s="320"/>
-      <c r="CR121" s="320"/>
-      <c r="CS121" s="320"/>
-      <c r="CT121" s="320"/>
-      <c r="CU121" s="320"/>
-      <c r="CV121" s="320"/>
-      <c r="CW121" s="320"/>
-      <c r="CX121" s="320"/>
-      <c r="CY121" s="320"/>
-      <c r="CZ121" s="320"/>
-      <c r="DA121" s="320"/>
+      <c r="CO121" s="323"/>
+      <c r="CP121" s="323"/>
+      <c r="CQ121" s="323"/>
+      <c r="CR121" s="323"/>
+      <c r="CS121" s="323"/>
+      <c r="CT121" s="323"/>
+      <c r="CU121" s="323"/>
+      <c r="CV121" s="323"/>
+      <c r="CW121" s="323"/>
+      <c r="CX121" s="323"/>
+      <c r="CY121" s="323"/>
+      <c r="CZ121" s="323"/>
+      <c r="DA121" s="323"/>
       <c r="DB121" s="205"/>
-      <c r="DC121" s="320" t="s">
+      <c r="DC121" s="323" t="s">
         <v>370</v>
       </c>
-      <c r="DD121" s="320"/>
-      <c r="DE121" s="320"/>
-      <c r="DF121" s="320"/>
-      <c r="DG121" s="320"/>
-      <c r="DH121" s="320"/>
-      <c r="DI121" s="320"/>
-      <c r="DJ121" s="320"/>
-      <c r="DK121" s="320"/>
-      <c r="DL121" s="320"/>
-      <c r="DM121" s="320"/>
-      <c r="DN121" s="320"/>
-      <c r="DO121" s="320"/>
-      <c r="DP121" s="320"/>
+      <c r="DD121" s="323"/>
+      <c r="DE121" s="323"/>
+      <c r="DF121" s="323"/>
+      <c r="DG121" s="323"/>
+      <c r="DH121" s="323"/>
+      <c r="DI121" s="323"/>
+      <c r="DJ121" s="323"/>
+      <c r="DK121" s="323"/>
+      <c r="DL121" s="323"/>
+      <c r="DM121" s="323"/>
+      <c r="DN121" s="323"/>
+      <c r="DO121" s="323"/>
+      <c r="DP121" s="323"/>
       <c r="DQ121" s="205"/>
       <c r="DR121" s="205"/>
       <c r="DS121" s="205"/>
@@ -26778,107 +26778,107 @@
       <c r="DS132" s="205"/>
     </row>
     <row r="133" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="339" t="s">
+      <c r="A133" s="342" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="339"/>
-      <c r="C133" s="339"/>
-      <c r="D133" s="339"/>
-      <c r="E133" s="339"/>
-      <c r="F133" s="339"/>
-      <c r="G133" s="339"/>
-      <c r="H133" s="339"/>
-      <c r="I133" s="339"/>
-      <c r="J133" s="339"/>
-      <c r="K133" s="339"/>
-      <c r="L133" s="339"/>
-      <c r="M133" s="339"/>
-      <c r="N133" s="339"/>
+      <c r="B133" s="342"/>
+      <c r="C133" s="342"/>
+      <c r="D133" s="342"/>
+      <c r="E133" s="342"/>
+      <c r="F133" s="342"/>
+      <c r="G133" s="342"/>
+      <c r="H133" s="342"/>
+      <c r="I133" s="342"/>
+      <c r="J133" s="342"/>
+      <c r="K133" s="342"/>
+      <c r="L133" s="342"/>
+      <c r="M133" s="342"/>
+      <c r="N133" s="342"/>
       <c r="O133" s="205"/>
-      <c r="P133" s="339" t="s">
+      <c r="P133" s="342" t="s">
         <v>266</v>
       </c>
-      <c r="Q133" s="339"/>
-      <c r="R133" s="339"/>
-      <c r="S133" s="339"/>
-      <c r="T133" s="339"/>
-      <c r="U133" s="339"/>
-      <c r="V133" s="339"/>
-      <c r="W133" s="339"/>
-      <c r="X133" s="339"/>
-      <c r="Y133" s="339"/>
-      <c r="Z133" s="339"/>
-      <c r="AA133" s="339"/>
-      <c r="AB133" s="339"/>
-      <c r="AC133" s="339"/>
+      <c r="Q133" s="342"/>
+      <c r="R133" s="342"/>
+      <c r="S133" s="342"/>
+      <c r="T133" s="342"/>
+      <c r="U133" s="342"/>
+      <c r="V133" s="342"/>
+      <c r="W133" s="342"/>
+      <c r="X133" s="342"/>
+      <c r="Y133" s="342"/>
+      <c r="Z133" s="342"/>
+      <c r="AA133" s="342"/>
+      <c r="AB133" s="342"/>
+      <c r="AC133" s="342"/>
       <c r="AD133" s="205"/>
-      <c r="AE133" s="339" t="s">
+      <c r="AE133" s="342" t="s">
         <v>267</v>
       </c>
-      <c r="AF133" s="339"/>
-      <c r="AG133" s="339"/>
-      <c r="AH133" s="339"/>
-      <c r="AI133" s="339"/>
-      <c r="AJ133" s="339"/>
-      <c r="AK133" s="339"/>
-      <c r="AL133" s="339"/>
-      <c r="AM133" s="339"/>
-      <c r="AN133" s="339"/>
-      <c r="AO133" s="339"/>
-      <c r="AP133" s="339"/>
-      <c r="AQ133" s="339"/>
-      <c r="AR133" s="339"/>
+      <c r="AF133" s="342"/>
+      <c r="AG133" s="342"/>
+      <c r="AH133" s="342"/>
+      <c r="AI133" s="342"/>
+      <c r="AJ133" s="342"/>
+      <c r="AK133" s="342"/>
+      <c r="AL133" s="342"/>
+      <c r="AM133" s="342"/>
+      <c r="AN133" s="342"/>
+      <c r="AO133" s="342"/>
+      <c r="AP133" s="342"/>
+      <c r="AQ133" s="342"/>
+      <c r="AR133" s="342"/>
       <c r="AS133" s="205"/>
-      <c r="AT133" s="339" t="s">
+      <c r="AT133" s="342" t="s">
         <v>268</v>
       </c>
-      <c r="AU133" s="339"/>
-      <c r="AV133" s="339"/>
-      <c r="AW133" s="339"/>
-      <c r="AX133" s="339"/>
-      <c r="AY133" s="339"/>
-      <c r="AZ133" s="339"/>
-      <c r="BA133" s="339"/>
-      <c r="BB133" s="339"/>
-      <c r="BC133" s="339"/>
-      <c r="BD133" s="339"/>
-      <c r="BE133" s="339"/>
-      <c r="BF133" s="339"/>
-      <c r="BG133" s="339"/>
+      <c r="AU133" s="342"/>
+      <c r="AV133" s="342"/>
+      <c r="AW133" s="342"/>
+      <c r="AX133" s="342"/>
+      <c r="AY133" s="342"/>
+      <c r="AZ133" s="342"/>
+      <c r="BA133" s="342"/>
+      <c r="BB133" s="342"/>
+      <c r="BC133" s="342"/>
+      <c r="BD133" s="342"/>
+      <c r="BE133" s="342"/>
+      <c r="BF133" s="342"/>
+      <c r="BG133" s="342"/>
       <c r="BH133" s="205"/>
-      <c r="BI133" s="339" t="s">
+      <c r="BI133" s="342" t="s">
         <v>269</v>
       </c>
-      <c r="BJ133" s="339"/>
-      <c r="BK133" s="339"/>
-      <c r="BL133" s="339"/>
-      <c r="BM133" s="339"/>
-      <c r="BN133" s="339"/>
-      <c r="BO133" s="339"/>
-      <c r="BP133" s="339"/>
-      <c r="BQ133" s="339"/>
-      <c r="BR133" s="339"/>
-      <c r="BS133" s="339"/>
-      <c r="BT133" s="339"/>
-      <c r="BU133" s="339"/>
-      <c r="BV133" s="339"/>
+      <c r="BJ133" s="342"/>
+      <c r="BK133" s="342"/>
+      <c r="BL133" s="342"/>
+      <c r="BM133" s="342"/>
+      <c r="BN133" s="342"/>
+      <c r="BO133" s="342"/>
+      <c r="BP133" s="342"/>
+      <c r="BQ133" s="342"/>
+      <c r="BR133" s="342"/>
+      <c r="BS133" s="342"/>
+      <c r="BT133" s="342"/>
+      <c r="BU133" s="342"/>
+      <c r="BV133" s="342"/>
       <c r="BW133" s="205"/>
-      <c r="BX133" s="339" t="s">
+      <c r="BX133" s="342" t="s">
         <v>264</v>
       </c>
-      <c r="BY133" s="339"/>
-      <c r="BZ133" s="339"/>
-      <c r="CA133" s="339"/>
-      <c r="CB133" s="339"/>
-      <c r="CC133" s="339"/>
-      <c r="CD133" s="339"/>
-      <c r="CE133" s="339"/>
-      <c r="CF133" s="339"/>
-      <c r="CG133" s="339"/>
-      <c r="CH133" s="339"/>
-      <c r="CI133" s="339"/>
-      <c r="CJ133" s="339"/>
-      <c r="CK133" s="339"/>
+      <c r="BY133" s="342"/>
+      <c r="BZ133" s="342"/>
+      <c r="CA133" s="342"/>
+      <c r="CB133" s="342"/>
+      <c r="CC133" s="342"/>
+      <c r="CD133" s="342"/>
+      <c r="CE133" s="342"/>
+      <c r="CF133" s="342"/>
+      <c r="CG133" s="342"/>
+      <c r="CH133" s="342"/>
+      <c r="CI133" s="342"/>
+      <c r="CJ133" s="342"/>
+      <c r="CK133" s="342"/>
       <c r="CL133" s="205"/>
       <c r="CM133" s="205"/>
       <c r="CN133" s="5" t="s">
@@ -31173,102 +31173,102 @@
       <c r="DS147" s="205"/>
     </row>
     <row r="148" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="320" t="s">
+      <c r="A148" s="323" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="320"/>
-      <c r="C148" s="320"/>
-      <c r="D148" s="320"/>
-      <c r="E148" s="320"/>
-      <c r="F148" s="320"/>
-      <c r="G148" s="320"/>
-      <c r="H148" s="320"/>
-      <c r="I148" s="320"/>
-      <c r="J148" s="320"/>
-      <c r="K148" s="320"/>
-      <c r="L148" s="320"/>
-      <c r="M148" s="320"/>
-      <c r="N148" s="320"/>
-      <c r="P148" s="328" t="s">
+      <c r="B148" s="323"/>
+      <c r="C148" s="323"/>
+      <c r="D148" s="323"/>
+      <c r="E148" s="323"/>
+      <c r="F148" s="323"/>
+      <c r="G148" s="323"/>
+      <c r="H148" s="323"/>
+      <c r="I148" s="323"/>
+      <c r="J148" s="323"/>
+      <c r="K148" s="323"/>
+      <c r="L148" s="323"/>
+      <c r="M148" s="323"/>
+      <c r="N148" s="323"/>
+      <c r="P148" s="331" t="s">
         <v>277</v>
       </c>
-      <c r="Q148" s="328"/>
-      <c r="R148" s="328"/>
-      <c r="S148" s="328"/>
-      <c r="T148" s="328"/>
-      <c r="U148" s="328"/>
-      <c r="V148" s="328"/>
-      <c r="W148" s="328"/>
-      <c r="X148" s="328"/>
-      <c r="Y148" s="328"/>
-      <c r="Z148" s="328"/>
-      <c r="AA148" s="328"/>
-      <c r="AB148" s="328"/>
-      <c r="AC148" s="328"/>
-      <c r="AE148" s="320" t="s">
+      <c r="Q148" s="331"/>
+      <c r="R148" s="331"/>
+      <c r="S148" s="331"/>
+      <c r="T148" s="331"/>
+      <c r="U148" s="331"/>
+      <c r="V148" s="331"/>
+      <c r="W148" s="331"/>
+      <c r="X148" s="331"/>
+      <c r="Y148" s="331"/>
+      <c r="Z148" s="331"/>
+      <c r="AA148" s="331"/>
+      <c r="AB148" s="331"/>
+      <c r="AC148" s="331"/>
+      <c r="AE148" s="323" t="s">
         <v>278</v>
       </c>
-      <c r="AF148" s="320"/>
-      <c r="AG148" s="320"/>
-      <c r="AH148" s="320"/>
-      <c r="AI148" s="320"/>
-      <c r="AJ148" s="320"/>
-      <c r="AK148" s="320"/>
-      <c r="AL148" s="320"/>
-      <c r="AM148" s="320"/>
-      <c r="AN148" s="320"/>
-      <c r="AO148" s="320"/>
-      <c r="AP148" s="320"/>
-      <c r="AQ148" s="320"/>
-      <c r="AR148" s="320"/>
-      <c r="AT148" s="320" t="s">
+      <c r="AF148" s="323"/>
+      <c r="AG148" s="323"/>
+      <c r="AH148" s="323"/>
+      <c r="AI148" s="323"/>
+      <c r="AJ148" s="323"/>
+      <c r="AK148" s="323"/>
+      <c r="AL148" s="323"/>
+      <c r="AM148" s="323"/>
+      <c r="AN148" s="323"/>
+      <c r="AO148" s="323"/>
+      <c r="AP148" s="323"/>
+      <c r="AQ148" s="323"/>
+      <c r="AR148" s="323"/>
+      <c r="AT148" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="AU148" s="320"/>
-      <c r="AV148" s="320"/>
-      <c r="AW148" s="320"/>
-      <c r="AX148" s="320"/>
-      <c r="AY148" s="320"/>
-      <c r="AZ148" s="320"/>
-      <c r="BA148" s="320"/>
-      <c r="BB148" s="320"/>
-      <c r="BC148" s="320"/>
-      <c r="BD148" s="320"/>
-      <c r="BE148" s="320"/>
-      <c r="BF148" s="320"/>
-      <c r="BG148" s="320"/>
-      <c r="BI148" s="320" t="s">
+      <c r="AU148" s="323"/>
+      <c r="AV148" s="323"/>
+      <c r="AW148" s="323"/>
+      <c r="AX148" s="323"/>
+      <c r="AY148" s="323"/>
+      <c r="AZ148" s="323"/>
+      <c r="BA148" s="323"/>
+      <c r="BB148" s="323"/>
+      <c r="BC148" s="323"/>
+      <c r="BD148" s="323"/>
+      <c r="BE148" s="323"/>
+      <c r="BF148" s="323"/>
+      <c r="BG148" s="323"/>
+      <c r="BI148" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="BJ148" s="320"/>
-      <c r="BK148" s="320"/>
-      <c r="BL148" s="320"/>
-      <c r="BM148" s="320"/>
-      <c r="BN148" s="320"/>
-      <c r="BO148" s="320"/>
-      <c r="BP148" s="320"/>
-      <c r="BQ148" s="320"/>
-      <c r="BR148" s="320"/>
-      <c r="BS148" s="320"/>
-      <c r="BT148" s="320"/>
-      <c r="BU148" s="320"/>
-      <c r="BV148" s="320"/>
-      <c r="BX148" s="320" t="s">
+      <c r="BJ148" s="323"/>
+      <c r="BK148" s="323"/>
+      <c r="BL148" s="323"/>
+      <c r="BM148" s="323"/>
+      <c r="BN148" s="323"/>
+      <c r="BO148" s="323"/>
+      <c r="BP148" s="323"/>
+      <c r="BQ148" s="323"/>
+      <c r="BR148" s="323"/>
+      <c r="BS148" s="323"/>
+      <c r="BT148" s="323"/>
+      <c r="BU148" s="323"/>
+      <c r="BV148" s="323"/>
+      <c r="BX148" s="323" t="s">
         <v>281</v>
       </c>
-      <c r="BY148" s="320"/>
-      <c r="BZ148" s="320"/>
-      <c r="CA148" s="320"/>
-      <c r="CB148" s="320"/>
-      <c r="CC148" s="320"/>
-      <c r="CD148" s="320"/>
-      <c r="CE148" s="320"/>
-      <c r="CF148" s="320"/>
-      <c r="CG148" s="320"/>
-      <c r="CH148" s="320"/>
-      <c r="CI148" s="320"/>
-      <c r="CJ148" s="320"/>
-      <c r="CK148" s="320"/>
+      <c r="BY148" s="323"/>
+      <c r="BZ148" s="323"/>
+      <c r="CA148" s="323"/>
+      <c r="CB148" s="323"/>
+      <c r="CC148" s="323"/>
+      <c r="CD148" s="323"/>
+      <c r="CE148" s="323"/>
+      <c r="CF148" s="323"/>
+      <c r="CG148" s="323"/>
+      <c r="CH148" s="323"/>
+      <c r="CI148" s="323"/>
+      <c r="CJ148" s="323"/>
+      <c r="CK148" s="323"/>
       <c r="CL148" s="205"/>
       <c r="CM148" s="205"/>
       <c r="CN148" s="205"/>
@@ -35325,71 +35325,71 @@
       <c r="DS162" s="205"/>
     </row>
     <row r="163" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="328" t="s">
+      <c r="A163" s="331" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="328"/>
-      <c r="C163" s="328"/>
-      <c r="D163" s="328"/>
-      <c r="E163" s="328"/>
-      <c r="F163" s="328"/>
-      <c r="G163" s="328"/>
-      <c r="H163" s="328"/>
-      <c r="I163" s="328"/>
-      <c r="J163" s="328"/>
-      <c r="K163" s="328"/>
-      <c r="L163" s="328"/>
-      <c r="M163" s="328"/>
-      <c r="N163" s="328"/>
-      <c r="P163" s="347" t="s">
+      <c r="B163" s="331"/>
+      <c r="C163" s="331"/>
+      <c r="D163" s="331"/>
+      <c r="E163" s="331"/>
+      <c r="F163" s="331"/>
+      <c r="G163" s="331"/>
+      <c r="H163" s="331"/>
+      <c r="I163" s="331"/>
+      <c r="J163" s="331"/>
+      <c r="K163" s="331"/>
+      <c r="L163" s="331"/>
+      <c r="M163" s="331"/>
+      <c r="N163" s="331"/>
+      <c r="P163" s="350" t="s">
         <v>236</v>
       </c>
-      <c r="Q163" s="347"/>
-      <c r="R163" s="347"/>
-      <c r="S163" s="347"/>
-      <c r="T163" s="347"/>
-      <c r="U163" s="347"/>
-      <c r="V163" s="347"/>
-      <c r="W163" s="347"/>
-      <c r="X163" s="347"/>
-      <c r="Y163" s="347"/>
-      <c r="Z163" s="347"/>
-      <c r="AA163" s="347"/>
-      <c r="AB163" s="347"/>
-      <c r="AC163" s="347"/>
+      <c r="Q163" s="350"/>
+      <c r="R163" s="350"/>
+      <c r="S163" s="350"/>
+      <c r="T163" s="350"/>
+      <c r="U163" s="350"/>
+      <c r="V163" s="350"/>
+      <c r="W163" s="350"/>
+      <c r="X163" s="350"/>
+      <c r="Y163" s="350"/>
+      <c r="Z163" s="350"/>
+      <c r="AA163" s="350"/>
+      <c r="AB163" s="350"/>
+      <c r="AC163" s="350"/>
       <c r="AD163"/>
-      <c r="AE163" s="347" t="s">
+      <c r="AE163" s="350" t="s">
         <v>237</v>
       </c>
-      <c r="AF163" s="347"/>
-      <c r="AG163" s="347"/>
-      <c r="AH163" s="347"/>
-      <c r="AI163" s="347"/>
-      <c r="AJ163" s="347"/>
-      <c r="AK163" s="347"/>
-      <c r="AL163" s="347"/>
-      <c r="AM163" s="347"/>
-      <c r="AN163" s="347"/>
-      <c r="AO163" s="347"/>
-      <c r="AP163" s="347"/>
-      <c r="AQ163" s="347"/>
-      <c r="AR163" s="347"/>
-      <c r="AT163" s="347" t="s">
+      <c r="AF163" s="350"/>
+      <c r="AG163" s="350"/>
+      <c r="AH163" s="350"/>
+      <c r="AI163" s="350"/>
+      <c r="AJ163" s="350"/>
+      <c r="AK163" s="350"/>
+      <c r="AL163" s="350"/>
+      <c r="AM163" s="350"/>
+      <c r="AN163" s="350"/>
+      <c r="AO163" s="350"/>
+      <c r="AP163" s="350"/>
+      <c r="AQ163" s="350"/>
+      <c r="AR163" s="350"/>
+      <c r="AT163" s="350" t="s">
         <v>238</v>
       </c>
-      <c r="AU163" s="347"/>
-      <c r="AV163" s="347"/>
-      <c r="AW163" s="347"/>
-      <c r="AX163" s="347"/>
-      <c r="AY163" s="347"/>
-      <c r="AZ163" s="347"/>
-      <c r="BA163" s="347"/>
-      <c r="BB163" s="347"/>
-      <c r="BC163" s="347"/>
-      <c r="BD163" s="347"/>
-      <c r="BE163" s="347"/>
-      <c r="BF163" s="347"/>
-      <c r="BG163" s="347"/>
+      <c r="AU163" s="350"/>
+      <c r="AV163" s="350"/>
+      <c r="AW163" s="350"/>
+      <c r="AX163" s="350"/>
+      <c r="AY163" s="350"/>
+      <c r="AZ163" s="350"/>
+      <c r="BA163" s="350"/>
+      <c r="BB163" s="350"/>
+      <c r="BC163" s="350"/>
+      <c r="BD163" s="350"/>
+      <c r="BE163" s="350"/>
+      <c r="BF163" s="350"/>
+      <c r="BG163" s="350"/>
     </row>
     <row r="164" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
@@ -37783,191 +37783,191 @@
       </c>
     </row>
     <row r="178" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="335" t="s">
+      <c r="A178" s="338" t="s">
         <v>199</v>
       </c>
-      <c r="B178" s="335"/>
-      <c r="C178" s="335"/>
-      <c r="D178" s="340" t="s">
+      <c r="B178" s="338"/>
+      <c r="C178" s="338"/>
+      <c r="D178" s="343" t="s">
         <v>193</v>
       </c>
-      <c r="E178" s="340"/>
-      <c r="F178" s="340"/>
-      <c r="G178" s="341" t="s">
+      <c r="E178" s="343"/>
+      <c r="F178" s="343"/>
+      <c r="G178" s="344" t="s">
         <v>194</v>
       </c>
-      <c r="H178" s="341"/>
-      <c r="I178" s="341"/>
-      <c r="J178" s="336" t="s">
+      <c r="H178" s="344"/>
+      <c r="I178" s="344"/>
+      <c r="J178" s="339" t="s">
         <v>195</v>
       </c>
-      <c r="K178" s="336"/>
-      <c r="L178" s="336"/>
-      <c r="M178" s="337" t="s">
+      <c r="K178" s="339"/>
+      <c r="L178" s="339"/>
+      <c r="M178" s="340" t="s">
         <v>196</v>
       </c>
-      <c r="N178" s="337"/>
-      <c r="O178" s="337"/>
-      <c r="P178" s="333" t="s">
+      <c r="N178" s="340"/>
+      <c r="O178" s="340"/>
+      <c r="P178" s="336" t="s">
         <v>187</v>
       </c>
-      <c r="Q178" s="333"/>
-      <c r="R178" s="333"/>
-      <c r="S178" s="334" t="s">
+      <c r="Q178" s="336"/>
+      <c r="R178" s="336"/>
+      <c r="S178" s="337" t="s">
         <v>188</v>
       </c>
-      <c r="T178" s="334"/>
-      <c r="U178" s="334"/>
-      <c r="V178" s="332" t="s">
+      <c r="T178" s="337"/>
+      <c r="U178" s="337"/>
+      <c r="V178" s="335" t="s">
         <v>189</v>
       </c>
-      <c r="W178" s="332"/>
-      <c r="X178" s="332"/>
-      <c r="Y178" s="330" t="s">
+      <c r="W178" s="335"/>
+      <c r="X178" s="335"/>
+      <c r="Y178" s="333" t="s">
         <v>190</v>
       </c>
-      <c r="Z178" s="330"/>
-      <c r="AA178" s="330"/>
-      <c r="AB178" s="331" t="s">
+      <c r="Z178" s="333"/>
+      <c r="AA178" s="333"/>
+      <c r="AB178" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="AC178" s="331"/>
-      <c r="AD178" s="331"/>
-      <c r="AE178" s="333" t="s">
+      <c r="AC178" s="334"/>
+      <c r="AD178" s="334"/>
+      <c r="AE178" s="336" t="s">
         <v>187</v>
       </c>
-      <c r="AF178" s="333"/>
-      <c r="AG178" s="333"/>
-      <c r="AH178" s="334" t="s">
+      <c r="AF178" s="336"/>
+      <c r="AG178" s="336"/>
+      <c r="AH178" s="337" t="s">
         <v>188</v>
       </c>
-      <c r="AI178" s="334"/>
-      <c r="AJ178" s="334"/>
-      <c r="AK178" s="332" t="s">
+      <c r="AI178" s="337"/>
+      <c r="AJ178" s="337"/>
+      <c r="AK178" s="335" t="s">
         <v>189</v>
       </c>
-      <c r="AL178" s="332"/>
-      <c r="AM178" s="332"/>
-      <c r="AN178" s="330" t="s">
+      <c r="AL178" s="335"/>
+      <c r="AM178" s="335"/>
+      <c r="AN178" s="333" t="s">
         <v>190</v>
       </c>
-      <c r="AO178" s="330"/>
-      <c r="AP178" s="330"/>
-      <c r="AQ178" s="331" t="s">
+      <c r="AO178" s="333"/>
+      <c r="AP178" s="333"/>
+      <c r="AQ178" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="AR178" s="331"/>
-      <c r="AS178" s="331"/>
-      <c r="AT178" s="333" t="s">
+      <c r="AR178" s="334"/>
+      <c r="AS178" s="334"/>
+      <c r="AT178" s="336" t="s">
         <v>187</v>
       </c>
-      <c r="AU178" s="333"/>
-      <c r="AV178" s="333"/>
-      <c r="AW178" s="334" t="s">
+      <c r="AU178" s="336"/>
+      <c r="AV178" s="336"/>
+      <c r="AW178" s="337" t="s">
         <v>188</v>
       </c>
-      <c r="AX178" s="334"/>
-      <c r="AY178" s="334"/>
-      <c r="AZ178" s="332" t="s">
+      <c r="AX178" s="337"/>
+      <c r="AY178" s="337"/>
+      <c r="AZ178" s="335" t="s">
         <v>189</v>
       </c>
-      <c r="BA178" s="332"/>
-      <c r="BB178" s="332"/>
-      <c r="BC178" s="330" t="s">
+      <c r="BA178" s="335"/>
+      <c r="BB178" s="335"/>
+      <c r="BC178" s="333" t="s">
         <v>190</v>
       </c>
-      <c r="BD178" s="330"/>
-      <c r="BE178" s="330"/>
-      <c r="BF178" s="331" t="s">
+      <c r="BD178" s="333"/>
+      <c r="BE178" s="333"/>
+      <c r="BF178" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="BG178" s="331"/>
-      <c r="BH178" s="331"/>
+      <c r="BG178" s="334"/>
+      <c r="BH178" s="334"/>
     </row>
     <row r="179" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="343" t="s">
+      <c r="A179" s="346" t="s">
         <v>284</v>
       </c>
-      <c r="B179" s="343"/>
-      <c r="C179" s="343"/>
-      <c r="D179" s="343"/>
-      <c r="E179" s="343"/>
-      <c r="F179" s="343"/>
-      <c r="G179" s="343"/>
-      <c r="H179" s="343"/>
-      <c r="I179" s="343"/>
-      <c r="J179" s="343"/>
-      <c r="K179" s="343"/>
-      <c r="L179" s="343"/>
-      <c r="M179" s="343"/>
-      <c r="N179" s="343"/>
+      <c r="B179" s="346"/>
+      <c r="C179" s="346"/>
+      <c r="D179" s="346"/>
+      <c r="E179" s="346"/>
+      <c r="F179" s="346"/>
+      <c r="G179" s="346"/>
+      <c r="H179" s="346"/>
+      <c r="I179" s="346"/>
+      <c r="J179" s="346"/>
+      <c r="K179" s="346"/>
+      <c r="L179" s="346"/>
+      <c r="M179" s="346"/>
+      <c r="N179" s="346"/>
       <c r="O179"/>
-      <c r="P179" s="323" t="s">
+      <c r="P179" s="326" t="s">
         <v>283</v>
       </c>
-      <c r="Q179" s="323"/>
-      <c r="R179" s="323"/>
-      <c r="S179" s="323"/>
-      <c r="T179" s="323"/>
-      <c r="U179" s="323"/>
-      <c r="V179" s="323"/>
-      <c r="W179" s="323"/>
-      <c r="X179" s="323"/>
-      <c r="Y179" s="323"/>
-      <c r="Z179" s="323"/>
-      <c r="AA179" s="323"/>
-      <c r="AB179" s="323"/>
-      <c r="AC179" s="323"/>
-      <c r="AE179" s="323" t="s">
+      <c r="Q179" s="326"/>
+      <c r="R179" s="326"/>
+      <c r="S179" s="326"/>
+      <c r="T179" s="326"/>
+      <c r="U179" s="326"/>
+      <c r="V179" s="326"/>
+      <c r="W179" s="326"/>
+      <c r="X179" s="326"/>
+      <c r="Y179" s="326"/>
+      <c r="Z179" s="326"/>
+      <c r="AA179" s="326"/>
+      <c r="AB179" s="326"/>
+      <c r="AC179" s="326"/>
+      <c r="AE179" s="326" t="s">
         <v>285</v>
       </c>
-      <c r="AF179" s="323"/>
-      <c r="AG179" s="323"/>
-      <c r="AH179" s="323"/>
-      <c r="AI179" s="323"/>
-      <c r="AJ179" s="323"/>
-      <c r="AK179" s="323"/>
-      <c r="AL179" s="323"/>
-      <c r="AM179" s="323"/>
-      <c r="AN179" s="323"/>
-      <c r="AO179" s="323"/>
-      <c r="AP179" s="323"/>
-      <c r="AQ179" s="323"/>
-      <c r="AR179" s="323"/>
+      <c r="AF179" s="326"/>
+      <c r="AG179" s="326"/>
+      <c r="AH179" s="326"/>
+      <c r="AI179" s="326"/>
+      <c r="AJ179" s="326"/>
+      <c r="AK179" s="326"/>
+      <c r="AL179" s="326"/>
+      <c r="AM179" s="326"/>
+      <c r="AN179" s="326"/>
+      <c r="AO179" s="326"/>
+      <c r="AP179" s="326"/>
+      <c r="AQ179" s="326"/>
+      <c r="AR179" s="326"/>
       <c r="AS179"/>
-      <c r="AT179" s="323" t="s">
+      <c r="AT179" s="326" t="s">
         <v>263</v>
       </c>
-      <c r="AU179" s="323"/>
-      <c r="AV179" s="323"/>
-      <c r="AW179" s="323"/>
-      <c r="AX179" s="323"/>
-      <c r="AY179" s="323"/>
-      <c r="AZ179" s="323"/>
-      <c r="BA179" s="323"/>
-      <c r="BB179" s="323"/>
-      <c r="BC179" s="323"/>
-      <c r="BD179" s="323"/>
-      <c r="BE179" s="323"/>
-      <c r="BF179" s="323"/>
-      <c r="BG179" s="323"/>
+      <c r="AU179" s="326"/>
+      <c r="AV179" s="326"/>
+      <c r="AW179" s="326"/>
+      <c r="AX179" s="326"/>
+      <c r="AY179" s="326"/>
+      <c r="AZ179" s="326"/>
+      <c r="BA179" s="326"/>
+      <c r="BB179" s="326"/>
+      <c r="BC179" s="326"/>
+      <c r="BD179" s="326"/>
+      <c r="BE179" s="326"/>
+      <c r="BF179" s="326"/>
+      <c r="BG179" s="326"/>
       <c r="BH179"/>
-      <c r="BI179" s="323" t="s">
+      <c r="BI179" s="326" t="s">
         <v>286</v>
       </c>
-      <c r="BJ179" s="323"/>
-      <c r="BK179" s="323"/>
-      <c r="BL179" s="323"/>
-      <c r="BM179" s="323"/>
-      <c r="BN179" s="323"/>
-      <c r="BO179" s="323"/>
-      <c r="BP179" s="323"/>
-      <c r="BQ179" s="323"/>
-      <c r="BR179" s="323"/>
-      <c r="BS179" s="323"/>
-      <c r="BT179" s="323"/>
-      <c r="BU179" s="323"/>
-      <c r="BV179" s="323"/>
+      <c r="BJ179" s="326"/>
+      <c r="BK179" s="326"/>
+      <c r="BL179" s="326"/>
+      <c r="BM179" s="326"/>
+      <c r="BN179" s="326"/>
+      <c r="BO179" s="326"/>
+      <c r="BP179" s="326"/>
+      <c r="BQ179" s="326"/>
+      <c r="BR179" s="326"/>
+      <c r="BS179" s="326"/>
+      <c r="BT179" s="326"/>
+      <c r="BU179" s="326"/>
+      <c r="BV179" s="326"/>
     </row>
     <row r="180" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
@@ -41045,22 +41045,22 @@
       <c r="BV194" s="218"/>
     </row>
     <row r="195" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="343" t="s">
+      <c r="A195" s="346" t="s">
         <v>374</v>
       </c>
-      <c r="B195" s="343"/>
-      <c r="C195" s="343"/>
-      <c r="D195" s="343"/>
-      <c r="E195" s="343"/>
-      <c r="F195" s="343"/>
-      <c r="G195" s="343"/>
-      <c r="H195" s="343"/>
-      <c r="I195" s="343"/>
-      <c r="J195" s="343"/>
-      <c r="K195" s="343"/>
-      <c r="L195" s="343"/>
-      <c r="M195" s="343"/>
-      <c r="N195" s="343"/>
+      <c r="B195" s="346"/>
+      <c r="C195" s="346"/>
+      <c r="D195" s="346"/>
+      <c r="E195" s="346"/>
+      <c r="F195" s="346"/>
+      <c r="G195" s="346"/>
+      <c r="H195" s="346"/>
+      <c r="I195" s="346"/>
+      <c r="J195" s="346"/>
+      <c r="K195" s="346"/>
+      <c r="L195" s="346"/>
+      <c r="M195" s="346"/>
+      <c r="N195" s="346"/>
       <c r="O195"/>
       <c r="P195" s="307"/>
       <c r="Q195" s="217"/>
@@ -41359,7 +41359,7 @@
       <c r="K198" s="298" t="s">
         <v>31</v>
       </c>
-      <c r="L198" s="349" t="s">
+      <c r="L198" s="320" t="s">
         <v>32</v>
       </c>
       <c r="M198" s="86" t="s">
@@ -41762,7 +41762,7 @@
       <c r="H202" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="I202" s="350" t="s">
+      <c r="I202" s="321" t="s">
         <v>67</v>
       </c>
       <c r="J202" s="69" t="s">
@@ -42183,7 +42183,7 @@
       <c r="K206" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="L206" s="349">
+      <c r="L206" s="320">
         <v>54</v>
       </c>
       <c r="M206" s="86">
@@ -42498,7 +42498,7 @@
       <c r="M209" s="16">
         <v>32</v>
       </c>
-      <c r="N209" s="351">
+      <c r="N209" s="322">
         <v>22</v>
       </c>
       <c r="O209" s="205"/>
@@ -44018,31 +44018,31 @@
       <c r="BW223" s="205"/>
     </row>
     <row r="224" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="335" t="s">
+      <c r="A224" s="338" t="s">
         <v>199</v>
       </c>
-      <c r="B224" s="335"/>
-      <c r="C224" s="335"/>
-      <c r="D224" s="340" t="s">
+      <c r="B224" s="338"/>
+      <c r="C224" s="338"/>
+      <c r="D224" s="343" t="s">
         <v>193</v>
       </c>
-      <c r="E224" s="340"/>
-      <c r="F224" s="340"/>
-      <c r="G224" s="341" t="s">
+      <c r="E224" s="343"/>
+      <c r="F224" s="343"/>
+      <c r="G224" s="344" t="s">
         <v>194</v>
       </c>
-      <c r="H224" s="341"/>
-      <c r="I224" s="341"/>
-      <c r="J224" s="336" t="s">
+      <c r="H224" s="344"/>
+      <c r="I224" s="344"/>
+      <c r="J224" s="339" t="s">
         <v>195</v>
       </c>
-      <c r="K224" s="336"/>
-      <c r="L224" s="336"/>
-      <c r="M224" s="337" t="s">
+      <c r="K224" s="339"/>
+      <c r="L224" s="339"/>
+      <c r="M224" s="340" t="s">
         <v>196</v>
       </c>
-      <c r="N224" s="337"/>
-      <c r="O224" s="337"/>
+      <c r="N224" s="340"/>
+      <c r="O224" s="340"/>
       <c r="P224" s="205"/>
       <c r="Q224" s="205"/>
       <c r="R224" s="205"/>
@@ -44105,38 +44105,38 @@
       <c r="BW224" s="205"/>
     </row>
     <row r="225" spans="1:44" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="320" t="s">
+      <c r="A225" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="B225" s="320"/>
-      <c r="C225" s="320"/>
-      <c r="D225" s="320"/>
-      <c r="E225" s="320"/>
-      <c r="F225" s="320"/>
-      <c r="G225" s="320"/>
-      <c r="H225" s="320"/>
-      <c r="I225" s="320"/>
-      <c r="J225" s="320"/>
-      <c r="K225" s="320"/>
-      <c r="L225" s="320"/>
-      <c r="M225" s="320"/>
-      <c r="N225" s="320"/>
-      <c r="P225" s="320" t="s">
+      <c r="B225" s="323"/>
+      <c r="C225" s="323"/>
+      <c r="D225" s="323"/>
+      <c r="E225" s="323"/>
+      <c r="F225" s="323"/>
+      <c r="G225" s="323"/>
+      <c r="H225" s="323"/>
+      <c r="I225" s="323"/>
+      <c r="J225" s="323"/>
+      <c r="K225" s="323"/>
+      <c r="L225" s="323"/>
+      <c r="M225" s="323"/>
+      <c r="N225" s="323"/>
+      <c r="P225" s="323" t="s">
         <v>197</v>
       </c>
-      <c r="Q225" s="320"/>
-      <c r="R225" s="320"/>
-      <c r="S225" s="320"/>
-      <c r="T225" s="320"/>
-      <c r="U225" s="320"/>
-      <c r="V225" s="320"/>
-      <c r="W225" s="320"/>
-      <c r="X225" s="320"/>
-      <c r="Y225" s="320"/>
-      <c r="Z225" s="320"/>
-      <c r="AA225" s="320"/>
-      <c r="AB225" s="320"/>
-      <c r="AC225" s="320"/>
+      <c r="Q225" s="323"/>
+      <c r="R225" s="323"/>
+      <c r="S225" s="323"/>
+      <c r="T225" s="323"/>
+      <c r="U225" s="323"/>
+      <c r="V225" s="323"/>
+      <c r="W225" s="323"/>
+      <c r="X225" s="323"/>
+      <c r="Y225" s="323"/>
+      <c r="Z225" s="323"/>
+      <c r="AA225" s="323"/>
+      <c r="AB225" s="323"/>
+      <c r="AC225" s="323"/>
     </row>
     <row r="226" spans="1:44" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
@@ -45337,133 +45337,133 @@
       <c r="AC239" s="145">
         <v>22</v>
       </c>
-      <c r="AD239" s="335" t="s">
+      <c r="AD239" s="338" t="s">
         <v>192</v>
       </c>
-      <c r="AE239" s="335"/>
-      <c r="AF239" s="335"/>
-      <c r="AG239" s="340" t="s">
+      <c r="AE239" s="338"/>
+      <c r="AF239" s="338"/>
+      <c r="AG239" s="343" t="s">
         <v>193</v>
       </c>
-      <c r="AH239" s="340"/>
-      <c r="AI239" s="340"/>
-      <c r="AJ239" s="341" t="s">
+      <c r="AH239" s="343"/>
+      <c r="AI239" s="343"/>
+      <c r="AJ239" s="344" t="s">
         <v>194</v>
       </c>
-      <c r="AK239" s="341"/>
-      <c r="AL239" s="341"/>
-      <c r="AM239" s="336" t="s">
+      <c r="AK239" s="344"/>
+      <c r="AL239" s="344"/>
+      <c r="AM239" s="339" t="s">
         <v>195</v>
       </c>
-      <c r="AN239" s="336"/>
-      <c r="AO239" s="336"/>
-      <c r="AP239" s="337" t="s">
+      <c r="AN239" s="339"/>
+      <c r="AO239" s="339"/>
+      <c r="AP239" s="340" t="s">
         <v>196</v>
       </c>
-      <c r="AQ239" s="337"/>
-      <c r="AR239" s="337"/>
+      <c r="AQ239" s="340"/>
+      <c r="AR239" s="340"/>
     </row>
     <row r="240" spans="1:44" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="327" t="s">
+      <c r="A240" s="330" t="s">
         <v>166</v>
       </c>
-      <c r="B240" s="327"/>
-      <c r="C240" s="327"/>
-      <c r="D240" s="327"/>
-      <c r="E240" s="327"/>
-      <c r="F240" s="327"/>
-      <c r="G240" s="327"/>
-      <c r="H240" s="327"/>
-      <c r="I240" s="327"/>
-      <c r="J240" s="327"/>
-      <c r="K240" s="327"/>
-      <c r="L240" s="327"/>
-      <c r="M240" s="327"/>
-      <c r="N240" s="327"/>
-      <c r="O240" s="327"/>
-      <c r="P240" s="327"/>
-      <c r="Q240" s="327"/>
-      <c r="R240" s="327"/>
-      <c r="S240" s="327"/>
-      <c r="T240" s="327"/>
-      <c r="U240" s="327"/>
-      <c r="V240" s="327"/>
-      <c r="W240" s="327"/>
-      <c r="X240" s="327"/>
-      <c r="Y240" s="327"/>
-      <c r="Z240" s="327"/>
-      <c r="AA240" s="327"/>
-      <c r="AB240" s="327"/>
-      <c r="AC240" s="327"/>
-      <c r="AD240" s="327"/>
+      <c r="B240" s="330"/>
+      <c r="C240" s="330"/>
+      <c r="D240" s="330"/>
+      <c r="E240" s="330"/>
+      <c r="F240" s="330"/>
+      <c r="G240" s="330"/>
+      <c r="H240" s="330"/>
+      <c r="I240" s="330"/>
+      <c r="J240" s="330"/>
+      <c r="K240" s="330"/>
+      <c r="L240" s="330"/>
+      <c r="M240" s="330"/>
+      <c r="N240" s="330"/>
+      <c r="O240" s="330"/>
+      <c r="P240" s="330"/>
+      <c r="Q240" s="330"/>
+      <c r="R240" s="330"/>
+      <c r="S240" s="330"/>
+      <c r="T240" s="330"/>
+      <c r="U240" s="330"/>
+      <c r="V240" s="330"/>
+      <c r="W240" s="330"/>
+      <c r="X240" s="330"/>
+      <c r="Y240" s="330"/>
+      <c r="Z240" s="330"/>
+      <c r="AA240" s="330"/>
+      <c r="AB240" s="330"/>
+      <c r="AC240" s="330"/>
+      <c r="AD240" s="330"/>
     </row>
     <row r="241" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="323" t="s">
+      <c r="A241" s="326" t="s">
         <v>167</v>
       </c>
-      <c r="B241" s="323"/>
-      <c r="C241" s="323"/>
-      <c r="D241" s="323"/>
-      <c r="E241" s="323"/>
-      <c r="F241" s="323"/>
-      <c r="G241" s="323"/>
-      <c r="H241" s="323"/>
-      <c r="I241" s="323"/>
-      <c r="J241" s="323"/>
-      <c r="K241" s="323"/>
-      <c r="L241" s="323"/>
-      <c r="M241" s="323"/>
-      <c r="N241" s="323"/>
+      <c r="B241" s="326"/>
+      <c r="C241" s="326"/>
+      <c r="D241" s="326"/>
+      <c r="E241" s="326"/>
+      <c r="F241" s="326"/>
+      <c r="G241" s="326"/>
+      <c r="H241" s="326"/>
+      <c r="I241" s="326"/>
+      <c r="J241" s="326"/>
+      <c r="K241" s="326"/>
+      <c r="L241" s="326"/>
+      <c r="M241" s="326"/>
+      <c r="N241" s="326"/>
       <c r="O241"/>
-      <c r="P241" s="323" t="s">
+      <c r="P241" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="Q241" s="323"/>
-      <c r="R241" s="323"/>
-      <c r="S241" s="323"/>
-      <c r="T241" s="323"/>
-      <c r="U241" s="323"/>
-      <c r="V241" s="323"/>
-      <c r="W241" s="323"/>
-      <c r="X241" s="323"/>
-      <c r="Y241" s="323"/>
-      <c r="Z241" s="323"/>
-      <c r="AA241" s="323"/>
-      <c r="AB241" s="323"/>
-      <c r="AC241" s="323"/>
-      <c r="AE241" s="324" t="s">
+      <c r="Q241" s="326"/>
+      <c r="R241" s="326"/>
+      <c r="S241" s="326"/>
+      <c r="T241" s="326"/>
+      <c r="U241" s="326"/>
+      <c r="V241" s="326"/>
+      <c r="W241" s="326"/>
+      <c r="X241" s="326"/>
+      <c r="Y241" s="326"/>
+      <c r="Z241" s="326"/>
+      <c r="AA241" s="326"/>
+      <c r="AB241" s="326"/>
+      <c r="AC241" s="326"/>
+      <c r="AE241" s="327" t="s">
         <v>169</v>
       </c>
-      <c r="AF241" s="324"/>
-      <c r="AG241" s="324"/>
-      <c r="AH241" s="324"/>
-      <c r="AI241" s="324"/>
-      <c r="AJ241" s="324"/>
-      <c r="AK241" s="324"/>
-      <c r="AL241" s="324"/>
-      <c r="AM241" s="324"/>
-      <c r="AN241" s="324"/>
-      <c r="AO241" s="324"/>
-      <c r="AP241" s="324"/>
-      <c r="AQ241" s="324"/>
-      <c r="AR241" s="324"/>
+      <c r="AF241" s="327"/>
+      <c r="AG241" s="327"/>
+      <c r="AH241" s="327"/>
+      <c r="AI241" s="327"/>
+      <c r="AJ241" s="327"/>
+      <c r="AK241" s="327"/>
+      <c r="AL241" s="327"/>
+      <c r="AM241" s="327"/>
+      <c r="AN241" s="327"/>
+      <c r="AO241" s="327"/>
+      <c r="AP241" s="327"/>
+      <c r="AQ241" s="327"/>
+      <c r="AR241" s="327"/>
       <c r="AS241"/>
-      <c r="AT241" s="329" t="s">
+      <c r="AT241" s="332" t="s">
         <v>170</v>
       </c>
-      <c r="AU241" s="329"/>
-      <c r="AV241" s="329"/>
-      <c r="AW241" s="329"/>
-      <c r="AX241" s="329"/>
-      <c r="AY241" s="329"/>
-      <c r="AZ241" s="329"/>
-      <c r="BA241" s="329"/>
-      <c r="BB241" s="329"/>
-      <c r="BC241" s="329"/>
-      <c r="BD241" s="329"/>
-      <c r="BE241" s="329"/>
-      <c r="BF241" s="329"/>
-      <c r="BG241" s="329"/>
+      <c r="AU241" s="332"/>
+      <c r="AV241" s="332"/>
+      <c r="AW241" s="332"/>
+      <c r="AX241" s="332"/>
+      <c r="AY241" s="332"/>
+      <c r="AZ241" s="332"/>
+      <c r="BA241" s="332"/>
+      <c r="BB241" s="332"/>
+      <c r="BC241" s="332"/>
+      <c r="BD241" s="332"/>
+      <c r="BE241" s="332"/>
+      <c r="BF241" s="332"/>
+      <c r="BG241" s="332"/>
     </row>
     <row r="242" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
@@ -47870,90 +47870,90 @@
       </c>
     </row>
     <row r="256" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="321" t="s">
+      <c r="A256" s="324" t="s">
         <v>171</v>
       </c>
-      <c r="B256" s="321"/>
-      <c r="C256" s="321"/>
-      <c r="D256" s="321"/>
-      <c r="E256" s="321"/>
-      <c r="F256" s="321"/>
-      <c r="G256" s="321"/>
-      <c r="H256" s="321"/>
-      <c r="I256" s="321"/>
-      <c r="J256" s="321"/>
-      <c r="K256" s="321"/>
-      <c r="L256" s="321"/>
-      <c r="M256" s="321"/>
-      <c r="N256" s="321"/>
+      <c r="B256" s="324"/>
+      <c r="C256" s="324"/>
+      <c r="D256" s="324"/>
+      <c r="E256" s="324"/>
+      <c r="F256" s="324"/>
+      <c r="G256" s="324"/>
+      <c r="H256" s="324"/>
+      <c r="I256" s="324"/>
+      <c r="J256" s="324"/>
+      <c r="K256" s="324"/>
+      <c r="L256" s="324"/>
+      <c r="M256" s="324"/>
+      <c r="N256" s="324"/>
       <c r="O256" s="119"/>
-      <c r="P256" s="329" t="s">
+      <c r="P256" s="332" t="s">
         <v>172</v>
       </c>
-      <c r="Q256" s="329"/>
-      <c r="R256" s="329"/>
-      <c r="S256" s="329"/>
-      <c r="T256" s="329"/>
-      <c r="U256" s="329"/>
-      <c r="V256" s="329"/>
-      <c r="W256" s="329"/>
-      <c r="X256" s="329"/>
-      <c r="Y256" s="329"/>
-      <c r="Z256" s="329"/>
-      <c r="AA256" s="329"/>
-      <c r="AB256" s="329"/>
-      <c r="AC256" s="329"/>
+      <c r="Q256" s="332"/>
+      <c r="R256" s="332"/>
+      <c r="S256" s="332"/>
+      <c r="T256" s="332"/>
+      <c r="U256" s="332"/>
+      <c r="V256" s="332"/>
+      <c r="W256" s="332"/>
+      <c r="X256" s="332"/>
+      <c r="Y256" s="332"/>
+      <c r="Z256" s="332"/>
+      <c r="AA256" s="332"/>
+      <c r="AB256" s="332"/>
+      <c r="AC256" s="332"/>
       <c r="AD256" s="120"/>
-      <c r="AE256" s="329" t="s">
+      <c r="AE256" s="332" t="s">
         <v>173</v>
       </c>
-      <c r="AF256" s="329"/>
-      <c r="AG256" s="329"/>
-      <c r="AH256" s="329"/>
-      <c r="AI256" s="329"/>
-      <c r="AJ256" s="329"/>
-      <c r="AK256" s="329"/>
-      <c r="AL256" s="329"/>
-      <c r="AM256" s="329"/>
-      <c r="AN256" s="329"/>
-      <c r="AO256" s="329"/>
-      <c r="AP256" s="329"/>
-      <c r="AQ256" s="329"/>
-      <c r="AR256" s="329"/>
+      <c r="AF256" s="332"/>
+      <c r="AG256" s="332"/>
+      <c r="AH256" s="332"/>
+      <c r="AI256" s="332"/>
+      <c r="AJ256" s="332"/>
+      <c r="AK256" s="332"/>
+      <c r="AL256" s="332"/>
+      <c r="AM256" s="332"/>
+      <c r="AN256" s="332"/>
+      <c r="AO256" s="332"/>
+      <c r="AP256" s="332"/>
+      <c r="AQ256" s="332"/>
+      <c r="AR256" s="332"/>
       <c r="AS256" s="119"/>
-      <c r="AT256" s="342" t="s">
+      <c r="AT256" s="345" t="s">
         <v>174</v>
       </c>
-      <c r="AU256" s="342"/>
-      <c r="AV256" s="342"/>
-      <c r="AW256" s="342"/>
-      <c r="AX256" s="342"/>
-      <c r="AY256" s="342"/>
-      <c r="AZ256" s="342"/>
-      <c r="BA256" s="342"/>
-      <c r="BB256" s="342"/>
-      <c r="BC256" s="342"/>
-      <c r="BD256" s="342"/>
-      <c r="BE256" s="342"/>
-      <c r="BF256" s="342"/>
-      <c r="BG256" s="342"/>
+      <c r="AU256" s="345"/>
+      <c r="AV256" s="345"/>
+      <c r="AW256" s="345"/>
+      <c r="AX256" s="345"/>
+      <c r="AY256" s="345"/>
+      <c r="AZ256" s="345"/>
+      <c r="BA256" s="345"/>
+      <c r="BB256" s="345"/>
+      <c r="BC256" s="345"/>
+      <c r="BD256" s="345"/>
+      <c r="BE256" s="345"/>
+      <c r="BF256" s="345"/>
+      <c r="BG256" s="345"/>
       <c r="BH256" s="119"/>
-      <c r="BI256" s="325" t="s">
+      <c r="BI256" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="BJ256" s="325"/>
-      <c r="BK256" s="325"/>
-      <c r="BL256" s="325"/>
-      <c r="BM256" s="325"/>
-      <c r="BN256" s="325"/>
-      <c r="BO256" s="325"/>
-      <c r="BP256" s="325"/>
-      <c r="BQ256" s="325"/>
-      <c r="BR256" s="325"/>
-      <c r="BS256" s="325"/>
-      <c r="BT256" s="325"/>
-      <c r="BU256" s="325"/>
-      <c r="BV256" s="325"/>
+      <c r="BJ256" s="328"/>
+      <c r="BK256" s="328"/>
+      <c r="BL256" s="328"/>
+      <c r="BM256" s="328"/>
+      <c r="BN256" s="328"/>
+      <c r="BO256" s="328"/>
+      <c r="BP256" s="328"/>
+      <c r="BQ256" s="328"/>
+      <c r="BR256" s="328"/>
+      <c r="BS256" s="328"/>
+      <c r="BT256" s="328"/>
+      <c r="BU256" s="328"/>
+      <c r="BV256" s="328"/>
     </row>
     <row r="257" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
@@ -50970,90 +50970,90 @@
       </c>
     </row>
     <row r="271" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="321" t="s">
+      <c r="A271" s="324" t="s">
         <v>176</v>
       </c>
-      <c r="B271" s="321"/>
-      <c r="C271" s="321"/>
-      <c r="D271" s="321"/>
-      <c r="E271" s="321"/>
-      <c r="F271" s="321"/>
-      <c r="G271" s="321"/>
-      <c r="H271" s="321"/>
-      <c r="I271" s="321"/>
-      <c r="J271" s="321"/>
-      <c r="K271" s="321"/>
-      <c r="L271" s="321"/>
-      <c r="M271" s="321"/>
-      <c r="N271" s="321"/>
+      <c r="B271" s="324"/>
+      <c r="C271" s="324"/>
+      <c r="D271" s="324"/>
+      <c r="E271" s="324"/>
+      <c r="F271" s="324"/>
+      <c r="G271" s="324"/>
+      <c r="H271" s="324"/>
+      <c r="I271" s="324"/>
+      <c r="J271" s="324"/>
+      <c r="K271" s="324"/>
+      <c r="L271" s="324"/>
+      <c r="M271" s="324"/>
+      <c r="N271" s="324"/>
       <c r="O271" s="119"/>
-      <c r="P271" s="321" t="s">
+      <c r="P271" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="Q271" s="321"/>
-      <c r="R271" s="321"/>
-      <c r="S271" s="321"/>
-      <c r="T271" s="321"/>
-      <c r="U271" s="321"/>
-      <c r="V271" s="321"/>
-      <c r="W271" s="321"/>
-      <c r="X271" s="321"/>
-      <c r="Y271" s="321"/>
-      <c r="Z271" s="321"/>
-      <c r="AA271" s="321"/>
-      <c r="AB271" s="321"/>
-      <c r="AC271" s="321"/>
+      <c r="Q271" s="324"/>
+      <c r="R271" s="324"/>
+      <c r="S271" s="324"/>
+      <c r="T271" s="324"/>
+      <c r="U271" s="324"/>
+      <c r="V271" s="324"/>
+      <c r="W271" s="324"/>
+      <c r="X271" s="324"/>
+      <c r="Y271" s="324"/>
+      <c r="Z271" s="324"/>
+      <c r="AA271" s="324"/>
+      <c r="AB271" s="324"/>
+      <c r="AC271" s="324"/>
       <c r="AD271" s="120"/>
-      <c r="AE271" s="321" t="s">
+      <c r="AE271" s="324" t="s">
         <v>178</v>
       </c>
-      <c r="AF271" s="321"/>
-      <c r="AG271" s="321"/>
-      <c r="AH271" s="321"/>
-      <c r="AI271" s="321"/>
-      <c r="AJ271" s="321"/>
-      <c r="AK271" s="321"/>
-      <c r="AL271" s="321"/>
-      <c r="AM271" s="321"/>
-      <c r="AN271" s="321"/>
-      <c r="AO271" s="321"/>
-      <c r="AP271" s="321"/>
-      <c r="AQ271" s="321"/>
-      <c r="AR271" s="321"/>
+      <c r="AF271" s="324"/>
+      <c r="AG271" s="324"/>
+      <c r="AH271" s="324"/>
+      <c r="AI271" s="324"/>
+      <c r="AJ271" s="324"/>
+      <c r="AK271" s="324"/>
+      <c r="AL271" s="324"/>
+      <c r="AM271" s="324"/>
+      <c r="AN271" s="324"/>
+      <c r="AO271" s="324"/>
+      <c r="AP271" s="324"/>
+      <c r="AQ271" s="324"/>
+      <c r="AR271" s="324"/>
       <c r="AS271" s="119"/>
-      <c r="AT271" s="321" t="s">
+      <c r="AT271" s="324" t="s">
         <v>179</v>
       </c>
-      <c r="AU271" s="321"/>
-      <c r="AV271" s="321"/>
-      <c r="AW271" s="321"/>
-      <c r="AX271" s="321"/>
-      <c r="AY271" s="321"/>
-      <c r="AZ271" s="321"/>
-      <c r="BA271" s="321"/>
-      <c r="BB271" s="321"/>
-      <c r="BC271" s="321"/>
-      <c r="BD271" s="321"/>
-      <c r="BE271" s="321"/>
-      <c r="BF271" s="321"/>
-      <c r="BG271" s="321"/>
+      <c r="AU271" s="324"/>
+      <c r="AV271" s="324"/>
+      <c r="AW271" s="324"/>
+      <c r="AX271" s="324"/>
+      <c r="AY271" s="324"/>
+      <c r="AZ271" s="324"/>
+      <c r="BA271" s="324"/>
+      <c r="BB271" s="324"/>
+      <c r="BC271" s="324"/>
+      <c r="BD271" s="324"/>
+      <c r="BE271" s="324"/>
+      <c r="BF271" s="324"/>
+      <c r="BG271" s="324"/>
       <c r="BH271"/>
-      <c r="BI271" s="321" t="s">
+      <c r="BI271" s="324" t="s">
         <v>180</v>
       </c>
-      <c r="BJ271" s="321"/>
-      <c r="BK271" s="321"/>
-      <c r="BL271" s="321"/>
-      <c r="BM271" s="321"/>
-      <c r="BN271" s="321"/>
-      <c r="BO271" s="321"/>
-      <c r="BP271" s="321"/>
-      <c r="BQ271" s="321"/>
-      <c r="BR271" s="321"/>
-      <c r="BS271" s="321"/>
-      <c r="BT271" s="321"/>
-      <c r="BU271" s="321"/>
-      <c r="BV271" s="321"/>
+      <c r="BJ271" s="324"/>
+      <c r="BK271" s="324"/>
+      <c r="BL271" s="324"/>
+      <c r="BM271" s="324"/>
+      <c r="BN271" s="324"/>
+      <c r="BO271" s="324"/>
+      <c r="BP271" s="324"/>
+      <c r="BQ271" s="324"/>
+      <c r="BR271" s="324"/>
+      <c r="BS271" s="324"/>
+      <c r="BT271" s="324"/>
+      <c r="BU271" s="324"/>
+      <c r="BV271" s="324"/>
     </row>
     <row r="272" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
@@ -54099,124 +54099,124 @@
       <c r="CZ285" s="296"/>
     </row>
     <row r="286" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="321" t="s">
+      <c r="A286" s="324" t="s">
         <v>181</v>
       </c>
-      <c r="B286" s="321"/>
-      <c r="C286" s="321"/>
-      <c r="D286" s="321"/>
-      <c r="E286" s="321"/>
-      <c r="F286" s="321"/>
-      <c r="G286" s="321"/>
-      <c r="H286" s="321"/>
-      <c r="I286" s="321"/>
-      <c r="J286" s="321"/>
-      <c r="K286" s="321"/>
-      <c r="L286" s="321"/>
-      <c r="M286" s="321"/>
-      <c r="N286" s="321"/>
+      <c r="B286" s="324"/>
+      <c r="C286" s="324"/>
+      <c r="D286" s="324"/>
+      <c r="E286" s="324"/>
+      <c r="F286" s="324"/>
+      <c r="G286" s="324"/>
+      <c r="H286" s="324"/>
+      <c r="I286" s="324"/>
+      <c r="J286" s="324"/>
+      <c r="K286" s="324"/>
+      <c r="L286" s="324"/>
+      <c r="M286" s="324"/>
+      <c r="N286" s="324"/>
       <c r="O286" s="119"/>
-      <c r="P286" s="321" t="s">
+      <c r="P286" s="324" t="s">
         <v>182</v>
       </c>
-      <c r="Q286" s="321"/>
-      <c r="R286" s="321"/>
-      <c r="S286" s="321"/>
-      <c r="T286" s="321"/>
-      <c r="U286" s="321"/>
-      <c r="V286" s="321"/>
-      <c r="W286" s="321"/>
-      <c r="X286" s="321"/>
-      <c r="Y286" s="321"/>
-      <c r="Z286" s="321"/>
-      <c r="AA286" s="321"/>
-      <c r="AB286" s="321"/>
-      <c r="AC286" s="321"/>
+      <c r="Q286" s="324"/>
+      <c r="R286" s="324"/>
+      <c r="S286" s="324"/>
+      <c r="T286" s="324"/>
+      <c r="U286" s="324"/>
+      <c r="V286" s="324"/>
+      <c r="W286" s="324"/>
+      <c r="X286" s="324"/>
+      <c r="Y286" s="324"/>
+      <c r="Z286" s="324"/>
+      <c r="AA286" s="324"/>
+      <c r="AB286" s="324"/>
+      <c r="AC286" s="324"/>
       <c r="AD286" s="120"/>
-      <c r="AE286" s="321" t="s">
+      <c r="AE286" s="324" t="s">
         <v>183</v>
       </c>
-      <c r="AF286" s="321"/>
-      <c r="AG286" s="321"/>
-      <c r="AH286" s="321"/>
-      <c r="AI286" s="321"/>
-      <c r="AJ286" s="321"/>
-      <c r="AK286" s="321"/>
-      <c r="AL286" s="321"/>
-      <c r="AM286" s="321"/>
-      <c r="AN286" s="321"/>
-      <c r="AO286" s="321"/>
-      <c r="AP286" s="321"/>
-      <c r="AQ286" s="321"/>
-      <c r="AR286" s="321"/>
+      <c r="AF286" s="324"/>
+      <c r="AG286" s="324"/>
+      <c r="AH286" s="324"/>
+      <c r="AI286" s="324"/>
+      <c r="AJ286" s="324"/>
+      <c r="AK286" s="324"/>
+      <c r="AL286" s="324"/>
+      <c r="AM286" s="324"/>
+      <c r="AN286" s="324"/>
+      <c r="AO286" s="324"/>
+      <c r="AP286" s="324"/>
+      <c r="AQ286" s="324"/>
+      <c r="AR286" s="324"/>
       <c r="AS286"/>
-      <c r="AT286" s="326" t="s">
+      <c r="AT286" s="329" t="s">
         <v>184</v>
       </c>
-      <c r="AU286" s="326"/>
-      <c r="AV286" s="326"/>
-      <c r="AW286" s="326"/>
-      <c r="AX286" s="326"/>
-      <c r="AY286" s="326"/>
-      <c r="AZ286" s="326"/>
-      <c r="BA286" s="326"/>
-      <c r="BB286" s="326"/>
-      <c r="BC286" s="326"/>
-      <c r="BD286" s="326"/>
-      <c r="BE286" s="326"/>
-      <c r="BF286" s="326"/>
-      <c r="BG286" s="326"/>
+      <c r="AU286" s="329"/>
+      <c r="AV286" s="329"/>
+      <c r="AW286" s="329"/>
+      <c r="AX286" s="329"/>
+      <c r="AY286" s="329"/>
+      <c r="AZ286" s="329"/>
+      <c r="BA286" s="329"/>
+      <c r="BB286" s="329"/>
+      <c r="BC286" s="329"/>
+      <c r="BD286" s="329"/>
+      <c r="BE286" s="329"/>
+      <c r="BF286" s="329"/>
+      <c r="BG286" s="329"/>
       <c r="BH286" s="119"/>
-      <c r="BI286" s="321" t="s">
+      <c r="BI286" s="324" t="s">
         <v>185</v>
       </c>
-      <c r="BJ286" s="321"/>
-      <c r="BK286" s="321"/>
-      <c r="BL286" s="321"/>
-      <c r="BM286" s="321"/>
-      <c r="BN286" s="321"/>
-      <c r="BO286" s="321"/>
-      <c r="BP286" s="321"/>
-      <c r="BQ286" s="321"/>
-      <c r="BR286" s="321"/>
-      <c r="BS286" s="321"/>
-      <c r="BT286" s="321"/>
-      <c r="BU286" s="321"/>
-      <c r="BV286" s="321"/>
+      <c r="BJ286" s="324"/>
+      <c r="BK286" s="324"/>
+      <c r="BL286" s="324"/>
+      <c r="BM286" s="324"/>
+      <c r="BN286" s="324"/>
+      <c r="BO286" s="324"/>
+      <c r="BP286" s="324"/>
+      <c r="BQ286" s="324"/>
+      <c r="BR286" s="324"/>
+      <c r="BS286" s="324"/>
+      <c r="BT286" s="324"/>
+      <c r="BU286" s="324"/>
+      <c r="BV286" s="324"/>
       <c r="BW286"/>
-      <c r="BX286" s="321" t="s">
+      <c r="BX286" s="324" t="s">
         <v>358</v>
       </c>
-      <c r="BY286" s="321"/>
-      <c r="BZ286" s="321"/>
-      <c r="CA286" s="321"/>
-      <c r="CB286" s="321"/>
-      <c r="CC286" s="321"/>
-      <c r="CD286" s="321"/>
-      <c r="CE286" s="321"/>
-      <c r="CF286" s="321"/>
-      <c r="CG286" s="321"/>
-      <c r="CH286" s="321"/>
-      <c r="CI286" s="321"/>
-      <c r="CJ286" s="321"/>
-      <c r="CK286" s="321"/>
+      <c r="BY286" s="324"/>
+      <c r="BZ286" s="324"/>
+      <c r="CA286" s="324"/>
+      <c r="CB286" s="324"/>
+      <c r="CC286" s="324"/>
+      <c r="CD286" s="324"/>
+      <c r="CE286" s="324"/>
+      <c r="CF286" s="324"/>
+      <c r="CG286" s="324"/>
+      <c r="CH286" s="324"/>
+      <c r="CI286" s="324"/>
+      <c r="CJ286" s="324"/>
+      <c r="CK286" s="324"/>
       <c r="CL286"/>
-      <c r="CM286" s="324" t="s">
+      <c r="CM286" s="327" t="s">
         <v>186</v>
       </c>
-      <c r="CN286" s="324"/>
-      <c r="CO286" s="324"/>
-      <c r="CP286" s="324"/>
-      <c r="CQ286" s="324"/>
-      <c r="CR286" s="324"/>
-      <c r="CS286" s="324"/>
-      <c r="CT286" s="324"/>
-      <c r="CU286" s="324"/>
-      <c r="CV286" s="324"/>
-      <c r="CW286" s="324"/>
-      <c r="CX286" s="324"/>
-      <c r="CY286" s="324"/>
-      <c r="CZ286" s="324"/>
+      <c r="CN286" s="327"/>
+      <c r="CO286" s="327"/>
+      <c r="CP286" s="327"/>
+      <c r="CQ286" s="327"/>
+      <c r="CR286" s="327"/>
+      <c r="CS286" s="327"/>
+      <c r="CT286" s="327"/>
+      <c r="CU286" s="327"/>
+      <c r="CV286" s="327"/>
+      <c r="CW286" s="327"/>
+      <c r="CX286" s="327"/>
+      <c r="CY286" s="327"/>
+      <c r="CZ286" s="327"/>
     </row>
     <row r="287" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
@@ -58480,37 +58480,37 @@
       <c r="BF302" s="288"/>
       <c r="BG302" s="288"/>
       <c r="BH302" s="66"/>
-      <c r="BI302" s="322" t="s">
+      <c r="BI302" s="325" t="s">
         <v>360</v>
       </c>
-      <c r="BJ302" s="322"/>
-      <c r="BK302" s="322"/>
-      <c r="BL302" s="322"/>
-      <c r="BM302" s="322"/>
-      <c r="BN302" s="322"/>
-      <c r="BO302" s="322"/>
-      <c r="BP302" s="322"/>
-      <c r="BQ302" s="322"/>
-      <c r="BR302" s="322"/>
-      <c r="BS302" s="322"/>
-      <c r="BT302" s="322"/>
-      <c r="BU302" s="322"/>
-      <c r="BV302" s="322"/>
-      <c r="BW302" s="322"/>
-      <c r="BX302" s="322"/>
-      <c r="BY302" s="322"/>
-      <c r="BZ302" s="322"/>
-      <c r="CA302" s="322"/>
-      <c r="CB302" s="322"/>
-      <c r="CC302" s="322"/>
-      <c r="CD302" s="322"/>
-      <c r="CE302" s="322"/>
-      <c r="CF302" s="322"/>
-      <c r="CG302" s="322"/>
-      <c r="CH302" s="322"/>
-      <c r="CI302" s="322"/>
-      <c r="CJ302" s="322"/>
-      <c r="CK302" s="322"/>
+      <c r="BJ302" s="325"/>
+      <c r="BK302" s="325"/>
+      <c r="BL302" s="325"/>
+      <c r="BM302" s="325"/>
+      <c r="BN302" s="325"/>
+      <c r="BO302" s="325"/>
+      <c r="BP302" s="325"/>
+      <c r="BQ302" s="325"/>
+      <c r="BR302" s="325"/>
+      <c r="BS302" s="325"/>
+      <c r="BT302" s="325"/>
+      <c r="BU302" s="325"/>
+      <c r="BV302" s="325"/>
+      <c r="BW302" s="325"/>
+      <c r="BX302" s="325"/>
+      <c r="BY302" s="325"/>
+      <c r="BZ302" s="325"/>
+      <c r="CA302" s="325"/>
+      <c r="CB302" s="325"/>
+      <c r="CC302" s="325"/>
+      <c r="CD302" s="325"/>
+      <c r="CE302" s="325"/>
+      <c r="CF302" s="325"/>
+      <c r="CG302" s="325"/>
+      <c r="CH302" s="325"/>
+      <c r="CI302" s="325"/>
+      <c r="CJ302" s="325"/>
+      <c r="CK302" s="325"/>
       <c r="CL302" s="66"/>
     </row>
     <row r="303" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -58557,55 +58557,55 @@
       <c r="BF303" s="274"/>
       <c r="BG303" s="274"/>
       <c r="BH303" s="107"/>
-      <c r="BI303" s="321" t="s">
+      <c r="BI303" s="324" t="s">
         <v>359</v>
       </c>
-      <c r="BJ303" s="321"/>
-      <c r="BK303" s="321"/>
-      <c r="BL303" s="321"/>
-      <c r="BM303" s="321"/>
-      <c r="BN303" s="321"/>
-      <c r="BO303" s="321"/>
-      <c r="BP303" s="321"/>
-      <c r="BQ303" s="321"/>
-      <c r="BR303" s="321"/>
-      <c r="BS303" s="321"/>
-      <c r="BT303" s="321"/>
-      <c r="BU303" s="321"/>
-      <c r="BV303" s="321"/>
-      <c r="BX303" s="321" t="s">
+      <c r="BJ303" s="324"/>
+      <c r="BK303" s="324"/>
+      <c r="BL303" s="324"/>
+      <c r="BM303" s="324"/>
+      <c r="BN303" s="324"/>
+      <c r="BO303" s="324"/>
+      <c r="BP303" s="324"/>
+      <c r="BQ303" s="324"/>
+      <c r="BR303" s="324"/>
+      <c r="BS303" s="324"/>
+      <c r="BT303" s="324"/>
+      <c r="BU303" s="324"/>
+      <c r="BV303" s="324"/>
+      <c r="BX303" s="324" t="s">
         <v>287</v>
       </c>
-      <c r="BY303" s="321"/>
-      <c r="BZ303" s="321"/>
-      <c r="CA303" s="321"/>
-      <c r="CB303" s="321"/>
-      <c r="CC303" s="321"/>
-      <c r="CD303" s="321"/>
-      <c r="CE303" s="321"/>
-      <c r="CF303" s="321"/>
-      <c r="CG303" s="321"/>
-      <c r="CH303" s="321"/>
-      <c r="CI303" s="321"/>
-      <c r="CJ303" s="321"/>
-      <c r="CK303" s="321"/>
+      <c r="BY303" s="324"/>
+      <c r="BZ303" s="324"/>
+      <c r="CA303" s="324"/>
+      <c r="CB303" s="324"/>
+      <c r="CC303" s="324"/>
+      <c r="CD303" s="324"/>
+      <c r="CE303" s="324"/>
+      <c r="CF303" s="324"/>
+      <c r="CG303" s="324"/>
+      <c r="CH303" s="324"/>
+      <c r="CI303" s="324"/>
+      <c r="CJ303" s="324"/>
+      <c r="CK303" s="324"/>
       <c r="CL303" s="294"/>
-      <c r="CM303" s="321" t="s">
+      <c r="CM303" s="324" t="s">
         <v>293</v>
       </c>
-      <c r="CN303" s="321"/>
-      <c r="CO303" s="321"/>
-      <c r="CP303" s="321"/>
-      <c r="CQ303" s="321"/>
-      <c r="CR303" s="321"/>
-      <c r="CS303" s="321"/>
-      <c r="CT303" s="321"/>
-      <c r="CU303" s="321"/>
-      <c r="CV303" s="321"/>
-      <c r="CW303" s="321"/>
-      <c r="CX303" s="321"/>
-      <c r="CY303" s="321"/>
-      <c r="CZ303" s="321"/>
+      <c r="CN303" s="324"/>
+      <c r="CO303" s="324"/>
+      <c r="CP303" s="324"/>
+      <c r="CQ303" s="324"/>
+      <c r="CR303" s="324"/>
+      <c r="CS303" s="324"/>
+      <c r="CT303" s="324"/>
+      <c r="CU303" s="324"/>
+      <c r="CV303" s="324"/>
+      <c r="CW303" s="324"/>
+      <c r="CX303" s="324"/>
+      <c r="CY303" s="324"/>
+      <c r="CZ303" s="324"/>
     </row>
     <row r="304" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="77"/>
@@ -60909,37 +60909,37 @@
       <c r="BF318" s="288"/>
       <c r="BG318" s="288"/>
       <c r="BH318" s="66"/>
-      <c r="BI318" s="322" t="s">
+      <c r="BI318" s="325" t="s">
         <v>361</v>
       </c>
-      <c r="BJ318" s="322"/>
-      <c r="BK318" s="322"/>
-      <c r="BL318" s="322"/>
-      <c r="BM318" s="322"/>
-      <c r="BN318" s="322"/>
-      <c r="BO318" s="322"/>
-      <c r="BP318" s="322"/>
-      <c r="BQ318" s="322"/>
-      <c r="BR318" s="322"/>
-      <c r="BS318" s="322"/>
-      <c r="BT318" s="322"/>
-      <c r="BU318" s="322"/>
-      <c r="BV318" s="322"/>
-      <c r="BW318" s="322"/>
-      <c r="BX318" s="322"/>
-      <c r="BY318" s="322"/>
-      <c r="BZ318" s="322"/>
-      <c r="CA318" s="322"/>
-      <c r="CB318" s="322"/>
-      <c r="CC318" s="322"/>
-      <c r="CD318" s="322"/>
-      <c r="CE318" s="322"/>
-      <c r="CF318" s="322"/>
-      <c r="CG318" s="322"/>
-      <c r="CH318" s="322"/>
-      <c r="CI318" s="322"/>
-      <c r="CJ318" s="322"/>
-      <c r="CK318" s="322"/>
+      <c r="BJ318" s="325"/>
+      <c r="BK318" s="325"/>
+      <c r="BL318" s="325"/>
+      <c r="BM318" s="325"/>
+      <c r="BN318" s="325"/>
+      <c r="BO318" s="325"/>
+      <c r="BP318" s="325"/>
+      <c r="BQ318" s="325"/>
+      <c r="BR318" s="325"/>
+      <c r="BS318" s="325"/>
+      <c r="BT318" s="325"/>
+      <c r="BU318" s="325"/>
+      <c r="BV318" s="325"/>
+      <c r="BW318" s="325"/>
+      <c r="BX318" s="325"/>
+      <c r="BY318" s="325"/>
+      <c r="BZ318" s="325"/>
+      <c r="CA318" s="325"/>
+      <c r="CB318" s="325"/>
+      <c r="CC318" s="325"/>
+      <c r="CD318" s="325"/>
+      <c r="CE318" s="325"/>
+      <c r="CF318" s="325"/>
+      <c r="CG318" s="325"/>
+      <c r="CH318" s="325"/>
+      <c r="CI318" s="325"/>
+      <c r="CJ318" s="325"/>
+      <c r="CK318" s="325"/>
       <c r="CL318" s="295"/>
       <c r="CM318" s="293"/>
       <c r="CN318" s="293"/>
@@ -60985,55 +60985,55 @@
       <c r="BE319" s="274"/>
       <c r="BF319" s="274"/>
       <c r="BG319" s="274"/>
-      <c r="BI319" s="321" t="s">
+      <c r="BI319" s="324" t="s">
         <v>359</v>
       </c>
-      <c r="BJ319" s="321"/>
-      <c r="BK319" s="321"/>
-      <c r="BL319" s="321"/>
-      <c r="BM319" s="321"/>
-      <c r="BN319" s="321"/>
-      <c r="BO319" s="321"/>
-      <c r="BP319" s="321"/>
-      <c r="BQ319" s="321"/>
-      <c r="BR319" s="321"/>
-      <c r="BS319" s="321"/>
-      <c r="BT319" s="321"/>
-      <c r="BU319" s="321"/>
-      <c r="BV319" s="321"/>
-      <c r="BX319" s="321" t="s">
+      <c r="BJ319" s="324"/>
+      <c r="BK319" s="324"/>
+      <c r="BL319" s="324"/>
+      <c r="BM319" s="324"/>
+      <c r="BN319" s="324"/>
+      <c r="BO319" s="324"/>
+      <c r="BP319" s="324"/>
+      <c r="BQ319" s="324"/>
+      <c r="BR319" s="324"/>
+      <c r="BS319" s="324"/>
+      <c r="BT319" s="324"/>
+      <c r="BU319" s="324"/>
+      <c r="BV319" s="324"/>
+      <c r="BX319" s="324" t="s">
         <v>287</v>
       </c>
-      <c r="BY319" s="321"/>
-      <c r="BZ319" s="321"/>
-      <c r="CA319" s="321"/>
-      <c r="CB319" s="321"/>
-      <c r="CC319" s="321"/>
-      <c r="CD319" s="321"/>
-      <c r="CE319" s="321"/>
-      <c r="CF319" s="321"/>
-      <c r="CG319" s="321"/>
-      <c r="CH319" s="321"/>
-      <c r="CI319" s="321"/>
-      <c r="CJ319" s="321"/>
-      <c r="CK319" s="321"/>
+      <c r="BY319" s="324"/>
+      <c r="BZ319" s="324"/>
+      <c r="CA319" s="324"/>
+      <c r="CB319" s="324"/>
+      <c r="CC319" s="324"/>
+      <c r="CD319" s="324"/>
+      <c r="CE319" s="324"/>
+      <c r="CF319" s="324"/>
+      <c r="CG319" s="324"/>
+      <c r="CH319" s="324"/>
+      <c r="CI319" s="324"/>
+      <c r="CJ319" s="324"/>
+      <c r="CK319" s="324"/>
       <c r="CL319" s="294"/>
-      <c r="CM319" s="323" t="s">
+      <c r="CM319" s="326" t="s">
         <v>291</v>
       </c>
-      <c r="CN319" s="323"/>
-      <c r="CO319" s="323"/>
-      <c r="CP319" s="323"/>
-      <c r="CQ319" s="323"/>
-      <c r="CR319" s="323"/>
-      <c r="CS319" s="323"/>
-      <c r="CT319" s="323"/>
-      <c r="CU319" s="323"/>
-      <c r="CV319" s="323"/>
-      <c r="CW319" s="323"/>
-      <c r="CX319" s="323"/>
-      <c r="CY319" s="323"/>
-      <c r="CZ319" s="323"/>
+      <c r="CN319" s="326"/>
+      <c r="CO319" s="326"/>
+      <c r="CP319" s="326"/>
+      <c r="CQ319" s="326"/>
+      <c r="CR319" s="326"/>
+      <c r="CS319" s="326"/>
+      <c r="CT319" s="326"/>
+      <c r="CU319" s="326"/>
+      <c r="CV319" s="326"/>
+      <c r="CW319" s="326"/>
+      <c r="CX319" s="326"/>
+      <c r="CY319" s="326"/>
+      <c r="CZ319" s="326"/>
     </row>
     <row r="320" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="77"/>
@@ -63216,37 +63216,37 @@
       <c r="BF334" s="66"/>
       <c r="BG334" s="66"/>
       <c r="BH334" s="66"/>
-      <c r="BI334" s="322" t="s">
+      <c r="BI334" s="325" t="s">
         <v>362</v>
       </c>
-      <c r="BJ334" s="322"/>
-      <c r="BK334" s="322"/>
-      <c r="BL334" s="322"/>
-      <c r="BM334" s="322"/>
-      <c r="BN334" s="322"/>
-      <c r="BO334" s="322"/>
-      <c r="BP334" s="322"/>
-      <c r="BQ334" s="322"/>
-      <c r="BR334" s="322"/>
-      <c r="BS334" s="322"/>
-      <c r="BT334" s="322"/>
-      <c r="BU334" s="322"/>
-      <c r="BV334" s="322"/>
-      <c r="BW334" s="322"/>
-      <c r="BX334" s="322"/>
-      <c r="BY334" s="322"/>
-      <c r="BZ334" s="322"/>
-      <c r="CA334" s="322"/>
-      <c r="CB334" s="322"/>
-      <c r="CC334" s="322"/>
-      <c r="CD334" s="322"/>
-      <c r="CE334" s="322"/>
-      <c r="CF334" s="322"/>
-      <c r="CG334" s="322"/>
-      <c r="CH334" s="322"/>
-      <c r="CI334" s="322"/>
-      <c r="CJ334" s="322"/>
-      <c r="CK334" s="322"/>
+      <c r="BJ334" s="325"/>
+      <c r="BK334" s="325"/>
+      <c r="BL334" s="325"/>
+      <c r="BM334" s="325"/>
+      <c r="BN334" s="325"/>
+      <c r="BO334" s="325"/>
+      <c r="BP334" s="325"/>
+      <c r="BQ334" s="325"/>
+      <c r="BR334" s="325"/>
+      <c r="BS334" s="325"/>
+      <c r="BT334" s="325"/>
+      <c r="BU334" s="325"/>
+      <c r="BV334" s="325"/>
+      <c r="BW334" s="325"/>
+      <c r="BX334" s="325"/>
+      <c r="BY334" s="325"/>
+      <c r="BZ334" s="325"/>
+      <c r="CA334" s="325"/>
+      <c r="CB334" s="325"/>
+      <c r="CC334" s="325"/>
+      <c r="CD334" s="325"/>
+      <c r="CE334" s="325"/>
+      <c r="CF334" s="325"/>
+      <c r="CG334" s="325"/>
+      <c r="CH334" s="325"/>
+      <c r="CI334" s="325"/>
+      <c r="CJ334" s="325"/>
+      <c r="CK334" s="325"/>
       <c r="CL334" s="294"/>
     </row>
     <row r="335" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -63280,38 +63280,38 @@
       <c r="BF335" s="274"/>
       <c r="BG335" s="274"/>
       <c r="BH335" s="107"/>
-      <c r="BI335" s="323" t="s">
+      <c r="BI335" s="326" t="s">
         <v>359</v>
       </c>
-      <c r="BJ335" s="323"/>
-      <c r="BK335" s="323"/>
-      <c r="BL335" s="323"/>
-      <c r="BM335" s="323"/>
-      <c r="BN335" s="323"/>
-      <c r="BO335" s="323"/>
-      <c r="BP335" s="323"/>
-      <c r="BQ335" s="323"/>
-      <c r="BR335" s="323"/>
-      <c r="BS335" s="323"/>
-      <c r="BT335" s="323"/>
-      <c r="BU335" s="323"/>
-      <c r="BV335" s="323"/>
-      <c r="BX335" s="323" t="s">
+      <c r="BJ335" s="326"/>
+      <c r="BK335" s="326"/>
+      <c r="BL335" s="326"/>
+      <c r="BM335" s="326"/>
+      <c r="BN335" s="326"/>
+      <c r="BO335" s="326"/>
+      <c r="BP335" s="326"/>
+      <c r="BQ335" s="326"/>
+      <c r="BR335" s="326"/>
+      <c r="BS335" s="326"/>
+      <c r="BT335" s="326"/>
+      <c r="BU335" s="326"/>
+      <c r="BV335" s="326"/>
+      <c r="BX335" s="326" t="s">
         <v>287</v>
       </c>
-      <c r="BY335" s="323"/>
-      <c r="BZ335" s="323"/>
-      <c r="CA335" s="323"/>
-      <c r="CB335" s="323"/>
-      <c r="CC335" s="323"/>
-      <c r="CD335" s="323"/>
-      <c r="CE335" s="323"/>
-      <c r="CF335" s="323"/>
-      <c r="CG335" s="323"/>
-      <c r="CH335" s="323"/>
-      <c r="CI335" s="323"/>
-      <c r="CJ335" s="323"/>
-      <c r="CK335" s="323"/>
+      <c r="BY335" s="326"/>
+      <c r="BZ335" s="326"/>
+      <c r="CA335" s="326"/>
+      <c r="CB335" s="326"/>
+      <c r="CC335" s="326"/>
+      <c r="CD335" s="326"/>
+      <c r="CE335" s="326"/>
+      <c r="CF335" s="326"/>
+      <c r="CG335" s="326"/>
+      <c r="CH335" s="326"/>
+      <c r="CI335" s="326"/>
+      <c r="CJ335" s="326"/>
+      <c r="CK335" s="326"/>
     </row>
     <row r="336" spans="1:104" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AE336" s="77"/>

--- a/pAd/bin/Debug/Data/SPINRANGES.xlsx
+++ b/pAd/bin/Debug/Data/SPINRANGES.xlsx
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK93" sqref="AK93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -39268,7 +39268,7 @@
       <c r="F186" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G186" s="38" t="s">
+      <c r="G186" s="67" t="s">
         <v>65</v>
       </c>
       <c r="H186" s="67" t="s">

--- a/pAd/bin/Debug/Data/SPINRANGES.xlsx
+++ b/pAd/bin/Debug/Data/SPINRANGES.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21063" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21063" uniqueCount="391">
   <si>
     <t>A</t>
   </si>
@@ -1286,6 +1286,15 @@
   <si>
     <t>BB vs MinRaise OOP(HU) 10.5-12 bb OPEN &gt;60 CBET&lt;55</t>
   </si>
+  <si>
+    <t>SB vs MinR after Limp IP 14-16b unexpl</t>
+  </si>
+  <si>
+    <t>SB CALL Vspush after LIMP IP 12-14b unexpl</t>
+  </si>
+  <si>
+    <t>SB CALL Vspush after LIMP IP 14-16b unexpl</t>
+  </si>
 </sst>
 </file>
 
@@ -1437,7 +1446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,6 +1618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,7 +1885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2913,7 +2928,31 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="27" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2931,25 +2970,22 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2958,10 +2994,16 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2973,22 +3015,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3003,8 +3030,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3380,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE300" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CO318" sqref="CO318"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BN409" sqref="BN409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3391,70 +3418,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="360"/>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="360"/>
-      <c r="O1" s="360"/>
-      <c r="P1" s="360"/>
-      <c r="Q1" s="360"/>
-      <c r="R1" s="360"/>
-      <c r="S1" s="360"/>
-      <c r="T1" s="360"/>
-      <c r="U1" s="360"/>
-      <c r="V1" s="360"/>
-      <c r="W1" s="360"/>
-      <c r="X1" s="360"/>
-      <c r="Y1" s="360"/>
-      <c r="Z1" s="360"/>
-      <c r="AA1" s="360"/>
-      <c r="AB1" s="360"/>
-      <c r="AC1" s="360"/>
-      <c r="AD1" s="360"/>
+      <c r="A1" s="376"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="376"/>
+      <c r="Q1" s="376"/>
+      <c r="R1" s="376"/>
+      <c r="S1" s="376"/>
+      <c r="T1" s="376"/>
+      <c r="U1" s="376"/>
+      <c r="V1" s="376"/>
+      <c r="W1" s="376"/>
+      <c r="X1" s="376"/>
+      <c r="Y1" s="376"/>
+      <c r="Z1" s="376"/>
+      <c r="AA1" s="376"/>
+      <c r="AB1" s="376"/>
+      <c r="AC1" s="376"/>
+      <c r="AD1" s="376"/>
     </row>
     <row r="17" spans="1:94" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="360" t="s">
+      <c r="A17" s="376" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="360"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="360"/>
-      <c r="H17" s="360"/>
-      <c r="I17" s="360"/>
-      <c r="J17" s="360"/>
-      <c r="K17" s="360"/>
-      <c r="L17" s="360"/>
-      <c r="M17" s="360"/>
-      <c r="N17" s="360"/>
-      <c r="O17" s="360"/>
-      <c r="P17" s="360"/>
-      <c r="Q17" s="360"/>
-      <c r="R17" s="360"/>
-      <c r="S17" s="360"/>
-      <c r="T17" s="360"/>
-      <c r="U17" s="360"/>
-      <c r="V17" s="360"/>
-      <c r="W17" s="360"/>
-      <c r="X17" s="360"/>
-      <c r="Y17" s="360"/>
-      <c r="Z17" s="360"/>
-      <c r="AA17" s="360"/>
-      <c r="AB17" s="360"/>
-      <c r="AC17" s="360"/>
-      <c r="AD17" s="360"/>
+      <c r="B17" s="376"/>
+      <c r="C17" s="376"/>
+      <c r="D17" s="376"/>
+      <c r="E17" s="376"/>
+      <c r="F17" s="376"/>
+      <c r="G17" s="376"/>
+      <c r="H17" s="376"/>
+      <c r="I17" s="376"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="376"/>
+      <c r="M17" s="376"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="376"/>
+      <c r="P17" s="376"/>
+      <c r="Q17" s="376"/>
+      <c r="R17" s="376"/>
+      <c r="S17" s="376"/>
+      <c r="T17" s="376"/>
+      <c r="U17" s="376"/>
+      <c r="V17" s="376"/>
+      <c r="W17" s="376"/>
+      <c r="X17" s="376"/>
+      <c r="Y17" s="376"/>
+      <c r="Z17" s="376"/>
+      <c r="AA17" s="376"/>
+      <c r="AB17" s="376"/>
+      <c r="AC17" s="376"/>
+      <c r="AD17" s="376"/>
       <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
@@ -3521,70 +3548,70 @@
       <c r="CP17" s="66"/>
     </row>
     <row r="18" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="384" t="s">
+      <c r="A18" s="382" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="384"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="384"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="384"/>
-      <c r="J18" s="384"/>
-      <c r="K18" s="384"/>
-      <c r="L18" s="384"/>
-      <c r="M18" s="384"/>
-      <c r="N18" s="384"/>
-      <c r="P18" s="384" t="s">
+      <c r="B18" s="382"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="382"/>
+      <c r="K18" s="382"/>
+      <c r="L18" s="382"/>
+      <c r="M18" s="382"/>
+      <c r="N18" s="382"/>
+      <c r="P18" s="382" t="s">
         <v>246</v>
       </c>
-      <c r="Q18" s="384"/>
-      <c r="R18" s="384"/>
-      <c r="S18" s="384"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="384"/>
-      <c r="V18" s="384"/>
-      <c r="W18" s="384"/>
-      <c r="X18" s="384"/>
-      <c r="Y18" s="384"/>
-      <c r="Z18" s="384"/>
-      <c r="AA18" s="384"/>
-      <c r="AB18" s="384"/>
-      <c r="AC18" s="384"/>
-      <c r="AE18" s="366" t="s">
+      <c r="Q18" s="382"/>
+      <c r="R18" s="382"/>
+      <c r="S18" s="382"/>
+      <c r="T18" s="382"/>
+      <c r="U18" s="382"/>
+      <c r="V18" s="382"/>
+      <c r="W18" s="382"/>
+      <c r="X18" s="382"/>
+      <c r="Y18" s="382"/>
+      <c r="Z18" s="382"/>
+      <c r="AA18" s="382"/>
+      <c r="AB18" s="382"/>
+      <c r="AC18" s="382"/>
+      <c r="AE18" s="365" t="s">
         <v>247</v>
       </c>
-      <c r="AF18" s="366"/>
-      <c r="AG18" s="366"/>
-      <c r="AH18" s="366"/>
-      <c r="AI18" s="366"/>
-      <c r="AJ18" s="366"/>
-      <c r="AK18" s="366"/>
-      <c r="AL18" s="366"/>
-      <c r="AM18" s="366"/>
-      <c r="AN18" s="366"/>
-      <c r="AO18" s="366"/>
-      <c r="AP18" s="366"/>
-      <c r="AQ18" s="366"/>
-      <c r="AR18" s="366"/>
-      <c r="AT18" s="374" t="s">
+      <c r="AF18" s="365"/>
+      <c r="AG18" s="365"/>
+      <c r="AH18" s="365"/>
+      <c r="AI18" s="365"/>
+      <c r="AJ18" s="365"/>
+      <c r="AK18" s="365"/>
+      <c r="AL18" s="365"/>
+      <c r="AM18" s="365"/>
+      <c r="AN18" s="365"/>
+      <c r="AO18" s="365"/>
+      <c r="AP18" s="365"/>
+      <c r="AQ18" s="365"/>
+      <c r="AR18" s="365"/>
+      <c r="AT18" s="381" t="s">
         <v>248</v>
       </c>
-      <c r="AU18" s="374"/>
-      <c r="AV18" s="374"/>
-      <c r="AW18" s="374"/>
-      <c r="AX18" s="374"/>
-      <c r="AY18" s="374"/>
-      <c r="AZ18" s="374"/>
-      <c r="BA18" s="374"/>
-      <c r="BB18" s="374"/>
-      <c r="BC18" s="374"/>
-      <c r="BD18" s="374"/>
-      <c r="BE18" s="374"/>
-      <c r="BF18" s="374"/>
-      <c r="BG18" s="374"/>
+      <c r="AU18" s="381"/>
+      <c r="AV18" s="381"/>
+      <c r="AW18" s="381"/>
+      <c r="AX18" s="381"/>
+      <c r="AY18" s="381"/>
+      <c r="AZ18" s="381"/>
+      <c r="BA18" s="381"/>
+      <c r="BB18" s="381"/>
+      <c r="BC18" s="381"/>
+      <c r="BD18" s="381"/>
+      <c r="BE18" s="381"/>
+      <c r="BF18" s="381"/>
+      <c r="BG18" s="381"/>
     </row>
     <row r="19" spans="1:94" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -5960,54 +5987,54 @@
     </row>
     <row r="33" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="384" t="s">
+      <c r="P34" s="382" t="s">
         <v>250</v>
       </c>
-      <c r="Q34" s="384"/>
-      <c r="R34" s="384"/>
-      <c r="S34" s="384"/>
-      <c r="T34" s="384"/>
-      <c r="U34" s="384"/>
-      <c r="V34" s="384"/>
-      <c r="W34" s="384"/>
-      <c r="X34" s="384"/>
-      <c r="Y34" s="384"/>
-      <c r="Z34" s="384"/>
-      <c r="AA34" s="384"/>
-      <c r="AB34" s="384"/>
-      <c r="AC34" s="384"/>
-      <c r="AE34" s="366" t="s">
+      <c r="Q34" s="382"/>
+      <c r="R34" s="382"/>
+      <c r="S34" s="382"/>
+      <c r="T34" s="382"/>
+      <c r="U34" s="382"/>
+      <c r="V34" s="382"/>
+      <c r="W34" s="382"/>
+      <c r="X34" s="382"/>
+      <c r="Y34" s="382"/>
+      <c r="Z34" s="382"/>
+      <c r="AA34" s="382"/>
+      <c r="AB34" s="382"/>
+      <c r="AC34" s="382"/>
+      <c r="AE34" s="365" t="s">
         <v>249</v>
       </c>
-      <c r="AF34" s="366"/>
-      <c r="AG34" s="366"/>
-      <c r="AH34" s="366"/>
-      <c r="AI34" s="366"/>
-      <c r="AJ34" s="366"/>
-      <c r="AK34" s="366"/>
-      <c r="AL34" s="366"/>
-      <c r="AM34" s="366"/>
-      <c r="AN34" s="366"/>
-      <c r="AO34" s="366"/>
-      <c r="AP34" s="366"/>
-      <c r="AQ34" s="366"/>
-      <c r="AR34" s="366"/>
-      <c r="AT34" s="371" t="s">
+      <c r="AF34" s="365"/>
+      <c r="AG34" s="365"/>
+      <c r="AH34" s="365"/>
+      <c r="AI34" s="365"/>
+      <c r="AJ34" s="365"/>
+      <c r="AK34" s="365"/>
+      <c r="AL34" s="365"/>
+      <c r="AM34" s="365"/>
+      <c r="AN34" s="365"/>
+      <c r="AO34" s="365"/>
+      <c r="AP34" s="365"/>
+      <c r="AQ34" s="365"/>
+      <c r="AR34" s="365"/>
+      <c r="AT34" s="379" t="s">
         <v>138</v>
       </c>
-      <c r="AU34" s="371"/>
-      <c r="AV34" s="371"/>
-      <c r="AW34" s="371"/>
-      <c r="AX34" s="371"/>
-      <c r="AY34" s="371"/>
-      <c r="AZ34" s="371"/>
-      <c r="BA34" s="371"/>
-      <c r="BB34" s="371"/>
-      <c r="BC34" s="371"/>
-      <c r="BD34" s="371"/>
-      <c r="BE34" s="371"/>
-      <c r="BF34" s="371"/>
-      <c r="BG34" s="371"/>
+      <c r="AU34" s="379"/>
+      <c r="AV34" s="379"/>
+      <c r="AW34" s="379"/>
+      <c r="AX34" s="379"/>
+      <c r="AY34" s="379"/>
+      <c r="AZ34" s="379"/>
+      <c r="BA34" s="379"/>
+      <c r="BB34" s="379"/>
+      <c r="BC34" s="379"/>
+      <c r="BD34" s="379"/>
+      <c r="BE34" s="379"/>
+      <c r="BF34" s="379"/>
+      <c r="BG34" s="379"/>
     </row>
     <row r="35" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P35" s="1"/>
@@ -7796,102 +7823,102 @@
       </c>
     </row>
     <row r="49" spans="16:59" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P49" s="378" t="s">
+      <c r="P49" s="387" t="s">
         <v>357</v>
       </c>
-      <c r="Q49" s="378"/>
-      <c r="R49" s="378"/>
-      <c r="S49" s="378"/>
-      <c r="T49" s="378"/>
-      <c r="U49" s="378"/>
-      <c r="V49" s="378"/>
-      <c r="W49" s="378"/>
-      <c r="X49" s="378"/>
-      <c r="Y49" s="378"/>
-      <c r="Z49" s="378"/>
-      <c r="AA49" s="378"/>
-      <c r="AB49" s="378"/>
-      <c r="AC49" s="378"/>
-      <c r="AD49" s="378"/>
-      <c r="AE49" s="378"/>
-      <c r="AF49" s="378"/>
-      <c r="AG49" s="378"/>
-      <c r="AH49" s="378"/>
-      <c r="AI49" s="378"/>
-      <c r="AJ49" s="378"/>
-      <c r="AK49" s="378"/>
-      <c r="AL49" s="378"/>
-      <c r="AM49" s="378"/>
-      <c r="AN49" s="378"/>
-      <c r="AO49" s="378"/>
-      <c r="AP49" s="378"/>
-      <c r="AQ49" s="378"/>
-      <c r="AR49" s="378"/>
-      <c r="AS49" s="378"/>
-      <c r="AT49" s="378"/>
-      <c r="AU49" s="378"/>
-      <c r="AV49" s="378"/>
-      <c r="AW49" s="378"/>
-      <c r="AX49" s="378"/>
-      <c r="AY49" s="378"/>
-      <c r="AZ49" s="378"/>
-      <c r="BA49" s="378"/>
-      <c r="BB49" s="378"/>
-      <c r="BC49" s="378"/>
-      <c r="BD49" s="378"/>
-      <c r="BE49" s="378"/>
-      <c r="BF49" s="378"/>
-      <c r="BG49" s="378"/>
+      <c r="Q49" s="387"/>
+      <c r="R49" s="387"/>
+      <c r="S49" s="387"/>
+      <c r="T49" s="387"/>
+      <c r="U49" s="387"/>
+      <c r="V49" s="387"/>
+      <c r="W49" s="387"/>
+      <c r="X49" s="387"/>
+      <c r="Y49" s="387"/>
+      <c r="Z49" s="387"/>
+      <c r="AA49" s="387"/>
+      <c r="AB49" s="387"/>
+      <c r="AC49" s="387"/>
+      <c r="AD49" s="387"/>
+      <c r="AE49" s="387"/>
+      <c r="AF49" s="387"/>
+      <c r="AG49" s="387"/>
+      <c r="AH49" s="387"/>
+      <c r="AI49" s="387"/>
+      <c r="AJ49" s="387"/>
+      <c r="AK49" s="387"/>
+      <c r="AL49" s="387"/>
+      <c r="AM49" s="387"/>
+      <c r="AN49" s="387"/>
+      <c r="AO49" s="387"/>
+      <c r="AP49" s="387"/>
+      <c r="AQ49" s="387"/>
+      <c r="AR49" s="387"/>
+      <c r="AS49" s="387"/>
+      <c r="AT49" s="387"/>
+      <c r="AU49" s="387"/>
+      <c r="AV49" s="387"/>
+      <c r="AW49" s="387"/>
+      <c r="AX49" s="387"/>
+      <c r="AY49" s="387"/>
+      <c r="AZ49" s="387"/>
+      <c r="BA49" s="387"/>
+      <c r="BB49" s="387"/>
+      <c r="BC49" s="387"/>
+      <c r="BD49" s="387"/>
+      <c r="BE49" s="387"/>
+      <c r="BF49" s="387"/>
+      <c r="BG49" s="387"/>
     </row>
     <row r="50" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P50" s="371" t="s">
+      <c r="P50" s="379" t="s">
         <v>360</v>
       </c>
-      <c r="Q50" s="371"/>
-      <c r="R50" s="371"/>
-      <c r="S50" s="371"/>
-      <c r="T50" s="371"/>
-      <c r="U50" s="371"/>
-      <c r="V50" s="371"/>
-      <c r="W50" s="371"/>
-      <c r="X50" s="371"/>
-      <c r="Y50" s="371"/>
-      <c r="Z50" s="371"/>
-      <c r="AA50" s="371"/>
-      <c r="AB50" s="371"/>
-      <c r="AC50" s="371"/>
-      <c r="AE50" s="371" t="s">
+      <c r="Q50" s="379"/>
+      <c r="R50" s="379"/>
+      <c r="S50" s="379"/>
+      <c r="T50" s="379"/>
+      <c r="U50" s="379"/>
+      <c r="V50" s="379"/>
+      <c r="W50" s="379"/>
+      <c r="X50" s="379"/>
+      <c r="Y50" s="379"/>
+      <c r="Z50" s="379"/>
+      <c r="AA50" s="379"/>
+      <c r="AB50" s="379"/>
+      <c r="AC50" s="379"/>
+      <c r="AE50" s="379" t="s">
         <v>359</v>
       </c>
-      <c r="AF50" s="371"/>
-      <c r="AG50" s="371"/>
-      <c r="AH50" s="371"/>
-      <c r="AI50" s="371"/>
-      <c r="AJ50" s="371"/>
-      <c r="AK50" s="371"/>
-      <c r="AL50" s="371"/>
-      <c r="AM50" s="371"/>
-      <c r="AN50" s="371"/>
-      <c r="AO50" s="371"/>
-      <c r="AP50" s="371"/>
-      <c r="AQ50" s="371"/>
-      <c r="AR50" s="371"/>
-      <c r="AT50" s="371" t="s">
+      <c r="AF50" s="379"/>
+      <c r="AG50" s="379"/>
+      <c r="AH50" s="379"/>
+      <c r="AI50" s="379"/>
+      <c r="AJ50" s="379"/>
+      <c r="AK50" s="379"/>
+      <c r="AL50" s="379"/>
+      <c r="AM50" s="379"/>
+      <c r="AN50" s="379"/>
+      <c r="AO50" s="379"/>
+      <c r="AP50" s="379"/>
+      <c r="AQ50" s="379"/>
+      <c r="AR50" s="379"/>
+      <c r="AT50" s="379" t="s">
         <v>358</v>
       </c>
-      <c r="AU50" s="371"/>
-      <c r="AV50" s="371"/>
-      <c r="AW50" s="371"/>
-      <c r="AX50" s="371"/>
-      <c r="AY50" s="371"/>
-      <c r="AZ50" s="371"/>
-      <c r="BA50" s="371"/>
-      <c r="BB50" s="371"/>
-      <c r="BC50" s="371"/>
-      <c r="BD50" s="371"/>
-      <c r="BE50" s="371"/>
-      <c r="BF50" s="371"/>
-      <c r="BG50" s="371"/>
+      <c r="AU50" s="379"/>
+      <c r="AV50" s="379"/>
+      <c r="AW50" s="379"/>
+      <c r="AX50" s="379"/>
+      <c r="AY50" s="379"/>
+      <c r="AZ50" s="379"/>
+      <c r="BA50" s="379"/>
+      <c r="BB50" s="379"/>
+      <c r="BC50" s="379"/>
+      <c r="BD50" s="379"/>
+      <c r="BE50" s="379"/>
+      <c r="BF50" s="379"/>
+      <c r="BG50" s="379"/>
     </row>
     <row r="51" spans="16:59" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P51" s="1"/>
@@ -9760,111 +9787,111 @@
       <c r="BW68" s="66"/>
     </row>
     <row r="69" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P69" s="377" t="s">
+      <c r="P69" s="386" t="s">
         <v>282</v>
       </c>
-      <c r="Q69" s="377"/>
-      <c r="R69" s="377"/>
-      <c r="S69" s="377"/>
-      <c r="T69" s="377"/>
-      <c r="U69" s="377"/>
-      <c r="V69" s="377"/>
-      <c r="W69" s="377"/>
-      <c r="X69" s="377"/>
-      <c r="Y69" s="377"/>
-      <c r="Z69" s="377"/>
-      <c r="AA69" s="377"/>
-      <c r="AB69" s="377"/>
-      <c r="AC69" s="377"/>
-      <c r="AD69" s="377"/>
-      <c r="AE69" s="377"/>
-      <c r="AF69" s="377"/>
-      <c r="AG69" s="377"/>
-      <c r="AH69" s="377"/>
-      <c r="AI69" s="377"/>
-      <c r="AJ69" s="377"/>
-      <c r="AK69" s="377"/>
-      <c r="AL69" s="377"/>
-      <c r="AM69" s="377"/>
-      <c r="AN69" s="377"/>
-      <c r="AO69" s="377"/>
-      <c r="AP69" s="377"/>
-      <c r="AQ69" s="377"/>
-      <c r="AR69" s="377"/>
-      <c r="AS69" s="377"/>
-      <c r="AT69" s="377"/>
-      <c r="AU69" s="377"/>
-      <c r="AV69" s="377"/>
-      <c r="AW69" s="377"/>
-      <c r="AX69" s="377"/>
+      <c r="Q69" s="386"/>
+      <c r="R69" s="386"/>
+      <c r="S69" s="386"/>
+      <c r="T69" s="386"/>
+      <c r="U69" s="386"/>
+      <c r="V69" s="386"/>
+      <c r="W69" s="386"/>
+      <c r="X69" s="386"/>
+      <c r="Y69" s="386"/>
+      <c r="Z69" s="386"/>
+      <c r="AA69" s="386"/>
+      <c r="AB69" s="386"/>
+      <c r="AC69" s="386"/>
+      <c r="AD69" s="386"/>
+      <c r="AE69" s="386"/>
+      <c r="AF69" s="386"/>
+      <c r="AG69" s="386"/>
+      <c r="AH69" s="386"/>
+      <c r="AI69" s="386"/>
+      <c r="AJ69" s="386"/>
+      <c r="AK69" s="386"/>
+      <c r="AL69" s="386"/>
+      <c r="AM69" s="386"/>
+      <c r="AN69" s="386"/>
+      <c r="AO69" s="386"/>
+      <c r="AP69" s="386"/>
+      <c r="AQ69" s="386"/>
+      <c r="AR69" s="386"/>
+      <c r="AS69" s="386"/>
+      <c r="AT69" s="386"/>
+      <c r="AU69" s="386"/>
+      <c r="AV69" s="386"/>
+      <c r="AW69" s="386"/>
+      <c r="AX69" s="386"/>
     </row>
     <row r="70" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="367" t="s">
+      <c r="A70" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="367"/>
-      <c r="C70" s="367"/>
-      <c r="D70" s="367"/>
-      <c r="E70" s="367"/>
-      <c r="F70" s="367"/>
-      <c r="G70" s="367"/>
-      <c r="H70" s="367"/>
-      <c r="I70" s="367"/>
-      <c r="J70" s="367"/>
-      <c r="K70" s="367"/>
-      <c r="L70" s="367"/>
-      <c r="M70" s="367"/>
-      <c r="N70" s="367"/>
-      <c r="P70" s="370" t="s">
+      <c r="B70" s="368"/>
+      <c r="C70" s="368"/>
+      <c r="D70" s="368"/>
+      <c r="E70" s="368"/>
+      <c r="F70" s="368"/>
+      <c r="G70" s="368"/>
+      <c r="H70" s="368"/>
+      <c r="I70" s="368"/>
+      <c r="J70" s="368"/>
+      <c r="K70" s="368"/>
+      <c r="L70" s="368"/>
+      <c r="M70" s="368"/>
+      <c r="N70" s="368"/>
+      <c r="P70" s="364" t="s">
         <v>200</v>
       </c>
-      <c r="Q70" s="370"/>
-      <c r="R70" s="370"/>
-      <c r="S70" s="370"/>
-      <c r="T70" s="370"/>
-      <c r="U70" s="370"/>
-      <c r="V70" s="370"/>
-      <c r="W70" s="370"/>
-      <c r="X70" s="370"/>
-      <c r="Y70" s="370"/>
-      <c r="Z70" s="370"/>
-      <c r="AA70" s="370"/>
-      <c r="AB70" s="370"/>
-      <c r="AC70" s="370"/>
+      <c r="Q70" s="364"/>
+      <c r="R70" s="364"/>
+      <c r="S70" s="364"/>
+      <c r="T70" s="364"/>
+      <c r="U70" s="364"/>
+      <c r="V70" s="364"/>
+      <c r="W70" s="364"/>
+      <c r="X70" s="364"/>
+      <c r="Y70" s="364"/>
+      <c r="Z70" s="364"/>
+      <c r="AA70" s="364"/>
+      <c r="AB70" s="364"/>
+      <c r="AC70" s="364"/>
       <c r="AD70" s="106"/>
-      <c r="AE70" s="370" t="s">
+      <c r="AE70" s="364" t="s">
         <v>201</v>
       </c>
-      <c r="AF70" s="370"/>
-      <c r="AG70" s="370"/>
-      <c r="AH70" s="370"/>
-      <c r="AI70" s="370"/>
-      <c r="AJ70" s="370"/>
-      <c r="AK70" s="370"/>
-      <c r="AL70" s="370"/>
-      <c r="AM70" s="370"/>
-      <c r="AN70" s="370"/>
-      <c r="AO70" s="370"/>
-      <c r="AP70" s="370"/>
-      <c r="AQ70" s="370"/>
-      <c r="AR70" s="370"/>
+      <c r="AF70" s="364"/>
+      <c r="AG70" s="364"/>
+      <c r="AH70" s="364"/>
+      <c r="AI70" s="364"/>
+      <c r="AJ70" s="364"/>
+      <c r="AK70" s="364"/>
+      <c r="AL70" s="364"/>
+      <c r="AM70" s="364"/>
+      <c r="AN70" s="364"/>
+      <c r="AO70" s="364"/>
+      <c r="AP70" s="364"/>
+      <c r="AQ70" s="364"/>
+      <c r="AR70" s="364"/>
       <c r="AS70" s="107"/>
-      <c r="AT70" s="370" t="s">
+      <c r="AT70" s="364" t="s">
         <v>202</v>
       </c>
-      <c r="AU70" s="370"/>
-      <c r="AV70" s="370"/>
-      <c r="AW70" s="370"/>
-      <c r="AX70" s="370"/>
-      <c r="AY70" s="370"/>
-      <c r="AZ70" s="370"/>
-      <c r="BA70" s="370"/>
-      <c r="BB70" s="370"/>
-      <c r="BC70" s="370"/>
-      <c r="BD70" s="370"/>
-      <c r="BE70" s="370"/>
-      <c r="BF70" s="370"/>
-      <c r="BG70" s="370"/>
+      <c r="AU70" s="364"/>
+      <c r="AV70" s="364"/>
+      <c r="AW70" s="364"/>
+      <c r="AX70" s="364"/>
+      <c r="AY70" s="364"/>
+      <c r="AZ70" s="364"/>
+      <c r="BA70" s="364"/>
+      <c r="BB70" s="364"/>
+      <c r="BC70" s="364"/>
+      <c r="BD70" s="364"/>
+      <c r="BE70" s="364"/>
+      <c r="BF70" s="364"/>
+      <c r="BG70" s="364"/>
     </row>
     <row r="71" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
@@ -10029,22 +10056,22 @@
       <c r="BG71" s="4">
         <v>2</v>
       </c>
-      <c r="BI71" s="374" t="s">
+      <c r="BI71" s="381" t="s">
         <v>164</v>
       </c>
-      <c r="BJ71" s="374"/>
-      <c r="BK71" s="374"/>
-      <c r="BL71" s="374"/>
-      <c r="BM71" s="374"/>
-      <c r="BN71" s="374"/>
-      <c r="BO71" s="374"/>
-      <c r="BP71" s="374"/>
-      <c r="BQ71" s="374"/>
-      <c r="BR71" s="374"/>
-      <c r="BS71" s="374"/>
-      <c r="BT71" s="374"/>
-      <c r="BU71" s="374"/>
-      <c r="BV71" s="374"/>
+      <c r="BJ71" s="381"/>
+      <c r="BK71" s="381"/>
+      <c r="BL71" s="381"/>
+      <c r="BM71" s="381"/>
+      <c r="BN71" s="381"/>
+      <c r="BO71" s="381"/>
+      <c r="BP71" s="381"/>
+      <c r="BQ71" s="381"/>
+      <c r="BR71" s="381"/>
+      <c r="BS71" s="381"/>
+      <c r="BT71" s="381"/>
+      <c r="BU71" s="381"/>
+      <c r="BV71" s="381"/>
     </row>
     <row r="72" spans="1:75" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
@@ -12822,31 +12849,31 @@
       </c>
     </row>
     <row r="85" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="361" t="s">
+      <c r="A85" s="369" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="361"/>
-      <c r="C85" s="361"/>
-      <c r="D85" s="362" t="s">
+      <c r="B85" s="369"/>
+      <c r="C85" s="369"/>
+      <c r="D85" s="370" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="362"/>
-      <c r="F85" s="362"/>
-      <c r="G85" s="363" t="s">
+      <c r="E85" s="370"/>
+      <c r="F85" s="370"/>
+      <c r="G85" s="371" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="363"/>
-      <c r="I85" s="363"/>
-      <c r="J85" s="364" t="s">
+      <c r="H85" s="371"/>
+      <c r="I85" s="371"/>
+      <c r="J85" s="372" t="s">
         <v>195</v>
       </c>
-      <c r="K85" s="364"/>
-      <c r="L85" s="364"/>
-      <c r="M85" s="365" t="s">
+      <c r="K85" s="372"/>
+      <c r="L85" s="372"/>
+      <c r="M85" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="N85" s="365"/>
-      <c r="O85" s="365"/>
+      <c r="N85" s="373"/>
+      <c r="O85" s="373"/>
       <c r="BI85" s="12" t="s">
         <v>92</v>
       </c>
@@ -12891,153 +12918,153 @@
       </c>
     </row>
     <row r="86" spans="1:89" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BI86" s="361"/>
-      <c r="BJ86" s="361"/>
-      <c r="BK86" s="361"/>
-      <c r="BL86" s="362"/>
-      <c r="BM86" s="362"/>
-      <c r="BN86" s="362"/>
-      <c r="BO86" s="363"/>
-      <c r="BP86" s="363"/>
-      <c r="BQ86" s="363"/>
-      <c r="BR86" s="364"/>
-      <c r="BS86" s="364"/>
-      <c r="BT86" s="364"/>
-      <c r="BU86" s="365"/>
-      <c r="BV86" s="365"/>
-      <c r="BW86" s="365"/>
+      <c r="BI86" s="369"/>
+      <c r="BJ86" s="369"/>
+      <c r="BK86" s="369"/>
+      <c r="BL86" s="370"/>
+      <c r="BM86" s="370"/>
+      <c r="BN86" s="370"/>
+      <c r="BO86" s="371"/>
+      <c r="BP86" s="371"/>
+      <c r="BQ86" s="371"/>
+      <c r="BR86" s="372"/>
+      <c r="BS86" s="372"/>
+      <c r="BT86" s="372"/>
+      <c r="BU86" s="373"/>
+      <c r="BV86" s="373"/>
+      <c r="BW86" s="373"/>
     </row>
     <row r="87" spans="1:89" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="360" t="s">
+      <c r="A87" s="376" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="360"/>
-      <c r="C87" s="360"/>
-      <c r="D87" s="360"/>
-      <c r="E87" s="360"/>
-      <c r="F87" s="360"/>
-      <c r="G87" s="360"/>
-      <c r="H87" s="360"/>
-      <c r="I87" s="360"/>
-      <c r="J87" s="360"/>
-      <c r="K87" s="360"/>
-      <c r="L87" s="360"/>
-      <c r="M87" s="360"/>
-      <c r="N87" s="360"/>
-      <c r="O87" s="360"/>
-      <c r="P87" s="360"/>
-      <c r="Q87" s="360"/>
-      <c r="R87" s="360"/>
-      <c r="S87" s="360"/>
-      <c r="T87" s="360"/>
-      <c r="U87" s="360"/>
-      <c r="V87" s="360"/>
-      <c r="W87" s="360"/>
-      <c r="X87" s="360"/>
-      <c r="Y87" s="360"/>
-      <c r="Z87" s="360"/>
-      <c r="AA87" s="360"/>
-      <c r="AB87" s="360"/>
-      <c r="AC87" s="360"/>
-      <c r="AD87" s="360"/>
+      <c r="B87" s="376"/>
+      <c r="C87" s="376"/>
+      <c r="D87" s="376"/>
+      <c r="E87" s="376"/>
+      <c r="F87" s="376"/>
+      <c r="G87" s="376"/>
+      <c r="H87" s="376"/>
+      <c r="I87" s="376"/>
+      <c r="J87" s="376"/>
+      <c r="K87" s="376"/>
+      <c r="L87" s="376"/>
+      <c r="M87" s="376"/>
+      <c r="N87" s="376"/>
+      <c r="O87" s="376"/>
+      <c r="P87" s="376"/>
+      <c r="Q87" s="376"/>
+      <c r="R87" s="376"/>
+      <c r="S87" s="376"/>
+      <c r="T87" s="376"/>
+      <c r="U87" s="376"/>
+      <c r="V87" s="376"/>
+      <c r="W87" s="376"/>
+      <c r="X87" s="376"/>
+      <c r="Y87" s="376"/>
+      <c r="Z87" s="376"/>
+      <c r="AA87" s="376"/>
+      <c r="AB87" s="376"/>
+      <c r="AC87" s="376"/>
+      <c r="AD87" s="376"/>
     </row>
     <row r="88" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="367" t="s">
+      <c r="A88" s="368" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="367"/>
-      <c r="C88" s="367"/>
-      <c r="D88" s="367"/>
-      <c r="E88" s="367"/>
-      <c r="F88" s="367"/>
-      <c r="G88" s="367"/>
-      <c r="H88" s="367"/>
-      <c r="I88" s="367"/>
-      <c r="J88" s="367"/>
-      <c r="K88" s="367"/>
-      <c r="L88" s="367"/>
-      <c r="M88" s="367"/>
-      <c r="N88" s="367"/>
-      <c r="P88" s="374" t="s">
+      <c r="B88" s="368"/>
+      <c r="C88" s="368"/>
+      <c r="D88" s="368"/>
+      <c r="E88" s="368"/>
+      <c r="F88" s="368"/>
+      <c r="G88" s="368"/>
+      <c r="H88" s="368"/>
+      <c r="I88" s="368"/>
+      <c r="J88" s="368"/>
+      <c r="K88" s="368"/>
+      <c r="L88" s="368"/>
+      <c r="M88" s="368"/>
+      <c r="N88" s="368"/>
+      <c r="P88" s="381" t="s">
         <v>258</v>
       </c>
-      <c r="Q88" s="374"/>
-      <c r="R88" s="374"/>
-      <c r="S88" s="374"/>
-      <c r="T88" s="374"/>
-      <c r="U88" s="374"/>
-      <c r="V88" s="374"/>
-      <c r="W88" s="374"/>
-      <c r="X88" s="374"/>
-      <c r="Y88" s="374"/>
-      <c r="Z88" s="374"/>
-      <c r="AA88" s="374"/>
-      <c r="AB88" s="374"/>
-      <c r="AC88" s="374"/>
-      <c r="AE88" s="367" t="s">
+      <c r="Q88" s="381"/>
+      <c r="R88" s="381"/>
+      <c r="S88" s="381"/>
+      <c r="T88" s="381"/>
+      <c r="U88" s="381"/>
+      <c r="V88" s="381"/>
+      <c r="W88" s="381"/>
+      <c r="X88" s="381"/>
+      <c r="Y88" s="381"/>
+      <c r="Z88" s="381"/>
+      <c r="AA88" s="381"/>
+      <c r="AB88" s="381"/>
+      <c r="AC88" s="381"/>
+      <c r="AE88" s="368" t="s">
         <v>259</v>
       </c>
-      <c r="AF88" s="367"/>
-      <c r="AG88" s="367"/>
-      <c r="AH88" s="367"/>
-      <c r="AI88" s="367"/>
-      <c r="AJ88" s="367"/>
-      <c r="AK88" s="367"/>
-      <c r="AL88" s="367"/>
-      <c r="AM88" s="367"/>
-      <c r="AN88" s="367"/>
-      <c r="AO88" s="367"/>
-      <c r="AP88" s="367"/>
-      <c r="AQ88" s="367"/>
-      <c r="AR88" s="367"/>
-      <c r="AT88" s="367" t="s">
+      <c r="AF88" s="368"/>
+      <c r="AG88" s="368"/>
+      <c r="AH88" s="368"/>
+      <c r="AI88" s="368"/>
+      <c r="AJ88" s="368"/>
+      <c r="AK88" s="368"/>
+      <c r="AL88" s="368"/>
+      <c r="AM88" s="368"/>
+      <c r="AN88" s="368"/>
+      <c r="AO88" s="368"/>
+      <c r="AP88" s="368"/>
+      <c r="AQ88" s="368"/>
+      <c r="AR88" s="368"/>
+      <c r="AT88" s="368" t="s">
         <v>260</v>
       </c>
-      <c r="AU88" s="367"/>
-      <c r="AV88" s="367"/>
-      <c r="AW88" s="367"/>
-      <c r="AX88" s="367"/>
-      <c r="AY88" s="367"/>
-      <c r="AZ88" s="367"/>
-      <c r="BA88" s="367"/>
-      <c r="BB88" s="367"/>
-      <c r="BC88" s="367"/>
-      <c r="BD88" s="367"/>
-      <c r="BE88" s="367"/>
-      <c r="BF88" s="367"/>
-      <c r="BG88" s="367"/>
-      <c r="BI88" s="367" t="s">
+      <c r="AU88" s="368"/>
+      <c r="AV88" s="368"/>
+      <c r="AW88" s="368"/>
+      <c r="AX88" s="368"/>
+      <c r="AY88" s="368"/>
+      <c r="AZ88" s="368"/>
+      <c r="BA88" s="368"/>
+      <c r="BB88" s="368"/>
+      <c r="BC88" s="368"/>
+      <c r="BD88" s="368"/>
+      <c r="BE88" s="368"/>
+      <c r="BF88" s="368"/>
+      <c r="BG88" s="368"/>
+      <c r="BI88" s="368" t="s">
         <v>261</v>
       </c>
-      <c r="BJ88" s="367"/>
-      <c r="BK88" s="367"/>
-      <c r="BL88" s="367"/>
-      <c r="BM88" s="367"/>
-      <c r="BN88" s="367"/>
-      <c r="BO88" s="367"/>
-      <c r="BP88" s="367"/>
-      <c r="BQ88" s="367"/>
-      <c r="BR88" s="367"/>
-      <c r="BS88" s="367"/>
-      <c r="BT88" s="367"/>
-      <c r="BU88" s="367"/>
-      <c r="BV88" s="367"/>
-      <c r="BX88" s="367" t="s">
+      <c r="BJ88" s="368"/>
+      <c r="BK88" s="368"/>
+      <c r="BL88" s="368"/>
+      <c r="BM88" s="368"/>
+      <c r="BN88" s="368"/>
+      <c r="BO88" s="368"/>
+      <c r="BP88" s="368"/>
+      <c r="BQ88" s="368"/>
+      <c r="BR88" s="368"/>
+      <c r="BS88" s="368"/>
+      <c r="BT88" s="368"/>
+      <c r="BU88" s="368"/>
+      <c r="BV88" s="368"/>
+      <c r="BX88" s="368" t="s">
         <v>262</v>
       </c>
-      <c r="BY88" s="367"/>
-      <c r="BZ88" s="367"/>
-      <c r="CA88" s="367"/>
-      <c r="CB88" s="367"/>
-      <c r="CC88" s="367"/>
-      <c r="CD88" s="367"/>
-      <c r="CE88" s="367"/>
-      <c r="CF88" s="367"/>
-      <c r="CG88" s="367"/>
-      <c r="CH88" s="367"/>
-      <c r="CI88" s="367"/>
-      <c r="CJ88" s="367"/>
-      <c r="CK88" s="367"/>
+      <c r="BY88" s="368"/>
+      <c r="BZ88" s="368"/>
+      <c r="CA88" s="368"/>
+      <c r="CB88" s="368"/>
+      <c r="CC88" s="368"/>
+      <c r="CD88" s="368"/>
+      <c r="CE88" s="368"/>
+      <c r="CF88" s="368"/>
+      <c r="CG88" s="368"/>
+      <c r="CH88" s="368"/>
+      <c r="CI88" s="368"/>
+      <c r="CJ88" s="368"/>
+      <c r="CK88" s="368"/>
     </row>
     <row r="89" spans="1:89" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -16584,106 +16611,106 @@
       </c>
     </row>
     <row r="103" spans="1:106" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="368" t="s">
+      <c r="A103" s="366" t="s">
         <v>270</v>
       </c>
-      <c r="B103" s="368"/>
-      <c r="C103" s="368"/>
-      <c r="D103" s="368"/>
-      <c r="E103" s="368"/>
-      <c r="F103" s="368"/>
-      <c r="G103" s="368"/>
-      <c r="H103" s="368"/>
-      <c r="I103" s="368"/>
-      <c r="J103" s="368"/>
-      <c r="K103" s="368"/>
-      <c r="L103" s="368"/>
-      <c r="M103" s="368"/>
-      <c r="N103" s="368"/>
+      <c r="B103" s="366"/>
+      <c r="C103" s="366"/>
+      <c r="D103" s="366"/>
+      <c r="E103" s="366"/>
+      <c r="F103" s="366"/>
+      <c r="G103" s="366"/>
+      <c r="H103" s="366"/>
+      <c r="I103" s="366"/>
+      <c r="J103" s="366"/>
+      <c r="K103" s="366"/>
+      <c r="L103" s="366"/>
+      <c r="M103" s="366"/>
+      <c r="N103" s="366"/>
       <c r="O103" s="207"/>
-      <c r="P103" s="368" t="s">
+      <c r="P103" s="366" t="s">
         <v>271</v>
       </c>
-      <c r="Q103" s="368"/>
-      <c r="R103" s="368"/>
-      <c r="S103" s="368"/>
-      <c r="T103" s="368"/>
-      <c r="U103" s="368"/>
-      <c r="V103" s="368"/>
-      <c r="W103" s="368"/>
-      <c r="X103" s="368"/>
-      <c r="Y103" s="368"/>
-      <c r="Z103" s="368"/>
-      <c r="AA103" s="368"/>
-      <c r="AB103" s="368"/>
-      <c r="AC103" s="368"/>
+      <c r="Q103" s="366"/>
+      <c r="R103" s="366"/>
+      <c r="S103" s="366"/>
+      <c r="T103" s="366"/>
+      <c r="U103" s="366"/>
+      <c r="V103" s="366"/>
+      <c r="W103" s="366"/>
+      <c r="X103" s="366"/>
+      <c r="Y103" s="366"/>
+      <c r="Z103" s="366"/>
+      <c r="AA103" s="366"/>
+      <c r="AB103" s="366"/>
+      <c r="AC103" s="366"/>
       <c r="AD103" s="207"/>
-      <c r="AE103" s="368" t="s">
+      <c r="AE103" s="366" t="s">
         <v>272</v>
       </c>
-      <c r="AF103" s="368"/>
-      <c r="AG103" s="368"/>
-      <c r="AH103" s="368"/>
-      <c r="AI103" s="368"/>
-      <c r="AJ103" s="368"/>
-      <c r="AK103" s="368"/>
-      <c r="AL103" s="368"/>
-      <c r="AM103" s="368"/>
-      <c r="AN103" s="368"/>
-      <c r="AO103" s="368"/>
-      <c r="AP103" s="368"/>
-      <c r="AQ103" s="368"/>
-      <c r="AR103" s="368"/>
-      <c r="AT103" s="368" t="s">
+      <c r="AF103" s="366"/>
+      <c r="AG103" s="366"/>
+      <c r="AH103" s="366"/>
+      <c r="AI103" s="366"/>
+      <c r="AJ103" s="366"/>
+      <c r="AK103" s="366"/>
+      <c r="AL103" s="366"/>
+      <c r="AM103" s="366"/>
+      <c r="AN103" s="366"/>
+      <c r="AO103" s="366"/>
+      <c r="AP103" s="366"/>
+      <c r="AQ103" s="366"/>
+      <c r="AR103" s="366"/>
+      <c r="AT103" s="366" t="s">
         <v>273</v>
       </c>
-      <c r="AU103" s="368"/>
-      <c r="AV103" s="368"/>
-      <c r="AW103" s="368"/>
-      <c r="AX103" s="368"/>
-      <c r="AY103" s="368"/>
-      <c r="AZ103" s="368"/>
-      <c r="BA103" s="368"/>
-      <c r="BB103" s="368"/>
-      <c r="BC103" s="368"/>
-      <c r="BD103" s="368"/>
-      <c r="BE103" s="368"/>
-      <c r="BF103" s="368"/>
-      <c r="BG103" s="368"/>
+      <c r="AU103" s="366"/>
+      <c r="AV103" s="366"/>
+      <c r="AW103" s="366"/>
+      <c r="AX103" s="366"/>
+      <c r="AY103" s="366"/>
+      <c r="AZ103" s="366"/>
+      <c r="BA103" s="366"/>
+      <c r="BB103" s="366"/>
+      <c r="BC103" s="366"/>
+      <c r="BD103" s="366"/>
+      <c r="BE103" s="366"/>
+      <c r="BF103" s="366"/>
+      <c r="BG103" s="366"/>
       <c r="BH103" s="207"/>
-      <c r="BI103" s="368" t="s">
+      <c r="BI103" s="366" t="s">
         <v>274</v>
       </c>
-      <c r="BJ103" s="368"/>
-      <c r="BK103" s="368"/>
-      <c r="BL103" s="368"/>
-      <c r="BM103" s="368"/>
-      <c r="BN103" s="368"/>
-      <c r="BO103" s="368"/>
-      <c r="BP103" s="368"/>
-      <c r="BQ103" s="368"/>
-      <c r="BR103" s="368"/>
-      <c r="BS103" s="368"/>
-      <c r="BT103" s="368"/>
-      <c r="BU103" s="368"/>
-      <c r="BV103" s="368"/>
+      <c r="BJ103" s="366"/>
+      <c r="BK103" s="366"/>
+      <c r="BL103" s="366"/>
+      <c r="BM103" s="366"/>
+      <c r="BN103" s="366"/>
+      <c r="BO103" s="366"/>
+      <c r="BP103" s="366"/>
+      <c r="BQ103" s="366"/>
+      <c r="BR103" s="366"/>
+      <c r="BS103" s="366"/>
+      <c r="BT103" s="366"/>
+      <c r="BU103" s="366"/>
+      <c r="BV103" s="366"/>
       <c r="BW103" s="207"/>
-      <c r="BX103" s="368" t="s">
+      <c r="BX103" s="366" t="s">
         <v>275</v>
       </c>
-      <c r="BY103" s="368"/>
-      <c r="BZ103" s="368"/>
-      <c r="CA103" s="368"/>
-      <c r="CB103" s="368"/>
-      <c r="CC103" s="368"/>
-      <c r="CD103" s="368"/>
-      <c r="CE103" s="368"/>
-      <c r="CF103" s="368"/>
-      <c r="CG103" s="368"/>
-      <c r="CH103" s="368"/>
-      <c r="CI103" s="368"/>
-      <c r="CJ103" s="368"/>
-      <c r="CK103" s="368"/>
+      <c r="BY103" s="366"/>
+      <c r="BZ103" s="366"/>
+      <c r="CA103" s="366"/>
+      <c r="CB103" s="366"/>
+      <c r="CC103" s="366"/>
+      <c r="CD103" s="366"/>
+      <c r="CE103" s="366"/>
+      <c r="CF103" s="366"/>
+      <c r="CG103" s="366"/>
+      <c r="CH103" s="366"/>
+      <c r="CI103" s="366"/>
+      <c r="CJ103" s="366"/>
+      <c r="CK103" s="366"/>
       <c r="CL103" s="210"/>
       <c r="CM103" s="76"/>
       <c r="CN103" s="76"/>
@@ -20360,107 +20387,107 @@
       <c r="CM117" s="76"/>
     </row>
     <row r="118" spans="1:91" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="366" t="s">
+      <c r="A118" s="365" t="s">
         <v>251</v>
       </c>
-      <c r="B118" s="366"/>
-      <c r="C118" s="366"/>
-      <c r="D118" s="366"/>
-      <c r="E118" s="366"/>
-      <c r="F118" s="366"/>
-      <c r="G118" s="366"/>
-      <c r="H118" s="366"/>
-      <c r="I118" s="366"/>
-      <c r="J118" s="366"/>
-      <c r="K118" s="366"/>
-      <c r="L118" s="366"/>
-      <c r="M118" s="366"/>
-      <c r="N118" s="366"/>
+      <c r="B118" s="365"/>
+      <c r="C118" s="365"/>
+      <c r="D118" s="365"/>
+      <c r="E118" s="365"/>
+      <c r="F118" s="365"/>
+      <c r="G118" s="365"/>
+      <c r="H118" s="365"/>
+      <c r="I118" s="365"/>
+      <c r="J118" s="365"/>
+      <c r="K118" s="365"/>
+      <c r="L118" s="365"/>
+      <c r="M118" s="365"/>
+      <c r="N118" s="365"/>
       <c r="O118" s="205"/>
-      <c r="P118" s="366" t="s">
+      <c r="P118" s="365" t="s">
         <v>252</v>
       </c>
-      <c r="Q118" s="366"/>
-      <c r="R118" s="366"/>
-      <c r="S118" s="366"/>
-      <c r="T118" s="366"/>
-      <c r="U118" s="366"/>
-      <c r="V118" s="366"/>
-      <c r="W118" s="366"/>
-      <c r="X118" s="366"/>
-      <c r="Y118" s="366"/>
-      <c r="Z118" s="366"/>
-      <c r="AA118" s="366"/>
-      <c r="AB118" s="366"/>
-      <c r="AC118" s="366"/>
+      <c r="Q118" s="365"/>
+      <c r="R118" s="365"/>
+      <c r="S118" s="365"/>
+      <c r="T118" s="365"/>
+      <c r="U118" s="365"/>
+      <c r="V118" s="365"/>
+      <c r="W118" s="365"/>
+      <c r="X118" s="365"/>
+      <c r="Y118" s="365"/>
+      <c r="Z118" s="365"/>
+      <c r="AA118" s="365"/>
+      <c r="AB118" s="365"/>
+      <c r="AC118" s="365"/>
       <c r="AD118" s="205"/>
-      <c r="AE118" s="366" t="s">
+      <c r="AE118" s="365" t="s">
         <v>253</v>
       </c>
-      <c r="AF118" s="366"/>
-      <c r="AG118" s="366"/>
-      <c r="AH118" s="366"/>
-      <c r="AI118" s="366"/>
-      <c r="AJ118" s="366"/>
-      <c r="AK118" s="366"/>
-      <c r="AL118" s="366"/>
-      <c r="AM118" s="366"/>
-      <c r="AN118" s="366"/>
-      <c r="AO118" s="366"/>
-      <c r="AP118" s="366"/>
-      <c r="AQ118" s="366"/>
-      <c r="AR118" s="366"/>
+      <c r="AF118" s="365"/>
+      <c r="AG118" s="365"/>
+      <c r="AH118" s="365"/>
+      <c r="AI118" s="365"/>
+      <c r="AJ118" s="365"/>
+      <c r="AK118" s="365"/>
+      <c r="AL118" s="365"/>
+      <c r="AM118" s="365"/>
+      <c r="AN118" s="365"/>
+      <c r="AO118" s="365"/>
+      <c r="AP118" s="365"/>
+      <c r="AQ118" s="365"/>
+      <c r="AR118" s="365"/>
       <c r="AS118" s="205"/>
-      <c r="AT118" s="366" t="s">
+      <c r="AT118" s="365" t="s">
         <v>254</v>
       </c>
-      <c r="AU118" s="366"/>
-      <c r="AV118" s="366"/>
-      <c r="AW118" s="366"/>
-      <c r="AX118" s="366"/>
-      <c r="AY118" s="366"/>
-      <c r="AZ118" s="366"/>
-      <c r="BA118" s="366"/>
-      <c r="BB118" s="366"/>
-      <c r="BC118" s="366"/>
-      <c r="BD118" s="366"/>
-      <c r="BE118" s="366"/>
-      <c r="BF118" s="366"/>
-      <c r="BG118" s="366"/>
+      <c r="AU118" s="365"/>
+      <c r="AV118" s="365"/>
+      <c r="AW118" s="365"/>
+      <c r="AX118" s="365"/>
+      <c r="AY118" s="365"/>
+      <c r="AZ118" s="365"/>
+      <c r="BA118" s="365"/>
+      <c r="BB118" s="365"/>
+      <c r="BC118" s="365"/>
+      <c r="BD118" s="365"/>
+      <c r="BE118" s="365"/>
+      <c r="BF118" s="365"/>
+      <c r="BG118" s="365"/>
       <c r="BH118" s="205"/>
-      <c r="BI118" s="366" t="s">
+      <c r="BI118" s="365" t="s">
         <v>255</v>
       </c>
-      <c r="BJ118" s="366"/>
-      <c r="BK118" s="366"/>
-      <c r="BL118" s="366"/>
-      <c r="BM118" s="366"/>
-      <c r="BN118" s="366"/>
-      <c r="BO118" s="366"/>
-      <c r="BP118" s="366"/>
-      <c r="BQ118" s="366"/>
-      <c r="BR118" s="366"/>
-      <c r="BS118" s="366"/>
-      <c r="BT118" s="366"/>
-      <c r="BU118" s="366"/>
-      <c r="BV118" s="366"/>
+      <c r="BJ118" s="365"/>
+      <c r="BK118" s="365"/>
+      <c r="BL118" s="365"/>
+      <c r="BM118" s="365"/>
+      <c r="BN118" s="365"/>
+      <c r="BO118" s="365"/>
+      <c r="BP118" s="365"/>
+      <c r="BQ118" s="365"/>
+      <c r="BR118" s="365"/>
+      <c r="BS118" s="365"/>
+      <c r="BT118" s="365"/>
+      <c r="BU118" s="365"/>
+      <c r="BV118" s="365"/>
       <c r="BW118" s="205"/>
-      <c r="BX118" s="366" t="s">
+      <c r="BX118" s="365" t="s">
         <v>256</v>
       </c>
-      <c r="BY118" s="366"/>
-      <c r="BZ118" s="366"/>
-      <c r="CA118" s="366"/>
-      <c r="CB118" s="366"/>
-      <c r="CC118" s="366"/>
-      <c r="CD118" s="366"/>
-      <c r="CE118" s="366"/>
-      <c r="CF118" s="366"/>
-      <c r="CG118" s="366"/>
-      <c r="CH118" s="366"/>
-      <c r="CI118" s="366"/>
-      <c r="CJ118" s="366"/>
-      <c r="CK118" s="366"/>
+      <c r="BY118" s="365"/>
+      <c r="BZ118" s="365"/>
+      <c r="CA118" s="365"/>
+      <c r="CB118" s="365"/>
+      <c r="CC118" s="365"/>
+      <c r="CD118" s="365"/>
+      <c r="CE118" s="365"/>
+      <c r="CF118" s="365"/>
+      <c r="CG118" s="365"/>
+      <c r="CH118" s="365"/>
+      <c r="CI118" s="365"/>
+      <c r="CJ118" s="365"/>
+      <c r="CK118" s="365"/>
       <c r="CL118" s="210"/>
       <c r="CM118" s="76"/>
     </row>
@@ -24107,107 +24134,107 @@
       <c r="CM132" s="205"/>
     </row>
     <row r="133" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="366" t="s">
+      <c r="A133" s="365" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="366"/>
-      <c r="C133" s="366"/>
-      <c r="D133" s="366"/>
-      <c r="E133" s="366"/>
-      <c r="F133" s="366"/>
-      <c r="G133" s="366"/>
-      <c r="H133" s="366"/>
-      <c r="I133" s="366"/>
-      <c r="J133" s="366"/>
-      <c r="K133" s="366"/>
-      <c r="L133" s="366"/>
-      <c r="M133" s="366"/>
-      <c r="N133" s="366"/>
+      <c r="B133" s="365"/>
+      <c r="C133" s="365"/>
+      <c r="D133" s="365"/>
+      <c r="E133" s="365"/>
+      <c r="F133" s="365"/>
+      <c r="G133" s="365"/>
+      <c r="H133" s="365"/>
+      <c r="I133" s="365"/>
+      <c r="J133" s="365"/>
+      <c r="K133" s="365"/>
+      <c r="L133" s="365"/>
+      <c r="M133" s="365"/>
+      <c r="N133" s="365"/>
       <c r="O133" s="205"/>
-      <c r="P133" s="366" t="s">
+      <c r="P133" s="365" t="s">
         <v>266</v>
       </c>
-      <c r="Q133" s="366"/>
-      <c r="R133" s="366"/>
-      <c r="S133" s="366"/>
-      <c r="T133" s="366"/>
-      <c r="U133" s="366"/>
-      <c r="V133" s="366"/>
-      <c r="W133" s="366"/>
-      <c r="X133" s="366"/>
-      <c r="Y133" s="366"/>
-      <c r="Z133" s="366"/>
-      <c r="AA133" s="366"/>
-      <c r="AB133" s="366"/>
-      <c r="AC133" s="366"/>
+      <c r="Q133" s="365"/>
+      <c r="R133" s="365"/>
+      <c r="S133" s="365"/>
+      <c r="T133" s="365"/>
+      <c r="U133" s="365"/>
+      <c r="V133" s="365"/>
+      <c r="W133" s="365"/>
+      <c r="X133" s="365"/>
+      <c r="Y133" s="365"/>
+      <c r="Z133" s="365"/>
+      <c r="AA133" s="365"/>
+      <c r="AB133" s="365"/>
+      <c r="AC133" s="365"/>
       <c r="AD133" s="205"/>
-      <c r="AE133" s="366" t="s">
+      <c r="AE133" s="365" t="s">
         <v>267</v>
       </c>
-      <c r="AF133" s="366"/>
-      <c r="AG133" s="366"/>
-      <c r="AH133" s="366"/>
-      <c r="AI133" s="366"/>
-      <c r="AJ133" s="366"/>
-      <c r="AK133" s="366"/>
-      <c r="AL133" s="366"/>
-      <c r="AM133" s="366"/>
-      <c r="AN133" s="366"/>
-      <c r="AO133" s="366"/>
-      <c r="AP133" s="366"/>
-      <c r="AQ133" s="366"/>
-      <c r="AR133" s="366"/>
+      <c r="AF133" s="365"/>
+      <c r="AG133" s="365"/>
+      <c r="AH133" s="365"/>
+      <c r="AI133" s="365"/>
+      <c r="AJ133" s="365"/>
+      <c r="AK133" s="365"/>
+      <c r="AL133" s="365"/>
+      <c r="AM133" s="365"/>
+      <c r="AN133" s="365"/>
+      <c r="AO133" s="365"/>
+      <c r="AP133" s="365"/>
+      <c r="AQ133" s="365"/>
+      <c r="AR133" s="365"/>
       <c r="AS133" s="205"/>
-      <c r="AT133" s="366" t="s">
+      <c r="AT133" s="365" t="s">
         <v>268</v>
       </c>
-      <c r="AU133" s="366"/>
-      <c r="AV133" s="366"/>
-      <c r="AW133" s="366"/>
-      <c r="AX133" s="366"/>
-      <c r="AY133" s="366"/>
-      <c r="AZ133" s="366"/>
-      <c r="BA133" s="366"/>
-      <c r="BB133" s="366"/>
-      <c r="BC133" s="366"/>
-      <c r="BD133" s="366"/>
-      <c r="BE133" s="366"/>
-      <c r="BF133" s="366"/>
-      <c r="BG133" s="366"/>
+      <c r="AU133" s="365"/>
+      <c r="AV133" s="365"/>
+      <c r="AW133" s="365"/>
+      <c r="AX133" s="365"/>
+      <c r="AY133" s="365"/>
+      <c r="AZ133" s="365"/>
+      <c r="BA133" s="365"/>
+      <c r="BB133" s="365"/>
+      <c r="BC133" s="365"/>
+      <c r="BD133" s="365"/>
+      <c r="BE133" s="365"/>
+      <c r="BF133" s="365"/>
+      <c r="BG133" s="365"/>
       <c r="BH133" s="205"/>
-      <c r="BI133" s="366" t="s">
+      <c r="BI133" s="365" t="s">
         <v>269</v>
       </c>
-      <c r="BJ133" s="366"/>
-      <c r="BK133" s="366"/>
-      <c r="BL133" s="366"/>
-      <c r="BM133" s="366"/>
-      <c r="BN133" s="366"/>
-      <c r="BO133" s="366"/>
-      <c r="BP133" s="366"/>
-      <c r="BQ133" s="366"/>
-      <c r="BR133" s="366"/>
-      <c r="BS133" s="366"/>
-      <c r="BT133" s="366"/>
-      <c r="BU133" s="366"/>
-      <c r="BV133" s="366"/>
+      <c r="BJ133" s="365"/>
+      <c r="BK133" s="365"/>
+      <c r="BL133" s="365"/>
+      <c r="BM133" s="365"/>
+      <c r="BN133" s="365"/>
+      <c r="BO133" s="365"/>
+      <c r="BP133" s="365"/>
+      <c r="BQ133" s="365"/>
+      <c r="BR133" s="365"/>
+      <c r="BS133" s="365"/>
+      <c r="BT133" s="365"/>
+      <c r="BU133" s="365"/>
+      <c r="BV133" s="365"/>
       <c r="BW133" s="205"/>
-      <c r="BX133" s="366" t="s">
+      <c r="BX133" s="365" t="s">
         <v>264</v>
       </c>
-      <c r="BY133" s="366"/>
-      <c r="BZ133" s="366"/>
-      <c r="CA133" s="366"/>
-      <c r="CB133" s="366"/>
-      <c r="CC133" s="366"/>
-      <c r="CD133" s="366"/>
-      <c r="CE133" s="366"/>
-      <c r="CF133" s="366"/>
-      <c r="CG133" s="366"/>
-      <c r="CH133" s="366"/>
-      <c r="CI133" s="366"/>
-      <c r="CJ133" s="366"/>
-      <c r="CK133" s="366"/>
+      <c r="BY133" s="365"/>
+      <c r="BZ133" s="365"/>
+      <c r="CA133" s="365"/>
+      <c r="CB133" s="365"/>
+      <c r="CC133" s="365"/>
+      <c r="CD133" s="365"/>
+      <c r="CE133" s="365"/>
+      <c r="CF133" s="365"/>
+      <c r="CG133" s="365"/>
+      <c r="CH133" s="365"/>
+      <c r="CI133" s="365"/>
+      <c r="CJ133" s="365"/>
+      <c r="CK133" s="365"/>
       <c r="CL133" s="205"/>
       <c r="CM133" s="205"/>
     </row>
@@ -28238,102 +28265,102 @@
       <c r="DS147" s="205"/>
     </row>
     <row r="148" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="367" t="s">
+      <c r="A148" s="368" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="367"/>
-      <c r="C148" s="367"/>
-      <c r="D148" s="367"/>
-      <c r="E148" s="367"/>
-      <c r="F148" s="367"/>
-      <c r="G148" s="367"/>
-      <c r="H148" s="367"/>
-      <c r="I148" s="367"/>
-      <c r="J148" s="367"/>
-      <c r="K148" s="367"/>
-      <c r="L148" s="367"/>
-      <c r="M148" s="367"/>
-      <c r="N148" s="367"/>
-      <c r="P148" s="374" t="s">
+      <c r="B148" s="368"/>
+      <c r="C148" s="368"/>
+      <c r="D148" s="368"/>
+      <c r="E148" s="368"/>
+      <c r="F148" s="368"/>
+      <c r="G148" s="368"/>
+      <c r="H148" s="368"/>
+      <c r="I148" s="368"/>
+      <c r="J148" s="368"/>
+      <c r="K148" s="368"/>
+      <c r="L148" s="368"/>
+      <c r="M148" s="368"/>
+      <c r="N148" s="368"/>
+      <c r="P148" s="381" t="s">
         <v>277</v>
       </c>
-      <c r="Q148" s="374"/>
-      <c r="R148" s="374"/>
-      <c r="S148" s="374"/>
-      <c r="T148" s="374"/>
-      <c r="U148" s="374"/>
-      <c r="V148" s="374"/>
-      <c r="W148" s="374"/>
-      <c r="X148" s="374"/>
-      <c r="Y148" s="374"/>
-      <c r="Z148" s="374"/>
-      <c r="AA148" s="374"/>
-      <c r="AB148" s="374"/>
-      <c r="AC148" s="374"/>
-      <c r="AE148" s="367" t="s">
+      <c r="Q148" s="381"/>
+      <c r="R148" s="381"/>
+      <c r="S148" s="381"/>
+      <c r="T148" s="381"/>
+      <c r="U148" s="381"/>
+      <c r="V148" s="381"/>
+      <c r="W148" s="381"/>
+      <c r="X148" s="381"/>
+      <c r="Y148" s="381"/>
+      <c r="Z148" s="381"/>
+      <c r="AA148" s="381"/>
+      <c r="AB148" s="381"/>
+      <c r="AC148" s="381"/>
+      <c r="AE148" s="368" t="s">
         <v>278</v>
       </c>
-      <c r="AF148" s="367"/>
-      <c r="AG148" s="367"/>
-      <c r="AH148" s="367"/>
-      <c r="AI148" s="367"/>
-      <c r="AJ148" s="367"/>
-      <c r="AK148" s="367"/>
-      <c r="AL148" s="367"/>
-      <c r="AM148" s="367"/>
-      <c r="AN148" s="367"/>
-      <c r="AO148" s="367"/>
-      <c r="AP148" s="367"/>
-      <c r="AQ148" s="367"/>
-      <c r="AR148" s="367"/>
-      <c r="AT148" s="367" t="s">
+      <c r="AF148" s="368"/>
+      <c r="AG148" s="368"/>
+      <c r="AH148" s="368"/>
+      <c r="AI148" s="368"/>
+      <c r="AJ148" s="368"/>
+      <c r="AK148" s="368"/>
+      <c r="AL148" s="368"/>
+      <c r="AM148" s="368"/>
+      <c r="AN148" s="368"/>
+      <c r="AO148" s="368"/>
+      <c r="AP148" s="368"/>
+      <c r="AQ148" s="368"/>
+      <c r="AR148" s="368"/>
+      <c r="AT148" s="368" t="s">
         <v>279</v>
       </c>
-      <c r="AU148" s="367"/>
-      <c r="AV148" s="367"/>
-      <c r="AW148" s="367"/>
-      <c r="AX148" s="367"/>
-      <c r="AY148" s="367"/>
-      <c r="AZ148" s="367"/>
-      <c r="BA148" s="367"/>
-      <c r="BB148" s="367"/>
-      <c r="BC148" s="367"/>
-      <c r="BD148" s="367"/>
-      <c r="BE148" s="367"/>
-      <c r="BF148" s="367"/>
-      <c r="BG148" s="367"/>
-      <c r="BI148" s="367" t="s">
+      <c r="AU148" s="368"/>
+      <c r="AV148" s="368"/>
+      <c r="AW148" s="368"/>
+      <c r="AX148" s="368"/>
+      <c r="AY148" s="368"/>
+      <c r="AZ148" s="368"/>
+      <c r="BA148" s="368"/>
+      <c r="BB148" s="368"/>
+      <c r="BC148" s="368"/>
+      <c r="BD148" s="368"/>
+      <c r="BE148" s="368"/>
+      <c r="BF148" s="368"/>
+      <c r="BG148" s="368"/>
+      <c r="BI148" s="368" t="s">
         <v>280</v>
       </c>
-      <c r="BJ148" s="367"/>
-      <c r="BK148" s="367"/>
-      <c r="BL148" s="367"/>
-      <c r="BM148" s="367"/>
-      <c r="BN148" s="367"/>
-      <c r="BO148" s="367"/>
-      <c r="BP148" s="367"/>
-      <c r="BQ148" s="367"/>
-      <c r="BR148" s="367"/>
-      <c r="BS148" s="367"/>
-      <c r="BT148" s="367"/>
-      <c r="BU148" s="367"/>
-      <c r="BV148" s="367"/>
-      <c r="BX148" s="367" t="s">
+      <c r="BJ148" s="368"/>
+      <c r="BK148" s="368"/>
+      <c r="BL148" s="368"/>
+      <c r="BM148" s="368"/>
+      <c r="BN148" s="368"/>
+      <c r="BO148" s="368"/>
+      <c r="BP148" s="368"/>
+      <c r="BQ148" s="368"/>
+      <c r="BR148" s="368"/>
+      <c r="BS148" s="368"/>
+      <c r="BT148" s="368"/>
+      <c r="BU148" s="368"/>
+      <c r="BV148" s="368"/>
+      <c r="BX148" s="368" t="s">
         <v>281</v>
       </c>
-      <c r="BY148" s="367"/>
-      <c r="BZ148" s="367"/>
-      <c r="CA148" s="367"/>
-      <c r="CB148" s="367"/>
-      <c r="CC148" s="367"/>
-      <c r="CD148" s="367"/>
-      <c r="CE148" s="367"/>
-      <c r="CF148" s="367"/>
-      <c r="CG148" s="367"/>
-      <c r="CH148" s="367"/>
-      <c r="CI148" s="367"/>
-      <c r="CJ148" s="367"/>
-      <c r="CK148" s="367"/>
+      <c r="BY148" s="368"/>
+      <c r="BZ148" s="368"/>
+      <c r="CA148" s="368"/>
+      <c r="CB148" s="368"/>
+      <c r="CC148" s="368"/>
+      <c r="CD148" s="368"/>
+      <c r="CE148" s="368"/>
+      <c r="CF148" s="368"/>
+      <c r="CG148" s="368"/>
+      <c r="CH148" s="368"/>
+      <c r="CI148" s="368"/>
+      <c r="CJ148" s="368"/>
+      <c r="CK148" s="368"/>
       <c r="CL148" s="205"/>
       <c r="CM148" s="205"/>
       <c r="CN148" s="205"/>
@@ -32390,71 +32417,71 @@
       <c r="DS162" s="205"/>
     </row>
     <row r="163" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="374" t="s">
+      <c r="A163" s="381" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="374"/>
-      <c r="C163" s="374"/>
-      <c r="D163" s="374"/>
-      <c r="E163" s="374"/>
-      <c r="F163" s="374"/>
-      <c r="G163" s="374"/>
-      <c r="H163" s="374"/>
-      <c r="I163" s="374"/>
-      <c r="J163" s="374"/>
-      <c r="K163" s="374"/>
-      <c r="L163" s="374"/>
-      <c r="M163" s="374"/>
-      <c r="N163" s="374"/>
-      <c r="P163" s="369" t="s">
+      <c r="B163" s="381"/>
+      <c r="C163" s="381"/>
+      <c r="D163" s="381"/>
+      <c r="E163" s="381"/>
+      <c r="F163" s="381"/>
+      <c r="G163" s="381"/>
+      <c r="H163" s="381"/>
+      <c r="I163" s="381"/>
+      <c r="J163" s="381"/>
+      <c r="K163" s="381"/>
+      <c r="L163" s="381"/>
+      <c r="M163" s="381"/>
+      <c r="N163" s="381"/>
+      <c r="P163" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="Q163" s="369"/>
-      <c r="R163" s="369"/>
-      <c r="S163" s="369"/>
-      <c r="T163" s="369"/>
-      <c r="U163" s="369"/>
-      <c r="V163" s="369"/>
-      <c r="W163" s="369"/>
-      <c r="X163" s="369"/>
-      <c r="Y163" s="369"/>
-      <c r="Z163" s="369"/>
-      <c r="AA163" s="369"/>
-      <c r="AB163" s="369"/>
-      <c r="AC163" s="369"/>
+      <c r="Q163" s="367"/>
+      <c r="R163" s="367"/>
+      <c r="S163" s="367"/>
+      <c r="T163" s="367"/>
+      <c r="U163" s="367"/>
+      <c r="V163" s="367"/>
+      <c r="W163" s="367"/>
+      <c r="X163" s="367"/>
+      <c r="Y163" s="367"/>
+      <c r="Z163" s="367"/>
+      <c r="AA163" s="367"/>
+      <c r="AB163" s="367"/>
+      <c r="AC163" s="367"/>
       <c r="AD163"/>
-      <c r="AE163" s="369" t="s">
+      <c r="AE163" s="367" t="s">
         <v>237</v>
       </c>
-      <c r="AF163" s="369"/>
-      <c r="AG163" s="369"/>
-      <c r="AH163" s="369"/>
-      <c r="AI163" s="369"/>
-      <c r="AJ163" s="369"/>
-      <c r="AK163" s="369"/>
-      <c r="AL163" s="369"/>
-      <c r="AM163" s="369"/>
-      <c r="AN163" s="369"/>
-      <c r="AO163" s="369"/>
-      <c r="AP163" s="369"/>
-      <c r="AQ163" s="369"/>
-      <c r="AR163" s="369"/>
-      <c r="AT163" s="369" t="s">
+      <c r="AF163" s="367"/>
+      <c r="AG163" s="367"/>
+      <c r="AH163" s="367"/>
+      <c r="AI163" s="367"/>
+      <c r="AJ163" s="367"/>
+      <c r="AK163" s="367"/>
+      <c r="AL163" s="367"/>
+      <c r="AM163" s="367"/>
+      <c r="AN163" s="367"/>
+      <c r="AO163" s="367"/>
+      <c r="AP163" s="367"/>
+      <c r="AQ163" s="367"/>
+      <c r="AR163" s="367"/>
+      <c r="AT163" s="367" t="s">
         <v>238</v>
       </c>
-      <c r="AU163" s="369"/>
-      <c r="AV163" s="369"/>
-      <c r="AW163" s="369"/>
-      <c r="AX163" s="369"/>
-      <c r="AY163" s="369"/>
-      <c r="AZ163" s="369"/>
-      <c r="BA163" s="369"/>
-      <c r="BB163" s="369"/>
-      <c r="BC163" s="369"/>
-      <c r="BD163" s="369"/>
-      <c r="BE163" s="369"/>
-      <c r="BF163" s="369"/>
-      <c r="BG163" s="369"/>
+      <c r="AU163" s="367"/>
+      <c r="AV163" s="367"/>
+      <c r="AW163" s="367"/>
+      <c r="AX163" s="367"/>
+      <c r="AY163" s="367"/>
+      <c r="AZ163" s="367"/>
+      <c r="BA163" s="367"/>
+      <c r="BB163" s="367"/>
+      <c r="BC163" s="367"/>
+      <c r="BD163" s="367"/>
+      <c r="BE163" s="367"/>
+      <c r="BF163" s="367"/>
+      <c r="BG163" s="367"/>
     </row>
     <row r="164" spans="1:123" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
@@ -34848,191 +34875,191 @@
       </c>
     </row>
     <row r="178" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="361" t="s">
+      <c r="A178" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="B178" s="361"/>
-      <c r="C178" s="361"/>
-      <c r="D178" s="362" t="s">
+      <c r="B178" s="369"/>
+      <c r="C178" s="369"/>
+      <c r="D178" s="370" t="s">
         <v>193</v>
       </c>
-      <c r="E178" s="362"/>
-      <c r="F178" s="362"/>
-      <c r="G178" s="363" t="s">
+      <c r="E178" s="370"/>
+      <c r="F178" s="370"/>
+      <c r="G178" s="371" t="s">
         <v>194</v>
       </c>
-      <c r="H178" s="363"/>
-      <c r="I178" s="363"/>
-      <c r="J178" s="364" t="s">
+      <c r="H178" s="371"/>
+      <c r="I178" s="371"/>
+      <c r="J178" s="372" t="s">
         <v>195</v>
       </c>
-      <c r="K178" s="364"/>
-      <c r="L178" s="364"/>
-      <c r="M178" s="365" t="s">
+      <c r="K178" s="372"/>
+      <c r="L178" s="372"/>
+      <c r="M178" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="N178" s="365"/>
-      <c r="O178" s="365"/>
-      <c r="P178" s="385" t="s">
+      <c r="N178" s="373"/>
+      <c r="O178" s="373"/>
+      <c r="P178" s="377" t="s">
         <v>187</v>
       </c>
-      <c r="Q178" s="385"/>
-      <c r="R178" s="385"/>
-      <c r="S178" s="372" t="s">
+      <c r="Q178" s="377"/>
+      <c r="R178" s="377"/>
+      <c r="S178" s="378" t="s">
         <v>188</v>
       </c>
-      <c r="T178" s="372"/>
-      <c r="U178" s="372"/>
-      <c r="V178" s="373" t="s">
+      <c r="T178" s="378"/>
+      <c r="U178" s="378"/>
+      <c r="V178" s="380" t="s">
         <v>189</v>
       </c>
-      <c r="W178" s="373"/>
-      <c r="X178" s="373"/>
-      <c r="Y178" s="375" t="s">
+      <c r="W178" s="380"/>
+      <c r="X178" s="380"/>
+      <c r="Y178" s="374" t="s">
         <v>190</v>
       </c>
-      <c r="Z178" s="375"/>
-      <c r="AA178" s="375"/>
-      <c r="AB178" s="376" t="s">
+      <c r="Z178" s="374"/>
+      <c r="AA178" s="374"/>
+      <c r="AB178" s="375" t="s">
         <v>191</v>
       </c>
-      <c r="AC178" s="376"/>
-      <c r="AD178" s="376"/>
-      <c r="AE178" s="385" t="s">
+      <c r="AC178" s="375"/>
+      <c r="AD178" s="375"/>
+      <c r="AE178" s="377" t="s">
         <v>187</v>
       </c>
-      <c r="AF178" s="385"/>
-      <c r="AG178" s="385"/>
-      <c r="AH178" s="372" t="s">
+      <c r="AF178" s="377"/>
+      <c r="AG178" s="377"/>
+      <c r="AH178" s="378" t="s">
         <v>188</v>
       </c>
-      <c r="AI178" s="372"/>
-      <c r="AJ178" s="372"/>
-      <c r="AK178" s="373" t="s">
+      <c r="AI178" s="378"/>
+      <c r="AJ178" s="378"/>
+      <c r="AK178" s="380" t="s">
         <v>189</v>
       </c>
-      <c r="AL178" s="373"/>
-      <c r="AM178" s="373"/>
-      <c r="AN178" s="375" t="s">
+      <c r="AL178" s="380"/>
+      <c r="AM178" s="380"/>
+      <c r="AN178" s="374" t="s">
         <v>190</v>
       </c>
-      <c r="AO178" s="375"/>
-      <c r="AP178" s="375"/>
-      <c r="AQ178" s="376" t="s">
+      <c r="AO178" s="374"/>
+      <c r="AP178" s="374"/>
+      <c r="AQ178" s="375" t="s">
         <v>191</v>
       </c>
-      <c r="AR178" s="376"/>
-      <c r="AS178" s="376"/>
-      <c r="AT178" s="385" t="s">
+      <c r="AR178" s="375"/>
+      <c r="AS178" s="375"/>
+      <c r="AT178" s="377" t="s">
         <v>187</v>
       </c>
-      <c r="AU178" s="385"/>
-      <c r="AV178" s="385"/>
-      <c r="AW178" s="372" t="s">
+      <c r="AU178" s="377"/>
+      <c r="AV178" s="377"/>
+      <c r="AW178" s="378" t="s">
         <v>188</v>
       </c>
-      <c r="AX178" s="372"/>
-      <c r="AY178" s="372"/>
-      <c r="AZ178" s="373" t="s">
+      <c r="AX178" s="378"/>
+      <c r="AY178" s="378"/>
+      <c r="AZ178" s="380" t="s">
         <v>189</v>
       </c>
-      <c r="BA178" s="373"/>
-      <c r="BB178" s="373"/>
-      <c r="BC178" s="375" t="s">
+      <c r="BA178" s="380"/>
+      <c r="BB178" s="380"/>
+      <c r="BC178" s="374" t="s">
         <v>190</v>
       </c>
-      <c r="BD178" s="375"/>
-      <c r="BE178" s="375"/>
-      <c r="BF178" s="376" t="s">
+      <c r="BD178" s="374"/>
+      <c r="BE178" s="374"/>
+      <c r="BF178" s="375" t="s">
         <v>191</v>
       </c>
-      <c r="BG178" s="376"/>
-      <c r="BH178" s="376"/>
+      <c r="BG178" s="375"/>
+      <c r="BH178" s="375"/>
     </row>
     <row r="179" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="383" t="s">
+      <c r="A179" s="389" t="s">
         <v>284</v>
       </c>
-      <c r="B179" s="383"/>
-      <c r="C179" s="383"/>
-      <c r="D179" s="383"/>
-      <c r="E179" s="383"/>
-      <c r="F179" s="383"/>
-      <c r="G179" s="383"/>
-      <c r="H179" s="383"/>
-      <c r="I179" s="383"/>
-      <c r="J179" s="383"/>
-      <c r="K179" s="383"/>
-      <c r="L179" s="383"/>
-      <c r="M179" s="383"/>
-      <c r="N179" s="383"/>
+      <c r="B179" s="389"/>
+      <c r="C179" s="389"/>
+      <c r="D179" s="389"/>
+      <c r="E179" s="389"/>
+      <c r="F179" s="389"/>
+      <c r="G179" s="389"/>
+      <c r="H179" s="389"/>
+      <c r="I179" s="389"/>
+      <c r="J179" s="389"/>
+      <c r="K179" s="389"/>
+      <c r="L179" s="389"/>
+      <c r="M179" s="389"/>
+      <c r="N179" s="389"/>
       <c r="O179"/>
-      <c r="P179" s="379" t="s">
+      <c r="P179" s="388" t="s">
         <v>283</v>
       </c>
-      <c r="Q179" s="379"/>
-      <c r="R179" s="379"/>
-      <c r="S179" s="379"/>
-      <c r="T179" s="379"/>
-      <c r="U179" s="379"/>
-      <c r="V179" s="379"/>
-      <c r="W179" s="379"/>
-      <c r="X179" s="379"/>
-      <c r="Y179" s="379"/>
-      <c r="Z179" s="379"/>
-      <c r="AA179" s="379"/>
-      <c r="AB179" s="379"/>
-      <c r="AC179" s="379"/>
-      <c r="AE179" s="379" t="s">
+      <c r="Q179" s="388"/>
+      <c r="R179" s="388"/>
+      <c r="S179" s="388"/>
+      <c r="T179" s="388"/>
+      <c r="U179" s="388"/>
+      <c r="V179" s="388"/>
+      <c r="W179" s="388"/>
+      <c r="X179" s="388"/>
+      <c r="Y179" s="388"/>
+      <c r="Z179" s="388"/>
+      <c r="AA179" s="388"/>
+      <c r="AB179" s="388"/>
+      <c r="AC179" s="388"/>
+      <c r="AE179" s="388" t="s">
         <v>285</v>
       </c>
-      <c r="AF179" s="379"/>
-      <c r="AG179" s="379"/>
-      <c r="AH179" s="379"/>
-      <c r="AI179" s="379"/>
-      <c r="AJ179" s="379"/>
-      <c r="AK179" s="379"/>
-      <c r="AL179" s="379"/>
-      <c r="AM179" s="379"/>
-      <c r="AN179" s="379"/>
-      <c r="AO179" s="379"/>
-      <c r="AP179" s="379"/>
-      <c r="AQ179" s="379"/>
-      <c r="AR179" s="379"/>
+      <c r="AF179" s="388"/>
+      <c r="AG179" s="388"/>
+      <c r="AH179" s="388"/>
+      <c r="AI179" s="388"/>
+      <c r="AJ179" s="388"/>
+      <c r="AK179" s="388"/>
+      <c r="AL179" s="388"/>
+      <c r="AM179" s="388"/>
+      <c r="AN179" s="388"/>
+      <c r="AO179" s="388"/>
+      <c r="AP179" s="388"/>
+      <c r="AQ179" s="388"/>
+      <c r="AR179" s="388"/>
       <c r="AS179"/>
-      <c r="AT179" s="379" t="s">
+      <c r="AT179" s="388" t="s">
         <v>263</v>
       </c>
-      <c r="AU179" s="379"/>
-      <c r="AV179" s="379"/>
-      <c r="AW179" s="379"/>
-      <c r="AX179" s="379"/>
-      <c r="AY179" s="379"/>
-      <c r="AZ179" s="379"/>
-      <c r="BA179" s="379"/>
-      <c r="BB179" s="379"/>
-      <c r="BC179" s="379"/>
-      <c r="BD179" s="379"/>
-      <c r="BE179" s="379"/>
-      <c r="BF179" s="379"/>
-      <c r="BG179" s="379"/>
+      <c r="AU179" s="388"/>
+      <c r="AV179" s="388"/>
+      <c r="AW179" s="388"/>
+      <c r="AX179" s="388"/>
+      <c r="AY179" s="388"/>
+      <c r="AZ179" s="388"/>
+      <c r="BA179" s="388"/>
+      <c r="BB179" s="388"/>
+      <c r="BC179" s="388"/>
+      <c r="BD179" s="388"/>
+      <c r="BE179" s="388"/>
+      <c r="BF179" s="388"/>
+      <c r="BG179" s="388"/>
       <c r="BH179"/>
-      <c r="BI179" s="379" t="s">
+      <c r="BI179" s="388" t="s">
         <v>286</v>
       </c>
-      <c r="BJ179" s="379"/>
-      <c r="BK179" s="379"/>
-      <c r="BL179" s="379"/>
-      <c r="BM179" s="379"/>
-      <c r="BN179" s="379"/>
-      <c r="BO179" s="379"/>
-      <c r="BP179" s="379"/>
-      <c r="BQ179" s="379"/>
-      <c r="BR179" s="379"/>
-      <c r="BS179" s="379"/>
-      <c r="BT179" s="379"/>
-      <c r="BU179" s="379"/>
-      <c r="BV179" s="379"/>
+      <c r="BJ179" s="388"/>
+      <c r="BK179" s="388"/>
+      <c r="BL179" s="388"/>
+      <c r="BM179" s="388"/>
+      <c r="BN179" s="388"/>
+      <c r="BO179" s="388"/>
+      <c r="BP179" s="388"/>
+      <c r="BQ179" s="388"/>
+      <c r="BR179" s="388"/>
+      <c r="BS179" s="388"/>
+      <c r="BT179" s="388"/>
+      <c r="BU179" s="388"/>
+      <c r="BV179" s="388"/>
     </row>
     <row r="180" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
@@ -38110,22 +38137,22 @@
       <c r="BV194" s="218"/>
     </row>
     <row r="195" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="383" t="s">
+      <c r="A195" s="389" t="s">
         <v>368</v>
       </c>
-      <c r="B195" s="383"/>
-      <c r="C195" s="383"/>
-      <c r="D195" s="383"/>
-      <c r="E195" s="383"/>
-      <c r="F195" s="383"/>
-      <c r="G195" s="383"/>
-      <c r="H195" s="383"/>
-      <c r="I195" s="383"/>
-      <c r="J195" s="383"/>
-      <c r="K195" s="383"/>
-      <c r="L195" s="383"/>
-      <c r="M195" s="383"/>
-      <c r="N195" s="383"/>
+      <c r="B195" s="389"/>
+      <c r="C195" s="389"/>
+      <c r="D195" s="389"/>
+      <c r="E195" s="389"/>
+      <c r="F195" s="389"/>
+      <c r="G195" s="389"/>
+      <c r="H195" s="389"/>
+      <c r="I195" s="389"/>
+      <c r="J195" s="389"/>
+      <c r="K195" s="389"/>
+      <c r="L195" s="389"/>
+      <c r="M195" s="389"/>
+      <c r="N195" s="389"/>
       <c r="O195"/>
       <c r="P195" s="306"/>
       <c r="Q195" s="217"/>
@@ -41083,31 +41110,31 @@
       <c r="BW223" s="205"/>
     </row>
     <row r="224" spans="1:75" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="361" t="s">
+      <c r="A224" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="B224" s="361"/>
-      <c r="C224" s="361"/>
-      <c r="D224" s="362" t="s">
+      <c r="B224" s="369"/>
+      <c r="C224" s="369"/>
+      <c r="D224" s="370" t="s">
         <v>193</v>
       </c>
-      <c r="E224" s="362"/>
-      <c r="F224" s="362"/>
-      <c r="G224" s="363" t="s">
+      <c r="E224" s="370"/>
+      <c r="F224" s="370"/>
+      <c r="G224" s="371" t="s">
         <v>194</v>
       </c>
-      <c r="H224" s="363"/>
-      <c r="I224" s="363"/>
-      <c r="J224" s="364" t="s">
+      <c r="H224" s="371"/>
+      <c r="I224" s="371"/>
+      <c r="J224" s="372" t="s">
         <v>195</v>
       </c>
-      <c r="K224" s="364"/>
-      <c r="L224" s="364"/>
-      <c r="M224" s="365" t="s">
+      <c r="K224" s="372"/>
+      <c r="L224" s="372"/>
+      <c r="M224" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="N224" s="365"/>
-      <c r="O224" s="365"/>
+      <c r="N224" s="373"/>
+      <c r="O224" s="373"/>
       <c r="P224" s="205"/>
       <c r="Q224" s="205"/>
       <c r="R224" s="205"/>
@@ -41170,38 +41197,38 @@
       <c r="BW224" s="205"/>
     </row>
     <row r="225" spans="1:44" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="367" t="s">
+      <c r="A225" s="368" t="s">
         <v>165</v>
       </c>
-      <c r="B225" s="367"/>
-      <c r="C225" s="367"/>
-      <c r="D225" s="367"/>
-      <c r="E225" s="367"/>
-      <c r="F225" s="367"/>
-      <c r="G225" s="367"/>
-      <c r="H225" s="367"/>
-      <c r="I225" s="367"/>
-      <c r="J225" s="367"/>
-      <c r="K225" s="367"/>
-      <c r="L225" s="367"/>
-      <c r="M225" s="367"/>
-      <c r="N225" s="367"/>
-      <c r="P225" s="367" t="s">
+      <c r="B225" s="368"/>
+      <c r="C225" s="368"/>
+      <c r="D225" s="368"/>
+      <c r="E225" s="368"/>
+      <c r="F225" s="368"/>
+      <c r="G225" s="368"/>
+      <c r="H225" s="368"/>
+      <c r="I225" s="368"/>
+      <c r="J225" s="368"/>
+      <c r="K225" s="368"/>
+      <c r="L225" s="368"/>
+      <c r="M225" s="368"/>
+      <c r="N225" s="368"/>
+      <c r="P225" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="Q225" s="367"/>
-      <c r="R225" s="367"/>
-      <c r="S225" s="367"/>
-      <c r="T225" s="367"/>
-      <c r="U225" s="367"/>
-      <c r="V225" s="367"/>
-      <c r="W225" s="367"/>
-      <c r="X225" s="367"/>
-      <c r="Y225" s="367"/>
-      <c r="Z225" s="367"/>
-      <c r="AA225" s="367"/>
-      <c r="AB225" s="367"/>
-      <c r="AC225" s="367"/>
+      <c r="Q225" s="368"/>
+      <c r="R225" s="368"/>
+      <c r="S225" s="368"/>
+      <c r="T225" s="368"/>
+      <c r="U225" s="368"/>
+      <c r="V225" s="368"/>
+      <c r="W225" s="368"/>
+      <c r="X225" s="368"/>
+      <c r="Y225" s="368"/>
+      <c r="Z225" s="368"/>
+      <c r="AA225" s="368"/>
+      <c r="AB225" s="368"/>
+      <c r="AC225" s="368"/>
     </row>
     <row r="226" spans="1:44" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
@@ -42402,133 +42429,133 @@
       <c r="AC239" s="145">
         <v>22</v>
       </c>
-      <c r="AD239" s="361" t="s">
+      <c r="AD239" s="369" t="s">
         <v>192</v>
       </c>
-      <c r="AE239" s="361"/>
-      <c r="AF239" s="361"/>
-      <c r="AG239" s="362" t="s">
+      <c r="AE239" s="369"/>
+      <c r="AF239" s="369"/>
+      <c r="AG239" s="370" t="s">
         <v>193</v>
       </c>
-      <c r="AH239" s="362"/>
-      <c r="AI239" s="362"/>
-      <c r="AJ239" s="363" t="s">
+      <c r="AH239" s="370"/>
+      <c r="AI239" s="370"/>
+      <c r="AJ239" s="371" t="s">
         <v>194</v>
       </c>
-      <c r="AK239" s="363"/>
-      <c r="AL239" s="363"/>
-      <c r="AM239" s="364" t="s">
+      <c r="AK239" s="371"/>
+      <c r="AL239" s="371"/>
+      <c r="AM239" s="372" t="s">
         <v>195</v>
       </c>
-      <c r="AN239" s="364"/>
-      <c r="AO239" s="364"/>
-      <c r="AP239" s="365" t="s">
+      <c r="AN239" s="372"/>
+      <c r="AO239" s="372"/>
+      <c r="AP239" s="373" t="s">
         <v>196</v>
       </c>
-      <c r="AQ239" s="365"/>
-      <c r="AR239" s="365"/>
+      <c r="AQ239" s="373"/>
+      <c r="AR239" s="373"/>
     </row>
     <row r="240" spans="1:44" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="360" t="s">
+      <c r="A240" s="376" t="s">
         <v>166</v>
       </c>
-      <c r="B240" s="360"/>
-      <c r="C240" s="360"/>
-      <c r="D240" s="360"/>
-      <c r="E240" s="360"/>
-      <c r="F240" s="360"/>
-      <c r="G240" s="360"/>
-      <c r="H240" s="360"/>
-      <c r="I240" s="360"/>
-      <c r="J240" s="360"/>
-      <c r="K240" s="360"/>
-      <c r="L240" s="360"/>
-      <c r="M240" s="360"/>
-      <c r="N240" s="360"/>
-      <c r="O240" s="360"/>
-      <c r="P240" s="360"/>
-      <c r="Q240" s="360"/>
-      <c r="R240" s="360"/>
-      <c r="S240" s="360"/>
-      <c r="T240" s="360"/>
-      <c r="U240" s="360"/>
-      <c r="V240" s="360"/>
-      <c r="W240" s="360"/>
-      <c r="X240" s="360"/>
-      <c r="Y240" s="360"/>
-      <c r="Z240" s="360"/>
-      <c r="AA240" s="360"/>
-      <c r="AB240" s="360"/>
-      <c r="AC240" s="360"/>
-      <c r="AD240" s="360"/>
+      <c r="B240" s="376"/>
+      <c r="C240" s="376"/>
+      <c r="D240" s="376"/>
+      <c r="E240" s="376"/>
+      <c r="F240" s="376"/>
+      <c r="G240" s="376"/>
+      <c r="H240" s="376"/>
+      <c r="I240" s="376"/>
+      <c r="J240" s="376"/>
+      <c r="K240" s="376"/>
+      <c r="L240" s="376"/>
+      <c r="M240" s="376"/>
+      <c r="N240" s="376"/>
+      <c r="O240" s="376"/>
+      <c r="P240" s="376"/>
+      <c r="Q240" s="376"/>
+      <c r="R240" s="376"/>
+      <c r="S240" s="376"/>
+      <c r="T240" s="376"/>
+      <c r="U240" s="376"/>
+      <c r="V240" s="376"/>
+      <c r="W240" s="376"/>
+      <c r="X240" s="376"/>
+      <c r="Y240" s="376"/>
+      <c r="Z240" s="376"/>
+      <c r="AA240" s="376"/>
+      <c r="AB240" s="376"/>
+      <c r="AC240" s="376"/>
+      <c r="AD240" s="376"/>
     </row>
     <row r="241" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="379" t="s">
+      <c r="A241" s="388" t="s">
         <v>167</v>
       </c>
-      <c r="B241" s="379"/>
-      <c r="C241" s="379"/>
-      <c r="D241" s="379"/>
-      <c r="E241" s="379"/>
-      <c r="F241" s="379"/>
-      <c r="G241" s="379"/>
-      <c r="H241" s="379"/>
-      <c r="I241" s="379"/>
-      <c r="J241" s="379"/>
-      <c r="K241" s="379"/>
-      <c r="L241" s="379"/>
-      <c r="M241" s="379"/>
-      <c r="N241" s="379"/>
+      <c r="B241" s="388"/>
+      <c r="C241" s="388"/>
+      <c r="D241" s="388"/>
+      <c r="E241" s="388"/>
+      <c r="F241" s="388"/>
+      <c r="G241" s="388"/>
+      <c r="H241" s="388"/>
+      <c r="I241" s="388"/>
+      <c r="J241" s="388"/>
+      <c r="K241" s="388"/>
+      <c r="L241" s="388"/>
+      <c r="M241" s="388"/>
+      <c r="N241" s="388"/>
       <c r="O241"/>
-      <c r="P241" s="379" t="s">
+      <c r="P241" s="388" t="s">
         <v>168</v>
       </c>
-      <c r="Q241" s="379"/>
-      <c r="R241" s="379"/>
-      <c r="S241" s="379"/>
-      <c r="T241" s="379"/>
-      <c r="U241" s="379"/>
-      <c r="V241" s="379"/>
-      <c r="W241" s="379"/>
-      <c r="X241" s="379"/>
-      <c r="Y241" s="379"/>
-      <c r="Z241" s="379"/>
-      <c r="AA241" s="379"/>
-      <c r="AB241" s="379"/>
-      <c r="AC241" s="379"/>
-      <c r="AE241" s="386" t="s">
+      <c r="Q241" s="388"/>
+      <c r="R241" s="388"/>
+      <c r="S241" s="388"/>
+      <c r="T241" s="388"/>
+      <c r="U241" s="388"/>
+      <c r="V241" s="388"/>
+      <c r="W241" s="388"/>
+      <c r="X241" s="388"/>
+      <c r="Y241" s="388"/>
+      <c r="Z241" s="388"/>
+      <c r="AA241" s="388"/>
+      <c r="AB241" s="388"/>
+      <c r="AC241" s="388"/>
+      <c r="AE241" s="390" t="s">
         <v>169</v>
       </c>
-      <c r="AF241" s="386"/>
-      <c r="AG241" s="386"/>
-      <c r="AH241" s="386"/>
-      <c r="AI241" s="386"/>
-      <c r="AJ241" s="386"/>
-      <c r="AK241" s="386"/>
-      <c r="AL241" s="386"/>
-      <c r="AM241" s="386"/>
-      <c r="AN241" s="386"/>
-      <c r="AO241" s="386"/>
-      <c r="AP241" s="386"/>
-      <c r="AQ241" s="386"/>
-      <c r="AR241" s="386"/>
+      <c r="AF241" s="390"/>
+      <c r="AG241" s="390"/>
+      <c r="AH241" s="390"/>
+      <c r="AI241" s="390"/>
+      <c r="AJ241" s="390"/>
+      <c r="AK241" s="390"/>
+      <c r="AL241" s="390"/>
+      <c r="AM241" s="390"/>
+      <c r="AN241" s="390"/>
+      <c r="AO241" s="390"/>
+      <c r="AP241" s="390"/>
+      <c r="AQ241" s="390"/>
+      <c r="AR241" s="390"/>
       <c r="AS241"/>
-      <c r="AT241" s="381" t="s">
+      <c r="AT241" s="384" t="s">
         <v>170</v>
       </c>
-      <c r="AU241" s="381"/>
-      <c r="AV241" s="381"/>
-      <c r="AW241" s="381"/>
-      <c r="AX241" s="381"/>
-      <c r="AY241" s="381"/>
-      <c r="AZ241" s="381"/>
-      <c r="BA241" s="381"/>
-      <c r="BB241" s="381"/>
-      <c r="BC241" s="381"/>
-      <c r="BD241" s="381"/>
-      <c r="BE241" s="381"/>
-      <c r="BF241" s="381"/>
-      <c r="BG241" s="381"/>
+      <c r="AU241" s="384"/>
+      <c r="AV241" s="384"/>
+      <c r="AW241" s="384"/>
+      <c r="AX241" s="384"/>
+      <c r="AY241" s="384"/>
+      <c r="AZ241" s="384"/>
+      <c r="BA241" s="384"/>
+      <c r="BB241" s="384"/>
+      <c r="BC241" s="384"/>
+      <c r="BD241" s="384"/>
+      <c r="BE241" s="384"/>
+      <c r="BF241" s="384"/>
+      <c r="BG241" s="384"/>
     </row>
     <row r="242" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
@@ -44935,90 +44962,90 @@
       </c>
     </row>
     <row r="256" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="380" t="s">
+      <c r="A256" s="383" t="s">
         <v>171</v>
       </c>
-      <c r="B256" s="380"/>
-      <c r="C256" s="380"/>
-      <c r="D256" s="380"/>
-      <c r="E256" s="380"/>
-      <c r="F256" s="380"/>
-      <c r="G256" s="380"/>
-      <c r="H256" s="380"/>
-      <c r="I256" s="380"/>
-      <c r="J256" s="380"/>
-      <c r="K256" s="380"/>
-      <c r="L256" s="380"/>
-      <c r="M256" s="380"/>
-      <c r="N256" s="380"/>
+      <c r="B256" s="383"/>
+      <c r="C256" s="383"/>
+      <c r="D256" s="383"/>
+      <c r="E256" s="383"/>
+      <c r="F256" s="383"/>
+      <c r="G256" s="383"/>
+      <c r="H256" s="383"/>
+      <c r="I256" s="383"/>
+      <c r="J256" s="383"/>
+      <c r="K256" s="383"/>
+      <c r="L256" s="383"/>
+      <c r="M256" s="383"/>
+      <c r="N256" s="383"/>
       <c r="O256" s="119"/>
-      <c r="P256" s="381" t="s">
+      <c r="P256" s="384" t="s">
         <v>172</v>
       </c>
-      <c r="Q256" s="381"/>
-      <c r="R256" s="381"/>
-      <c r="S256" s="381"/>
-      <c r="T256" s="381"/>
-      <c r="U256" s="381"/>
-      <c r="V256" s="381"/>
-      <c r="W256" s="381"/>
-      <c r="X256" s="381"/>
-      <c r="Y256" s="381"/>
-      <c r="Z256" s="381"/>
-      <c r="AA256" s="381"/>
-      <c r="AB256" s="381"/>
-      <c r="AC256" s="381"/>
+      <c r="Q256" s="384"/>
+      <c r="R256" s="384"/>
+      <c r="S256" s="384"/>
+      <c r="T256" s="384"/>
+      <c r="U256" s="384"/>
+      <c r="V256" s="384"/>
+      <c r="W256" s="384"/>
+      <c r="X256" s="384"/>
+      <c r="Y256" s="384"/>
+      <c r="Z256" s="384"/>
+      <c r="AA256" s="384"/>
+      <c r="AB256" s="384"/>
+      <c r="AC256" s="384"/>
       <c r="AD256" s="120"/>
-      <c r="AE256" s="381" t="s">
+      <c r="AE256" s="384" t="s">
         <v>173</v>
       </c>
-      <c r="AF256" s="381"/>
-      <c r="AG256" s="381"/>
-      <c r="AH256" s="381"/>
-      <c r="AI256" s="381"/>
-      <c r="AJ256" s="381"/>
-      <c r="AK256" s="381"/>
-      <c r="AL256" s="381"/>
-      <c r="AM256" s="381"/>
-      <c r="AN256" s="381"/>
-      <c r="AO256" s="381"/>
-      <c r="AP256" s="381"/>
-      <c r="AQ256" s="381"/>
-      <c r="AR256" s="381"/>
+      <c r="AF256" s="384"/>
+      <c r="AG256" s="384"/>
+      <c r="AH256" s="384"/>
+      <c r="AI256" s="384"/>
+      <c r="AJ256" s="384"/>
+      <c r="AK256" s="384"/>
+      <c r="AL256" s="384"/>
+      <c r="AM256" s="384"/>
+      <c r="AN256" s="384"/>
+      <c r="AO256" s="384"/>
+      <c r="AP256" s="384"/>
+      <c r="AQ256" s="384"/>
+      <c r="AR256" s="384"/>
       <c r="AS256" s="119"/>
-      <c r="AT256" s="382" t="s">
+      <c r="AT256" s="385" t="s">
         <v>174</v>
       </c>
-      <c r="AU256" s="382"/>
-      <c r="AV256" s="382"/>
-      <c r="AW256" s="382"/>
-      <c r="AX256" s="382"/>
-      <c r="AY256" s="382"/>
-      <c r="AZ256" s="382"/>
-      <c r="BA256" s="382"/>
-      <c r="BB256" s="382"/>
-      <c r="BC256" s="382"/>
-      <c r="BD256" s="382"/>
-      <c r="BE256" s="382"/>
-      <c r="BF256" s="382"/>
-      <c r="BG256" s="382"/>
+      <c r="AU256" s="385"/>
+      <c r="AV256" s="385"/>
+      <c r="AW256" s="385"/>
+      <c r="AX256" s="385"/>
+      <c r="AY256" s="385"/>
+      <c r="AZ256" s="385"/>
+      <c r="BA256" s="385"/>
+      <c r="BB256" s="385"/>
+      <c r="BC256" s="385"/>
+      <c r="BD256" s="385"/>
+      <c r="BE256" s="385"/>
+      <c r="BF256" s="385"/>
+      <c r="BG256" s="385"/>
       <c r="BH256" s="119"/>
-      <c r="BI256" s="387" t="s">
+      <c r="BI256" s="391" t="s">
         <v>175</v>
       </c>
-      <c r="BJ256" s="387"/>
-      <c r="BK256" s="387"/>
-      <c r="BL256" s="387"/>
-      <c r="BM256" s="387"/>
-      <c r="BN256" s="387"/>
-      <c r="BO256" s="387"/>
-      <c r="BP256" s="387"/>
-      <c r="BQ256" s="387"/>
-      <c r="BR256" s="387"/>
-      <c r="BS256" s="387"/>
-      <c r="BT256" s="387"/>
-      <c r="BU256" s="387"/>
-      <c r="BV256" s="387"/>
+      <c r="BJ256" s="391"/>
+      <c r="BK256" s="391"/>
+      <c r="BL256" s="391"/>
+      <c r="BM256" s="391"/>
+      <c r="BN256" s="391"/>
+      <c r="BO256" s="391"/>
+      <c r="BP256" s="391"/>
+      <c r="BQ256" s="391"/>
+      <c r="BR256" s="391"/>
+      <c r="BS256" s="391"/>
+      <c r="BT256" s="391"/>
+      <c r="BU256" s="391"/>
+      <c r="BV256" s="391"/>
     </row>
     <row r="257" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
@@ -48035,90 +48062,90 @@
       </c>
     </row>
     <row r="271" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="380" t="s">
+      <c r="A271" s="383" t="s">
         <v>176</v>
       </c>
-      <c r="B271" s="380"/>
-      <c r="C271" s="380"/>
-      <c r="D271" s="380"/>
-      <c r="E271" s="380"/>
-      <c r="F271" s="380"/>
-      <c r="G271" s="380"/>
-      <c r="H271" s="380"/>
-      <c r="I271" s="380"/>
-      <c r="J271" s="380"/>
-      <c r="K271" s="380"/>
-      <c r="L271" s="380"/>
-      <c r="M271" s="380"/>
-      <c r="N271" s="380"/>
+      <c r="B271" s="383"/>
+      <c r="C271" s="383"/>
+      <c r="D271" s="383"/>
+      <c r="E271" s="383"/>
+      <c r="F271" s="383"/>
+      <c r="G271" s="383"/>
+      <c r="H271" s="383"/>
+      <c r="I271" s="383"/>
+      <c r="J271" s="383"/>
+      <c r="K271" s="383"/>
+      <c r="L271" s="383"/>
+      <c r="M271" s="383"/>
+      <c r="N271" s="383"/>
       <c r="O271" s="119"/>
-      <c r="P271" s="380" t="s">
+      <c r="P271" s="383" t="s">
         <v>177</v>
       </c>
-      <c r="Q271" s="380"/>
-      <c r="R271" s="380"/>
-      <c r="S271" s="380"/>
-      <c r="T271" s="380"/>
-      <c r="U271" s="380"/>
-      <c r="V271" s="380"/>
-      <c r="W271" s="380"/>
-      <c r="X271" s="380"/>
-      <c r="Y271" s="380"/>
-      <c r="Z271" s="380"/>
-      <c r="AA271" s="380"/>
-      <c r="AB271" s="380"/>
-      <c r="AC271" s="380"/>
+      <c r="Q271" s="383"/>
+      <c r="R271" s="383"/>
+      <c r="S271" s="383"/>
+      <c r="T271" s="383"/>
+      <c r="U271" s="383"/>
+      <c r="V271" s="383"/>
+      <c r="W271" s="383"/>
+      <c r="X271" s="383"/>
+      <c r="Y271" s="383"/>
+      <c r="Z271" s="383"/>
+      <c r="AA271" s="383"/>
+      <c r="AB271" s="383"/>
+      <c r="AC271" s="383"/>
       <c r="AD271" s="120"/>
-      <c r="AE271" s="380" t="s">
+      <c r="AE271" s="383" t="s">
         <v>178</v>
       </c>
-      <c r="AF271" s="380"/>
-      <c r="AG271" s="380"/>
-      <c r="AH271" s="380"/>
-      <c r="AI271" s="380"/>
-      <c r="AJ271" s="380"/>
-      <c r="AK271" s="380"/>
-      <c r="AL271" s="380"/>
-      <c r="AM271" s="380"/>
-      <c r="AN271" s="380"/>
-      <c r="AO271" s="380"/>
-      <c r="AP271" s="380"/>
-      <c r="AQ271" s="380"/>
-      <c r="AR271" s="380"/>
+      <c r="AF271" s="383"/>
+      <c r="AG271" s="383"/>
+      <c r="AH271" s="383"/>
+      <c r="AI271" s="383"/>
+      <c r="AJ271" s="383"/>
+      <c r="AK271" s="383"/>
+      <c r="AL271" s="383"/>
+      <c r="AM271" s="383"/>
+      <c r="AN271" s="383"/>
+      <c r="AO271" s="383"/>
+      <c r="AP271" s="383"/>
+      <c r="AQ271" s="383"/>
+      <c r="AR271" s="383"/>
       <c r="AS271" s="119"/>
-      <c r="AT271" s="380" t="s">
+      <c r="AT271" s="383" t="s">
         <v>179</v>
       </c>
-      <c r="AU271" s="380"/>
-      <c r="AV271" s="380"/>
-      <c r="AW271" s="380"/>
-      <c r="AX271" s="380"/>
-      <c r="AY271" s="380"/>
-      <c r="AZ271" s="380"/>
-      <c r="BA271" s="380"/>
-      <c r="BB271" s="380"/>
-      <c r="BC271" s="380"/>
-      <c r="BD271" s="380"/>
-      <c r="BE271" s="380"/>
-      <c r="BF271" s="380"/>
-      <c r="BG271" s="380"/>
+      <c r="AU271" s="383"/>
+      <c r="AV271" s="383"/>
+      <c r="AW271" s="383"/>
+      <c r="AX271" s="383"/>
+      <c r="AY271" s="383"/>
+      <c r="AZ271" s="383"/>
+      <c r="BA271" s="383"/>
+      <c r="BB271" s="383"/>
+      <c r="BC271" s="383"/>
+      <c r="BD271" s="383"/>
+      <c r="BE271" s="383"/>
+      <c r="BF271" s="383"/>
+      <c r="BG271" s="383"/>
       <c r="BH271"/>
-      <c r="BI271" s="380" t="s">
+      <c r="BI271" s="383" t="s">
         <v>180</v>
       </c>
-      <c r="BJ271" s="380"/>
-      <c r="BK271" s="380"/>
-      <c r="BL271" s="380"/>
-      <c r="BM271" s="380"/>
-      <c r="BN271" s="380"/>
-      <c r="BO271" s="380"/>
-      <c r="BP271" s="380"/>
-      <c r="BQ271" s="380"/>
-      <c r="BR271" s="380"/>
-      <c r="BS271" s="380"/>
-      <c r="BT271" s="380"/>
-      <c r="BU271" s="380"/>
-      <c r="BV271" s="380"/>
+      <c r="BJ271" s="383"/>
+      <c r="BK271" s="383"/>
+      <c r="BL271" s="383"/>
+      <c r="BM271" s="383"/>
+      <c r="BN271" s="383"/>
+      <c r="BO271" s="383"/>
+      <c r="BP271" s="383"/>
+      <c r="BQ271" s="383"/>
+      <c r="BR271" s="383"/>
+      <c r="BS271" s="383"/>
+      <c r="BT271" s="383"/>
+      <c r="BU271" s="383"/>
+      <c r="BV271" s="383"/>
     </row>
     <row r="272" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
@@ -51164,140 +51191,140 @@
       <c r="CZ285" s="295"/>
     </row>
     <row r="286" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="380" t="s">
+      <c r="A286" s="383" t="s">
         <v>181</v>
       </c>
-      <c r="B286" s="380"/>
-      <c r="C286" s="380"/>
-      <c r="D286" s="380"/>
-      <c r="E286" s="380"/>
-      <c r="F286" s="380"/>
-      <c r="G286" s="380"/>
-      <c r="H286" s="380"/>
-      <c r="I286" s="380"/>
-      <c r="J286" s="380"/>
-      <c r="K286" s="380"/>
-      <c r="L286" s="380"/>
-      <c r="M286" s="380"/>
-      <c r="N286" s="380"/>
+      <c r="B286" s="383"/>
+      <c r="C286" s="383"/>
+      <c r="D286" s="383"/>
+      <c r="E286" s="383"/>
+      <c r="F286" s="383"/>
+      <c r="G286" s="383"/>
+      <c r="H286" s="383"/>
+      <c r="I286" s="383"/>
+      <c r="J286" s="383"/>
+      <c r="K286" s="383"/>
+      <c r="L286" s="383"/>
+      <c r="M286" s="383"/>
+      <c r="N286" s="383"/>
       <c r="O286" s="119"/>
-      <c r="P286" s="380" t="s">
+      <c r="P286" s="383" t="s">
         <v>182</v>
       </c>
-      <c r="Q286" s="380"/>
-      <c r="R286" s="380"/>
-      <c r="S286" s="380"/>
-      <c r="T286" s="380"/>
-      <c r="U286" s="380"/>
-      <c r="V286" s="380"/>
-      <c r="W286" s="380"/>
-      <c r="X286" s="380"/>
-      <c r="Y286" s="380"/>
-      <c r="Z286" s="380"/>
-      <c r="AA286" s="380"/>
-      <c r="AB286" s="380"/>
-      <c r="AC286" s="380"/>
+      <c r="Q286" s="383"/>
+      <c r="R286" s="383"/>
+      <c r="S286" s="383"/>
+      <c r="T286" s="383"/>
+      <c r="U286" s="383"/>
+      <c r="V286" s="383"/>
+      <c r="W286" s="383"/>
+      <c r="X286" s="383"/>
+      <c r="Y286" s="383"/>
+      <c r="Z286" s="383"/>
+      <c r="AA286" s="383"/>
+      <c r="AB286" s="383"/>
+      <c r="AC286" s="383"/>
       <c r="AD286" s="120"/>
-      <c r="AE286" s="380" t="s">
+      <c r="AE286" s="383" t="s">
         <v>183</v>
       </c>
-      <c r="AF286" s="380"/>
-      <c r="AG286" s="380"/>
-      <c r="AH286" s="380"/>
-      <c r="AI286" s="380"/>
-      <c r="AJ286" s="380"/>
-      <c r="AK286" s="380"/>
-      <c r="AL286" s="380"/>
-      <c r="AM286" s="380"/>
-      <c r="AN286" s="380"/>
-      <c r="AO286" s="380"/>
-      <c r="AP286" s="380"/>
-      <c r="AQ286" s="380"/>
-      <c r="AR286" s="380"/>
+      <c r="AF286" s="383"/>
+      <c r="AG286" s="383"/>
+      <c r="AH286" s="383"/>
+      <c r="AI286" s="383"/>
+      <c r="AJ286" s="383"/>
+      <c r="AK286" s="383"/>
+      <c r="AL286" s="383"/>
+      <c r="AM286" s="383"/>
+      <c r="AN286" s="383"/>
+      <c r="AO286" s="383"/>
+      <c r="AP286" s="383"/>
+      <c r="AQ286" s="383"/>
+      <c r="AR286" s="383"/>
       <c r="AS286"/>
-      <c r="AT286" s="389" t="s">
+      <c r="AT286" s="393" t="s">
         <v>184</v>
       </c>
-      <c r="AU286" s="389"/>
-      <c r="AV286" s="389"/>
-      <c r="AW286" s="389"/>
-      <c r="AX286" s="389"/>
-      <c r="AY286" s="389"/>
-      <c r="AZ286" s="389"/>
-      <c r="BA286" s="389"/>
-      <c r="BB286" s="389"/>
-      <c r="BC286" s="389"/>
-      <c r="BD286" s="389"/>
-      <c r="BE286" s="389"/>
-      <c r="BF286" s="389"/>
-      <c r="BG286" s="389"/>
+      <c r="AU286" s="393"/>
+      <c r="AV286" s="393"/>
+      <c r="AW286" s="393"/>
+      <c r="AX286" s="393"/>
+      <c r="AY286" s="393"/>
+      <c r="AZ286" s="393"/>
+      <c r="BA286" s="393"/>
+      <c r="BB286" s="393"/>
+      <c r="BC286" s="393"/>
+      <c r="BD286" s="393"/>
+      <c r="BE286" s="393"/>
+      <c r="BF286" s="393"/>
+      <c r="BG286" s="393"/>
       <c r="BH286" s="119"/>
-      <c r="BI286" s="380" t="s">
+      <c r="BI286" s="383" t="s">
         <v>185</v>
       </c>
-      <c r="BJ286" s="380"/>
-      <c r="BK286" s="380"/>
-      <c r="BL286" s="380"/>
-      <c r="BM286" s="380"/>
-      <c r="BN286" s="380"/>
-      <c r="BO286" s="380"/>
-      <c r="BP286" s="380"/>
-      <c r="BQ286" s="380"/>
-      <c r="BR286" s="380"/>
-      <c r="BS286" s="380"/>
-      <c r="BT286" s="380"/>
-      <c r="BU286" s="380"/>
-      <c r="BV286" s="380"/>
+      <c r="BJ286" s="383"/>
+      <c r="BK286" s="383"/>
+      <c r="BL286" s="383"/>
+      <c r="BM286" s="383"/>
+      <c r="BN286" s="383"/>
+      <c r="BO286" s="383"/>
+      <c r="BP286" s="383"/>
+      <c r="BQ286" s="383"/>
+      <c r="BR286" s="383"/>
+      <c r="BS286" s="383"/>
+      <c r="BT286" s="383"/>
+      <c r="BU286" s="383"/>
+      <c r="BV286" s="383"/>
       <c r="BW286"/>
-      <c r="BX286" s="380" t="s">
+      <c r="BX286" s="383" t="s">
         <v>355</v>
       </c>
-      <c r="BY286" s="380"/>
-      <c r="BZ286" s="380"/>
-      <c r="CA286" s="380"/>
-      <c r="CB286" s="380"/>
-      <c r="CC286" s="380"/>
-      <c r="CD286" s="380"/>
-      <c r="CE286" s="380"/>
-      <c r="CF286" s="380"/>
-      <c r="CG286" s="380"/>
-      <c r="CH286" s="380"/>
-      <c r="CI286" s="380"/>
-      <c r="CJ286" s="380"/>
-      <c r="CK286" s="380"/>
+      <c r="BY286" s="383"/>
+      <c r="BZ286" s="383"/>
+      <c r="CA286" s="383"/>
+      <c r="CB286" s="383"/>
+      <c r="CC286" s="383"/>
+      <c r="CD286" s="383"/>
+      <c r="CE286" s="383"/>
+      <c r="CF286" s="383"/>
+      <c r="CG286" s="383"/>
+      <c r="CH286" s="383"/>
+      <c r="CI286" s="383"/>
+      <c r="CJ286" s="383"/>
+      <c r="CK286" s="383"/>
       <c r="CL286"/>
-      <c r="CM286" s="386" t="s">
+      <c r="CM286" s="390" t="s">
         <v>186</v>
       </c>
-      <c r="CN286" s="386"/>
-      <c r="CO286" s="386"/>
-      <c r="CP286" s="386"/>
-      <c r="CQ286" s="386"/>
-      <c r="CR286" s="386"/>
-      <c r="CS286" s="386"/>
-      <c r="CT286" s="386"/>
-      <c r="CU286" s="386"/>
-      <c r="CV286" s="386"/>
-      <c r="CW286" s="386"/>
-      <c r="CX286" s="386"/>
-      <c r="CY286" s="386"/>
-      <c r="CZ286" s="386"/>
-      <c r="DB286" s="388" t="s">
+      <c r="CN286" s="390"/>
+      <c r="CO286" s="390"/>
+      <c r="CP286" s="390"/>
+      <c r="CQ286" s="390"/>
+      <c r="CR286" s="390"/>
+      <c r="CS286" s="390"/>
+      <c r="CT286" s="390"/>
+      <c r="CU286" s="390"/>
+      <c r="CV286" s="390"/>
+      <c r="CW286" s="390"/>
+      <c r="CX286" s="390"/>
+      <c r="CY286" s="390"/>
+      <c r="CZ286" s="390"/>
+      <c r="DB286" s="392" t="s">
         <v>379</v>
       </c>
-      <c r="DC286" s="388"/>
-      <c r="DD286" s="388"/>
-      <c r="DE286" s="388"/>
-      <c r="DF286" s="388"/>
-      <c r="DG286" s="388"/>
-      <c r="DH286" s="388"/>
-      <c r="DI286" s="388"/>
-      <c r="DJ286" s="388"/>
-      <c r="DK286" s="388"/>
-      <c r="DL286" s="388"/>
-      <c r="DM286" s="388"/>
-      <c r="DN286" s="388"/>
-      <c r="DO286" s="388"/>
+      <c r="DC286" s="392"/>
+      <c r="DD286" s="392"/>
+      <c r="DE286" s="392"/>
+      <c r="DF286" s="392"/>
+      <c r="DG286" s="392"/>
+      <c r="DH286" s="392"/>
+      <c r="DI286" s="392"/>
+      <c r="DJ286" s="392"/>
+      <c r="DK286" s="392"/>
+      <c r="DL286" s="392"/>
+      <c r="DM286" s="392"/>
+      <c r="DN286" s="392"/>
+      <c r="DO286" s="392"/>
     </row>
     <row r="287" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
@@ -56632,137 +56659,137 @@
       <c r="CZ305" s="76"/>
     </row>
     <row r="306" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="380" t="s">
+      <c r="A306" s="383" t="s">
         <v>377</v>
       </c>
-      <c r="B306" s="380"/>
-      <c r="C306" s="380"/>
-      <c r="D306" s="380"/>
-      <c r="E306" s="380"/>
-      <c r="F306" s="380"/>
-      <c r="G306" s="380"/>
-      <c r="H306" s="380"/>
-      <c r="I306" s="380"/>
-      <c r="J306" s="380"/>
-      <c r="K306" s="380"/>
-      <c r="L306" s="380"/>
-      <c r="M306" s="380"/>
-      <c r="N306" s="380"/>
+      <c r="B306" s="383"/>
+      <c r="C306" s="383"/>
+      <c r="D306" s="383"/>
+      <c r="E306" s="383"/>
+      <c r="F306" s="383"/>
+      <c r="G306" s="383"/>
+      <c r="H306" s="383"/>
+      <c r="I306" s="383"/>
+      <c r="J306" s="383"/>
+      <c r="K306" s="383"/>
+      <c r="L306" s="383"/>
+      <c r="M306" s="383"/>
+      <c r="N306" s="383"/>
       <c r="O306" s="107"/>
-      <c r="P306" s="380" t="s">
+      <c r="P306" s="383" t="s">
         <v>376</v>
       </c>
-      <c r="Q306" s="380"/>
-      <c r="R306" s="380"/>
-      <c r="S306" s="380"/>
-      <c r="T306" s="380"/>
-      <c r="U306" s="380"/>
-      <c r="V306" s="380"/>
-      <c r="W306" s="380"/>
-      <c r="X306" s="380"/>
-      <c r="Y306" s="380"/>
-      <c r="Z306" s="380"/>
-      <c r="AA306" s="380"/>
-      <c r="AB306" s="380"/>
-      <c r="AC306" s="380"/>
-      <c r="AE306" s="380" t="s">
+      <c r="Q306" s="383"/>
+      <c r="R306" s="383"/>
+      <c r="S306" s="383"/>
+      <c r="T306" s="383"/>
+      <c r="U306" s="383"/>
+      <c r="V306" s="383"/>
+      <c r="W306" s="383"/>
+      <c r="X306" s="383"/>
+      <c r="Y306" s="383"/>
+      <c r="Z306" s="383"/>
+      <c r="AA306" s="383"/>
+      <c r="AB306" s="383"/>
+      <c r="AC306" s="383"/>
+      <c r="AE306" s="383" t="s">
         <v>375</v>
       </c>
-      <c r="AF306" s="380"/>
-      <c r="AG306" s="380"/>
-      <c r="AH306" s="380"/>
-      <c r="AI306" s="380"/>
-      <c r="AJ306" s="380"/>
-      <c r="AK306" s="380"/>
-      <c r="AL306" s="380"/>
-      <c r="AM306" s="380"/>
-      <c r="AN306" s="380"/>
-      <c r="AO306" s="380"/>
-      <c r="AP306" s="380"/>
-      <c r="AQ306" s="380"/>
-      <c r="AR306" s="380"/>
-      <c r="AT306" s="380" t="s">
+      <c r="AF306" s="383"/>
+      <c r="AG306" s="383"/>
+      <c r="AH306" s="383"/>
+      <c r="AI306" s="383"/>
+      <c r="AJ306" s="383"/>
+      <c r="AK306" s="383"/>
+      <c r="AL306" s="383"/>
+      <c r="AM306" s="383"/>
+      <c r="AN306" s="383"/>
+      <c r="AO306" s="383"/>
+      <c r="AP306" s="383"/>
+      <c r="AQ306" s="383"/>
+      <c r="AR306" s="383"/>
+      <c r="AT306" s="383" t="s">
         <v>374</v>
       </c>
-      <c r="AU306" s="380"/>
-      <c r="AV306" s="380"/>
-      <c r="AW306" s="380"/>
-      <c r="AX306" s="380"/>
-      <c r="AY306" s="380"/>
-      <c r="AZ306" s="380"/>
-      <c r="BA306" s="380"/>
-      <c r="BB306" s="380"/>
-      <c r="BC306" s="380"/>
-      <c r="BD306" s="380"/>
-      <c r="BE306" s="380"/>
-      <c r="BF306" s="380"/>
-      <c r="BG306" s="380"/>
-      <c r="BI306" s="380" t="s">
+      <c r="AU306" s="383"/>
+      <c r="AV306" s="383"/>
+      <c r="AW306" s="383"/>
+      <c r="AX306" s="383"/>
+      <c r="AY306" s="383"/>
+      <c r="AZ306" s="383"/>
+      <c r="BA306" s="383"/>
+      <c r="BB306" s="383"/>
+      <c r="BC306" s="383"/>
+      <c r="BD306" s="383"/>
+      <c r="BE306" s="383"/>
+      <c r="BF306" s="383"/>
+      <c r="BG306" s="383"/>
+      <c r="BI306" s="383" t="s">
         <v>374</v>
       </c>
-      <c r="BJ306" s="380"/>
-      <c r="BK306" s="380"/>
-      <c r="BL306" s="380"/>
-      <c r="BM306" s="380"/>
-      <c r="BN306" s="380"/>
-      <c r="BO306" s="380"/>
-      <c r="BP306" s="380"/>
-      <c r="BQ306" s="380"/>
-      <c r="BR306" s="380"/>
-      <c r="BS306" s="380"/>
-      <c r="BT306" s="380"/>
-      <c r="BU306" s="380"/>
-      <c r="BV306" s="380"/>
+      <c r="BJ306" s="383"/>
+      <c r="BK306" s="383"/>
+      <c r="BL306" s="383"/>
+      <c r="BM306" s="383"/>
+      <c r="BN306" s="383"/>
+      <c r="BO306" s="383"/>
+      <c r="BP306" s="383"/>
+      <c r="BQ306" s="383"/>
+      <c r="BR306" s="383"/>
+      <c r="BS306" s="383"/>
+      <c r="BT306" s="383"/>
+      <c r="BU306" s="383"/>
+      <c r="BV306" s="383"/>
       <c r="BW306" s="107"/>
-      <c r="BX306" s="380" t="s">
+      <c r="BX306" s="383" t="s">
         <v>384</v>
       </c>
-      <c r="BY306" s="380"/>
-      <c r="BZ306" s="380"/>
-      <c r="CA306" s="380"/>
-      <c r="CB306" s="380"/>
-      <c r="CC306" s="380"/>
-      <c r="CD306" s="380"/>
-      <c r="CE306" s="380"/>
-      <c r="CF306" s="380"/>
-      <c r="CG306" s="380"/>
-      <c r="CH306" s="380"/>
-      <c r="CI306" s="380"/>
-      <c r="CJ306" s="380"/>
-      <c r="CK306" s="380"/>
-      <c r="CM306" s="380" t="s">
+      <c r="BY306" s="383"/>
+      <c r="BZ306" s="383"/>
+      <c r="CA306" s="383"/>
+      <c r="CB306" s="383"/>
+      <c r="CC306" s="383"/>
+      <c r="CD306" s="383"/>
+      <c r="CE306" s="383"/>
+      <c r="CF306" s="383"/>
+      <c r="CG306" s="383"/>
+      <c r="CH306" s="383"/>
+      <c r="CI306" s="383"/>
+      <c r="CJ306" s="383"/>
+      <c r="CK306" s="383"/>
+      <c r="CM306" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="CN306" s="380"/>
-      <c r="CO306" s="380"/>
-      <c r="CP306" s="380"/>
-      <c r="CQ306" s="380"/>
-      <c r="CR306" s="380"/>
-      <c r="CS306" s="380"/>
-      <c r="CT306" s="380"/>
-      <c r="CU306" s="380"/>
-      <c r="CV306" s="380"/>
-      <c r="CW306" s="380"/>
-      <c r="CX306" s="380"/>
-      <c r="CY306" s="380"/>
-      <c r="CZ306" s="380"/>
+      <c r="CN306" s="383"/>
+      <c r="CO306" s="383"/>
+      <c r="CP306" s="383"/>
+      <c r="CQ306" s="383"/>
+      <c r="CR306" s="383"/>
+      <c r="CS306" s="383"/>
+      <c r="CT306" s="383"/>
+      <c r="CU306" s="383"/>
+      <c r="CV306" s="383"/>
+      <c r="CW306" s="383"/>
+      <c r="CX306" s="383"/>
+      <c r="CY306" s="383"/>
+      <c r="CZ306" s="383"/>
       <c r="DA306" s="293"/>
-      <c r="DB306" s="380" t="s">
+      <c r="DB306" s="383" t="s">
         <v>383</v>
       </c>
-      <c r="DC306" s="380"/>
-      <c r="DD306" s="380"/>
-      <c r="DE306" s="380"/>
-      <c r="DF306" s="380"/>
-      <c r="DG306" s="380"/>
-      <c r="DH306" s="380"/>
-      <c r="DI306" s="380"/>
-      <c r="DJ306" s="380"/>
-      <c r="DK306" s="380"/>
-      <c r="DL306" s="380"/>
-      <c r="DM306" s="380"/>
-      <c r="DN306" s="380"/>
-      <c r="DO306" s="380"/>
+      <c r="DC306" s="383"/>
+      <c r="DD306" s="383"/>
+      <c r="DE306" s="383"/>
+      <c r="DF306" s="383"/>
+      <c r="DG306" s="383"/>
+      <c r="DH306" s="383"/>
+      <c r="DI306" s="383"/>
+      <c r="DJ306" s="383"/>
+      <c r="DK306" s="383"/>
+      <c r="DL306" s="383"/>
+      <c r="DM306" s="383"/>
+      <c r="DN306" s="383"/>
+      <c r="DO306" s="383"/>
     </row>
     <row r="307" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
@@ -61615,137 +61642,137 @@
       <c r="CZ321" s="76"/>
     </row>
     <row r="322" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="380" t="s">
+      <c r="A322" s="383" t="s">
         <v>377</v>
       </c>
-      <c r="B322" s="380"/>
-      <c r="C322" s="380"/>
-      <c r="D322" s="380"/>
-      <c r="E322" s="380"/>
-      <c r="F322" s="380"/>
-      <c r="G322" s="380"/>
-      <c r="H322" s="380"/>
-      <c r="I322" s="380"/>
-      <c r="J322" s="380"/>
-      <c r="K322" s="380"/>
-      <c r="L322" s="380"/>
-      <c r="M322" s="380"/>
-      <c r="N322" s="380"/>
+      <c r="B322" s="383"/>
+      <c r="C322" s="383"/>
+      <c r="D322" s="383"/>
+      <c r="E322" s="383"/>
+      <c r="F322" s="383"/>
+      <c r="G322" s="383"/>
+      <c r="H322" s="383"/>
+      <c r="I322" s="383"/>
+      <c r="J322" s="383"/>
+      <c r="K322" s="383"/>
+      <c r="L322" s="383"/>
+      <c r="M322" s="383"/>
+      <c r="N322" s="383"/>
       <c r="O322" s="107"/>
-      <c r="P322" s="380" t="s">
+      <c r="P322" s="383" t="s">
         <v>376</v>
       </c>
-      <c r="Q322" s="380"/>
-      <c r="R322" s="380"/>
-      <c r="S322" s="380"/>
-      <c r="T322" s="380"/>
-      <c r="U322" s="380"/>
-      <c r="V322" s="380"/>
-      <c r="W322" s="380"/>
-      <c r="X322" s="380"/>
-      <c r="Y322" s="380"/>
-      <c r="Z322" s="380"/>
-      <c r="AA322" s="380"/>
-      <c r="AB322" s="380"/>
-      <c r="AC322" s="380"/>
-      <c r="AE322" s="380" t="s">
+      <c r="Q322" s="383"/>
+      <c r="R322" s="383"/>
+      <c r="S322" s="383"/>
+      <c r="T322" s="383"/>
+      <c r="U322" s="383"/>
+      <c r="V322" s="383"/>
+      <c r="W322" s="383"/>
+      <c r="X322" s="383"/>
+      <c r="Y322" s="383"/>
+      <c r="Z322" s="383"/>
+      <c r="AA322" s="383"/>
+      <c r="AB322" s="383"/>
+      <c r="AC322" s="383"/>
+      <c r="AE322" s="383" t="s">
         <v>375</v>
       </c>
-      <c r="AF322" s="380"/>
-      <c r="AG322" s="380"/>
-      <c r="AH322" s="380"/>
-      <c r="AI322" s="380"/>
-      <c r="AJ322" s="380"/>
-      <c r="AK322" s="380"/>
-      <c r="AL322" s="380"/>
-      <c r="AM322" s="380"/>
-      <c r="AN322" s="380"/>
-      <c r="AO322" s="380"/>
-      <c r="AP322" s="380"/>
-      <c r="AQ322" s="380"/>
-      <c r="AR322" s="380"/>
-      <c r="AT322" s="380" t="s">
+      <c r="AF322" s="383"/>
+      <c r="AG322" s="383"/>
+      <c r="AH322" s="383"/>
+      <c r="AI322" s="383"/>
+      <c r="AJ322" s="383"/>
+      <c r="AK322" s="383"/>
+      <c r="AL322" s="383"/>
+      <c r="AM322" s="383"/>
+      <c r="AN322" s="383"/>
+      <c r="AO322" s="383"/>
+      <c r="AP322" s="383"/>
+      <c r="AQ322" s="383"/>
+      <c r="AR322" s="383"/>
+      <c r="AT322" s="383" t="s">
         <v>374</v>
       </c>
-      <c r="AU322" s="380"/>
-      <c r="AV322" s="380"/>
-      <c r="AW322" s="380"/>
-      <c r="AX322" s="380"/>
-      <c r="AY322" s="380"/>
-      <c r="AZ322" s="380"/>
-      <c r="BA322" s="380"/>
-      <c r="BB322" s="380"/>
-      <c r="BC322" s="380"/>
-      <c r="BD322" s="380"/>
-      <c r="BE322" s="380"/>
-      <c r="BF322" s="380"/>
-      <c r="BG322" s="380"/>
-      <c r="BI322" s="380" t="s">
+      <c r="AU322" s="383"/>
+      <c r="AV322" s="383"/>
+      <c r="AW322" s="383"/>
+      <c r="AX322" s="383"/>
+      <c r="AY322" s="383"/>
+      <c r="AZ322" s="383"/>
+      <c r="BA322" s="383"/>
+      <c r="BB322" s="383"/>
+      <c r="BC322" s="383"/>
+      <c r="BD322" s="383"/>
+      <c r="BE322" s="383"/>
+      <c r="BF322" s="383"/>
+      <c r="BG322" s="383"/>
+      <c r="BI322" s="383" t="s">
         <v>374</v>
       </c>
-      <c r="BJ322" s="380"/>
-      <c r="BK322" s="380"/>
-      <c r="BL322" s="380"/>
-      <c r="BM322" s="380"/>
-      <c r="BN322" s="380"/>
-      <c r="BO322" s="380"/>
-      <c r="BP322" s="380"/>
-      <c r="BQ322" s="380"/>
-      <c r="BR322" s="380"/>
-      <c r="BS322" s="380"/>
-      <c r="BT322" s="380"/>
-      <c r="BU322" s="380"/>
-      <c r="BV322" s="380"/>
+      <c r="BJ322" s="383"/>
+      <c r="BK322" s="383"/>
+      <c r="BL322" s="383"/>
+      <c r="BM322" s="383"/>
+      <c r="BN322" s="383"/>
+      <c r="BO322" s="383"/>
+      <c r="BP322" s="383"/>
+      <c r="BQ322" s="383"/>
+      <c r="BR322" s="383"/>
+      <c r="BS322" s="383"/>
+      <c r="BT322" s="383"/>
+      <c r="BU322" s="383"/>
+      <c r="BV322" s="383"/>
       <c r="BW322" s="107"/>
-      <c r="BX322" s="380" t="s">
+      <c r="BX322" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="BY322" s="380"/>
-      <c r="BZ322" s="380"/>
-      <c r="CA322" s="380"/>
-      <c r="CB322" s="380"/>
-      <c r="CC322" s="380"/>
-      <c r="CD322" s="380"/>
-      <c r="CE322" s="380"/>
-      <c r="CF322" s="380"/>
-      <c r="CG322" s="380"/>
-      <c r="CH322" s="380"/>
-      <c r="CI322" s="380"/>
-      <c r="CJ322" s="380"/>
-      <c r="CK322" s="380"/>
-      <c r="CM322" s="380" t="s">
+      <c r="BY322" s="383"/>
+      <c r="BZ322" s="383"/>
+      <c r="CA322" s="383"/>
+      <c r="CB322" s="383"/>
+      <c r="CC322" s="383"/>
+      <c r="CD322" s="383"/>
+      <c r="CE322" s="383"/>
+      <c r="CF322" s="383"/>
+      <c r="CG322" s="383"/>
+      <c r="CH322" s="383"/>
+      <c r="CI322" s="383"/>
+      <c r="CJ322" s="383"/>
+      <c r="CK322" s="383"/>
+      <c r="CM322" s="383" t="s">
         <v>380</v>
       </c>
-      <c r="CN322" s="380"/>
-      <c r="CO322" s="380"/>
-      <c r="CP322" s="380"/>
-      <c r="CQ322" s="380"/>
-      <c r="CR322" s="380"/>
-      <c r="CS322" s="380"/>
-      <c r="CT322" s="380"/>
-      <c r="CU322" s="380"/>
-      <c r="CV322" s="380"/>
-      <c r="CW322" s="380"/>
-      <c r="CX322" s="380"/>
-      <c r="CY322" s="380"/>
-      <c r="CZ322" s="380"/>
+      <c r="CN322" s="383"/>
+      <c r="CO322" s="383"/>
+      <c r="CP322" s="383"/>
+      <c r="CQ322" s="383"/>
+      <c r="CR322" s="383"/>
+      <c r="CS322" s="383"/>
+      <c r="CT322" s="383"/>
+      <c r="CU322" s="383"/>
+      <c r="CV322" s="383"/>
+      <c r="CW322" s="383"/>
+      <c r="CX322" s="383"/>
+      <c r="CY322" s="383"/>
+      <c r="CZ322" s="383"/>
       <c r="DA322" s="293"/>
-      <c r="DB322" s="380" t="s">
+      <c r="DB322" s="383" t="s">
         <v>382</v>
       </c>
-      <c r="DC322" s="380"/>
-      <c r="DD322" s="380"/>
-      <c r="DE322" s="380"/>
-      <c r="DF322" s="380"/>
-      <c r="DG322" s="380"/>
-      <c r="DH322" s="380"/>
-      <c r="DI322" s="380"/>
-      <c r="DJ322" s="380"/>
-      <c r="DK322" s="380"/>
-      <c r="DL322" s="380"/>
-      <c r="DM322" s="380"/>
-      <c r="DN322" s="380"/>
-      <c r="DO322" s="380"/>
+      <c r="DC322" s="383"/>
+      <c r="DD322" s="383"/>
+      <c r="DE322" s="383"/>
+      <c r="DF322" s="383"/>
+      <c r="DG322" s="383"/>
+      <c r="DH322" s="383"/>
+      <c r="DI322" s="383"/>
+      <c r="DJ322" s="383"/>
+      <c r="DK322" s="383"/>
+      <c r="DL322" s="383"/>
+      <c r="DM322" s="383"/>
+      <c r="DN322" s="383"/>
+      <c r="DO322" s="383"/>
     </row>
     <row r="323" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
@@ -66521,35 +66548,35 @@
       <c r="BU337" s="288"/>
       <c r="BV337" s="288"/>
       <c r="BW337" s="66"/>
-      <c r="BX337" s="378"/>
-      <c r="BY337" s="378"/>
-      <c r="BZ337" s="378"/>
-      <c r="CA337" s="378"/>
-      <c r="CB337" s="378"/>
-      <c r="CC337" s="378"/>
-      <c r="CD337" s="378"/>
-      <c r="CE337" s="378"/>
-      <c r="CF337" s="378"/>
-      <c r="CG337" s="378"/>
-      <c r="CH337" s="378"/>
-      <c r="CI337" s="378"/>
-      <c r="CJ337" s="378"/>
-      <c r="CK337" s="378"/>
-      <c r="CL337" s="378"/>
-      <c r="CM337" s="378"/>
-      <c r="CN337" s="378"/>
-      <c r="CO337" s="378"/>
-      <c r="CP337" s="378"/>
-      <c r="CQ337" s="378"/>
-      <c r="CR337" s="378"/>
-      <c r="CS337" s="378"/>
-      <c r="CT337" s="378"/>
-      <c r="CU337" s="378"/>
-      <c r="CV337" s="378"/>
-      <c r="CW337" s="378"/>
-      <c r="CX337" s="378"/>
-      <c r="CY337" s="378"/>
-      <c r="CZ337" s="378"/>
+      <c r="BX337" s="387"/>
+      <c r="BY337" s="387"/>
+      <c r="BZ337" s="387"/>
+      <c r="CA337" s="387"/>
+      <c r="CB337" s="387"/>
+      <c r="CC337" s="387"/>
+      <c r="CD337" s="387"/>
+      <c r="CE337" s="387"/>
+      <c r="CF337" s="387"/>
+      <c r="CG337" s="387"/>
+      <c r="CH337" s="387"/>
+      <c r="CI337" s="387"/>
+      <c r="CJ337" s="387"/>
+      <c r="CK337" s="387"/>
+      <c r="CL337" s="387"/>
+      <c r="CM337" s="387"/>
+      <c r="CN337" s="387"/>
+      <c r="CO337" s="387"/>
+      <c r="CP337" s="387"/>
+      <c r="CQ337" s="387"/>
+      <c r="CR337" s="387"/>
+      <c r="CS337" s="387"/>
+      <c r="CT337" s="387"/>
+      <c r="CU337" s="387"/>
+      <c r="CV337" s="387"/>
+      <c r="CW337" s="387"/>
+      <c r="CX337" s="387"/>
+      <c r="CY337" s="387"/>
+      <c r="CZ337" s="387"/>
       <c r="DA337" s="294"/>
       <c r="DB337" s="292"/>
       <c r="DC337" s="292"/>
@@ -66567,137 +66594,137 @@
       <c r="DO337" s="292"/>
     </row>
     <row r="338" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="380" t="s">
+      <c r="A338" s="383" t="s">
         <v>377</v>
       </c>
-      <c r="B338" s="380"/>
-      <c r="C338" s="380"/>
-      <c r="D338" s="380"/>
-      <c r="E338" s="380"/>
-      <c r="F338" s="380"/>
-      <c r="G338" s="380"/>
-      <c r="H338" s="380"/>
-      <c r="I338" s="380"/>
-      <c r="J338" s="380"/>
-      <c r="K338" s="380"/>
-      <c r="L338" s="380"/>
-      <c r="M338" s="380"/>
-      <c r="N338" s="380"/>
+      <c r="B338" s="383"/>
+      <c r="C338" s="383"/>
+      <c r="D338" s="383"/>
+      <c r="E338" s="383"/>
+      <c r="F338" s="383"/>
+      <c r="G338" s="383"/>
+      <c r="H338" s="383"/>
+      <c r="I338" s="383"/>
+      <c r="J338" s="383"/>
+      <c r="K338" s="383"/>
+      <c r="L338" s="383"/>
+      <c r="M338" s="383"/>
+      <c r="N338" s="383"/>
       <c r="O338" s="107"/>
-      <c r="P338" s="380" t="s">
+      <c r="P338" s="383" t="s">
         <v>376</v>
       </c>
-      <c r="Q338" s="380"/>
-      <c r="R338" s="380"/>
-      <c r="S338" s="380"/>
-      <c r="T338" s="380"/>
-      <c r="U338" s="380"/>
-      <c r="V338" s="380"/>
-      <c r="W338" s="380"/>
-      <c r="X338" s="380"/>
-      <c r="Y338" s="380"/>
-      <c r="Z338" s="380"/>
-      <c r="AA338" s="380"/>
-      <c r="AB338" s="380"/>
-      <c r="AC338" s="380"/>
-      <c r="AE338" s="380" t="s">
+      <c r="Q338" s="383"/>
+      <c r="R338" s="383"/>
+      <c r="S338" s="383"/>
+      <c r="T338" s="383"/>
+      <c r="U338" s="383"/>
+      <c r="V338" s="383"/>
+      <c r="W338" s="383"/>
+      <c r="X338" s="383"/>
+      <c r="Y338" s="383"/>
+      <c r="Z338" s="383"/>
+      <c r="AA338" s="383"/>
+      <c r="AB338" s="383"/>
+      <c r="AC338" s="383"/>
+      <c r="AE338" s="383" t="s">
         <v>375</v>
       </c>
-      <c r="AF338" s="380"/>
-      <c r="AG338" s="380"/>
-      <c r="AH338" s="380"/>
-      <c r="AI338" s="380"/>
-      <c r="AJ338" s="380"/>
-      <c r="AK338" s="380"/>
-      <c r="AL338" s="380"/>
-      <c r="AM338" s="380"/>
-      <c r="AN338" s="380"/>
-      <c r="AO338" s="380"/>
-      <c r="AP338" s="380"/>
-      <c r="AQ338" s="380"/>
-      <c r="AR338" s="380"/>
-      <c r="AT338" s="380" t="s">
+      <c r="AF338" s="383"/>
+      <c r="AG338" s="383"/>
+      <c r="AH338" s="383"/>
+      <c r="AI338" s="383"/>
+      <c r="AJ338" s="383"/>
+      <c r="AK338" s="383"/>
+      <c r="AL338" s="383"/>
+      <c r="AM338" s="383"/>
+      <c r="AN338" s="383"/>
+      <c r="AO338" s="383"/>
+      <c r="AP338" s="383"/>
+      <c r="AQ338" s="383"/>
+      <c r="AR338" s="383"/>
+      <c r="AT338" s="383" t="s">
         <v>374</v>
       </c>
-      <c r="AU338" s="380"/>
-      <c r="AV338" s="380"/>
-      <c r="AW338" s="380"/>
-      <c r="AX338" s="380"/>
-      <c r="AY338" s="380"/>
-      <c r="AZ338" s="380"/>
-      <c r="BA338" s="380"/>
-      <c r="BB338" s="380"/>
-      <c r="BC338" s="380"/>
-      <c r="BD338" s="380"/>
-      <c r="BE338" s="380"/>
-      <c r="BF338" s="380"/>
-      <c r="BG338" s="380"/>
-      <c r="BI338" s="380" t="s">
+      <c r="AU338" s="383"/>
+      <c r="AV338" s="383"/>
+      <c r="AW338" s="383"/>
+      <c r="AX338" s="383"/>
+      <c r="AY338" s="383"/>
+      <c r="AZ338" s="383"/>
+      <c r="BA338" s="383"/>
+      <c r="BB338" s="383"/>
+      <c r="BC338" s="383"/>
+      <c r="BD338" s="383"/>
+      <c r="BE338" s="383"/>
+      <c r="BF338" s="383"/>
+      <c r="BG338" s="383"/>
+      <c r="BI338" s="383" t="s">
         <v>374</v>
       </c>
-      <c r="BJ338" s="380"/>
-      <c r="BK338" s="380"/>
-      <c r="BL338" s="380"/>
-      <c r="BM338" s="380"/>
-      <c r="BN338" s="380"/>
-      <c r="BO338" s="380"/>
-      <c r="BP338" s="380"/>
-      <c r="BQ338" s="380"/>
-      <c r="BR338" s="380"/>
-      <c r="BS338" s="380"/>
-      <c r="BT338" s="380"/>
-      <c r="BU338" s="380"/>
-      <c r="BV338" s="380"/>
+      <c r="BJ338" s="383"/>
+      <c r="BK338" s="383"/>
+      <c r="BL338" s="383"/>
+      <c r="BM338" s="383"/>
+      <c r="BN338" s="383"/>
+      <c r="BO338" s="383"/>
+      <c r="BP338" s="383"/>
+      <c r="BQ338" s="383"/>
+      <c r="BR338" s="383"/>
+      <c r="BS338" s="383"/>
+      <c r="BT338" s="383"/>
+      <c r="BU338" s="383"/>
+      <c r="BV338" s="383"/>
       <c r="BW338" s="107"/>
-      <c r="BX338" s="380" t="s">
+      <c r="BX338" s="383" t="s">
         <v>356</v>
       </c>
-      <c r="BY338" s="380"/>
-      <c r="BZ338" s="380"/>
-      <c r="CA338" s="380"/>
-      <c r="CB338" s="380"/>
-      <c r="CC338" s="380"/>
-      <c r="CD338" s="380"/>
-      <c r="CE338" s="380"/>
-      <c r="CF338" s="380"/>
-      <c r="CG338" s="380"/>
-      <c r="CH338" s="380"/>
-      <c r="CI338" s="380"/>
-      <c r="CJ338" s="380"/>
-      <c r="CK338" s="380"/>
-      <c r="CM338" s="380" t="s">
+      <c r="BY338" s="383"/>
+      <c r="BZ338" s="383"/>
+      <c r="CA338" s="383"/>
+      <c r="CB338" s="383"/>
+      <c r="CC338" s="383"/>
+      <c r="CD338" s="383"/>
+      <c r="CE338" s="383"/>
+      <c r="CF338" s="383"/>
+      <c r="CG338" s="383"/>
+      <c r="CH338" s="383"/>
+      <c r="CI338" s="383"/>
+      <c r="CJ338" s="383"/>
+      <c r="CK338" s="383"/>
+      <c r="CM338" s="383" t="s">
         <v>385</v>
       </c>
-      <c r="CN338" s="380"/>
-      <c r="CO338" s="380"/>
-      <c r="CP338" s="380"/>
-      <c r="CQ338" s="380"/>
-      <c r="CR338" s="380"/>
-      <c r="CS338" s="380"/>
-      <c r="CT338" s="380"/>
-      <c r="CU338" s="380"/>
-      <c r="CV338" s="380"/>
-      <c r="CW338" s="380"/>
-      <c r="CX338" s="380"/>
-      <c r="CY338" s="380"/>
-      <c r="CZ338" s="380"/>
+      <c r="CN338" s="383"/>
+      <c r="CO338" s="383"/>
+      <c r="CP338" s="383"/>
+      <c r="CQ338" s="383"/>
+      <c r="CR338" s="383"/>
+      <c r="CS338" s="383"/>
+      <c r="CT338" s="383"/>
+      <c r="CU338" s="383"/>
+      <c r="CV338" s="383"/>
+      <c r="CW338" s="383"/>
+      <c r="CX338" s="383"/>
+      <c r="CY338" s="383"/>
+      <c r="CZ338" s="383"/>
       <c r="DA338" s="293"/>
-      <c r="DB338" s="379" t="s">
+      <c r="DB338" s="388" t="s">
         <v>386</v>
       </c>
-      <c r="DC338" s="379"/>
-      <c r="DD338" s="379"/>
-      <c r="DE338" s="379"/>
-      <c r="DF338" s="379"/>
-      <c r="DG338" s="379"/>
-      <c r="DH338" s="379"/>
-      <c r="DI338" s="379"/>
-      <c r="DJ338" s="379"/>
-      <c r="DK338" s="379"/>
-      <c r="DL338" s="379"/>
-      <c r="DM338" s="379"/>
-      <c r="DN338" s="379"/>
-      <c r="DO338" s="379"/>
+      <c r="DC338" s="388"/>
+      <c r="DD338" s="388"/>
+      <c r="DE338" s="388"/>
+      <c r="DF338" s="388"/>
+      <c r="DG338" s="388"/>
+      <c r="DH338" s="388"/>
+      <c r="DI338" s="388"/>
+      <c r="DJ338" s="388"/>
+      <c r="DK338" s="388"/>
+      <c r="DL338" s="388"/>
+      <c r="DM338" s="388"/>
+      <c r="DN338" s="388"/>
+      <c r="DO338" s="388"/>
     </row>
     <row r="339" spans="1:119" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
@@ -71304,7 +71331,7 @@
       <c r="BX352" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="BY352" s="390" t="s">
+      <c r="BY352" s="360" t="s">
         <v>229</v>
       </c>
       <c r="BZ352" s="348" t="s">
@@ -71346,7 +71373,7 @@
       <c r="CM352" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CN352" s="390" t="s">
+      <c r="CN352" s="360" t="s">
         <v>216</v>
       </c>
       <c r="CO352" s="348" t="s">
@@ -71460,156 +71487,156 @@
       <c r="BU353" s="66"/>
       <c r="BV353" s="66"/>
       <c r="BW353" s="66"/>
-      <c r="BX353" s="378"/>
-      <c r="BY353" s="378"/>
-      <c r="BZ353" s="378"/>
-      <c r="CA353" s="378"/>
-      <c r="CB353" s="378"/>
-      <c r="CC353" s="378"/>
-      <c r="CD353" s="378"/>
-      <c r="CE353" s="378"/>
-      <c r="CF353" s="378"/>
-      <c r="CG353" s="378"/>
-      <c r="CH353" s="378"/>
-      <c r="CI353" s="378"/>
-      <c r="CJ353" s="378"/>
-      <c r="CK353" s="378"/>
-      <c r="CL353" s="378"/>
-      <c r="CM353" s="378"/>
-      <c r="CN353" s="378"/>
-      <c r="CO353" s="378"/>
-      <c r="CP353" s="378"/>
-      <c r="CQ353" s="378"/>
-      <c r="CR353" s="378"/>
-      <c r="CS353" s="378"/>
-      <c r="CT353" s="378"/>
-      <c r="CU353" s="378"/>
-      <c r="CV353" s="378"/>
-      <c r="CW353" s="378"/>
-      <c r="CX353" s="378"/>
-      <c r="CY353" s="378"/>
-      <c r="CZ353" s="378"/>
+      <c r="BX353" s="387"/>
+      <c r="BY353" s="387"/>
+      <c r="BZ353" s="387"/>
+      <c r="CA353" s="387"/>
+      <c r="CB353" s="387"/>
+      <c r="CC353" s="387"/>
+      <c r="CD353" s="387"/>
+      <c r="CE353" s="387"/>
+      <c r="CF353" s="387"/>
+      <c r="CG353" s="387"/>
+      <c r="CH353" s="387"/>
+      <c r="CI353" s="387"/>
+      <c r="CJ353" s="387"/>
+      <c r="CK353" s="387"/>
+      <c r="CL353" s="387"/>
+      <c r="CM353" s="387"/>
+      <c r="CN353" s="387"/>
+      <c r="CO353" s="387"/>
+      <c r="CP353" s="387"/>
+      <c r="CQ353" s="387"/>
+      <c r="CR353" s="387"/>
+      <c r="CS353" s="387"/>
+      <c r="CT353" s="387"/>
+      <c r="CU353" s="387"/>
+      <c r="CV353" s="387"/>
+      <c r="CW353" s="387"/>
+      <c r="CX353" s="387"/>
+      <c r="CY353" s="387"/>
+      <c r="CZ353" s="387"/>
       <c r="DA353" s="293"/>
     </row>
     <row r="354" spans="1:105" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="388" t="s">
+      <c r="A354" s="392" t="s">
         <v>377</v>
       </c>
-      <c r="B354" s="388"/>
-      <c r="C354" s="388"/>
-      <c r="D354" s="388"/>
-      <c r="E354" s="388"/>
-      <c r="F354" s="388"/>
-      <c r="G354" s="388"/>
-      <c r="H354" s="388"/>
-      <c r="I354" s="388"/>
-      <c r="J354" s="388"/>
-      <c r="K354" s="388"/>
-      <c r="L354" s="388"/>
-      <c r="M354" s="388"/>
-      <c r="N354" s="388"/>
+      <c r="B354" s="392"/>
+      <c r="C354" s="392"/>
+      <c r="D354" s="392"/>
+      <c r="E354" s="392"/>
+      <c r="F354" s="392"/>
+      <c r="G354" s="392"/>
+      <c r="H354" s="392"/>
+      <c r="I354" s="392"/>
+      <c r="J354" s="392"/>
+      <c r="K354" s="392"/>
+      <c r="L354" s="392"/>
+      <c r="M354" s="392"/>
+      <c r="N354" s="392"/>
       <c r="O354" s="337"/>
-      <c r="P354" s="388" t="s">
+      <c r="P354" s="392" t="s">
         <v>376</v>
       </c>
-      <c r="Q354" s="388"/>
-      <c r="R354" s="388"/>
-      <c r="S354" s="388"/>
-      <c r="T354" s="388"/>
-      <c r="U354" s="388"/>
-      <c r="V354" s="388"/>
-      <c r="W354" s="388"/>
-      <c r="X354" s="388"/>
-      <c r="Y354" s="388"/>
-      <c r="Z354" s="388"/>
-      <c r="AA354" s="388"/>
-      <c r="AB354" s="388"/>
-      <c r="AC354" s="388"/>
+      <c r="Q354" s="392"/>
+      <c r="R354" s="392"/>
+      <c r="S354" s="392"/>
+      <c r="T354" s="392"/>
+      <c r="U354" s="392"/>
+      <c r="V354" s="392"/>
+      <c r="W354" s="392"/>
+      <c r="X354" s="392"/>
+      <c r="Y354" s="392"/>
+      <c r="Z354" s="392"/>
+      <c r="AA354" s="392"/>
+      <c r="AB354" s="392"/>
+      <c r="AC354" s="392"/>
       <c r="AD354" s="338"/>
-      <c r="AE354" s="388" t="s">
+      <c r="AE354" s="392" t="s">
         <v>375</v>
       </c>
-      <c r="AF354" s="388"/>
-      <c r="AG354" s="388"/>
-      <c r="AH354" s="388"/>
-      <c r="AI354" s="388"/>
-      <c r="AJ354" s="388"/>
-      <c r="AK354" s="388"/>
-      <c r="AL354" s="388"/>
-      <c r="AM354" s="388"/>
-      <c r="AN354" s="388"/>
-      <c r="AO354" s="388"/>
-      <c r="AP354" s="388"/>
-      <c r="AQ354" s="388"/>
-      <c r="AR354" s="388"/>
+      <c r="AF354" s="392"/>
+      <c r="AG354" s="392"/>
+      <c r="AH354" s="392"/>
+      <c r="AI354" s="392"/>
+      <c r="AJ354" s="392"/>
+      <c r="AK354" s="392"/>
+      <c r="AL354" s="392"/>
+      <c r="AM354" s="392"/>
+      <c r="AN354" s="392"/>
+      <c r="AO354" s="392"/>
+      <c r="AP354" s="392"/>
+      <c r="AQ354" s="392"/>
+      <c r="AR354" s="392"/>
       <c r="AS354" s="338"/>
-      <c r="AT354" s="388" t="s">
+      <c r="AT354" s="392" t="s">
         <v>374</v>
       </c>
-      <c r="AU354" s="388"/>
-      <c r="AV354" s="388"/>
-      <c r="AW354" s="388"/>
-      <c r="AX354" s="388"/>
-      <c r="AY354" s="388"/>
-      <c r="AZ354" s="388"/>
-      <c r="BA354" s="388"/>
-      <c r="BB354" s="388"/>
-      <c r="BC354" s="388"/>
-      <c r="BD354" s="388"/>
-      <c r="BE354" s="388"/>
-      <c r="BF354" s="388"/>
-      <c r="BG354" s="388"/>
+      <c r="AU354" s="392"/>
+      <c r="AV354" s="392"/>
+      <c r="AW354" s="392"/>
+      <c r="AX354" s="392"/>
+      <c r="AY354" s="392"/>
+      <c r="AZ354" s="392"/>
+      <c r="BA354" s="392"/>
+      <c r="BB354" s="392"/>
+      <c r="BC354" s="392"/>
+      <c r="BD354" s="392"/>
+      <c r="BE354" s="392"/>
+      <c r="BF354" s="392"/>
+      <c r="BG354" s="392"/>
       <c r="BH354" s="338"/>
-      <c r="BI354" s="388" t="s">
+      <c r="BI354" s="392" t="s">
         <v>374</v>
       </c>
-      <c r="BJ354" s="388"/>
-      <c r="BK354" s="388"/>
-      <c r="BL354" s="388"/>
-      <c r="BM354" s="388"/>
-      <c r="BN354" s="388"/>
-      <c r="BO354" s="388"/>
-      <c r="BP354" s="388"/>
-      <c r="BQ354" s="388"/>
-      <c r="BR354" s="388"/>
-      <c r="BS354" s="388"/>
-      <c r="BT354" s="388"/>
-      <c r="BU354" s="388"/>
-      <c r="BV354" s="388"/>
+      <c r="BJ354" s="392"/>
+      <c r="BK354" s="392"/>
+      <c r="BL354" s="392"/>
+      <c r="BM354" s="392"/>
+      <c r="BN354" s="392"/>
+      <c r="BO354" s="392"/>
+      <c r="BP354" s="392"/>
+      <c r="BQ354" s="392"/>
+      <c r="BR354" s="392"/>
+      <c r="BS354" s="392"/>
+      <c r="BT354" s="392"/>
+      <c r="BU354" s="392"/>
+      <c r="BV354" s="392"/>
       <c r="BW354" s="337"/>
-      <c r="BX354" s="388" t="s">
+      <c r="BX354" s="392" t="s">
         <v>387</v>
       </c>
-      <c r="BY354" s="388"/>
-      <c r="BZ354" s="388"/>
-      <c r="CA354" s="388"/>
-      <c r="CB354" s="388"/>
-      <c r="CC354" s="388"/>
-      <c r="CD354" s="388"/>
-      <c r="CE354" s="388"/>
-      <c r="CF354" s="388"/>
-      <c r="CG354" s="388"/>
-      <c r="CH354" s="388"/>
-      <c r="CI354" s="388"/>
-      <c r="CJ354" s="388"/>
-      <c r="CK354" s="388"/>
+      <c r="BY354" s="392"/>
+      <c r="BZ354" s="392"/>
+      <c r="CA354" s="392"/>
+      <c r="CB354" s="392"/>
+      <c r="CC354" s="392"/>
+      <c r="CD354" s="392"/>
+      <c r="CE354" s="392"/>
+      <c r="CF354" s="392"/>
+      <c r="CG354" s="392"/>
+      <c r="CH354" s="392"/>
+      <c r="CI354" s="392"/>
+      <c r="CJ354" s="392"/>
+      <c r="CK354" s="392"/>
       <c r="CL354" s="338"/>
-      <c r="CM354" s="388" t="s">
+      <c r="CM354" s="392" t="s">
         <v>379</v>
       </c>
-      <c r="CN354" s="388"/>
-      <c r="CO354" s="388"/>
-      <c r="CP354" s="388"/>
-      <c r="CQ354" s="388"/>
-      <c r="CR354" s="388"/>
-      <c r="CS354" s="388"/>
-      <c r="CT354" s="388"/>
-      <c r="CU354" s="388"/>
-      <c r="CV354" s="388"/>
-      <c r="CW354" s="388"/>
-      <c r="CX354" s="388"/>
-      <c r="CY354" s="388"/>
-      <c r="CZ354" s="388"/>
+      <c r="CN354" s="392"/>
+      <c r="CO354" s="392"/>
+      <c r="CP354" s="392"/>
+      <c r="CQ354" s="392"/>
+      <c r="CR354" s="392"/>
+      <c r="CS354" s="392"/>
+      <c r="CT354" s="392"/>
+      <c r="CU354" s="392"/>
+      <c r="CV354" s="392"/>
+      <c r="CW354" s="392"/>
+      <c r="CX354" s="392"/>
+      <c r="CY354" s="392"/>
+      <c r="CZ354" s="392"/>
     </row>
     <row r="355" spans="1:105" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
@@ -76342,86 +76369,86 @@
       <c r="CI386" s="107"/>
     </row>
     <row r="387" spans="1:87" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="374" t="s">
+      <c r="A387" s="381" t="s">
         <v>370</v>
       </c>
-      <c r="B387" s="374"/>
-      <c r="C387" s="374"/>
-      <c r="D387" s="374"/>
-      <c r="E387" s="374"/>
-      <c r="F387" s="374"/>
-      <c r="G387" s="374"/>
-      <c r="H387" s="374"/>
-      <c r="I387" s="374"/>
-      <c r="J387" s="374"/>
-      <c r="K387" s="374"/>
-      <c r="L387" s="374"/>
-      <c r="M387" s="374"/>
-      <c r="N387" s="374"/>
-      <c r="P387" s="374" t="s">
+      <c r="B387" s="381"/>
+      <c r="C387" s="381"/>
+      <c r="D387" s="381"/>
+      <c r="E387" s="381"/>
+      <c r="F387" s="381"/>
+      <c r="G387" s="381"/>
+      <c r="H387" s="381"/>
+      <c r="I387" s="381"/>
+      <c r="J387" s="381"/>
+      <c r="K387" s="381"/>
+      <c r="L387" s="381"/>
+      <c r="M387" s="381"/>
+      <c r="N387" s="381"/>
+      <c r="P387" s="381" t="s">
         <v>369</v>
       </c>
-      <c r="Q387" s="374"/>
-      <c r="R387" s="374"/>
-      <c r="S387" s="374"/>
-      <c r="T387" s="374"/>
-      <c r="U387" s="374"/>
-      <c r="V387" s="374"/>
-      <c r="W387" s="374"/>
-      <c r="X387" s="374"/>
-      <c r="Y387" s="374"/>
-      <c r="Z387" s="374"/>
-      <c r="AA387" s="374"/>
-      <c r="AB387" s="374"/>
-      <c r="AC387" s="374"/>
-      <c r="AE387" s="374" t="s">
+      <c r="Q387" s="381"/>
+      <c r="R387" s="381"/>
+      <c r="S387" s="381"/>
+      <c r="T387" s="381"/>
+      <c r="U387" s="381"/>
+      <c r="V387" s="381"/>
+      <c r="W387" s="381"/>
+      <c r="X387" s="381"/>
+      <c r="Y387" s="381"/>
+      <c r="Z387" s="381"/>
+      <c r="AA387" s="381"/>
+      <c r="AB387" s="381"/>
+      <c r="AC387" s="381"/>
+      <c r="AE387" s="381" t="s">
         <v>365</v>
       </c>
-      <c r="AF387" s="374"/>
-      <c r="AG387" s="374"/>
-      <c r="AH387" s="374"/>
-      <c r="AI387" s="374"/>
-      <c r="AJ387" s="374"/>
-      <c r="AK387" s="374"/>
-      <c r="AL387" s="374"/>
-      <c r="AM387" s="374"/>
-      <c r="AN387" s="374"/>
-      <c r="AO387" s="374"/>
-      <c r="AP387" s="374"/>
-      <c r="AQ387" s="374"/>
-      <c r="AR387" s="374"/>
-      <c r="AT387" s="374" t="s">
+      <c r="AF387" s="381"/>
+      <c r="AG387" s="381"/>
+      <c r="AH387" s="381"/>
+      <c r="AI387" s="381"/>
+      <c r="AJ387" s="381"/>
+      <c r="AK387" s="381"/>
+      <c r="AL387" s="381"/>
+      <c r="AM387" s="381"/>
+      <c r="AN387" s="381"/>
+      <c r="AO387" s="381"/>
+      <c r="AP387" s="381"/>
+      <c r="AQ387" s="381"/>
+      <c r="AR387" s="381"/>
+      <c r="AT387" s="381" t="s">
         <v>362</v>
       </c>
-      <c r="AU387" s="374"/>
-      <c r="AV387" s="374"/>
-      <c r="AW387" s="374"/>
-      <c r="AX387" s="374"/>
-      <c r="AY387" s="374"/>
-      <c r="AZ387" s="374"/>
-      <c r="BA387" s="374"/>
-      <c r="BB387" s="374"/>
-      <c r="BC387" s="374"/>
-      <c r="BD387" s="374"/>
-      <c r="BE387" s="374"/>
-      <c r="BF387" s="374"/>
-      <c r="BG387" s="374"/>
-      <c r="BI387" s="374" t="s">
+      <c r="AU387" s="381"/>
+      <c r="AV387" s="381"/>
+      <c r="AW387" s="381"/>
+      <c r="AX387" s="381"/>
+      <c r="AY387" s="381"/>
+      <c r="AZ387" s="381"/>
+      <c r="BA387" s="381"/>
+      <c r="BB387" s="381"/>
+      <c r="BC387" s="381"/>
+      <c r="BD387" s="381"/>
+      <c r="BE387" s="381"/>
+      <c r="BF387" s="381"/>
+      <c r="BG387" s="381"/>
+      <c r="BI387" s="381" t="s">
         <v>361</v>
       </c>
-      <c r="BJ387" s="374"/>
-      <c r="BK387" s="374"/>
-      <c r="BL387" s="374"/>
-      <c r="BM387" s="374"/>
-      <c r="BN387" s="374"/>
-      <c r="BO387" s="374"/>
-      <c r="BP387" s="374"/>
-      <c r="BQ387" s="374"/>
-      <c r="BR387" s="374"/>
-      <c r="BS387" s="374"/>
-      <c r="BT387" s="374"/>
-      <c r="BU387" s="374"/>
-      <c r="BV387" s="374"/>
+      <c r="BJ387" s="381"/>
+      <c r="BK387" s="381"/>
+      <c r="BL387" s="381"/>
+      <c r="BM387" s="381"/>
+      <c r="BN387" s="381"/>
+      <c r="BO387" s="381"/>
+      <c r="BP387" s="381"/>
+      <c r="BQ387" s="381"/>
+      <c r="BR387" s="381"/>
+      <c r="BS387" s="381"/>
+      <c r="BT387" s="381"/>
+      <c r="BU387" s="381"/>
+      <c r="BV387" s="381"/>
       <c r="BW387" s="107"/>
       <c r="BX387" s="107"/>
       <c r="BY387" s="107"/>
@@ -76684,7 +76711,7 @@
       <c r="P389" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q389" s="298" t="s">
+      <c r="Q389" s="330" t="s">
         <v>10</v>
       </c>
       <c r="R389" s="299" t="s">
@@ -76696,10 +76723,10 @@
       <c r="T389" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="U389" s="332" t="s">
+      <c r="U389" s="362" t="s">
         <v>14</v>
       </c>
-      <c r="V389" s="335" t="s">
+      <c r="V389" s="362" t="s">
         <v>15</v>
       </c>
       <c r="W389" s="299" t="s">
@@ -77114,7 +77141,7 @@
       <c r="R391" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="S391" s="325" t="s">
+      <c r="S391" s="297" t="s">
         <v>35</v>
       </c>
       <c r="T391" s="297" t="s">
@@ -77329,7 +77356,7 @@
       <c r="S392" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T392" s="325" t="s">
+      <c r="T392" s="297" t="s">
         <v>46</v>
       </c>
       <c r="U392" s="297" t="s">
@@ -77941,7 +77968,7 @@
       <c r="J395" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="K395" s="326" t="s">
+      <c r="K395" s="333" t="s">
         <v>73</v>
       </c>
       <c r="L395" s="297">
@@ -77983,7 +78010,7 @@
       <c r="Y395" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Z395" s="326" t="s">
+      <c r="Z395" s="333" t="s">
         <v>73</v>
       </c>
       <c r="AA395" s="297">
@@ -78362,7 +78389,7 @@
       <c r="I397" s="297" t="s">
         <v>75</v>
       </c>
-      <c r="J397" s="297" t="s">
+      <c r="J397" s="333" t="s">
         <v>77</v>
       </c>
       <c r="K397" s="326" t="s">
@@ -78395,7 +78422,7 @@
       <c r="U397" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="V397" s="297" t="s">
+      <c r="V397" s="326" t="s">
         <v>68</v>
       </c>
       <c r="W397" s="297" t="s">
@@ -78577,7 +78604,7 @@
       <c r="J398" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="K398" s="297" t="s">
+      <c r="K398" s="333" t="s">
         <v>79</v>
       </c>
       <c r="L398" s="297">
@@ -78619,7 +78646,7 @@
       <c r="Y398" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="Z398" s="297" t="s">
+      <c r="Z398" s="333" t="s">
         <v>79</v>
       </c>
       <c r="AA398" s="297">
@@ -78989,7 +79016,7 @@
       <c r="F400" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="G400" s="297" t="s">
+      <c r="G400" s="333" t="s">
         <v>87</v>
       </c>
       <c r="H400" s="322" t="s">
@@ -79028,7 +79055,7 @@
       <c r="T400" s="297" t="s">
         <v>54</v>
       </c>
-      <c r="U400" s="297" t="s">
+      <c r="U400" s="333" t="s">
         <v>63</v>
       </c>
       <c r="V400" s="322" t="s">
@@ -79195,13 +79222,13 @@
       <c r="D401" s="302" t="s">
         <v>45</v>
       </c>
-      <c r="E401" s="302" t="s">
+      <c r="E401" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F401" s="302" t="s">
+      <c r="F401" s="361" t="s">
         <v>64</v>
       </c>
-      <c r="G401" s="302" t="s">
+      <c r="G401" s="361" t="s">
         <v>93</v>
       </c>
       <c r="H401" s="323" t="s">
@@ -79427,71 +79454,71 @@
       <c r="BV402" s="205"/>
     </row>
     <row r="403" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="374" t="s">
-        <v>370</v>
-      </c>
-      <c r="B403" s="374"/>
-      <c r="C403" s="374"/>
-      <c r="D403" s="374"/>
-      <c r="E403" s="374"/>
-      <c r="F403" s="374"/>
-      <c r="G403" s="374"/>
-      <c r="H403" s="374"/>
-      <c r="I403" s="374"/>
-      <c r="J403" s="374"/>
-      <c r="K403" s="374"/>
-      <c r="L403" s="374"/>
-      <c r="M403" s="374"/>
-      <c r="N403" s="374"/>
-      <c r="P403" s="374" t="s">
+      <c r="A403" s="381" t="s">
+        <v>388</v>
+      </c>
+      <c r="B403" s="381"/>
+      <c r="C403" s="381"/>
+      <c r="D403" s="381"/>
+      <c r="E403" s="381"/>
+      <c r="F403" s="381"/>
+      <c r="G403" s="381"/>
+      <c r="H403" s="381"/>
+      <c r="I403" s="381"/>
+      <c r="J403" s="381"/>
+      <c r="K403" s="381"/>
+      <c r="L403" s="381"/>
+      <c r="M403" s="381"/>
+      <c r="N403" s="381"/>
+      <c r="P403" s="381" t="s">
         <v>373</v>
       </c>
-      <c r="Q403" s="374"/>
-      <c r="R403" s="374"/>
-      <c r="S403" s="374"/>
-      <c r="T403" s="374"/>
-      <c r="U403" s="374"/>
-      <c r="V403" s="374"/>
-      <c r="W403" s="374"/>
-      <c r="X403" s="374"/>
-      <c r="Y403" s="374"/>
-      <c r="Z403" s="374"/>
-      <c r="AA403" s="374"/>
-      <c r="AB403" s="374"/>
-      <c r="AC403" s="374"/>
-      <c r="AE403" s="374" t="s">
+      <c r="Q403" s="381"/>
+      <c r="R403" s="381"/>
+      <c r="S403" s="381"/>
+      <c r="T403" s="381"/>
+      <c r="U403" s="381"/>
+      <c r="V403" s="381"/>
+      <c r="W403" s="381"/>
+      <c r="X403" s="381"/>
+      <c r="Y403" s="381"/>
+      <c r="Z403" s="381"/>
+      <c r="AA403" s="381"/>
+      <c r="AB403" s="381"/>
+      <c r="AC403" s="381"/>
+      <c r="AE403" s="381" t="s">
         <v>372</v>
       </c>
-      <c r="AF403" s="374"/>
-      <c r="AG403" s="374"/>
-      <c r="AH403" s="374"/>
-      <c r="AI403" s="374"/>
-      <c r="AJ403" s="374"/>
-      <c r="AK403" s="374"/>
-      <c r="AL403" s="374"/>
-      <c r="AM403" s="374"/>
-      <c r="AN403" s="374"/>
-      <c r="AO403" s="374"/>
-      <c r="AP403" s="374"/>
-      <c r="AQ403" s="374"/>
-      <c r="AR403" s="374"/>
+      <c r="AF403" s="381"/>
+      <c r="AG403" s="381"/>
+      <c r="AH403" s="381"/>
+      <c r="AI403" s="381"/>
+      <c r="AJ403" s="381"/>
+      <c r="AK403" s="381"/>
+      <c r="AL403" s="381"/>
+      <c r="AM403" s="381"/>
+      <c r="AN403" s="381"/>
+      <c r="AO403" s="381"/>
+      <c r="AP403" s="381"/>
+      <c r="AQ403" s="381"/>
+      <c r="AR403" s="381"/>
       <c r="AS403" s="205"/>
-      <c r="BA403" s="374" t="s">
+      <c r="BA403" s="381" t="s">
         <v>371</v>
       </c>
-      <c r="BB403" s="374"/>
-      <c r="BC403" s="374"/>
-      <c r="BD403" s="374"/>
-      <c r="BE403" s="374"/>
-      <c r="BF403" s="374"/>
-      <c r="BG403" s="374"/>
-      <c r="BH403" s="374"/>
-      <c r="BI403" s="374"/>
-      <c r="BJ403" s="374"/>
-      <c r="BK403" s="374"/>
-      <c r="BL403" s="374"/>
-      <c r="BM403" s="374"/>
-      <c r="BN403" s="374"/>
+      <c r="BB403" s="381"/>
+      <c r="BC403" s="381"/>
+      <c r="BD403" s="381"/>
+      <c r="BE403" s="381"/>
+      <c r="BF403" s="381"/>
+      <c r="BG403" s="381"/>
+      <c r="BH403" s="381"/>
+      <c r="BI403" s="381"/>
+      <c r="BJ403" s="381"/>
+      <c r="BK403" s="381"/>
+      <c r="BL403" s="381"/>
+      <c r="BM403" s="381"/>
+      <c r="BN403" s="381"/>
     </row>
     <row r="404" spans="1:74" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
@@ -80359,7 +80386,7 @@
       <c r="F409" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G409" s="38" t="s">
+      <c r="G409" s="297" t="s">
         <v>57</v>
       </c>
       <c r="H409" s="297" t="s">
@@ -80533,7 +80560,7 @@
       <c r="G410" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H410" s="38" t="s">
+      <c r="H410" s="297" t="s">
         <v>66</v>
       </c>
       <c r="I410" s="297" t="s">
@@ -80707,7 +80734,7 @@
       <c r="H411" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="I411" s="38" t="s">
+      <c r="I411" s="297" t="s">
         <v>71</v>
       </c>
       <c r="J411" s="297" t="s">
@@ -81881,71 +81908,71 @@
     </row>
     <row r="418" spans="1:66" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="419" spans="1:66" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="367" t="s">
+      <c r="A419" s="394" t="s">
+        <v>390</v>
+      </c>
+      <c r="B419" s="394"/>
+      <c r="C419" s="394"/>
+      <c r="D419" s="394"/>
+      <c r="E419" s="394"/>
+      <c r="F419" s="394"/>
+      <c r="G419" s="394"/>
+      <c r="H419" s="394"/>
+      <c r="I419" s="394"/>
+      <c r="J419" s="394"/>
+      <c r="K419" s="394"/>
+      <c r="L419" s="394"/>
+      <c r="M419" s="394"/>
+      <c r="N419" s="394"/>
+      <c r="O419" s="363"/>
+      <c r="P419" s="394" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q419" s="394"/>
+      <c r="R419" s="394"/>
+      <c r="S419" s="394"/>
+      <c r="T419" s="394"/>
+      <c r="U419" s="394"/>
+      <c r="V419" s="394"/>
+      <c r="W419" s="394"/>
+      <c r="X419" s="394"/>
+      <c r="Y419" s="394"/>
+      <c r="Z419" s="394"/>
+      <c r="AA419" s="394"/>
+      <c r="AB419" s="394"/>
+      <c r="AC419" s="394"/>
+      <c r="AE419" s="368" t="s">
         <v>364</v>
       </c>
-      <c r="B419" s="367"/>
-      <c r="C419" s="367"/>
-      <c r="D419" s="367"/>
-      <c r="E419" s="367"/>
-      <c r="F419" s="367"/>
-      <c r="G419" s="367"/>
-      <c r="H419" s="367"/>
-      <c r="I419" s="367"/>
-      <c r="J419" s="367"/>
-      <c r="K419" s="367"/>
-      <c r="L419" s="367"/>
-      <c r="M419" s="367"/>
-      <c r="N419" s="367"/>
-      <c r="O419" s="205"/>
-      <c r="P419" s="367" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q419" s="367"/>
-      <c r="R419" s="367"/>
-      <c r="S419" s="367"/>
-      <c r="T419" s="367"/>
-      <c r="U419" s="367"/>
-      <c r="V419" s="367"/>
-      <c r="W419" s="367"/>
-      <c r="X419" s="367"/>
-      <c r="Y419" s="367"/>
-      <c r="Z419" s="367"/>
-      <c r="AA419" s="367"/>
-      <c r="AB419" s="367"/>
-      <c r="AC419" s="367"/>
-      <c r="AE419" s="367" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF419" s="367"/>
-      <c r="AG419" s="367"/>
-      <c r="AH419" s="367"/>
-      <c r="AI419" s="367"/>
-      <c r="AJ419" s="367"/>
-      <c r="AK419" s="367"/>
-      <c r="AL419" s="367"/>
-      <c r="AM419" s="367"/>
-      <c r="AN419" s="367"/>
-      <c r="AO419" s="367"/>
-      <c r="AP419" s="367"/>
-      <c r="AQ419" s="367"/>
-      <c r="AR419" s="367"/>
-      <c r="BA419" s="367" t="s">
+      <c r="AF419" s="368"/>
+      <c r="AG419" s="368"/>
+      <c r="AH419" s="368"/>
+      <c r="AI419" s="368"/>
+      <c r="AJ419" s="368"/>
+      <c r="AK419" s="368"/>
+      <c r="AL419" s="368"/>
+      <c r="AM419" s="368"/>
+      <c r="AN419" s="368"/>
+      <c r="AO419" s="368"/>
+      <c r="AP419" s="368"/>
+      <c r="AQ419" s="368"/>
+      <c r="AR419" s="368"/>
+      <c r="BA419" s="368" t="s">
         <v>363</v>
       </c>
-      <c r="BB419" s="367"/>
-      <c r="BC419" s="367"/>
-      <c r="BD419" s="367"/>
-      <c r="BE419" s="367"/>
-      <c r="BF419" s="367"/>
-      <c r="BG419" s="367"/>
-      <c r="BH419" s="367"/>
-      <c r="BI419" s="367"/>
-      <c r="BJ419" s="367"/>
-      <c r="BK419" s="367"/>
-      <c r="BL419" s="367"/>
-      <c r="BM419" s="367"/>
-      <c r="BN419" s="367"/>
+      <c r="BB419" s="368"/>
+      <c r="BC419" s="368"/>
+      <c r="BD419" s="368"/>
+      <c r="BE419" s="368"/>
+      <c r="BF419" s="368"/>
+      <c r="BG419" s="368"/>
+      <c r="BH419" s="368"/>
+      <c r="BI419" s="368"/>
+      <c r="BJ419" s="368"/>
+      <c r="BK419" s="368"/>
+      <c r="BL419" s="368"/>
+      <c r="BM419" s="368"/>
+      <c r="BN419" s="368"/>
     </row>
     <row r="420" spans="1:66" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
@@ -82306,13 +82333,13 @@
       <c r="H422" s="297" t="s">
         <v>28</v>
       </c>
-      <c r="I422" s="297" t="s">
+      <c r="I422" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="J422" s="297" t="s">
+      <c r="J422" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="K422" s="297" t="s">
+      <c r="K422" s="208" t="s">
         <v>31</v>
       </c>
       <c r="L422" s="208" t="s">
@@ -82355,7 +82382,7 @@
       <c r="Y422" s="297" t="s">
         <v>30</v>
       </c>
-      <c r="Z422" s="297" t="s">
+      <c r="Z422" s="208" t="s">
         <v>31</v>
       </c>
       <c r="AA422" s="208" t="s">
@@ -82468,7 +82495,7 @@
       <c r="E423" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F423" s="297" t="s">
+      <c r="F423" s="208" t="s">
         <v>37</v>
       </c>
       <c r="G423" s="44" t="s">
@@ -82633,13 +82660,13 @@
       <c r="C424" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="D424" s="297" t="s">
+      <c r="D424" s="208" t="s">
         <v>36</v>
       </c>
       <c r="E424" s="297" t="s">
         <v>46</v>
       </c>
-      <c r="F424" s="297" t="s">
+      <c r="F424" s="208" t="s">
         <v>47</v>
       </c>
       <c r="G424" s="208" t="s">
@@ -82676,7 +82703,7 @@
       <c r="R424" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="S424" s="297" t="s">
+      <c r="S424" s="208" t="s">
         <v>36</v>
       </c>
       <c r="T424" s="297" t="s">
@@ -82801,7 +82828,7 @@
       <c r="B425" s="301" t="s">
         <v>14</v>
       </c>
-      <c r="C425" s="297" t="s">
+      <c r="C425" s="208" t="s">
         <v>26</v>
       </c>
       <c r="D425" s="208" t="s">
@@ -82972,7 +82999,7 @@
       <c r="B426" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="C426" s="297" t="s">
+      <c r="C426" s="208" t="s">
         <v>27</v>
       </c>
       <c r="D426" s="208" t="s">
@@ -83015,7 +83042,7 @@
       <c r="Q426" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="R426" s="297" t="s">
+      <c r="R426" s="208" t="s">
         <v>27</v>
       </c>
       <c r="S426" s="208" t="s">
@@ -83824,7 +83851,7 @@
       <c r="A431" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B431" s="301" t="s">
+      <c r="B431" s="222" t="s">
         <v>20</v>
       </c>
       <c r="C431" s="208" t="s">
@@ -83995,7 +84022,7 @@
       <c r="A432" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B432" s="301" t="s">
+      <c r="B432" s="222" t="s">
         <v>21</v>
       </c>
       <c r="C432" s="208" t="s">
@@ -84166,7 +84193,7 @@
       <c r="A433" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B433" s="304" t="s">
+      <c r="B433" s="223" t="s">
         <v>22</v>
       </c>
       <c r="C433" s="224" t="s">
@@ -84209,7 +84236,7 @@
       <c r="P433" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Q433" s="304" t="s">
+      <c r="Q433" s="223" t="s">
         <v>22</v>
       </c>
       <c r="R433" s="224" t="s">
@@ -84700,13 +84727,10 @@
     <row r="796" ht="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="AT322:BG322"/>
-    <mergeCell ref="P322:AC322"/>
-    <mergeCell ref="A322:N322"/>
-    <mergeCell ref="A338:N338"/>
-    <mergeCell ref="P338:AC338"/>
-    <mergeCell ref="AE338:AR338"/>
-    <mergeCell ref="AT338:BG338"/>
+    <mergeCell ref="DB338:DO338"/>
+    <mergeCell ref="DB322:DO322"/>
+    <mergeCell ref="BI322:BV322"/>
+    <mergeCell ref="BI338:BV338"/>
     <mergeCell ref="DB286:DO286"/>
     <mergeCell ref="A306:N306"/>
     <mergeCell ref="P306:AC306"/>
@@ -84717,11 +84741,6 @@
     <mergeCell ref="CM306:CZ306"/>
     <mergeCell ref="DB306:DO306"/>
     <mergeCell ref="CM286:CZ286"/>
-    <mergeCell ref="AT387:BG387"/>
-    <mergeCell ref="BA403:BN403"/>
-    <mergeCell ref="AE403:AR403"/>
-    <mergeCell ref="AE419:AR419"/>
-    <mergeCell ref="BA419:BN419"/>
     <mergeCell ref="P403:AC403"/>
     <mergeCell ref="A403:N403"/>
     <mergeCell ref="P387:AC387"/>
@@ -84730,6 +84749,26 @@
     <mergeCell ref="BI387:BV387"/>
     <mergeCell ref="P419:AC419"/>
     <mergeCell ref="A419:N419"/>
+    <mergeCell ref="AT322:BG322"/>
+    <mergeCell ref="P322:AC322"/>
+    <mergeCell ref="A322:N322"/>
+    <mergeCell ref="A338:N338"/>
+    <mergeCell ref="P338:AC338"/>
+    <mergeCell ref="AE338:AR338"/>
+    <mergeCell ref="AT338:BG338"/>
+    <mergeCell ref="AE354:AR354"/>
+    <mergeCell ref="AT354:BG354"/>
+    <mergeCell ref="BI354:BV354"/>
+    <mergeCell ref="AE322:AR322"/>
+    <mergeCell ref="AT387:BG387"/>
+    <mergeCell ref="BA403:BN403"/>
+    <mergeCell ref="AE403:AR403"/>
+    <mergeCell ref="AE419:AR419"/>
+    <mergeCell ref="BA419:BN419"/>
+    <mergeCell ref="BI88:BV88"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="P18:AC18"/>
+    <mergeCell ref="AE18:AR18"/>
     <mergeCell ref="BI256:BV256"/>
     <mergeCell ref="CM354:CZ354"/>
     <mergeCell ref="BX354:CK354"/>
@@ -84750,14 +84789,8 @@
     <mergeCell ref="BX337:CZ337"/>
     <mergeCell ref="A354:N354"/>
     <mergeCell ref="P354:AC354"/>
-    <mergeCell ref="AE354:AR354"/>
-    <mergeCell ref="AT354:BG354"/>
-    <mergeCell ref="BI354:BV354"/>
-    <mergeCell ref="AE322:AR322"/>
-    <mergeCell ref="DB338:DO338"/>
-    <mergeCell ref="DB322:DO322"/>
-    <mergeCell ref="BI322:BV322"/>
-    <mergeCell ref="BI338:BV338"/>
+    <mergeCell ref="A88:N88"/>
+    <mergeCell ref="P88:AC88"/>
     <mergeCell ref="A17:AD17"/>
     <mergeCell ref="AT18:BG18"/>
     <mergeCell ref="A240:AD240"/>
@@ -84765,7 +84798,6 @@
     <mergeCell ref="P241:AC241"/>
     <mergeCell ref="AE179:AR179"/>
     <mergeCell ref="AT179:BG179"/>
-    <mergeCell ref="BI179:BV179"/>
     <mergeCell ref="AE241:AR241"/>
     <mergeCell ref="AT241:BG241"/>
     <mergeCell ref="BC178:BE178"/>
@@ -84778,19 +84810,6 @@
     <mergeCell ref="S178:U178"/>
     <mergeCell ref="V178:X178"/>
     <mergeCell ref="A178:C178"/>
-    <mergeCell ref="BI88:BV88"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="P18:AC18"/>
-    <mergeCell ref="AE18:AR18"/>
-    <mergeCell ref="A87:AD87"/>
-    <mergeCell ref="BI71:BV71"/>
-    <mergeCell ref="BI86:BK86"/>
-    <mergeCell ref="BL86:BN86"/>
-    <mergeCell ref="BO86:BQ86"/>
-    <mergeCell ref="BR86:BT86"/>
-    <mergeCell ref="BU86:BW86"/>
-    <mergeCell ref="A88:N88"/>
-    <mergeCell ref="P88:AC88"/>
     <mergeCell ref="AE34:AR34"/>
     <mergeCell ref="P34:AC34"/>
     <mergeCell ref="A70:N70"/>
@@ -84815,6 +84834,9 @@
     <mergeCell ref="A179:N179"/>
     <mergeCell ref="A225:N225"/>
     <mergeCell ref="A195:N195"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="P70:AC70"/>
+    <mergeCell ref="AE70:AR70"/>
     <mergeCell ref="J178:L178"/>
     <mergeCell ref="M178:O178"/>
     <mergeCell ref="AT178:AV178"/>
@@ -84836,18 +84858,6 @@
     <mergeCell ref="AE148:AR148"/>
     <mergeCell ref="A133:N133"/>
     <mergeCell ref="P133:AC133"/>
-    <mergeCell ref="AE133:AR133"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="AN178:AP178"/>
-    <mergeCell ref="AQ178:AS178"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="AE88:AR88"/>
-    <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A224:C224"/>
     <mergeCell ref="D224:F224"/>
     <mergeCell ref="G224:I224"/>
@@ -84858,6 +84868,14 @@
     <mergeCell ref="AT118:BG118"/>
     <mergeCell ref="BI118:BV118"/>
     <mergeCell ref="BX118:CK118"/>
+    <mergeCell ref="AN178:AP178"/>
+    <mergeCell ref="AQ178:AS178"/>
+    <mergeCell ref="AE133:AR133"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="BI179:BV179"/>
+    <mergeCell ref="AT70:BG70"/>
+    <mergeCell ref="A118:N118"/>
     <mergeCell ref="BX103:CK103"/>
     <mergeCell ref="AT163:BG163"/>
     <mergeCell ref="AT148:BG148"/>
@@ -84867,10 +84885,19 @@
     <mergeCell ref="BI133:BV133"/>
     <mergeCell ref="BX88:CK88"/>
     <mergeCell ref="BI103:BV103"/>
-    <mergeCell ref="P70:AC70"/>
-    <mergeCell ref="AE70:AR70"/>
-    <mergeCell ref="AT70:BG70"/>
-    <mergeCell ref="A118:N118"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="AE88:AR88"/>
+    <mergeCell ref="A87:AD87"/>
+    <mergeCell ref="BI71:BV71"/>
+    <mergeCell ref="BI86:BK86"/>
+    <mergeCell ref="BL86:BN86"/>
+    <mergeCell ref="BO86:BQ86"/>
+    <mergeCell ref="BR86:BT86"/>
+    <mergeCell ref="BU86:BW86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
